--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,24 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="自我介绍" sheetId="14" r:id="rId1"/>
-    <sheet name="0.数学指标" sheetId="9" r:id="rId2"/>
-    <sheet name="0.AI体系" sheetId="10" r:id="rId3"/>
-    <sheet name="0.分类" sheetId="11" r:id="rId4"/>
-    <sheet name="0.预处理" sheetId="2" r:id="rId5"/>
-    <sheet name="基础" sheetId="1" r:id="rId6"/>
-    <sheet name="1.回归" sheetId="4" r:id="rId7"/>
-    <sheet name="2.分类" sheetId="3" r:id="rId8"/>
-    <sheet name="3.聚类" sheetId="7" r:id="rId9"/>
-    <sheet name="评估" sheetId="5" r:id="rId10"/>
-    <sheet name="优化" sheetId="6" r:id="rId11"/>
-    <sheet name="cv2" sheetId="12" r:id="rId12"/>
-    <sheet name="深1" sheetId="13" r:id="rId13"/>
-    <sheet name="推荐算法" sheetId="16" r:id="rId14"/>
-    <sheet name="TF" sheetId="17" r:id="rId15"/>
+    <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
+    <sheet name="0.AI体系" sheetId="10" r:id="rId2"/>
+    <sheet name="0.分析" sheetId="11" r:id="rId3"/>
+    <sheet name="0.预处理" sheetId="2" r:id="rId4"/>
+    <sheet name="基础" sheetId="1" r:id="rId5"/>
+    <sheet name="1.回归" sheetId="4" r:id="rId6"/>
+    <sheet name="2.分类" sheetId="3" r:id="rId7"/>
+    <sheet name="3.聚类" sheetId="7" r:id="rId8"/>
+    <sheet name="评估" sheetId="5" r:id="rId9"/>
+    <sheet name="优化" sheetId="6" r:id="rId10"/>
+    <sheet name="cv2" sheetId="12" r:id="rId11"/>
+    <sheet name="深1" sheetId="13" r:id="rId12"/>
+    <sheet name="推荐算法" sheetId="16" r:id="rId13"/>
+    <sheet name="TF" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,12 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="806">
-  <si>
-    <t>首先我学习了机器学习，针对不同问题使用不同的方法解决，回归问题，的掌握了线性模型及其变种、决策树、集成学习、支持向量机，
-分类问题：逻辑回归、决策树回归、支持向量机、朴素贝页斯。
-聚类问题：k-means、噪声密度、凝聚层次。</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="786">
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -345,114 +339,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">数据预处理
-import </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF7030A0"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>sklearn.preprocessing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> as sp</t>
-    </r>
-  </si>
-  <si>
-    <t>均值移除（列）</t>
-  </si>
-  <si>
-    <t>sp.scale</t>
-  </si>
-  <si>
-    <t>" 每一列的平均值为0" ， "标准差为1"</t>
-  </si>
-  <si>
-    <t>范围缩放（列）</t>
-  </si>
-  <si>
-    <t>sp.MinMaxScaler</t>
-  </si>
-  <si>
-    <t>将每一列的 "最小值" 和 "最大值" 设定为  "相同的区间"
- 最小值一般设置为0，最大值设置为1。</t>
-  </si>
-  <si>
-    <t>归一化 normalize（行）</t>
-  </si>
-  <si>
-    <t>sp.normalize</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 将数值转成  0~1  的占比</t>
-  </si>
-  <si>
-    <t>二值化（不可逆）</t>
-  </si>
-  <si>
-    <t>sp.Binarizer</t>
-  </si>
-  <si>
-    <t>根据一个事先给定的阈值，用0或1 来表示特征值是否超过阈值</t>
-  </si>
-  <si>
-    <t>独热编码（可逆）（列）</t>
-  </si>
-  <si>
-    <t>sp.OneHotEncoder</t>
-  </si>
-  <si>
-    <t>[1 3 2 ]
-[7 5 4 ]
-[1 8 6 ]
-[7 3 9 ]
-第一列：有两个值，1使用10编码，7使用01编码
-第二列：有三个值，3使用100编码，5使用010编码，8使用001编码
-第三列：有四个值，2使用1000编码，4使用0100编码， 6 使用0010编码，9 使用0001编码
-[10 100 1000]
-[01 010 0100]
-[10 001 0010]
-[01 100 0001]</t>
-  </si>
-  <si>
-    <t>稀疏矩阵：只记录是1的位置 ，不记录0的位置。
-(0, 0) 1
-(0, 2) 1
-(0, 5) 1
-(1, 1) 1
-(1, 3) 1</t>
-  </si>
-  <si>
-    <t>标签编码</t>
-  </si>
-  <si>
-    <t>sp.LabelEncoder</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 将"字符串"转成数值类型
-（按字母顺序）</t>
-  </si>
-  <si>
     <t>数据预处理</t>
   </si>
   <si>
@@ -572,6 +458,9 @@
   </si>
   <si>
     <t>稀疏矩阵</t>
+  </si>
+  <si>
+    <t>标签编码</t>
   </si>
   <si>
     <t xml:space="preserve"> 将"字符串"转成数值类型
@@ -1311,7 +1200,7 @@
 epoch = 200     # 超参数：学习轮数</t>
   </si>
   <si>
-    <t>打印出每一轮模参数是怎么更新的
+    <t>打印出每一轮模型参数是怎么更新的
 以及它的损失值是多少，我们可以打印出来
 另外：把w1、w0、loss的值 收集起来，画出来进行观察</t>
   </si>
@@ -6210,197 +6099,133 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="E12"/>
+  <dimension ref="B6:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="108.530973451327" customWidth="1"/>
+    <col min="2" max="2" width="27.8938053097345" customWidth="1"/>
+    <col min="3" max="3" width="15.6283185840708" customWidth="1"/>
+    <col min="4" max="4" width="77.3628318584071" customWidth="1"/>
+    <col min="5" max="5" width="58.1858407079646" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" ht="136" customHeight="1" spans="5:5">
-      <c r="E12" s="165" t="s">
+    <row r="6" ht="40.5" spans="2:5">
+      <c r="B6" s="81" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="81"/>
+      <c r="C7" s="162" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="162" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" ht="27" spans="2:5">
+      <c r="B8" s="81"/>
+      <c r="C8" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="162"/>
+      <c r="E8" s="76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="81"/>
+      <c r="C9" s="162" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="81" spans="2:5">
+      <c r="B10" s="81"/>
+      <c r="C10" s="162" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="162"/>
+      <c r="E10" s="73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="40.5" spans="2:5">
+      <c r="B11" s="81"/>
+      <c r="C11" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="176" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="94.5" spans="2:5">
+      <c r="B12" s="81"/>
+      <c r="C12" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="176" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" ht="58" customHeight="1" spans="2:9">
+      <c r="B13" s="121" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="I13" s="190"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="2:5">
+      <c r="B14" s="121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B6:B12"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.25"/>
-  </sheetPr>
-  <dimension ref="E7:I19"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="24.4336283185841" customWidth="1"/>
-    <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
-    <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
-    <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
-    <col min="9" max="9" width="45.3362831858407" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="76"/>
-      <c r="F7" s="77" t="s">
-        <v>441</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>442</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="76"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="76" t="s">
-        <v>444</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="72" t="s">
-        <v>446</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>447</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>448</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="72"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="H10" s="80" t="s">
-        <v>451</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="81"/>
-      <c r="F11" s="82" t="s">
-        <v>453</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>450</v>
-      </c>
-      <c r="H11" s="80" t="s">
-        <v>454</v>
-      </c>
-      <c r="I11" s="85"/>
-    </row>
-    <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="81"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="77" t="s">
-        <v>455</v>
-      </c>
-      <c r="H12" s="80" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="81"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="84" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="81"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="76" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="81"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="80" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="81"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="76" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="81"/>
-      <c r="F17" s="72" t="s">
-        <v>461</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>462</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="81"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="76" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="81"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="76" t="s">
-        <v>465</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E9:E19"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="I10:I11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D9:G13"/>
@@ -6418,28 +6243,28 @@
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
       <c r="D9" s="72" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="E9" s="73" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="F9" s="73" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="4:7">
       <c r="D10" s="72"/>
       <c r="E10" s="73" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="F10" s="73" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="G10" s="73" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
@@ -6447,31 +6272,31 @@
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
       <c r="G11" s="75" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
       <c r="D12" s="72"/>
       <c r="E12" s="75" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="F12" s="72" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="G12" s="76" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
     </row>
     <row r="13" spans="4:7">
       <c r="D13" s="72"/>
       <c r="E13" s="73" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="F13" s="72" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="G13" s="76" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -6485,7 +6310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G72"/>
@@ -6508,7 +6333,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="31" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6523,7 +6348,7 @@
     <row r="6" ht="70" customHeight="1" spans="1:6">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6532,16 +6357,16 @@
     </row>
     <row r="7" ht="40.5" spans="2:7">
       <c r="B7" s="30" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -6550,10 +6375,10 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="3" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -6562,10 +6387,10 @@
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="4" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -6573,13 +6398,13 @@
     <row r="10" spans="2:7">
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -6588,13 +6413,13 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -6604,58 +6429,58 @@
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="4" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="E13" s="45" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="3" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="31" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
@@ -6663,7 +6488,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
       <c r="E16" s="4" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
@@ -6673,7 +6498,7 @@
       <c r="C17" s="30"/>
       <c r="D17" s="31"/>
       <c r="E17" s="4" t="s">
-        <v>509</v>
+        <v>489</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
@@ -6683,7 +6508,7 @@
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="4" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
@@ -6693,20 +6518,20 @@
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="4" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="30" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>514</v>
+        <v>494</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6715,10 +6540,10 @@
     <row r="21" spans="2:7">
       <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
-        <v>515</v>
+        <v>495</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>516</v>
+        <v>496</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6727,10 +6552,10 @@
     <row r="22" spans="2:7">
       <c r="B22" s="30"/>
       <c r="C22" s="31" t="s">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>518</v>
+        <v>498</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6740,7 +6565,7 @@
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="3" t="s">
-        <v>519</v>
+        <v>499</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6749,11 +6574,11 @@
     <row r="24" ht="27" spans="2:7">
       <c r="B24" s="30"/>
       <c r="C24" s="4" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -6761,7 +6586,7 @@
     <row r="25" spans="2:7">
       <c r="B25" s="30"/>
       <c r="C25" s="46" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="D25" s="47"/>
       <c r="E25" s="47"/>
@@ -6771,7 +6596,7 @@
     <row r="26" spans="2:7">
       <c r="B26" s="30"/>
       <c r="C26" s="46" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="D26" s="47"/>
       <c r="E26" s="47"/>
@@ -6780,35 +6605,35 @@
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="D27" s="48" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="31"/>
       <c r="C28" s="31" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="G28" s="3"/>
     </row>
@@ -6816,26 +6641,26 @@
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
       <c r="D29" s="48" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6844,10 +6669,10 @@
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
       <c r="D31" s="50" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6857,7 +6682,7 @@
       <c r="C32" s="31"/>
       <c r="D32" s="50"/>
       <c r="E32" s="44" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6865,16 +6690,16 @@
     <row r="33" ht="23" customHeight="1" spans="2:7">
       <c r="B33" s="31"/>
       <c r="C33" s="31" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="E33" s="44" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="G33" s="3"/>
     </row>
@@ -6882,10 +6707,10 @@
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
       <c r="D34" s="48" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="3"/>
@@ -6893,16 +6718,16 @@
     <row r="35" spans="2:7">
       <c r="B35" s="31"/>
       <c r="C35" s="31" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="D35" s="48" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="E35" s="51" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -6910,10 +6735,10 @@
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
       <c r="D36" s="48" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="E36" s="51" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="3"/>
@@ -6922,10 +6747,10 @@
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
       <c r="D37" s="48" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="3"/>
@@ -6933,13 +6758,13 @@
     <row r="38" spans="2:7">
       <c r="B38" s="31"/>
       <c r="C38" s="31" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="E38" s="53" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="3"/>
@@ -6947,48 +6772,48 @@
     <row r="39" ht="108" spans="2:7">
       <c r="B39" s="31"/>
       <c r="C39" s="31" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="E39" s="54" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="53" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="4" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
       <c r="B41" s="31"/>
       <c r="C41" s="31" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="D41" s="49" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -6996,10 +6821,10 @@
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
       <c r="D42" s="49" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -7007,34 +6832,34 @@
     <row r="43" ht="33" customHeight="1" spans="2:7">
       <c r="B43" s="31"/>
       <c r="C43" s="4" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="D43" s="49" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
       <c r="B44" s="56" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="C44" s="56" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="D44" s="49" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="F44" s="57" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="G44" s="3"/>
     </row>
@@ -7042,13 +6867,13 @@
       <c r="B45" s="56"/>
       <c r="C45" s="58"/>
       <c r="D45" s="49" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="E45" s="52" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="F45" s="49" t="s">
-        <v>581</v>
+        <v>561</v>
       </c>
       <c r="G45" s="3"/>
     </row>
@@ -7056,7 +6881,7 @@
       <c r="B46" s="56"/>
       <c r="C46" s="58"/>
       <c r="D46" s="49" t="s">
-        <v>582</v>
+        <v>562</v>
       </c>
       <c r="E46" s="52"/>
       <c r="F46" s="49"/>
@@ -7065,7 +6890,7 @@
     <row r="47" ht="54" spans="2:7">
       <c r="B47" s="59"/>
       <c r="C47" s="56" t="s">
-        <v>583</v>
+        <v>563</v>
       </c>
       <c r="D47" s="49"/>
       <c r="E47" s="52"/>
@@ -7074,13 +6899,13 @@
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
       <c r="B48" s="60" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="C48" s="56" t="s">
-        <v>584</v>
+        <v>564</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>585</v>
+        <v>565</v>
       </c>
       <c r="E48" s="52"/>
       <c r="F48" s="57"/>
@@ -7090,7 +6915,7 @@
       <c r="B49" s="60"/>
       <c r="C49" s="56"/>
       <c r="D49" s="57" t="s">
-        <v>586</v>
+        <v>566</v>
       </c>
       <c r="E49" s="52"/>
       <c r="F49" s="57"/>
@@ -7100,10 +6925,10 @@
       <c r="B50" s="60"/>
       <c r="C50" s="56"/>
       <c r="D50" s="57" t="s">
-        <v>587</v>
+        <v>567</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>588</v>
+        <v>568</v>
       </c>
       <c r="F50" s="57"/>
       <c r="G50" s="3"/>
@@ -7118,29 +6943,29 @@
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
       <c r="B52" s="35" t="s">
-        <v>589</v>
+        <v>569</v>
       </c>
       <c r="C52" s="61" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>591</v>
+        <v>571</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>592</v>
+        <v>572</v>
       </c>
       <c r="F52" s="62" t="s">
-        <v>593</v>
+        <v>573</v>
       </c>
       <c r="G52" s="63" t="s">
-        <v>594</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
       <c r="B53" s="36"/>
       <c r="C53" s="64"/>
       <c r="D53" s="3" t="s">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="65"/>
@@ -7150,10 +6975,10 @@
       <c r="B54" s="36"/>
       <c r="C54" s="64"/>
       <c r="D54" s="35" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>597</v>
+        <v>577</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="68"/>
@@ -7163,7 +6988,7 @@
       <c r="C55" s="64"/>
       <c r="D55" s="36"/>
       <c r="E55" s="3" t="s">
-        <v>598</v>
+        <v>578</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
@@ -7173,7 +6998,7 @@
       <c r="C56" s="64"/>
       <c r="D56" s="36"/>
       <c r="E56" s="3" t="s">
-        <v>599</v>
+        <v>579</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -7183,16 +7008,16 @@
       <c r="C57" s="69"/>
       <c r="D57" s="37"/>
       <c r="E57" s="4" t="s">
-        <v>600</v>
+        <v>580</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>601</v>
+        <v>581</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" s="70" t="s">
-        <v>602</v>
+        <v>582</v>
       </c>
       <c r="D62" s="71"/>
       <c r="E62" s="71"/>
@@ -7288,7 +7113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="C18:H95"/>
@@ -7310,16 +7135,16 @@
   <sheetData>
     <row r="18" ht="27" spans="3:8">
       <c r="C18" s="10" t="s">
-        <v>603</v>
+        <v>583</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>604</v>
+        <v>584</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="3"/>
@@ -7327,10 +7152,10 @@
     <row r="19" ht="54" spans="3:8">
       <c r="C19" s="10"/>
       <c r="D19" s="12" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
@@ -7339,10 +7164,10 @@
     <row r="20" spans="3:8">
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
@@ -7351,7 +7176,7 @@
     <row r="21" ht="72" customHeight="1" spans="3:8">
       <c r="C21" s="10"/>
       <c r="D21" s="12" t="s">
-        <v>611</v>
+        <v>591</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="14"/>
@@ -7360,17 +7185,17 @@
     </row>
     <row r="22" ht="32" customHeight="1" spans="3:8">
       <c r="C22" s="14" t="s">
-        <v>612</v>
+        <v>592</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>614</v>
+        <v>594</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -7380,23 +7205,23 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>616</v>
+        <v>596</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" ht="265" customHeight="1" spans="3:8">
       <c r="C24" s="14"/>
       <c r="D24" s="18" t="s">
-        <v>617</v>
+        <v>597</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>618</v>
+        <v>598</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>619</v>
+        <v>599</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -7405,20 +7230,20 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>621</v>
+        <v>601</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" ht="38" customHeight="1" spans="3:8">
       <c r="C26" s="14"/>
       <c r="D26" s="11" t="s">
-        <v>623</v>
+        <v>603</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>624</v>
+        <v>604</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -7427,42 +7252,42 @@
     <row r="27" ht="409" customHeight="1" spans="3:8">
       <c r="C27" s="14"/>
       <c r="D27" s="12" t="s">
-        <v>625</v>
+        <v>605</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>626</v>
+        <v>606</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>627</v>
+        <v>607</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" ht="58" customHeight="1" spans="3:8">
       <c r="C28" s="14"/>
       <c r="D28" s="11" t="s">
-        <v>629</v>
+        <v>609</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>630</v>
+        <v>610</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="21" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>633</v>
+        <v>613</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -7471,13 +7296,13 @@
     <row r="30" spans="3:8">
       <c r="C30" s="21"/>
       <c r="D30" s="22" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>637</v>
+        <v>617</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="3"/>
@@ -7485,26 +7310,26 @@
     <row r="31" ht="85" customHeight="1" spans="3:8">
       <c r="C31" s="21"/>
       <c r="D31" s="22" t="s">
-        <v>632</v>
+        <v>612</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" ht="37" customHeight="1" spans="3:8">
       <c r="C32" s="21"/>
       <c r="D32" s="25" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>642</v>
+        <v>622</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -7514,7 +7339,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="25"/>
       <c r="E33" s="23" t="s">
-        <v>643</v>
+        <v>623</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -7523,10 +7348,10 @@
     <row r="34" ht="83" customHeight="1" spans="3:8">
       <c r="C34" s="21"/>
       <c r="D34" s="22" t="s">
-        <v>644</v>
+        <v>624</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>645</v>
+        <v>625</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -7535,29 +7360,29 @@
     <row r="35" ht="44" customHeight="1" spans="3:8">
       <c r="C35" s="21"/>
       <c r="D35" s="22" t="s">
-        <v>646</v>
+        <v>626</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>647</v>
+        <v>627</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>648</v>
+        <v>628</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" ht="27" spans="3:8">
       <c r="C36" s="21"/>
       <c r="D36" s="27" t="s">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="3"/>
@@ -7566,10 +7391,10 @@
       <c r="C37" s="21"/>
       <c r="D37" s="27"/>
       <c r="E37" s="25" t="s">
-        <v>653</v>
+        <v>633</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>654</v>
+        <v>634</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
@@ -7579,10 +7404,10 @@
       <c r="D38" s="27"/>
       <c r="E38" s="25"/>
       <c r="F38" s="24" t="s">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>656</v>
+        <v>636</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -7591,10 +7416,10 @@
       <c r="D39" s="27"/>
       <c r="E39" s="25"/>
       <c r="F39" s="24" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>658</v>
+        <v>638</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -7603,10 +7428,10 @@
       <c r="D40" s="27"/>
       <c r="E40" s="25"/>
       <c r="F40" s="17" t="s">
-        <v>659</v>
+        <v>639</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>660</v>
+        <v>640</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -7615,20 +7440,20 @@
       <c r="D41" s="27"/>
       <c r="E41" s="25"/>
       <c r="F41" s="17" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>662</v>
+        <v>642</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" ht="34" customHeight="1" spans="3:8">
       <c r="C42" s="21"/>
       <c r="D42" s="22" t="s">
-        <v>663</v>
+        <v>643</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>664</v>
+        <v>644</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -7636,13 +7461,13 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="2" t="s">
-        <v>665</v>
+        <v>645</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>666</v>
+        <v>646</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -7651,10 +7476,10 @@
     <row r="44" ht="53" customHeight="1" spans="3:8">
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
-        <v>668</v>
+        <v>648</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>669</v>
+        <v>649</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -7663,10 +7488,10 @@
     <row r="45" ht="27" spans="3:8">
       <c r="C45" s="2"/>
       <c r="D45" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -7675,10 +7500,10 @@
     <row r="46" ht="54" spans="3:8">
       <c r="C46" s="2"/>
       <c r="D46" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>671</v>
+        <v>651</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -7686,29 +7511,29 @@
     </row>
     <row r="47" ht="99" customHeight="1" spans="3:8">
       <c r="C47" s="2" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>613</v>
+        <v>593</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>673</v>
+        <v>653</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>674</v>
+        <v>654</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>675</v>
+        <v>655</v>
       </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" ht="48" customHeight="1" spans="3:8">
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
-        <v>676</v>
+        <v>656</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>677</v>
+        <v>657</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -7717,13 +7542,13 @@
     <row r="49" ht="34" customHeight="1" spans="3:8">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>678</v>
+        <v>658</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>679</v>
+        <v>659</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>680</v>
+        <v>660</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -7731,13 +7556,13 @@
     <row r="50" ht="34" customHeight="1" spans="3:8">
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>681</v>
+        <v>661</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>682</v>
+        <v>662</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>683</v>
+        <v>663</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -7745,13 +7570,13 @@
     <row r="51" ht="107" customHeight="1" spans="3:8">
       <c r="C51" s="2"/>
       <c r="D51" s="30" t="s">
-        <v>684</v>
+        <v>664</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>685</v>
+        <v>665</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>686</v>
+        <v>666</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -7760,10 +7585,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="30"/>
       <c r="E52" s="3" t="s">
-        <v>687</v>
+        <v>667</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>688</v>
+        <v>668</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -7771,13 +7596,13 @@
     <row r="53" ht="40.5" spans="3:8">
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
-        <v>689</v>
+        <v>669</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>690</v>
+        <v>670</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>691</v>
+        <v>671</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -7785,16 +7610,16 @@
     <row r="54" spans="3:8">
       <c r="C54" s="2"/>
       <c r="D54" s="30" t="s">
-        <v>692</v>
+        <v>672</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>693</v>
+        <v>673</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>694</v>
+        <v>674</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>695</v>
+        <v>675</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -7802,7 +7627,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="30"/>
       <c r="E55" s="3" t="s">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="30"/>
@@ -7812,10 +7637,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="30"/>
       <c r="E56" s="4" t="s">
-        <v>697</v>
+        <v>677</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>698</v>
+        <v>678</v>
       </c>
       <c r="G56" s="30"/>
       <c r="H56" s="3"/>
@@ -7823,13 +7648,13 @@
     <row r="57" ht="77" customHeight="1" spans="3:8">
       <c r="C57" s="2"/>
       <c r="D57" s="32" t="s">
-        <v>699</v>
+        <v>679</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>700</v>
+        <v>680</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>701</v>
+        <v>681</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -7838,10 +7663,10 @@
       <c r="C58" s="2"/>
       <c r="D58" s="32"/>
       <c r="E58" s="4" t="s">
-        <v>702</v>
+        <v>682</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>703</v>
+        <v>683</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -7850,13 +7675,13 @@
       <c r="C59" s="2"/>
       <c r="D59" s="32"/>
       <c r="E59" s="4" t="s">
-        <v>704</v>
+        <v>684</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>705</v>
+        <v>685</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>706</v>
+        <v>686</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -7864,13 +7689,13 @@
       <c r="C60" s="2"/>
       <c r="D60" s="32"/>
       <c r="E60" s="4" t="s">
-        <v>707</v>
+        <v>687</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>708</v>
+        <v>688</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>709</v>
+        <v>689</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -7878,10 +7703,10 @@
       <c r="C61" s="2"/>
       <c r="D61" s="32"/>
       <c r="E61" s="3" t="s">
-        <v>710</v>
+        <v>690</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>711</v>
+        <v>691</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
@@ -7890,13 +7715,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="32"/>
       <c r="E62" s="33" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>713</v>
+        <v>693</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>714</v>
+        <v>694</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -7904,13 +7729,13 @@
       <c r="C63" s="2"/>
       <c r="D63" s="32"/>
       <c r="E63" s="34" t="s">
-        <v>715</v>
+        <v>695</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>716</v>
+        <v>696</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>717</v>
+        <v>697</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -7919,13 +7744,13 @@
       <c r="D64" s="32"/>
       <c r="E64" s="34"/>
       <c r="F64" s="30" t="s">
-        <v>718</v>
+        <v>698</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>719</v>
+        <v>699</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>720</v>
+        <v>700</v>
       </c>
     </row>
     <row r="65" ht="100" customHeight="1" spans="3:8">
@@ -7934,10 +7759,10 @@
       <c r="E65" s="34"/>
       <c r="F65" s="30"/>
       <c r="G65" s="4" t="s">
-        <v>721</v>
+        <v>701</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
     </row>
     <row r="66" ht="54" customHeight="1" spans="3:8">
@@ -7945,37 +7770,37 @@
       <c r="D66" s="32"/>
       <c r="E66" s="34"/>
       <c r="F66" s="3" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>723</v>
+        <v>703</v>
       </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" ht="74" customHeight="1" spans="5:5">
       <c r="E67" t="s">
-        <v>724</v>
+        <v>704</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="3:6">
       <c r="C74" s="2" t="s">
-        <v>725</v>
+        <v>705</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>726</v>
+        <v>706</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>727</v>
+        <v>707</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>728</v>
+        <v>708</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="C75" s="2"/>
       <c r="D75" s="7"/>
       <c r="E75" s="3" t="s">
-        <v>729</v>
+        <v>709</v>
       </c>
       <c r="F75" s="36"/>
     </row>
@@ -7983,33 +7808,33 @@
       <c r="C76" s="2"/>
       <c r="D76" s="9"/>
       <c r="E76" s="3" t="s">
-        <v>730</v>
+        <v>710</v>
       </c>
       <c r="F76" s="37"/>
     </row>
     <row r="77" ht="27" spans="3:7">
       <c r="C77" s="2"/>
       <c r="D77" s="35" t="s">
-        <v>731</v>
+        <v>711</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>732</v>
+        <v>712</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>733</v>
+        <v>713</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>734</v>
+        <v>714</v>
       </c>
     </row>
     <row r="78" spans="3:7">
       <c r="C78" s="2"/>
       <c r="D78" s="36"/>
       <c r="E78" s="3" t="s">
-        <v>735</v>
+        <v>715</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="G78" s="40"/>
     </row>
@@ -8017,7 +7842,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="37"/>
       <c r="E79" s="3" t="s">
-        <v>737</v>
+        <v>717</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="41"/>
@@ -8025,23 +7850,23 @@
     <row r="80" spans="3:6">
       <c r="C80" s="2"/>
       <c r="D80" s="30" t="s">
-        <v>738</v>
+        <v>718</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>739</v>
+        <v>719</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>740</v>
+        <v>720</v>
       </c>
     </row>
     <row r="81" spans="3:6">
       <c r="C81" s="2"/>
       <c r="D81" s="30"/>
       <c r="E81" s="3" t="s">
-        <v>741</v>
+        <v>721</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>742</v>
+        <v>722</v>
       </c>
     </row>
     <row r="82" spans="3:6">
@@ -8049,50 +7874,50 @@
       <c r="D82" s="30"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>743</v>
+        <v>723</v>
       </c>
     </row>
     <row r="83" ht="27" spans="3:6">
       <c r="C83" s="2"/>
       <c r="D83" s="30"/>
       <c r="E83" s="3" t="s">
-        <v>744</v>
+        <v>724</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>745</v>
+        <v>725</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="62" customHeight="1" spans="3:6">
       <c r="C84" s="2"/>
       <c r="D84" s="30" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>747</v>
+        <v>727</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>748</v>
+        <v>728</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="108" spans="3:6">
       <c r="C85" s="2"/>
       <c r="D85" s="3" t="s">
-        <v>749</v>
+        <v>729</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>751</v>
+        <v>731</v>
       </c>
     </row>
     <row r="86" spans="3:6">
       <c r="C86" s="2"/>
       <c r="D86" s="43" t="s">
-        <v>752</v>
+        <v>732</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>753</v>
+        <v>733</v>
       </c>
       <c r="F86" s="3"/>
     </row>
@@ -8100,91 +7925,91 @@
       <c r="C87" s="2"/>
       <c r="D87" s="36"/>
       <c r="E87" s="44" t="s">
-        <v>754</v>
+        <v>734</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>755</v>
+        <v>735</v>
       </c>
     </row>
     <row r="88" ht="74" customHeight="1" spans="3:6">
       <c r="C88" s="2"/>
       <c r="D88" s="36"/>
       <c r="E88" s="44" t="s">
-        <v>756</v>
+        <v>736</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>757</v>
+        <v>737</v>
       </c>
     </row>
     <row r="89" ht="26" customHeight="1" spans="3:6">
       <c r="C89" s="2"/>
       <c r="D89" s="37"/>
       <c r="E89" s="3" t="s">
-        <v>758</v>
+        <v>738</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>759</v>
+        <v>739</v>
       </c>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="2"/>
       <c r="D90" s="35" t="s">
-        <v>760</v>
+        <v>740</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>761</v>
+        <v>741</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>762</v>
+        <v>742</v>
       </c>
     </row>
     <row r="91" spans="3:6">
       <c r="C91" s="2"/>
       <c r="D91" s="36"/>
       <c r="E91" s="3" t="s">
-        <v>763</v>
+        <v>743</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>764</v>
+        <v>744</v>
       </c>
     </row>
     <row r="92" spans="3:6">
       <c r="C92" s="2"/>
       <c r="D92" s="36"/>
       <c r="E92" s="8" t="s">
-        <v>765</v>
+        <v>745</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>766</v>
+        <v>746</v>
       </c>
     </row>
     <row r="93" spans="3:6">
       <c r="C93" s="2"/>
       <c r="D93" s="36"/>
       <c r="E93" s="3" t="s">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>768</v>
+        <v>748</v>
       </c>
     </row>
     <row r="94" spans="3:6">
       <c r="C94" s="2"/>
       <c r="D94" s="37"/>
       <c r="E94" s="3" t="s">
-        <v>769</v>
+        <v>749</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>770</v>
+        <v>750</v>
       </c>
     </row>
     <row r="95" ht="27" spans="3:6">
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>771</v>
+        <v>751</v>
       </c>
       <c r="F95" s="3"/>
     </row>
@@ -8224,7 +8049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B8:G23"/>
@@ -8245,16 +8070,16 @@
   <sheetData>
     <row r="8" ht="40.5" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>772</v>
+        <v>752</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>773</v>
+        <v>753</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>774</v>
+        <v>754</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>775</v>
+        <v>755</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8263,10 +8088,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>776</v>
+        <v>756</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8275,10 +8100,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>778</v>
+        <v>758</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>779</v>
+        <v>759</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8287,10 +8112,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>781</v>
+        <v>761</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8298,16 +8123,16 @@
     <row r="12" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>782</v>
+        <v>762</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>783</v>
+        <v>763</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>784</v>
+        <v>764</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>785</v>
+        <v>765</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -8317,10 +8142,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>786</v>
+        <v>766</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>787</v>
+        <v>767</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8328,10 +8153,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
-        <v>788</v>
+        <v>768</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>789</v>
+        <v>769</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -8341,7 +8166,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>790</v>
+        <v>770</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -8351,7 +8176,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>791</v>
+        <v>771</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -8361,7 +8186,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>792</v>
+        <v>772</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -8371,7 +8196,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>793</v>
+        <v>773</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -8381,7 +8206,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>794</v>
+        <v>774</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -8390,7 +8215,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
-        <v>795</v>
+        <v>775</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
@@ -8399,7 +8224,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>796</v>
+        <v>776</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -8409,7 +8234,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>797</v>
+        <v>777</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8419,7 +8244,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>798</v>
+        <v>778</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8440,7 +8265,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D15:J18"/>
@@ -8456,29 +8281,29 @@
   <sheetData>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>799</v>
+        <v>779</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>800</v>
+        <v>780</v>
       </c>
       <c r="G17" t="s">
-        <v>801</v>
+        <v>781</v>
       </c>
       <c r="H17" t="s">
-        <v>802</v>
+        <v>782</v>
       </c>
       <c r="I17" t="s">
-        <v>803</v>
+        <v>783</v>
       </c>
       <c r="J17" t="s">
-        <v>804</v>
+        <v>784</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>805</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
@@ -8488,135 +8313,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B6:I14"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="27.8938053097345" customWidth="1"/>
-    <col min="3" max="3" width="15.6283185840708" customWidth="1"/>
-    <col min="4" max="4" width="77.3628318584071" customWidth="1"/>
-    <col min="5" max="5" width="58.1858407079646" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="81" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="162" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="162" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="81"/>
-      <c r="C7" s="162" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="162" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="81"/>
-      <c r="C8" s="162" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="81"/>
-      <c r="C9" s="162" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="162" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="76" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="81"/>
-      <c r="C10" s="162" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="73" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="81"/>
-      <c r="C11" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="176" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="81"/>
-      <c r="C12" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="176" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="176" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="I13" s="190"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="121" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B6:B12"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A11:G30"/>
@@ -8637,7 +8333,7 @@
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -8648,7 +8344,7 @@
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -8659,25 +8355,25 @@
     </row>
     <row r="13" ht="27" spans="1:7">
       <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="D13" s="180" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="E13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="F13" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="181" t="s">
+      <c r="G13" s="182" t="s">
         <v>31</v>
-      </c>
-      <c r="G13" s="182" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
@@ -8687,10 +8383,10 @@
       <c r="D14" s="180"/>
       <c r="E14" s="37"/>
       <c r="F14" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
@@ -8699,10 +8395,10 @@
       <c r="C15" s="2"/>
       <c r="D15" s="184"/>
       <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="185" t="s">
         <v>35</v>
-      </c>
-      <c r="F15" s="185" t="s">
-        <v>36</v>
       </c>
       <c r="G15" s="186"/>
     </row>
@@ -8710,10 +8406,10 @@
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -8722,10 +8418,10 @@
     <row r="17" spans="1:7">
       <c r="A17" s="2"/>
       <c r="B17" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>40</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -8736,7 +8432,7 @@
       <c r="A18" s="2"/>
       <c r="B18" s="9"/>
       <c r="C18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -8746,12 +8442,12 @@
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
       <c r="B19" s="187" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="188"/>
       <c r="D19" s="189"/>
       <c r="E19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -8768,17 +8464,17 @@
     <row r="21" spans="1:7">
       <c r="A21" s="2"/>
       <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="G21" s="3"/>
     </row>
@@ -8789,7 +8485,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="7"/>
       <c r="F22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G22" s="3"/>
     </row>
@@ -8800,7 +8496,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="7"/>
       <c r="F23" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G23" s="3"/>
     </row>
@@ -8811,7 +8507,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="7"/>
       <c r="F24" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" s="3"/>
     </row>
@@ -8828,11 +8524,11 @@
       <c r="A26" s="2"/>
       <c r="B26" s="7"/>
       <c r="C26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -8841,11 +8537,11 @@
       <c r="A27" s="2"/>
       <c r="B27" s="7"/>
       <c r="C27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
@@ -8854,7 +8550,7 @@
       <c r="A28" s="2"/>
       <c r="B28" s="7"/>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -8865,7 +8561,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="7"/>
       <c r="C29" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -8876,7 +8572,7 @@
       <c r="A30" s="2"/>
       <c r="B30" s="9"/>
       <c r="C30" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -8904,13 +8600,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:E10"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -8922,78 +8618,78 @@
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
       <c r="B5" s="175" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="D5" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="176" t="s">
+      <c r="E5" s="150" t="s">
         <v>60</v>
-      </c>
-      <c r="E5" s="150" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
       <c r="B6" s="175"/>
       <c r="C6" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="E6" s="176" t="s">
         <v>63</v>
-      </c>
-      <c r="E6" s="176" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
       <c r="B7" s="177" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="178" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="D7" s="179" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="179" t="s">
+      <c r="E7" s="179" t="s">
         <v>67</v>
-      </c>
-      <c r="E7" s="179" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
       <c r="B8" s="177"/>
       <c r="C8" s="178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="178" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="E8" s="179" t="s">
         <v>70</v>
-      </c>
-      <c r="E8" s="179" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
       <c r="B9" s="177"/>
       <c r="C9" s="178" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="E9" s="179" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" s="179" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
       <c r="B10" s="177"/>
       <c r="C10" s="178" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="E10" s="179" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" s="179" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -9006,343 +8702,266 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:L28"/>
+  <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="K7 J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
     <col min="4" max="4" width="13.5752212389381" customWidth="1"/>
     <col min="5" max="5" width="34.3893805309735" customWidth="1"/>
     <col min="6" max="6" width="31.5398230088496" customWidth="1"/>
     <col min="7" max="7" width="34.646017699115" customWidth="1"/>
+    <col min="9" max="9" width="22.1946902654867" customWidth="1"/>
+    <col min="10" max="10" width="36.0265486725664" customWidth="1"/>
     <col min="11" max="11" width="53.1946902654867" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:11">
-      <c r="H1" s="45" t="s">
+    <row r="1" ht="67.5" spans="2:7">
+      <c r="B1" s="166" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="D1" s="167" t="s">
         <v>79</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="E1" s="168" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="168" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" ht="162" spans="8:11">
-      <c r="H2" s="45"/>
-      <c r="I2" s="30" t="s">
+      <c r="G1" s="167" t="s">
         <v>82</v>
       </c>
-      <c r="J2" s="30" t="s">
+    </row>
+    <row r="2" ht="54" spans="2:7">
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="F2" s="167" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="8:11">
-      <c r="H3" s="45"/>
-      <c r="I3" s="30" t="s">
+      <c r="G2" s="168" t="s">
         <v>85</v>
       </c>
-      <c r="J3" s="30" t="s">
+    </row>
+    <row r="3" ht="175.5" spans="2:7">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="167" t="s">
         <v>86</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="E3" s="169"/>
+      <c r="F3" s="167" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="8:11">
-      <c r="H4" s="45"/>
-      <c r="I4" s="30" t="s">
+      <c r="G3" s="167" t="s">
         <v>88</v>
       </c>
-      <c r="J4" s="30" t="s">
+    </row>
+    <row r="4" ht="40.5" spans="2:7">
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="169" t="s">
         <v>89</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="170" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" ht="304" customHeight="1" spans="8:12">
-      <c r="H5" s="45"/>
-      <c r="I5" s="30" t="s">
+      <c r="G4" s="168" t="s">
         <v>91</v>
       </c>
-      <c r="J5" s="30" t="s">
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="K5" s="31" t="s">
+      <c r="E5" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="F5" s="172" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="6" ht="27" spans="8:11">
-      <c r="H6" s="45"/>
-      <c r="I6" s="30" t="s">
+      <c r="G5" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="J6" s="30" t="s">
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="168" t="s">
         <v>96</v>
       </c>
-      <c r="K6" s="31" t="s">
+      <c r="G6" s="167"/>
+    </row>
+    <row r="7" ht="121.5" spans="2:7">
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="173" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="10" ht="58" customHeight="1"/>
-    <row r="11" ht="67.5" spans="2:7">
-      <c r="B11" s="166" t="s">
+      <c r="E7" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="166" t="s">
+      <c r="F7" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="167" t="s">
+      <c r="G7" s="168" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="168" t="s">
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="166"/>
+      <c r="C8" s="166" t="s">
         <v>101</v>
       </c>
-      <c r="F11" s="168" t="s">
+      <c r="D8" s="166"/>
+      <c r="E8" s="174" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="167" t="s">
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="174" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="12" ht="54" spans="2:7">
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="174" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="174" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+    </row>
+    <row r="12" spans="2:7">
       <c r="B12" s="166"/>
       <c r="C12" s="166"/>
-      <c r="D12" s="169"/>
-      <c r="E12" s="168" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="167" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" s="168" t="s">
+      <c r="D12" s="166"/>
+      <c r="E12" s="174" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" ht="175.5" spans="2:7">
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+    </row>
+    <row r="13" spans="2:7">
       <c r="B13" s="166"/>
       <c r="C13" s="166"/>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="166"/>
+      <c r="E13" s="174" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="169"/>
-      <c r="F13" s="167" t="s">
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="166"/>
+      <c r="C14" s="166" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="167" t="s">
+      <c r="D14" s="166" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="14" ht="40.5" spans="2:7">
-      <c r="B14" s="166"/>
-      <c r="C14" s="166"/>
-      <c r="D14" s="169" t="s">
+      <c r="E14" s="174" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="169"/>
-      <c r="F14" s="170" t="s">
+      <c r="F14" s="167" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="168" t="s">
-        <v>112</v>
-      </c>
+      <c r="G14" s="174"/>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="166"/>
       <c r="C15" s="166"/>
-      <c r="D15" s="167" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="171" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="172" t="s">
-        <v>115</v>
-      </c>
-      <c r="G15" s="167" t="s">
-        <v>116</v>
-      </c>
+      <c r="D15" s="166"/>
+      <c r="E15" s="174" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="169"/>
+      <c r="G15" s="174"/>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="166"/>
       <c r="C16" s="166"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="171"/>
-      <c r="F16" s="168" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" s="167"/>
-    </row>
-    <row r="17" ht="121.5" spans="2:7">
+      <c r="D16" s="166" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="174" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="169"/>
+      <c r="G16" s="174"/>
+    </row>
+    <row r="17" spans="2:7">
       <c r="B17" s="166"/>
       <c r="C17" s="166"/>
-      <c r="D17" s="173" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="168" t="s">
-        <v>118</v>
-      </c>
-      <c r="F17" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="168" t="s">
-        <v>120</v>
-      </c>
+      <c r="D17" s="166"/>
+      <c r="E17" s="174" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="169"/>
+      <c r="G17" s="174"/>
     </row>
     <row r="18" spans="2:7">
       <c r="B18" s="166"/>
-      <c r="C18" s="166" t="s">
-        <v>121</v>
-      </c>
+      <c r="C18" s="166"/>
       <c r="D18" s="166"/>
       <c r="E18" s="174" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="174"/>
+        <v>115</v>
+      </c>
+      <c r="F18" s="169"/>
       <c r="G18" s="174"/>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="166"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="174" t="s">
-        <v>123</v>
-      </c>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="174" t="s">
-        <v>124</v>
-      </c>
-      <c r="F20" s="174"/>
-      <c r="G20" s="174"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="174" t="s">
-        <v>125</v>
-      </c>
-      <c r="F21" s="174"/>
-      <c r="G21" s="174"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="166"/>
-      <c r="C22" s="166"/>
-      <c r="D22" s="166"/>
-      <c r="E22" s="174" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="174"/>
-      <c r="G22" s="174"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="166"/>
-      <c r="C23" s="166"/>
-      <c r="D23" s="166"/>
-      <c r="E23" s="174" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="174"/>
-      <c r="G23" s="174"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="166"/>
-      <c r="C24" s="166" t="s">
-        <v>128</v>
-      </c>
-      <c r="D24" s="166" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="174" t="s">
-        <v>130</v>
-      </c>
-      <c r="F24" s="167" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="174"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="166"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="F25" s="169"/>
-      <c r="G25" s="174"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="166"/>
-      <c r="C26" s="166"/>
-      <c r="D26" s="166" t="s">
-        <v>37</v>
-      </c>
-      <c r="E26" s="174" t="s">
-        <v>133</v>
-      </c>
-      <c r="F26" s="169"/>
-      <c r="G26" s="174"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="174" t="s">
-        <v>134</v>
-      </c>
-      <c r="F27" s="169"/>
-      <c r="G27" s="174"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="166"/>
-      <c r="C28" s="166"/>
-      <c r="D28" s="166"/>
-      <c r="E28" s="174" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" s="169"/>
-      <c r="G28" s="174"/>
-    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="B11:B28"/>
-    <mergeCell ref="C11:C17"/>
-    <mergeCell ref="C18:C23"/>
-    <mergeCell ref="C24:C28"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F24:F28"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H1:H6"/>
+  <mergeCells count="13">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B1:B18"/>
+    <mergeCell ref="C1:C7"/>
+    <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G5:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9350,12 +8969,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A22" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -9371,7 +8990,7 @@
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
       <c r="A1" s="146" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B1" s="147"/>
       <c r="C1" s="147"/>
@@ -9379,10 +8998,10 @@
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
       <c r="A2" s="148" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B2" s="149" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C2" s="149"/>
       <c r="D2" s="149"/>
@@ -9390,136 +9009,136 @@
     <row r="3" ht="86" customHeight="1" spans="1:4">
       <c r="A3" s="148"/>
       <c r="B3" s="149" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C3" s="150" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D3" s="149"/>
     </row>
     <row r="4" ht="27" spans="1:4">
       <c r="A4" s="148"/>
       <c r="B4" s="149" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C4" s="149" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D4" s="149"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
       <c r="A5" s="148"/>
       <c r="B5" s="149" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="C5" s="150" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D5" s="149"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
       <c r="A6" s="148"/>
       <c r="B6" s="149" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C6" s="150" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D6" s="149"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
       <c r="A7" s="148"/>
       <c r="B7" s="148" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="C7" s="150" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D7" s="149"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
       <c r="A8" s="148"/>
       <c r="B8" s="148" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="C8" s="150" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D8" s="149"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
       <c r="A9" s="148"/>
       <c r="B9" s="148" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="C9" s="150" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D9" s="150" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
       <c r="A10" s="148"/>
       <c r="B10" s="149" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C10" s="150" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D10" s="149"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
       <c r="A11" s="148"/>
       <c r="B11" s="149" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="C11" s="150" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D11" s="149"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
       <c r="A12" s="151" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="B12" s="151" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C12" s="152" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D12" s="152" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
       <c r="A13" s="153"/>
       <c r="B13" s="153"/>
       <c r="C13" s="152" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D13" s="152" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
       <c r="A14" s="153"/>
       <c r="B14" s="154"/>
       <c r="C14" s="152" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="D14" s="152" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
       <c r="A15" s="153"/>
       <c r="B15" s="151" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C15" s="152" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="D15" s="155"/>
     </row>
@@ -9527,193 +9146,193 @@
       <c r="A16" s="153"/>
       <c r="B16" s="153"/>
       <c r="C16" s="152" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="D16" s="155" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
       <c r="A17" s="153"/>
       <c r="B17" s="153"/>
       <c r="C17" s="152" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D17" s="152" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
       <c r="A18" s="153"/>
       <c r="B18" s="153"/>
       <c r="C18" s="152" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D18" s="152" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
       <c r="A19" s="153"/>
       <c r="B19" s="154"/>
       <c r="C19" s="152" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="D19" s="152" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
       <c r="A20" s="153"/>
       <c r="B20" s="151" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C20" s="152" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D20" s="152" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
       <c r="A21" s="154"/>
       <c r="B21" s="154"/>
       <c r="C21" s="152" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="D21" s="152" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
       <c r="A22" s="156" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="B22" s="157" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="C22" s="158" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D22" s="158" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
       <c r="A23" s="159"/>
       <c r="B23" s="157" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="C23" s="158" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="D23" s="158" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
       <c r="A24" s="159"/>
       <c r="B24" s="157" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="C24" s="158" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="D24" s="158" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="159"/>
       <c r="B25" s="157" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C25" s="158" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="D25" s="158"/>
     </row>
     <row r="26" ht="27" spans="1:4">
       <c r="A26" s="159"/>
       <c r="B26" s="157" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C26" s="158" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="D26" s="158" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
       <c r="A27" s="159"/>
       <c r="B27" s="157" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="C27" s="160" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D27" s="158" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="159"/>
       <c r="B28" s="157" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="C28" s="158" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D28" s="158" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="159"/>
       <c r="B29" s="157" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C29" s="158" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D29" s="158" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
       <c r="A30" s="161"/>
       <c r="B30" s="157" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C30" s="160" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D30" s="158" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
       <c r="A32" s="162" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
       <c r="A34" s="163" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
@@ -9722,24 +9341,24 @@
     <row r="35" ht="73" customHeight="1" spans="1:5">
       <c r="A35" s="164"/>
       <c r="B35" s="76" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="C35" s="76" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="165"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
       <c r="A36" s="162" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="B36" s="73" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="C36" s="73"/>
       <c r="D36" s="162" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="E36" s="165"/>
     </row>
@@ -9761,13 +9380,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:A47"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9781,55 +9400,55 @@
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
       <c r="A1" s="117" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="B1" s="118" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="E1" s="120"/>
     </row>
     <row r="2" ht="27" spans="1:5">
       <c r="A2" s="117"/>
       <c r="B2" s="118" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="C2" s="119" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D2" s="119" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="E2" s="121"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
       <c r="A3" s="117"/>
       <c r="B3" s="118" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="C3" s="122" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="D3" s="119" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="E3" s="121"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="117"/>
       <c r="B4" s="118" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C4" s="123" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="D4" s="119" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="E4" s="121"/>
     </row>
@@ -9837,10 +9456,10 @@
       <c r="A5" s="117"/>
       <c r="B5" s="118"/>
       <c r="C5" s="123" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="E5" s="121"/>
     </row>
@@ -9848,10 +9467,10 @@
       <c r="A6" s="117"/>
       <c r="B6" s="118"/>
       <c r="C6" s="123" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="E6" s="121"/>
     </row>
@@ -9859,38 +9478,38 @@
       <c r="A7" s="117"/>
       <c r="B7" s="118"/>
       <c r="C7" s="123" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="E7" s="119" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
       <c r="A8" s="117"/>
       <c r="B8" s="118"/>
       <c r="C8" s="124" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D8" s="119" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="E8" s="119" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
       <c r="A9" s="117"/>
       <c r="B9" s="118" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="C9" s="124" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="D9" s="119" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="E9" s="119"/>
     </row>
@@ -9898,23 +9517,23 @@
       <c r="A10" s="117"/>
       <c r="B10" s="118"/>
       <c r="C10" s="124" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E10" s="119"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
       <c r="A11" s="117"/>
       <c r="B11" s="118" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C11" s="124" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="E11" s="119"/>
     </row>
@@ -9922,10 +9541,10 @@
       <c r="A12" s="117"/>
       <c r="B12" s="118"/>
       <c r="C12" s="124" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="E12" s="119"/>
     </row>
@@ -9933,67 +9552,67 @@
       <c r="A13" s="117"/>
       <c r="B13" s="118"/>
       <c r="C13" s="124" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="D13" s="119" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="E13" s="119"/>
     </row>
     <row r="14" ht="27" spans="1:5">
       <c r="A14" s="117"/>
       <c r="B14" s="118" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C14" s="124" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D14" s="119" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="E14" s="119"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
       <c r="A15" s="117"/>
       <c r="B15" s="125" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="D15" s="119" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="E15" s="119" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
       <c r="A16" s="117"/>
       <c r="B16" s="126"/>
       <c r="C16" s="124" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="E16" s="119" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
       <c r="A17" s="117"/>
       <c r="B17" s="118" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="D17" s="119" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="E17" s="119" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
@@ -10001,24 +9620,24 @@
       <c r="B18" s="118"/>
       <c r="C18" s="18"/>
       <c r="D18" s="119" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="E18" s="119" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
       <c r="A19" s="127" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="B19" s="128" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C19" s="119" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
       <c r="E19" s="129"/>
     </row>
@@ -10026,25 +9645,25 @@
       <c r="A20" s="127"/>
       <c r="B20" s="130"/>
       <c r="C20" s="119" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="E20" s="131" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
       <c r="A21" s="127"/>
       <c r="B21" s="132" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
       <c r="C21" s="131" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D21" s="119" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="E21" s="133"/>
     </row>
@@ -10053,22 +9672,22 @@
       <c r="B22" s="134"/>
       <c r="C22" s="130"/>
       <c r="D22" s="119" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="E22" s="126"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="135" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="B23" s="136" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C23" s="119" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="E23" s="117"/>
     </row>
@@ -10076,51 +9695,51 @@
       <c r="A24" s="137"/>
       <c r="B24" s="138"/>
       <c r="C24" s="119" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="E24" s="117"/>
     </row>
     <row r="25" ht="27" spans="1:5">
       <c r="A25" s="137"/>
       <c r="B25" s="139" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C25" s="119" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="E25" s="117"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
       <c r="A26" s="137"/>
       <c r="B26" s="139" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C26" s="119" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="E26" s="118" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="137"/>
       <c r="B27" s="136" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C27" s="119" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="E27" s="117"/>
     </row>
@@ -10128,20 +9747,20 @@
       <c r="A28" s="137"/>
       <c r="B28" s="138"/>
       <c r="C28" s="119" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="E28" s="117"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
       <c r="A29" s="137"/>
       <c r="B29" s="18" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="117"/>
@@ -10149,26 +9768,26 @@
     <row r="30" ht="94.5" spans="1:5">
       <c r="A30" s="137"/>
       <c r="B30" s="18" t="s">
-        <v>299</v>
+        <v>279</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="E30" s="117"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
       <c r="A31" s="137"/>
       <c r="B31" s="118" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="C31" s="121" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="E31" s="117"/>
     </row>
@@ -10176,10 +9795,10 @@
       <c r="A32" s="137"/>
       <c r="B32" s="118"/>
       <c r="C32" s="118" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>306</v>
+        <v>286</v>
       </c>
       <c r="E32" s="117"/>
     </row>
@@ -10188,7 +9807,7 @@
       <c r="B33" s="118"/>
       <c r="C33" s="118"/>
       <c r="D33" s="18" t="s">
-        <v>307</v>
+        <v>287</v>
       </c>
       <c r="E33" s="117"/>
     </row>
@@ -10197,7 +9816,7 @@
       <c r="B34" s="118"/>
       <c r="C34" s="118"/>
       <c r="D34" s="18" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="E34" s="117"/>
     </row>
@@ -10206,56 +9825,56 @@
       <c r="B35" s="118"/>
       <c r="C35" s="118"/>
       <c r="D35" s="18" t="s">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="E35" s="117"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
       <c r="A36" s="137"/>
       <c r="B36" s="140" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>311</v>
+        <v>291</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="E36" s="118"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="137"/>
       <c r="B37" s="118" t="s">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="C37" s="121" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>315</v>
+        <v>295</v>
       </c>
       <c r="E37" s="117"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="137"/>
       <c r="B38" s="50" t="s">
-        <v>316</v>
+        <v>296</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>317</v>
+        <v>297</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>318</v>
+        <v>298</v>
       </c>
       <c r="E38" s="117"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="137"/>
       <c r="B39" s="118" t="s">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="C39" s="121" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="117"/>
@@ -10263,23 +9882,23 @@
     <row r="40" ht="40.5" spans="1:5">
       <c r="A40" s="137"/>
       <c r="B40" s="18" t="s">
-        <v>321</v>
+        <v>301</v>
       </c>
       <c r="C40" s="119" t="s">
-        <v>322</v>
+        <v>302</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>323</v>
+        <v>303</v>
       </c>
       <c r="E40" s="117"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
       <c r="A41" s="137"/>
       <c r="B41" s="18" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C41" s="119" t="s">
-        <v>325</v>
+        <v>305</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="117"/>
@@ -10287,20 +9906,20 @@
     <row r="42" ht="176" customHeight="1" spans="1:5">
       <c r="A42" s="137"/>
       <c r="B42" s="18" t="s">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="C42" s="141" t="s">
-        <v>327</v>
+        <v>307</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="117"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
       <c r="A43" s="135" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="B43" s="142" t="s">
-        <v>329</v>
+        <v>309</v>
       </c>
       <c r="C43" s="143"/>
       <c r="D43" s="18"/>
@@ -10309,16 +9928,16 @@
     <row r="44" ht="94" customHeight="1" spans="1:5">
       <c r="A44" s="137"/>
       <c r="B44" s="18" t="s">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C44" s="144" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>332</v>
+        <v>312</v>
       </c>
       <c r="E44" s="141" t="s">
-        <v>333</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
@@ -10326,25 +9945,25 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="E45" s="123" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
       <c r="A46" s="137"/>
       <c r="B46" s="118" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C46" s="144" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>338</v>
+        <v>318</v>
       </c>
       <c r="E46" s="141" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
@@ -10352,10 +9971,10 @@
       <c r="B47" s="118"/>
       <c r="C47" s="118"/>
       <c r="D47" s="19" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="E47" s="141" t="s">
-        <v>341</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -10389,7 +10008,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D39"/>
@@ -10408,130 +10027,130 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
       <c r="A1" s="91" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>343</v>
+        <v>323</v>
       </c>
       <c r="C1" s="93" t="s">
-        <v>344</v>
+        <v>324</v>
       </c>
       <c r="D1" s="92"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="94"/>
       <c r="B2" s="95" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="C2" s="96" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="D2" s="96"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
       <c r="A3" s="94"/>
       <c r="B3" s="95" t="s">
-        <v>347</v>
+        <v>327</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="D3" s="96"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
       <c r="A4" s="94"/>
       <c r="B4" s="95" t="s">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="C4" s="97" t="s">
-        <v>350</v>
+        <v>330</v>
       </c>
       <c r="D4" s="96"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
       <c r="A5" s="94"/>
       <c r="B5" s="95" t="s">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="C5" s="93" t="s">
-        <v>352</v>
+        <v>332</v>
       </c>
       <c r="D5" s="96"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
       <c r="A6" s="98"/>
       <c r="B6" s="95" t="s">
-        <v>353</v>
+        <v>333</v>
       </c>
       <c r="C6" s="93" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="100" t="s">
-        <v>355</v>
+        <v>335</v>
       </c>
       <c r="B7" s="101" t="s">
-        <v>356</v>
+        <v>336</v>
       </c>
       <c r="C7" s="93" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>358</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="100"/>
       <c r="B8" s="103"/>
       <c r="C8" s="93" t="s">
-        <v>359</v>
+        <v>339</v>
       </c>
       <c r="D8" s="92" t="s">
-        <v>360</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="100"/>
       <c r="B9" s="103"/>
       <c r="C9" s="93" t="s">
-        <v>361</v>
+        <v>341</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>362</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="100"/>
       <c r="B10" s="104"/>
       <c r="C10" s="93" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>364</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
       <c r="A11" s="100"/>
       <c r="B11" s="92" t="s">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="C11" s="93" t="s">
-        <v>366</v>
+        <v>346</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>367</v>
+        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="100"/>
       <c r="B12" s="95"/>
       <c r="C12" s="92" t="s">
-        <v>368</v>
+        <v>348</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>357</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
@@ -10539,7 +10158,7 @@
       <c r="B13" s="95"/>
       <c r="C13" s="95"/>
       <c r="D13" s="106" t="s">
-        <v>369</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
@@ -10547,7 +10166,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
       <c r="D14" s="106" t="s">
-        <v>370</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
@@ -10555,36 +10174,36 @@
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
       <c r="D15" s="105" t="s">
-        <v>371</v>
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="100"/>
       <c r="B16" s="95"/>
       <c r="C16" s="96" t="s">
-        <v>305</v>
+        <v>285</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>372</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="100"/>
       <c r="B17" s="101" t="s">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="C17" s="95" t="s">
-        <v>373</v>
+        <v>353</v>
       </c>
       <c r="D17" s="107" t="s">
-        <v>374</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="100"/>
       <c r="B18" s="103"/>
       <c r="C18" s="95" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="D18" s="108"/>
     </row>
@@ -10592,7 +10211,7 @@
       <c r="A19" s="100"/>
       <c r="B19" s="103"/>
       <c r="C19" s="95" t="s">
-        <v>375</v>
+        <v>355</v>
       </c>
       <c r="D19" s="108"/>
     </row>
@@ -10600,41 +10219,41 @@
       <c r="A20" s="100"/>
       <c r="B20" s="104"/>
       <c r="C20" s="95" t="s">
-        <v>376</v>
+        <v>356</v>
       </c>
       <c r="D20" s="109"/>
     </row>
     <row r="21" ht="81" spans="1:4">
       <c r="A21" s="110"/>
       <c r="B21" s="92" t="s">
-        <v>377</v>
+        <v>357</v>
       </c>
       <c r="C21" s="96" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="D21" s="92" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
       <c r="A22" s="100" t="s">
-        <v>380</v>
+        <v>360</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>381</v>
+        <v>361</v>
       </c>
       <c r="C22" s="93" t="s">
-        <v>382</v>
+        <v>362</v>
       </c>
       <c r="D22" s="92"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
       <c r="A23" s="100"/>
       <c r="B23" s="112" t="s">
-        <v>383</v>
+        <v>363</v>
       </c>
       <c r="C23" s="93" t="s">
-        <v>384</v>
+        <v>364</v>
       </c>
       <c r="D23" s="93"/>
     </row>
@@ -10642,170 +10261,170 @@
       <c r="A24" s="100"/>
       <c r="B24" s="110"/>
       <c r="C24" s="93" t="s">
-        <v>385</v>
+        <v>365</v>
       </c>
       <c r="D24" s="93"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
       <c r="A25" s="100"/>
       <c r="B25" s="92" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="C25" s="113" t="s">
-        <v>387</v>
+        <v>367</v>
       </c>
       <c r="D25" s="114"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="100"/>
       <c r="B26" s="92" t="s">
-        <v>388</v>
+        <v>368</v>
       </c>
       <c r="C26" s="93"/>
       <c r="D26" s="93" t="s">
-        <v>389</v>
+        <v>369</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="100"/>
       <c r="B27" s="101" t="s">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="C27" s="97" t="s">
-        <v>391</v>
+        <v>371</v>
       </c>
       <c r="D27" s="93" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
       <c r="A28" s="100"/>
       <c r="B28" s="103"/>
       <c r="C28" s="97" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D28" s="93" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
       <c r="A29" s="100"/>
       <c r="B29" s="104"/>
       <c r="C29" s="97" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="D29" s="93" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
       <c r="A30" s="110"/>
       <c r="B30" s="92" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C30" s="93" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D30" s="93"/>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="100" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="B31" s="112" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="C31" s="93" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="D31" s="93"/>
     </row>
     <row r="32" ht="54" spans="1:4">
       <c r="A32" s="100"/>
       <c r="B32" s="112" t="s">
-        <v>402</v>
+        <v>382</v>
       </c>
       <c r="C32" s="93" t="s">
-        <v>403</v>
+        <v>383</v>
       </c>
       <c r="D32" s="93" t="s">
-        <v>404</v>
+        <v>384</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
       <c r="A33" s="100"/>
       <c r="B33" s="100"/>
       <c r="C33" s="93" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="D33" s="93" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
       <c r="A34" s="100"/>
       <c r="B34" s="100"/>
       <c r="C34" s="93" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="D34" s="93" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
       <c r="A35" s="100"/>
       <c r="B35" s="112" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C35" s="93" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="D35" s="93" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
       <c r="A36" s="100"/>
       <c r="B36" s="112" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="C36" s="93" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="D36" s="93" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
       <c r="A37" s="100"/>
       <c r="B37" s="112" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="C37" s="115" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="D37" s="116"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
       <c r="A38" s="100"/>
       <c r="B38" s="112" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
       <c r="A39" s="110"/>
       <c r="B39" s="110"/>
       <c r="C39" s="97" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="D39" s="97" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -10831,7 +10450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I8"/>
@@ -10852,16 +10471,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="87" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>425</v>
+        <v>405</v>
       </c>
       <c r="E1" s="48"/>
       <c r="F1" s="48"/>
@@ -10870,7 +10489,7 @@
       <c r="A2" s="87"/>
       <c r="B2" s="88"/>
       <c r="C2" s="48" t="s">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="D2" s="48"/>
       <c r="E2" s="48"/>
@@ -10880,7 +10499,7 @@
       <c r="A3" s="87"/>
       <c r="B3" s="88"/>
       <c r="C3" s="48" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="D3" s="48"/>
       <c r="E3" s="48"/>
@@ -10890,7 +10509,7 @@
       <c r="A4" s="87"/>
       <c r="B4" s="88"/>
       <c r="C4" s="48" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="48"/>
@@ -10899,19 +10518,19 @@
     <row r="5" ht="226" customHeight="1" spans="1:9">
       <c r="A5" s="87"/>
       <c r="B5" s="88" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="C5" s="89" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="E5" s="87" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="F5" s="90" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -10919,10 +10538,10 @@
       <c r="A6" s="87"/>
       <c r="B6" s="88"/>
       <c r="C6" s="89" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="E6" s="89"/>
       <c r="F6" s="88"/>
@@ -10931,22 +10550,22 @@
       <c r="A7" s="87"/>
       <c r="B7" s="88"/>
       <c r="C7" s="89" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="D7" s="89" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="E7" s="87" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="F7" s="89" t="s">
-        <v>439</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
       <c r="A8" s="87"/>
       <c r="B8" s="50" t="s">
-        <v>440</v>
+        <v>420</v>
       </c>
       <c r="C8" s="50"/>
       <c r="D8" s="50"/>
@@ -10964,4 +10583,172 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.25"/>
+  </sheetPr>
+  <dimension ref="E7:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="24.4336283185841" customWidth="1"/>
+    <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
+    <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
+    <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
+    <col min="9" max="9" width="45.3362831858407" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" ht="40.5" spans="5:8">
+      <c r="E7" s="76"/>
+      <c r="F7" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>422</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" ht="48" customHeight="1" spans="5:8">
+      <c r="E8" s="76"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="76" t="s">
+        <v>424</v>
+      </c>
+      <c r="H8" s="76" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="9" ht="114" customHeight="1" spans="5:8">
+      <c r="E9" s="72" t="s">
+        <v>426</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>427</v>
+      </c>
+      <c r="G9" s="76" t="s">
+        <v>428</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="5:9">
+      <c r="E10" s="72"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="H10" s="80" t="s">
+        <v>431</v>
+      </c>
+      <c r="I10" s="82" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="5:9">
+      <c r="E11" s="81"/>
+      <c r="F11" s="82" t="s">
+        <v>433</v>
+      </c>
+      <c r="G11" s="79" t="s">
+        <v>430</v>
+      </c>
+      <c r="H11" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="I11" s="85"/>
+    </row>
+    <row r="12" ht="54" spans="5:8">
+      <c r="E12" s="81"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="H12" s="80" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" ht="121.5" spans="5:8">
+      <c r="E13" s="81"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="84" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" ht="79" customHeight="1" spans="5:8">
+      <c r="E14" s="81"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="76" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1" spans="5:8">
+      <c r="E15" s="81"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="80" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" ht="55" customHeight="1" spans="5:8">
+      <c r="E16" s="81"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="76" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="5:8">
+      <c r="E17" s="81"/>
+      <c r="F17" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="G17" s="72" t="s">
+        <v>442</v>
+      </c>
+      <c r="H17" s="76" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" ht="81" spans="5:8">
+      <c r="E18" s="81"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="76" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="5:8">
+      <c r="E19" s="81"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="76" t="s">
+        <v>445</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E9:E19"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="I10:I11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -1579,9 +1579,6 @@
         </t>
   </si>
   <si>
-    <t>基于-“决策树”-集成学习</t>
-  </si>
-  <si>
     <t>就算是 决策树 ，效果也不是很好，因为它是弱模型，预测结果不会很好
 单个模型得到的预测结果总是片面的</t>
   </si>
@@ -1590,14 +1587,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>划分标准：</t>
     </r>
     <r>
@@ -1846,6 +1835,9 @@
   </si>
   <si>
     <t>与回归问题时是相同的。</t>
+  </si>
+  <si>
+    <t>基于-“决策树”-集成学习</t>
   </si>
   <si>
     <t>AdaBoost</t>
@@ -5177,7 +5169,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="191">
+  <cellXfs count="192">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5724,10 +5716,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6204,7 +6199,7 @@
       </c>
       <c r="D13" s="118"/>
       <c r="E13" s="118"/>
-      <c r="I13" s="190"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
       <c r="B14" s="121" t="s">
@@ -8317,8 +8312,8 @@
   <sheetPr/>
   <dimension ref="A11:G30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8385,7 +8380,7 @@
       <c r="F14" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="184" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8393,14 +8388,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="184"/>
+      <c r="D15" s="185"/>
       <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="185" t="s">
+      <c r="F15" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="186"/>
+      <c r="G15" s="187"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="2"/>
@@ -8441,11 +8436,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="187" t="s">
+      <c r="B19" s="188" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="189"/>
+      <c r="C19" s="189"/>
+      <c r="D19" s="190"/>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
@@ -9385,8 +9380,8 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="B20" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9916,10 +9911,10 @@
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
       <c r="A43" s="135" t="s">
+        <v>195</v>
+      </c>
+      <c r="B43" s="142" t="s">
         <v>308</v>
-      </c>
-      <c r="B43" s="142" t="s">
-        <v>309</v>
       </c>
       <c r="C43" s="143"/>
       <c r="D43" s="18"/>
@@ -9928,16 +9923,16 @@
     <row r="44" ht="94" customHeight="1" spans="1:5">
       <c r="A44" s="137"/>
       <c r="B44" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C44" s="144" t="s">
         <v>310</v>
       </c>
-      <c r="C44" s="144" t="s">
+      <c r="D44" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="E44" s="141" t="s">
         <v>312</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
@@ -9945,25 +9940,25 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="E45" s="123" t="s">
         <v>314</v>
-      </c>
-      <c r="E45" s="123" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
       <c r="A46" s="137"/>
       <c r="B46" s="118" t="s">
+        <v>315</v>
+      </c>
+      <c r="C46" s="144" t="s">
         <v>316</v>
       </c>
-      <c r="C46" s="144" t="s">
+      <c r="D46" s="18" t="s">
         <v>317</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="E46" s="141" t="s">
         <v>318</v>
-      </c>
-      <c r="E46" s="141" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
@@ -9971,10 +9966,10 @@
       <c r="B47" s="118"/>
       <c r="C47" s="118"/>
       <c r="D47" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="E47" s="141" t="s">
         <v>320</v>
-      </c>
-      <c r="E47" s="141" t="s">
-        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -10013,8 +10008,8 @@
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10027,130 +10022,130 @@
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
       <c r="A1" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="B1" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="C1" s="93" t="s">
         <v>323</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>324</v>
       </c>
       <c r="D1" s="92"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
       <c r="A2" s="94"/>
       <c r="B2" s="95" t="s">
+        <v>324</v>
+      </c>
+      <c r="C2" s="96" t="s">
         <v>325</v>
-      </c>
-      <c r="C2" s="96" t="s">
-        <v>326</v>
       </c>
       <c r="D2" s="96"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
       <c r="A3" s="94"/>
       <c r="B3" s="95" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="93" t="s">
         <v>327</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>328</v>
       </c>
       <c r="D3" s="96"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
       <c r="A4" s="94"/>
       <c r="B4" s="95" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" s="97" t="s">
         <v>329</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>330</v>
       </c>
       <c r="D4" s="96"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
       <c r="A5" s="94"/>
       <c r="B5" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="93" t="s">
         <v>331</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>332</v>
       </c>
       <c r="D5" s="96"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
       <c r="A6" s="98"/>
       <c r="B6" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="C6" s="93" t="s">
         <v>333</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>334</v>
       </c>
       <c r="D6" s="99"/>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="100" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="101" t="s">
         <v>335</v>
       </c>
-      <c r="B7" s="101" t="s">
+      <c r="C7" s="93" t="s">
         <v>336</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="D7" s="102" t="s">
         <v>337</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="100"/>
       <c r="B8" s="103"/>
       <c r="C8" s="93" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="92" t="s">
         <v>339</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="100"/>
       <c r="B9" s="103"/>
       <c r="C9" s="93" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" s="95" t="s">
         <v>341</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="100"/>
       <c r="B10" s="104"/>
       <c r="C10" s="93" t="s">
+        <v>342</v>
+      </c>
+      <c r="D10" s="95" t="s">
         <v>343</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
       <c r="A11" s="100"/>
       <c r="B11" s="92" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="93" t="s">
         <v>345</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="D11" s="92" t="s">
         <v>346</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="100"/>
       <c r="B12" s="95"/>
       <c r="C12" s="92" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
@@ -10158,7 +10153,7 @@
       <c r="B13" s="95"/>
       <c r="C13" s="95"/>
       <c r="D13" s="106" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
@@ -10166,7 +10161,7 @@
       <c r="B14" s="95"/>
       <c r="C14" s="95"/>
       <c r="D14" s="106" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
@@ -10174,7 +10169,7 @@
       <c r="B15" s="95"/>
       <c r="C15" s="95"/>
       <c r="D15" s="105" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -10184,13 +10179,13 @@
         <v>285</v>
       </c>
       <c r="D16" s="92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="100"/>
       <c r="B17" s="101" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="C17" s="95" t="s">
         <v>353</v>
@@ -10203,7 +10198,7 @@
       <c r="A18" s="100"/>
       <c r="B18" s="103"/>
       <c r="C18" s="95" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D18" s="108"/>
     </row>

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
@@ -1587,6 +1587,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>划分标准：</t>
     </r>
     <r>
@@ -2242,14 +2250,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>（针对每一种类别）</t>
     </r>
     <r>
@@ -9380,7 +9380,7 @@
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A42" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
@@ -10008,8 +10008,8 @@
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10587,8 +10587,8 @@
   </sheetPr>
   <dimension ref="E7:I19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
@@ -12,11 +12,11 @@
     <sheet name="0.分析" sheetId="11" r:id="rId3"/>
     <sheet name="0.预处理" sheetId="2" r:id="rId4"/>
     <sheet name="基础" sheetId="1" r:id="rId5"/>
-    <sheet name="1.回归" sheetId="4" r:id="rId6"/>
-    <sheet name="2.分类" sheetId="3" r:id="rId7"/>
-    <sheet name="3.聚类" sheetId="7" r:id="rId8"/>
-    <sheet name="评估" sheetId="5" r:id="rId9"/>
-    <sheet name="优化" sheetId="6" r:id="rId10"/>
+    <sheet name="优化" sheetId="6" r:id="rId6"/>
+    <sheet name="评估" sheetId="5" r:id="rId7"/>
+    <sheet name="1.回归" sheetId="4" r:id="rId8"/>
+    <sheet name="2.分类" sheetId="3" r:id="rId9"/>
+    <sheet name="3.聚类" sheetId="7" r:id="rId10"/>
     <sheet name="cv2" sheetId="12" r:id="rId11"/>
     <sheet name="深1" sheetId="13" r:id="rId12"/>
     <sheet name="推荐算法" sheetId="16" r:id="rId13"/>
@@ -952,6 +952,359 @@
     <t>它不止针对 “决策树”，其它模型同样适用。</t>
   </si>
   <si>
+    <t>模型优化</t>
+  </si>
+  <si>
+    <t>验证曲线
+（其中封装了交叉验证法）
+ms.validation_curve</t>
+  </si>
+  <si>
+    <t>寻找最优的模型超参数,
+"验证曲线"是指根据不同的评估系数，来评估模型的优劣.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>但是：两个最优参数放在一起，不一定是最优的参数，
+如以， 验证曲线</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一次只能验证一个参数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>， 所以 "验证曲线" 的弊端也就是这个</t>
+    </r>
+  </si>
+  <si>
+    <t>学习曲线
+（它里面也使用了：
+交叉验证法）</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "学习曲线"是用来评估 "不同大小的训练集"下模型的优劣程度,
+它可以得到 训练集和测试集的占比。
+它里面也有训练预测评估。
+</t>
+  </si>
+  <si>
+    <t>（1）可能给上全部数据都还不够</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">（1）样本数量均衡化:样本上采样。
+（2）样本数量均衡化:样本下采样。
+（3）class_weight='balanced'
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（4）置信概率：
+print(model.predict_proba(test_x))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">网格搜索
+（其中也包括交叉验证）
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（一般都使用网络搜索）</t>
+    </r>
+  </si>
+  <si>
+    <t>把所有参数列出来一个一个试，再配合交叉验证。
+（拿到的一定是最好的、缺点是比较慢）</t>
+  </si>
+  <si>
+    <t>model = ms.GridSearchCV(svm.SVC(), params, cv=5)  # 创建网格搜索对象
+  #GridSearchCV 网格、搜索、带交叉验证
+model.fit(x, y)  # 训练，在训练的时候，才会开始寻找参数</t>
+  </si>
+  <si>
+    <t>随机搜索-一般不使用</t>
+  </si>
+  <si>
+    <t>因为它不能保证精度</t>
+  </si>
+  <si>
+    <t>在搜索范围内随机选择样本点。</t>
+  </si>
+  <si>
+    <t>聚类业务</t>
+  </si>
+  <si>
+    <t>内密外疏</t>
+  </si>
+  <si>
+    <t>使用 轮廓系数 系数来衡量
+S(i) = (b(i) - a(i)) / max{a(i),b(i)}
+a(i)越小越好，b(i)越大越好</t>
+  </si>
+  <si>
+    <t>轮廓系数</t>
+  </si>
+  <si>
+    <t>score = sm.silhouette_score
+取值范围是 -1 到 1
+这个值大于0就算比较合理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">评估模型
+sklearn.metrics as sm </t>
+  </si>
+  <si>
+    <t>回归业务</t>
+  </si>
+  <si>
+    <t>sklearn.metrics
+评估模型的好坏
+r2_score
+分类问题的"损失函数"</t>
+  </si>
+  <si>
+    <t>（1）平均绝对误差-MAE ：
+单个 "观测值" 与 "预测值" 的偏差的绝对值的平均
+（2）均方误差-MSE
+单个 "样本" 到"预测值" 的平方平均值；
+（3）中位数绝对偏差-MAD
+与数据中值绝对偏差的中值；
+（4）r2_score得分
+趋向于1，模型越好；趋向于0，模型越差.</t>
+  </si>
+  <si>
+    <t>损失函数：</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+用于衡量 “模型的预测值” 与 “真实值” 之间的 “不一致程度”。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如：均方误差。</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> "回归问题" 里面是要 "越接近越好"。
+"分类问题" 里面， "对了" 就好，"不对" 就不好。</t>
+  </si>
+  <si>
+    <t>分类业务</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+如：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"交叉熵"：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="9" tint="-0.25"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"交叉熵"  是度量  "两个类别"  之间的  "概率"  的差异信息的</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 分类问题评估指标：</t>
+  </si>
+  <si>
+    <t>简单任务：精度（准确率）、错误率。
+（针对全部样本）
+（多个类别放在一起统计）
+精度 + 错误率 = 1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（针对每一种类别）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+（1）"对的个数"/ "预测出来的值" = "查准率"
+（2）“召回率”（查全率）
+//"对的个数" /  "全部的值" = "查全率"
+（3）F1得分：2*（查准率*召回率）/(查准率+召回率)
+查准率 + 查全率 结合起来就是F1得分。
+//这就相当于"回归问题的R2得分"，越接近1越好。
+（针对每一个类别单独去统计的）
+（每一个类别都有自己的查准统治、召回率、F1得分）</t>
+    </r>
+  </si>
+  <si>
+    <t>混淆矩阵：
+查看每个类别、自己的查准率、召回率等等。
+通过 混淆矩阵 也可以计算：查准率、召回率、F1得分等等。
+# 查准率 = 主对角线上的值 / 该值所在 "列的和"
+# 召回率 = 主对角线上的值 / 该值所在  "行的和"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">分类报告：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（针对每个类别的单独情况和综合情况全部打印）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+比"混淆矩阵"更全面：
+sm.classification_report(test_y,pred_test_y)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">其它的：pr曲线等等，其它指标都是根据“查准率”和“召回率”设计出来的。
+</t>
+  </si>
+  <si>
+    <t>交叉验证法</t>
+  </si>
+  <si>
+    <t>每次 "训练集" 和 "测试集" 不重叠，每次都得到F1得分。
+（它包含了训练、预测、评估的整体过程）
+（它能代替“查准率”和“召回率”、F1得分）</t>
+  </si>
+  <si>
+    <t>用在 “模型优化” 比较多，
+验证曲线、学习曲线、网络搜索、随机搜索，这些接口里面都封装了交叉验证</t>
+  </si>
+  <si>
+    <t>（单独使用）交叉验证得分：
+n = ms.cross_val_score(model, #模型
+                       train_x, train_y,# 样本输入、输出
+                       cv,  # 折叠数量
+                       scoring) # 指定返回的指标</t>
+  </si>
+  <si>
+    <t>（单独使用）
+评估当前模型是否可用。</t>
+  </si>
+  <si>
     <t>线性回归</t>
   </si>
   <si>
@@ -2125,351 +2478,6 @@
   </si>
   <si>
     <t>聚类，可以做预测、推荐</t>
-  </si>
-  <si>
-    <t>聚类业务</t>
-  </si>
-  <si>
-    <t>内密外疏</t>
-  </si>
-  <si>
-    <t>使用 轮廓系数 系数来衡量
-S(i) = (b(i) - a(i)) / max{a(i),b(i)}
-a(i)越小越好，b(i)越大越好</t>
-  </si>
-  <si>
-    <t>轮廓系数</t>
-  </si>
-  <si>
-    <t>score = sm.silhouette_score
-取值范围是 -1 到 1
-这个值大于0就算比较合理</t>
-  </si>
-  <si>
-    <t xml:space="preserve">评估模型
-sklearn.metrics as sm </t>
-  </si>
-  <si>
-    <t>回归业务</t>
-  </si>
-  <si>
-    <t>sklearn.metrics
-评估模型的好坏
-r2_score
-分类问题的"损失函数"</t>
-  </si>
-  <si>
-    <t>（1）平均绝对误差-MAE ：
-单个 "观测值" 与 "预测值" 的偏差的绝对值的平均
-（2）均方误差-MSE
-单个 "样本" 到"预测值" 的平方平均值；
-（3）中位数绝对偏差-MAD
-与数据中值绝对偏差的中值；
-（4）r2_score得分
-趋向于1，模型越好；趋向于0，模型越差.</t>
-  </si>
-  <si>
-    <t>损失函数：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-用于衡量 “模型的预测值” 与 “真实值” 之间的 “不一致程度”。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>如：均方误差。</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> "回归问题" 里面是要 "越接近越好"。
-"分类问题" 里面， "对了" 就好，"不对" 就不好。</t>
-  </si>
-  <si>
-    <t>分类业务</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-如：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"交叉熵"：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="9" tint="-0.25"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"交叉熵"  是度量  "两个类别"  之间的  "概率"  的差异信息的</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> 分类问题评估指标：</t>
-  </si>
-  <si>
-    <t>简单任务：精度（准确率）、错误率。
-（针对全部样本）
-（多个类别放在一起统计）
-精度 + 错误率 = 1</t>
-  </si>
-  <si>
-    <r>
-      <t>（针对每一种类别）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-（1）"对的个数"/ "预测出来的值" = "查准率"
-（2）“召回率”（查全率）
-//"对的个数" /  "全部的值" = "查全率"
-（3）F1得分：2*（查准率*召回率）/(查准率+召回率)
-查准率 + 查全率 结合起来就是F1得分。
-//这就相当于"回归问题的R2得分"，越接近1越好。
-（针对每一个类别单独去统计的）
-（每一个类别都有自己的查准统治、召回率、F1得分）</t>
-    </r>
-  </si>
-  <si>
-    <t>混淆矩阵：
-查看每个类别、自己的查准率、召回率等等。
-通过 混淆矩阵 也可以计算：查准率、召回率、F1得分等等。
-# 查准率 = 主对角线上的值 / 该值所在 "列的和"
-# 召回率 = 主对角线上的值 / 该值所在  "行的和"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">分类报告：
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（针对每个类别的单独情况和综合情况全部打印）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-比"混淆矩阵"更全面：
-sm.classification_report(test_y,pred_test_y)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">其它的：pr曲线等等，其它指标都是根据“查准率”和“召回率”设计出来的。
-</t>
-  </si>
-  <si>
-    <t>交叉验证法</t>
-  </si>
-  <si>
-    <t>每次 "训练集" 和 "测试集" 不重叠，每次都得到F1得分。
-（它包含了训练、预测、评估的整体过程）
-（它能代替“查准率”和“召回率”、F1得分）</t>
-  </si>
-  <si>
-    <t>用在 “模型优化” 比较多，
-验证曲线、学习曲线、网络搜索、随机搜索，这些接口里面都封装了交叉验证</t>
-  </si>
-  <si>
-    <t>（单独使用）交叉验证得分：
-n = ms.cross_val_score(model, #模型
-                       train_x, train_y,# 样本输入、输出
-                       cv,  # 折叠数量
-                       scoring) # 指定返回的指标</t>
-  </si>
-  <si>
-    <t>（单独使用）
-评估当前模型是否可用。</t>
-  </si>
-  <si>
-    <t>模型优化</t>
-  </si>
-  <si>
-    <t>验证曲线
-（其中封装了交叉验证法）
-ms.validation_curve</t>
-  </si>
-  <si>
-    <t>寻找最优的模型超参数,
-"验证曲线"是指根据不同的评估系数，来评估模型的优劣.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>但是：两个最优参数放在一起，不一定是最优的参数，
-如以， 验证曲线</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>一次只能验证一个参数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>， 所以 "验证曲线" 的弊端也就是这个</t>
-    </r>
-  </si>
-  <si>
-    <t>学习曲线
-（它里面也使用了：
-交叉验证法）</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "学习曲线"是用来评估 "不同大小的训练集"下模型的优劣程度,
-它可以得到 训练集和测试集的占比。
-它里面也有训练预测评估。
-</t>
-  </si>
-  <si>
-    <t>（1）可能给上全部数据都还不够</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">（1）样本数量均衡化:样本上采样。
-（2）样本数量均衡化:样本下采样。
-（3）class_weight='balanced'
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（4）置信概率：
-print(model.predict_proba(test_x))</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">网格搜索
-（其中也包括交叉验证）
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>（一般都使用网络搜索）</t>
-    </r>
-  </si>
-  <si>
-    <t>把所有参数列出来一个一个试，再配合交叉验证。
-（拿到的一定是最好的、缺点是比较慢）</t>
-  </si>
-  <si>
-    <t>model = ms.GridSearchCV(svm.SVC(), params, cv=5)  # 创建网格搜索对象
-  #GridSearchCV 网格、搜索、带交叉验证
-model.fit(x, y)  # 训练，在训练的时候，才会开始寻找参数</t>
-  </si>
-  <si>
-    <t>随机搜索-一般不使用</t>
-  </si>
-  <si>
-    <t>因为它不能保证精度</t>
-  </si>
-  <si>
-    <t>在搜索范围内随机选择样本点。</t>
   </si>
   <si>
     <t>opencv即能处理图像，
@@ -4526,12 +4534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4545,6 +4547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5169,7 +5177,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5386,227 +5394,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5656,13 +5619,13 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6109,69 +6072,69 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="162" t="s">
+      <c r="C6" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="162" t="s">
+      <c r="D6" s="147" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="116" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="81"/>
-      <c r="C7" s="162" t="s">
+      <c r="B7" s="122"/>
+      <c r="C7" s="147" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="147" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="147" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="81"/>
-      <c r="C8" s="162" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="76" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="116" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="81"/>
-      <c r="C9" s="162" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="116" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="81"/>
-      <c r="C10" s="162" t="s">
+      <c r="B10" s="122"/>
+      <c r="C10" s="147" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="162"/>
-      <c r="E10" s="73" t="s">
+      <c r="D10" s="147"/>
+      <c r="E10" s="128" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="81"/>
+      <c r="B11" s="122"/>
       <c r="C11" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="176" t="s">
+      <c r="D11" s="161" t="s">
         <v>15</v>
       </c>
       <c r="E11" s="53" t="s">
@@ -6179,35 +6142,35 @@
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="81"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="176" t="s">
+      <c r="D12" s="161" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="161" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="91" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="118"/>
-      <c r="E13" s="118"/>
-      <c r="I13" s="191"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="I13" s="176"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="117"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6223,82 +6186,132 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D9:G13"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col min="5" max="5" width="25.5575221238938" customWidth="1"/>
-    <col min="6" max="6" width="29.070796460177" customWidth="1"/>
-    <col min="7" max="7" width="50.9115044247788" customWidth="1"/>
+    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
+    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
+    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
+    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
+    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
+    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="72" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="72" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="48" t="s">
         <v>446</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="48" t="s">
         <v>447</v>
       </c>
-      <c r="F9" s="73" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+    </row>
+    <row r="5" ht="226" customHeight="1" spans="1:9">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="G9" s="74" t="s">
+      <c r="C5" s="74" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="10" spans="4:7">
-      <c r="D10" s="72"/>
-      <c r="E10" s="73" t="s">
+      <c r="D5" s="74" t="s">
         <v>450</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="E5" s="72" t="s">
         <v>451</v>
       </c>
-      <c r="G10" s="73" t="s">
+      <c r="F5" s="75" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
-      <c r="G11" s="75" t="s">
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="72"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="74" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="72"/>
-      <c r="E12" s="75" t="s">
+      <c r="D6" s="74" t="s">
         <v>454</v>
       </c>
-      <c r="F12" s="72" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="73"/>
+    </row>
+    <row r="7" ht="128" customHeight="1" spans="1:6">
+      <c r="A7" s="72"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74" t="s">
         <v>455</v>
       </c>
-      <c r="G12" s="76" t="s">
+      <c r="D7" s="74" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="13" spans="4:7">
-      <c r="D13" s="72"/>
-      <c r="E13" s="73" t="s">
+      <c r="E7" s="72" t="s">
         <v>457</v>
       </c>
-      <c r="F13" s="72" t="s">
+      <c r="F7" s="74" t="s">
         <v>458</v>
       </c>
-      <c r="G13" s="76" t="s">
+    </row>
+    <row r="8" ht="35" customHeight="1" spans="1:6">
+      <c r="A8" s="72"/>
+      <c r="B8" s="50" t="s">
         <v>459</v>
       </c>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="48"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
+  <mergeCells count="5">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8001,7 +8014,7 @@
     <row r="95" ht="27" spans="3:6">
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="E95" s="4" t="s">
         <v>751</v>
@@ -8358,16 +8371,16 @@
       <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="D13" s="165" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="181" t="s">
+      <c r="F13" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="182" t="s">
+      <c r="G13" s="167" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8375,12 +8388,12 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="180"/>
+      <c r="D14" s="165"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="183" t="s">
+      <c r="F14" s="168" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="184" t="s">
+      <c r="G14" s="169" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8388,14 +8401,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="185"/>
+      <c r="D15" s="170"/>
       <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="186" t="s">
+      <c r="F15" s="171" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="187"/>
+      <c r="G15" s="172"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="2"/>
@@ -8436,11 +8449,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="188" t="s">
+      <c r="B19" s="173" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="189"/>
-      <c r="D19" s="190"/>
+      <c r="C19" s="174"/>
+      <c r="D19" s="175"/>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
@@ -8612,78 +8625,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="160" t="s">
         <v>57</v>
       </c>
       <c r="C5" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="176" t="s">
+      <c r="D5" s="161" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="150" t="s">
+      <c r="E5" s="135" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="175"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="53" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="176" t="s">
+      <c r="E6" s="161" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="177" t="s">
+      <c r="B7" s="162" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="178" t="s">
+      <c r="C7" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="179" t="s">
+      <c r="D7" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="179" t="s">
+      <c r="E7" s="164" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="177"/>
-      <c r="C8" s="178" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="178" t="s">
+      <c r="D8" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="179" t="s">
+      <c r="E8" s="164" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="177"/>
-      <c r="C9" s="178" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="178" t="s">
+      <c r="D9" s="163" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="179" t="s">
+      <c r="E9" s="164" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="177"/>
-      <c r="C10" s="178" t="s">
+      <c r="B10" s="162"/>
+      <c r="C10" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="178" t="s">
+      <c r="D10" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="164" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8719,228 +8732,228 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="153" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="168" t="s">
+      <c r="F1" s="153" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="167" t="s">
+      <c r="G1" s="152" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="168" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="153" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="152" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="168" t="s">
+      <c r="G2" s="153" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="167" t="s">
+      <c r="E3" s="154"/>
+      <c r="F3" s="152" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="167" t="s">
+      <c r="G3" s="152" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="169" t="s">
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="154" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="155" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="168" t="s">
+      <c r="G4" s="153" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="156" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="157" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="167" t="s">
+      <c r="G5" s="152" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="168" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="153" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="167"/>
+      <c r="G6" s="152"/>
     </row>
     <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="173" t="s">
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="158" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="153" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="170" t="s">
+      <c r="F7" s="155" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="153" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="166"/>
-      <c r="C8" s="166" t="s">
+      <c r="B8" s="151"/>
+      <c r="C8" s="151" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="166"/>
-      <c r="E8" s="174" t="s">
+      <c r="D8" s="151"/>
+      <c r="E8" s="159" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="174" t="s">
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="159" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="174" t="s">
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="159" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="174" t="s">
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="159" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="174" t="s">
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="174" t="s">
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="159" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="166"/>
-      <c r="C14" s="166" t="s">
+      <c r="B14" s="151"/>
+      <c r="C14" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="151" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="174" t="s">
+      <c r="E14" s="159" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="167" t="s">
+      <c r="F14" s="152" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="174"/>
+      <c r="G14" s="159"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="174" t="s">
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="174"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="159"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166" t="s">
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="174" t="s">
+      <c r="E16" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="169"/>
-      <c r="G16" s="174"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="159"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="174" t="s">
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="174"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="159"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="174" t="s">
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="159" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="174"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -8984,349 +8997,349 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="148"/>
-      <c r="B3" s="149" t="s">
+      <c r="A3" s="133"/>
+      <c r="B3" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="150" t="s">
+      <c r="C3" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="149"/>
+      <c r="D3" s="134"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="149" t="s">
+      <c r="C4" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="149"/>
+      <c r="D4" s="134"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149" t="s">
+      <c r="A5" s="133"/>
+      <c r="B5" s="134" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="149"/>
+      <c r="D5" s="134"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="148"/>
-      <c r="B6" s="149" t="s">
+      <c r="A6" s="133"/>
+      <c r="B6" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="150" t="s">
+      <c r="C6" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="149"/>
+      <c r="D6" s="134"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="148"/>
-      <c r="B7" s="148" t="s">
+      <c r="A7" s="133"/>
+      <c r="B7" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="150" t="s">
+      <c r="C7" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="149"/>
+      <c r="D7" s="134"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="148"/>
-      <c r="B8" s="148" t="s">
+      <c r="A8" s="133"/>
+      <c r="B8" s="133" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="150" t="s">
+      <c r="C8" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="149"/>
+      <c r="D8" s="134"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="148"/>
-      <c r="B9" s="148" t="s">
+      <c r="A9" s="133"/>
+      <c r="B9" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="150" t="s">
+      <c r="C9" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="135" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="148"/>
-      <c r="B10" s="149" t="s">
+      <c r="A10" s="133"/>
+      <c r="B10" s="134" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="150" t="s">
+      <c r="C10" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="149"/>
+      <c r="D10" s="134"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="148"/>
-      <c r="B11" s="149" t="s">
+      <c r="A11" s="133"/>
+      <c r="B11" s="134" t="s">
         <v>136</v>
       </c>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="149"/>
+      <c r="D11" s="134"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="151" t="s">
+      <c r="A12" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="151" t="s">
+      <c r="B12" s="136" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="152" t="s">
+      <c r="C12" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="137" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="153"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="152" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="138"/>
+      <c r="C13" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="137" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="153"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="152" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="139"/>
+      <c r="C14" s="137" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="137" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="153"/>
-      <c r="B15" s="151" t="s">
+      <c r="A15" s="138"/>
+      <c r="B15" s="136" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="152" t="s">
+      <c r="C15" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="155"/>
+      <c r="D15" s="140"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="153"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="152" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="D16" s="155" t="s">
+      <c r="D16" s="140" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="153"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="152" t="s">
+      <c r="A17" s="138"/>
+      <c r="B17" s="138"/>
+      <c r="C17" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="137" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="153"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="152" t="s">
+      <c r="A18" s="138"/>
+      <c r="B18" s="138"/>
+      <c r="C18" s="137" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="152" t="s">
+      <c r="D18" s="137" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="153"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="152" t="s">
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="D19" s="152" t="s">
+      <c r="D19" s="137" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="153"/>
-      <c r="B20" s="151" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="136" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="152" t="s">
+      <c r="C20" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="152" t="s">
+      <c r="D20" s="137" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="154"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="152" t="s">
+      <c r="A21" s="139"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="137" t="s">
         <v>158</v>
       </c>
-      <c r="D21" s="152" t="s">
+      <c r="D21" s="137" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="158" t="s">
+      <c r="C22" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="158" t="s">
+      <c r="D22" s="143" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="159"/>
-      <c r="B23" s="157" t="s">
+      <c r="A23" s="144"/>
+      <c r="B23" s="142" t="s">
         <v>164</v>
       </c>
-      <c r="C23" s="158" t="s">
+      <c r="C23" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="158" t="s">
+      <c r="D23" s="143" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="159"/>
-      <c r="B24" s="157" t="s">
+      <c r="A24" s="144"/>
+      <c r="B24" s="142" t="s">
         <v>167</v>
       </c>
-      <c r="C24" s="158" t="s">
+      <c r="C24" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="158" t="s">
+      <c r="D24" s="143" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="159"/>
-      <c r="B25" s="157" t="s">
+      <c r="A25" s="144"/>
+      <c r="B25" s="142" t="s">
         <v>170</v>
       </c>
-      <c r="C25" s="158" t="s">
+      <c r="C25" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="158"/>
+      <c r="D25" s="143"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="159"/>
-      <c r="B26" s="157" t="s">
+      <c r="A26" s="144"/>
+      <c r="B26" s="142" t="s">
         <v>172</v>
       </c>
-      <c r="C26" s="158" t="s">
+      <c r="C26" s="143" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="158" t="s">
+      <c r="D26" s="143" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="159"/>
-      <c r="B27" s="157" t="s">
+      <c r="A27" s="144"/>
+      <c r="B27" s="142" t="s">
         <v>175</v>
       </c>
-      <c r="C27" s="160" t="s">
+      <c r="C27" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="158" t="s">
+      <c r="D27" s="143" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="159"/>
-      <c r="B28" s="157" t="s">
+      <c r="A28" s="144"/>
+      <c r="B28" s="142" t="s">
         <v>178</v>
       </c>
-      <c r="C28" s="158" t="s">
+      <c r="C28" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="158" t="s">
+      <c r="D28" s="143" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="159"/>
-      <c r="B29" s="157" t="s">
+      <c r="A29" s="144"/>
+      <c r="B29" s="142" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="158" t="s">
+      <c r="C29" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="158" t="s">
+      <c r="D29" s="143" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="161"/>
-      <c r="B30" s="157" t="s">
+      <c r="A30" s="146"/>
+      <c r="B30" s="142" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="160" t="s">
+      <c r="C30" s="145" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="158" t="s">
+      <c r="D30" s="143" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="162" t="s">
+      <c r="A32" s="147" t="s">
         <v>187</v>
       </c>
-      <c r="B32" s="76" t="s">
+      <c r="B32" s="116" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="116" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="163" t="s">
+      <c r="A34" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="76" t="s">
+      <c r="B34" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="76" t="s">
+      <c r="C34" s="116" t="s">
         <v>192</v>
       </c>
       <c r="D34" s="3"/>
@@ -9334,28 +9347,28 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="164"/>
-      <c r="B35" s="76" t="s">
+      <c r="A35" s="149"/>
+      <c r="B35" s="116" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="116" t="s">
         <v>194</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="165"/>
+      <c r="E35" s="150"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="162" t="s">
+      <c r="A36" s="147" t="s">
         <v>195</v>
       </c>
-      <c r="B36" s="73" t="s">
+      <c r="B36" s="128" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="73"/>
-      <c r="D36" s="162" t="s">
+      <c r="C36" s="128"/>
+      <c r="D36" s="147" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="165"/>
+      <c r="E36" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9378,6 +9391,259 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="D9:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <cols>
+    <col min="5" max="5" width="25.5575221238938" customWidth="1"/>
+    <col min="6" max="6" width="29.070796460177" customWidth="1"/>
+    <col min="7" max="7" width="50.9115044247788" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" ht="40.5" spans="4:7">
+      <c r="D9" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="128" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="128" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="129" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="4:7">
+      <c r="D10" s="119"/>
+      <c r="E10" s="128" t="s">
+        <v>202</v>
+      </c>
+      <c r="F10" s="128" t="s">
+        <v>203</v>
+      </c>
+      <c r="G10" s="128" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="11" ht="99" customHeight="1" spans="4:7">
+      <c r="D11" s="119"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="130" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" ht="67.5" spans="4:7">
+      <c r="D12" s="119"/>
+      <c r="E12" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="G12" s="116" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="4:7">
+      <c r="D13" s="119"/>
+      <c r="E13" s="128" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="119" t="s">
+        <v>210</v>
+      </c>
+      <c r="G13" s="116" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D9:D13"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.25"/>
+  </sheetPr>
+  <dimension ref="E7:I19"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="24.4336283185841" customWidth="1"/>
+    <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
+    <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
+    <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
+    <col min="9" max="9" width="45.3362831858407" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" ht="40.5" spans="5:8">
+      <c r="E7" s="116"/>
+      <c r="F7" s="117" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="116" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="116" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" ht="48" customHeight="1" spans="5:8">
+      <c r="E8" s="116"/>
+      <c r="F8" s="118"/>
+      <c r="G8" s="116" t="s">
+        <v>215</v>
+      </c>
+      <c r="H8" s="116" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" ht="114" customHeight="1" spans="5:8">
+      <c r="E9" s="119" t="s">
+        <v>217</v>
+      </c>
+      <c r="F9" s="117" t="s">
+        <v>218</v>
+      </c>
+      <c r="G9" s="116" t="s">
+        <v>219</v>
+      </c>
+      <c r="H9" s="116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="5:9">
+      <c r="E10" s="119"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="H10" s="121" t="s">
+        <v>222</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="5:9">
+      <c r="E11" s="122"/>
+      <c r="F11" s="123" t="s">
+        <v>224</v>
+      </c>
+      <c r="G11" s="120" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" s="121" t="s">
+        <v>225</v>
+      </c>
+      <c r="I11" s="126"/>
+    </row>
+    <row r="12" ht="54" spans="5:8">
+      <c r="E12" s="122"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="117" t="s">
+        <v>226</v>
+      </c>
+      <c r="H12" s="121" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" ht="121.5" spans="5:8">
+      <c r="E13" s="122"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="125" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" ht="79" customHeight="1" spans="5:8">
+      <c r="E14" s="122"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="116" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1" spans="5:8">
+      <c r="E15" s="122"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="121" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" ht="55" customHeight="1" spans="5:8">
+      <c r="E16" s="122"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="5:8">
+      <c r="E17" s="122"/>
+      <c r="F17" s="119" t="s">
+        <v>232</v>
+      </c>
+      <c r="G17" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" s="116" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="18" ht="81" spans="5:8">
+      <c r="E18" s="122"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="119"/>
+      <c r="H18" s="116" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" ht="27" spans="5:8">
+      <c r="E19" s="122"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
+      <c r="H19" s="116" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="E9:E19"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F11:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="I10:I11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
@@ -9394,582 +9660,582 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="117" t="s">
-        <v>198</v>
-      </c>
-      <c r="B1" s="118" t="s">
-        <v>199</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>200</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="120"/>
+      <c r="A1" s="87" t="s">
+        <v>237</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="89" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="117"/>
-      <c r="B2" s="118" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="D2" s="119" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="121"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="117"/>
-      <c r="B3" s="118" t="s">
-        <v>204</v>
-      </c>
-      <c r="C3" s="122" t="s">
-        <v>205</v>
-      </c>
-      <c r="D3" s="119" t="s">
-        <v>206</v>
-      </c>
-      <c r="E3" s="121"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="91"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="117"/>
-      <c r="B4" s="118" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="123" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="119" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="121"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="93" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="91"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="117"/>
-      <c r="B5" s="118"/>
-      <c r="C5" s="123" t="s">
-        <v>210</v>
-      </c>
-      <c r="D5" s="119" t="s">
-        <v>211</v>
-      </c>
-      <c r="E5" s="121"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="93" t="s">
+        <v>249</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="91"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="117"/>
-      <c r="B6" s="118"/>
-      <c r="C6" s="123" t="s">
-        <v>212</v>
-      </c>
-      <c r="D6" s="119" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="121"/>
+      <c r="A6" s="87"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="93" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="E6" s="91"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="117"/>
-      <c r="B7" s="118"/>
-      <c r="C7" s="123" t="s">
-        <v>214</v>
+      <c r="A7" s="87"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="93" t="s">
+        <v>253</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="E7" s="119" t="s">
-        <v>216</v>
+        <v>254</v>
+      </c>
+      <c r="E7" s="89" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="117"/>
-      <c r="B8" s="118"/>
-      <c r="C8" s="124" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="119" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" s="119" t="s">
-        <v>219</v>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>257</v>
+      </c>
+      <c r="E8" s="89" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="117"/>
-      <c r="B9" s="118" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="124" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="119" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="119"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>260</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>261</v>
+      </c>
+      <c r="E9" s="89"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="117"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="124" t="s">
-        <v>223</v>
+      <c r="A10" s="87"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="94" t="s">
+        <v>262</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="E10" s="119"/>
+        <v>263</v>
+      </c>
+      <c r="E10" s="89"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="117"/>
-      <c r="B11" s="118" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="119" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="119"/>
+      <c r="A11" s="87"/>
+      <c r="B11" s="88" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="94" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="E11" s="89"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="117"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="124" t="s">
-        <v>228</v>
+      <c r="A12" s="87"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="94" t="s">
+        <v>267</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E12" s="119"/>
+        <v>268</v>
+      </c>
+      <c r="E12" s="89"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="117"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="124" t="s">
-        <v>230</v>
-      </c>
-      <c r="D13" s="119" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="119"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="94" t="s">
+        <v>269</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="89"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="117"/>
-      <c r="B14" s="118" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>233</v>
-      </c>
-      <c r="D14" s="119" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="119"/>
+      <c r="A14" s="87"/>
+      <c r="B14" s="88" t="s">
+        <v>271</v>
+      </c>
+      <c r="C14" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="89"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="117"/>
-      <c r="B15" s="125" t="s">
-        <v>235</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="119" t="s">
-        <v>237</v>
-      </c>
-      <c r="E15" s="119" t="s">
-        <v>238</v>
+      <c r="A15" s="87"/>
+      <c r="B15" s="95" t="s">
+        <v>274</v>
+      </c>
+      <c r="C15" s="94" t="s">
+        <v>275</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="E15" s="89" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="117"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="124" t="s">
-        <v>239</v>
+      <c r="A16" s="87"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="94" t="s">
+        <v>278</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E16" s="119" t="s">
-        <v>241</v>
+        <v>279</v>
+      </c>
+      <c r="E16" s="89" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="117"/>
-      <c r="B17" s="118" t="s">
-        <v>242</v>
+      <c r="A17" s="87"/>
+      <c r="B17" s="88" t="s">
+        <v>281</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="119" t="s">
-        <v>244</v>
-      </c>
-      <c r="E17" s="119" t="s">
-        <v>245</v>
+        <v>282</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>283</v>
+      </c>
+      <c r="E17" s="89" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="117"/>
-      <c r="B18" s="118"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="88"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="119" t="s">
-        <v>246</v>
-      </c>
-      <c r="E18" s="119" t="s">
-        <v>247</v>
+      <c r="D18" s="89" t="s">
+        <v>285</v>
+      </c>
+      <c r="E18" s="89" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="127" t="s">
-        <v>248</v>
-      </c>
-      <c r="B19" s="128" t="s">
-        <v>249</v>
-      </c>
-      <c r="C19" s="119" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="121" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="129"/>
+      <c r="A19" s="97" t="s">
+        <v>287</v>
+      </c>
+      <c r="B19" s="98" t="s">
+        <v>288</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>289</v>
+      </c>
+      <c r="D19" s="91" t="s">
+        <v>290</v>
+      </c>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="127"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="119" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="121" t="s">
-        <v>253</v>
-      </c>
-      <c r="E20" s="131" t="s">
-        <v>254</v>
+      <c r="A20" s="97"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>292</v>
+      </c>
+      <c r="E20" s="101" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="127"/>
-      <c r="B21" s="132" t="s">
-        <v>255</v>
-      </c>
-      <c r="C21" s="131" t="s">
-        <v>256</v>
-      </c>
-      <c r="D21" s="119" t="s">
-        <v>257</v>
-      </c>
-      <c r="E21" s="133"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="102" t="s">
+        <v>294</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>295</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>296</v>
+      </c>
+      <c r="E21" s="103"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="127"/>
-      <c r="B22" s="134"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="119" t="s">
-        <v>258</v>
-      </c>
-      <c r="E22" s="126"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="89" t="s">
+        <v>297</v>
+      </c>
+      <c r="E22" s="96"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="135" t="s">
-        <v>259</v>
-      </c>
-      <c r="B23" s="136" t="s">
-        <v>260</v>
-      </c>
-      <c r="C23" s="119" t="s">
-        <v>261</v>
+      <c r="A23" s="105" t="s">
+        <v>298</v>
+      </c>
+      <c r="B23" s="106" t="s">
+        <v>299</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>300</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="E23" s="117"/>
+        <v>301</v>
+      </c>
+      <c r="E23" s="87"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="137"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="119" t="s">
-        <v>263</v>
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="89" t="s">
+        <v>302</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="E24" s="117"/>
+        <v>303</v>
+      </c>
+      <c r="E24" s="87"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="137"/>
-      <c r="B25" s="139" t="s">
-        <v>265</v>
-      </c>
-      <c r="C25" s="119" t="s">
-        <v>266</v>
+      <c r="A25" s="107"/>
+      <c r="B25" s="109" t="s">
+        <v>304</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>305</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="E25" s="117"/>
+        <v>306</v>
+      </c>
+      <c r="E25" s="87"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="137"/>
-      <c r="B26" s="139" t="s">
-        <v>268</v>
-      </c>
-      <c r="C26" s="119" t="s">
-        <v>269</v>
+      <c r="A26" s="107"/>
+      <c r="B26" s="109" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>308</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="E26" s="118" t="s">
-        <v>271</v>
+        <v>309</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="137"/>
-      <c r="B27" s="136" t="s">
-        <v>272</v>
-      </c>
-      <c r="C27" s="119" t="s">
-        <v>273</v>
+      <c r="A27" s="107"/>
+      <c r="B27" s="106" t="s">
+        <v>311</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>312</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="E27" s="117"/>
+        <v>313</v>
+      </c>
+      <c r="E27" s="87"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="137"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="119" t="s">
-        <v>275</v>
+      <c r="A28" s="107"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="89" t="s">
+        <v>314</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="E28" s="117"/>
+        <v>315</v>
+      </c>
+      <c r="E28" s="87"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="137"/>
+      <c r="A29" s="107"/>
       <c r="B29" s="18" t="s">
-        <v>277</v>
+        <v>316</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>278</v>
+        <v>317</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="117"/>
+      <c r="E29" s="87"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="137"/>
+      <c r="A30" s="107"/>
       <c r="B30" s="18" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>281</v>
-      </c>
-      <c r="E30" s="117"/>
+        <v>320</v>
+      </c>
+      <c r="E30" s="87"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="137"/>
-      <c r="B31" s="118" t="s">
-        <v>282</v>
-      </c>
-      <c r="C31" s="121" t="s">
-        <v>283</v>
+      <c r="A31" s="107"/>
+      <c r="B31" s="88" t="s">
+        <v>321</v>
+      </c>
+      <c r="C31" s="91" t="s">
+        <v>322</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="E31" s="117"/>
+        <v>323</v>
+      </c>
+      <c r="E31" s="87"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="137"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="118" t="s">
-        <v>285</v>
+      <c r="A32" s="107"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88" t="s">
+        <v>324</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>286</v>
-      </c>
-      <c r="E32" s="117"/>
+        <v>325</v>
+      </c>
+      <c r="E32" s="87"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="137"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
+      <c r="A33" s="107"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="18" t="s">
-        <v>287</v>
-      </c>
-      <c r="E33" s="117"/>
+        <v>326</v>
+      </c>
+      <c r="E33" s="87"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="137"/>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
+      <c r="A34" s="107"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="18" t="s">
-        <v>288</v>
-      </c>
-      <c r="E34" s="117"/>
+        <v>327</v>
+      </c>
+      <c r="E34" s="87"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="137"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
+      <c r="A35" s="107"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E35" s="117"/>
+        <v>328</v>
+      </c>
+      <c r="E35" s="87"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="137"/>
-      <c r="B36" s="140" t="s">
-        <v>290</v>
+      <c r="A36" s="107"/>
+      <c r="B36" s="110" t="s">
+        <v>329</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="E36" s="118"/>
+        <v>331</v>
+      </c>
+      <c r="E36" s="88"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="137"/>
-      <c r="B37" s="118" t="s">
-        <v>293</v>
-      </c>
-      <c r="C37" s="121" t="s">
-        <v>294</v>
+      <c r="A37" s="107"/>
+      <c r="B37" s="88" t="s">
+        <v>332</v>
+      </c>
+      <c r="C37" s="91" t="s">
+        <v>333</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>295</v>
-      </c>
-      <c r="E37" s="117"/>
+        <v>334</v>
+      </c>
+      <c r="E37" s="87"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="137"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="50" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E38" s="117"/>
+        <v>337</v>
+      </c>
+      <c r="E38" s="87"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="137"/>
-      <c r="B39" s="118" t="s">
-        <v>299</v>
-      </c>
-      <c r="C39" s="121" t="s">
-        <v>300</v>
+      <c r="A39" s="107"/>
+      <c r="B39" s="88" t="s">
+        <v>338</v>
+      </c>
+      <c r="C39" s="91" t="s">
+        <v>339</v>
       </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="117"/>
+      <c r="E39" s="87"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="137"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="C40" s="119" t="s">
-        <v>302</v>
+        <v>340</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>341</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="E40" s="117"/>
+        <v>342</v>
+      </c>
+      <c r="E40" s="87"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="137"/>
+      <c r="A41" s="107"/>
       <c r="B41" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="C41" s="119" t="s">
-        <v>305</v>
+        <v>343</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>344</v>
       </c>
       <c r="D41" s="18"/>
-      <c r="E41" s="117"/>
+      <c r="E41" s="87"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="137"/>
+      <c r="A42" s="107"/>
       <c r="B42" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C42" s="141" t="s">
-        <v>307</v>
+        <v>345</v>
+      </c>
+      <c r="C42" s="111" t="s">
+        <v>346</v>
       </c>
       <c r="D42" s="18"/>
-      <c r="E42" s="117"/>
+      <c r="E42" s="87"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="135" t="s">
+      <c r="A43" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="B43" s="142" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" s="143"/>
+      <c r="B43" s="112" t="s">
+        <v>347</v>
+      </c>
+      <c r="C43" s="113"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="117"/>
+      <c r="E43" s="87"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="137"/>
+      <c r="A44" s="107"/>
       <c r="B44" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="C44" s="144" t="s">
-        <v>310</v>
+        <v>348</v>
+      </c>
+      <c r="C44" s="114" t="s">
+        <v>349</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E44" s="141" t="s">
-        <v>312</v>
+        <v>350</v>
+      </c>
+      <c r="E44" s="111" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="137"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E45" s="123" t="s">
-        <v>314</v>
+        <v>352</v>
+      </c>
+      <c r="E45" s="93" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="137"/>
-      <c r="B46" s="118" t="s">
-        <v>315</v>
-      </c>
-      <c r="C46" s="144" t="s">
-        <v>316</v>
+      <c r="A46" s="107"/>
+      <c r="B46" s="88" t="s">
+        <v>354</v>
+      </c>
+      <c r="C46" s="114" t="s">
+        <v>355</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="E46" s="141" t="s">
-        <v>318</v>
+        <v>356</v>
+      </c>
+      <c r="E46" s="111" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="145"/>
-      <c r="B47" s="118"/>
-      <c r="C47" s="118"/>
+      <c r="A47" s="115"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
       <c r="D47" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="E47" s="141" t="s">
-        <v>320</v>
+        <v>358</v>
+      </c>
+      <c r="E47" s="111" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -10003,13 +10269,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10021,405 +10287,405 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="91" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="C1" s="93" t="s">
-        <v>323</v>
-      </c>
-      <c r="D1" s="92"/>
+      <c r="A1" s="76" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="78" t="s">
+        <v>362</v>
+      </c>
+      <c r="D1" s="77"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95" t="s">
+      <c r="A2" s="76"/>
+      <c r="B2" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>364</v>
+      </c>
+      <c r="D2" s="80"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="76"/>
+      <c r="B3" s="79" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="78" t="s">
+        <v>366</v>
+      </c>
+      <c r="D3" s="80"/>
+    </row>
+    <row r="4" ht="71" customHeight="1" spans="1:4">
+      <c r="A4" s="76"/>
+      <c r="B4" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4" s="80"/>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:4">
+      <c r="A5" s="76"/>
+      <c r="B5" s="79" t="s">
+        <v>369</v>
+      </c>
+      <c r="C5" s="78" t="s">
+        <v>370</v>
+      </c>
+      <c r="D5" s="80"/>
+    </row>
+    <row r="6" ht="90" customHeight="1" spans="1:4">
+      <c r="A6" s="76"/>
+      <c r="B6" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="C6" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="D6" s="82"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="77" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="C7" s="78" t="s">
+        <v>375</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="78" t="s">
+        <v>377</v>
+      </c>
+      <c r="D8" s="77" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="77"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="78" t="s">
+        <v>379</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="77"/>
+      <c r="B10" s="79"/>
+      <c r="C10" s="78" t="s">
+        <v>381</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:4">
+      <c r="A11" s="77"/>
+      <c r="B11" s="77" t="s">
+        <v>383</v>
+      </c>
+      <c r="C11" s="78" t="s">
+        <v>384</v>
+      </c>
+      <c r="D11" s="77" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="77"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="77" t="s">
+        <v>386</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
+      <c r="A13" s="77"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="85" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="1:4">
+      <c r="A14" s="77"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="85" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" ht="67.5" spans="1:4">
+      <c r="A15" s="77"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="77"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="C2" s="96" t="s">
-        <v>325</v>
-      </c>
-      <c r="D2" s="96"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95" t="s">
-        <v>326</v>
-      </c>
-      <c r="C3" s="93" t="s">
-        <v>327</v>
-      </c>
-      <c r="D3" s="96"/>
-    </row>
-    <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95" t="s">
-        <v>328</v>
-      </c>
-      <c r="C4" s="97" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="96"/>
-    </row>
-    <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="94"/>
-      <c r="B5" s="95" t="s">
-        <v>330</v>
-      </c>
-      <c r="C5" s="93" t="s">
-        <v>331</v>
-      </c>
-      <c r="D5" s="96"/>
-    </row>
-    <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="98"/>
-      <c r="B6" s="95" t="s">
-        <v>332</v>
-      </c>
-      <c r="C6" s="93" t="s">
-        <v>333</v>
-      </c>
-      <c r="D6" s="99"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="100" t="s">
-        <v>334</v>
-      </c>
-      <c r="B7" s="101" t="s">
-        <v>335</v>
-      </c>
-      <c r="C7" s="93" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="102" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="100"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="93" t="s">
-        <v>338</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="100"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="93" t="s">
-        <v>340</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="100"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="93" t="s">
-        <v>342</v>
-      </c>
-      <c r="D10" s="95" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="100"/>
-      <c r="B11" s="92" t="s">
-        <v>344</v>
-      </c>
-      <c r="C11" s="93" t="s">
-        <v>345</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="100"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="92" t="s">
-        <v>347</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="100"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="106" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="100"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="106" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="100"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="105" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="100"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="96" t="s">
-        <v>285</v>
-      </c>
-      <c r="D16" s="92" t="s">
-        <v>351</v>
+      <c r="D16" s="77" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101" t="s">
+      <c r="A17" s="77"/>
+      <c r="B17" s="79" t="s">
+        <v>391</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>392</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="77"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="95" t="s">
-        <v>353</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="100"/>
-      <c r="B18" s="103"/>
-      <c r="C18" s="95" t="s">
-        <v>313</v>
-      </c>
-      <c r="D18" s="108"/>
+      <c r="D18" s="82"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="100"/>
-      <c r="B19" s="103"/>
-      <c r="C19" s="95" t="s">
-        <v>355</v>
-      </c>
-      <c r="D19" s="108"/>
+      <c r="A19" s="77"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="79" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="82"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="100"/>
-      <c r="B20" s="104"/>
-      <c r="C20" s="95" t="s">
-        <v>356</v>
-      </c>
-      <c r="D20" s="109"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="79"/>
+      <c r="C20" s="79" t="s">
+        <v>395</v>
+      </c>
+      <c r="D20" s="82"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="110"/>
-      <c r="B21" s="92" t="s">
-        <v>357</v>
-      </c>
-      <c r="C21" s="96" t="s">
-        <v>358</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>359</v>
+      <c r="A21" s="77"/>
+      <c r="B21" s="77" t="s">
+        <v>396</v>
+      </c>
+      <c r="C21" s="80" t="s">
+        <v>397</v>
+      </c>
+      <c r="D21" s="77" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="100" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="C22" s="93" t="s">
-        <v>362</v>
-      </c>
-      <c r="D22" s="92"/>
+      <c r="A22" s="77" t="s">
+        <v>399</v>
+      </c>
+      <c r="B22" s="78" t="s">
+        <v>400</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>401</v>
+      </c>
+      <c r="D22" s="77"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="100"/>
-      <c r="B23" s="112" t="s">
-        <v>363</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>364</v>
-      </c>
-      <c r="D23" s="93"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="C23" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="D23" s="78"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="100"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="93" t="s">
-        <v>365</v>
-      </c>
-      <c r="D24" s="93"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="D24" s="78"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="100"/>
-      <c r="B25" s="92" t="s">
-        <v>366</v>
-      </c>
-      <c r="C25" s="113" t="s">
-        <v>367</v>
-      </c>
-      <c r="D25" s="114"/>
+      <c r="A25" s="77"/>
+      <c r="B25" s="77" t="s">
+        <v>405</v>
+      </c>
+      <c r="C25" s="86" t="s">
+        <v>406</v>
+      </c>
+      <c r="D25" s="86"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="100"/>
-      <c r="B26" s="92" t="s">
-        <v>368</v>
-      </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93" t="s">
-        <v>369</v>
+      <c r="A26" s="77"/>
+      <c r="B26" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="C26" s="78"/>
+      <c r="D26" s="78" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="100"/>
-      <c r="B27" s="101" t="s">
-        <v>370</v>
-      </c>
-      <c r="C27" s="97" t="s">
-        <v>371</v>
-      </c>
-      <c r="D27" s="93" t="s">
-        <v>372</v>
+      <c r="A27" s="77"/>
+      <c r="B27" s="79" t="s">
+        <v>409</v>
+      </c>
+      <c r="C27" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="D27" s="78" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="100"/>
-      <c r="B28" s="103"/>
-      <c r="C28" s="97" t="s">
-        <v>373</v>
-      </c>
-      <c r="D28" s="93" t="s">
-        <v>374</v>
+      <c r="A28" s="77"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="D28" s="78" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="100"/>
-      <c r="B29" s="104"/>
-      <c r="C29" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="D29" s="93" t="s">
-        <v>376</v>
+      <c r="A29" s="77"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="81" t="s">
+        <v>414</v>
+      </c>
+      <c r="D29" s="78" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="110"/>
-      <c r="B30" s="92" t="s">
-        <v>377</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>378</v>
-      </c>
-      <c r="D30" s="93"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="77" t="s">
+        <v>416</v>
+      </c>
+      <c r="C30" s="78" t="s">
+        <v>417</v>
+      </c>
+      <c r="D30" s="78"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="100" t="s">
-        <v>379</v>
-      </c>
-      <c r="B31" s="112" t="s">
-        <v>380</v>
-      </c>
-      <c r="C31" s="93" t="s">
-        <v>381</v>
-      </c>
-      <c r="D31" s="93"/>
+      <c r="A31" s="77" t="s">
+        <v>418</v>
+      </c>
+      <c r="B31" s="77" t="s">
+        <v>419</v>
+      </c>
+      <c r="C31" s="78" t="s">
+        <v>420</v>
+      </c>
+      <c r="D31" s="78"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="100"/>
-      <c r="B32" s="112" t="s">
-        <v>382</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>383</v>
-      </c>
-      <c r="D32" s="93" t="s">
-        <v>384</v>
+      <c r="A32" s="77"/>
+      <c r="B32" s="77" t="s">
+        <v>421</v>
+      </c>
+      <c r="C32" s="78" t="s">
+        <v>422</v>
+      </c>
+      <c r="D32" s="78" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="93" t="s">
-        <v>385</v>
-      </c>
-      <c r="D33" s="93" t="s">
-        <v>386</v>
+      <c r="A33" s="77"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="93" t="s">
-        <v>387</v>
-      </c>
-      <c r="D34" s="93" t="s">
-        <v>388</v>
+      <c r="A34" s="77"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78" t="s">
+        <v>426</v>
+      </c>
+      <c r="D34" s="78" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="100"/>
-      <c r="B35" s="112" t="s">
-        <v>389</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>390</v>
-      </c>
-      <c r="D35" s="93" t="s">
-        <v>391</v>
+      <c r="A35" s="77"/>
+      <c r="B35" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="C35" s="78" t="s">
+        <v>429</v>
+      </c>
+      <c r="D35" s="78" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="100"/>
-      <c r="B36" s="112" t="s">
-        <v>392</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>393</v>
-      </c>
-      <c r="D36" s="93" t="s">
-        <v>394</v>
+      <c r="A36" s="77"/>
+      <c r="B36" s="77" t="s">
+        <v>431</v>
+      </c>
+      <c r="C36" s="78" t="s">
+        <v>432</v>
+      </c>
+      <c r="D36" s="78" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="100"/>
-      <c r="B37" s="112" t="s">
-        <v>395</v>
-      </c>
-      <c r="C37" s="115" t="s">
-        <v>396</v>
-      </c>
-      <c r="D37" s="116"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="77" t="s">
+        <v>434</v>
+      </c>
+      <c r="C37" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="D37" s="77"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="100"/>
-      <c r="B38" s="112" t="s">
-        <v>397</v>
-      </c>
-      <c r="C38" s="115" t="s">
-        <v>398</v>
-      </c>
-      <c r="D38" s="116" t="s">
-        <v>399</v>
+      <c r="A38" s="77"/>
+      <c r="B38" s="77" t="s">
+        <v>436</v>
+      </c>
+      <c r="C38" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="110"/>
-      <c r="B39" s="110"/>
-      <c r="C39" s="97" t="s">
-        <v>400</v>
-      </c>
-      <c r="D39" s="97" t="s">
-        <v>401</v>
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="81" t="s">
+        <v>439</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -10443,307 +10709,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
-    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
-    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
-    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
-    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
-    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="87" t="s">
-        <v>402</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>403</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>404</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>405</v>
-      </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="48" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="48" t="s">
-        <v>407</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="48" t="s">
-        <v>408</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-    </row>
-    <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88" t="s">
-        <v>409</v>
-      </c>
-      <c r="C5" s="89" t="s">
-        <v>410</v>
-      </c>
-      <c r="D5" s="89" t="s">
-        <v>411</v>
-      </c>
-      <c r="E5" s="87" t="s">
-        <v>412</v>
-      </c>
-      <c r="F5" s="90" t="s">
-        <v>413</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="89" t="s">
-        <v>414</v>
-      </c>
-      <c r="D6" s="89" t="s">
-        <v>415</v>
-      </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="88"/>
-    </row>
-    <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89" t="s">
-        <v>416</v>
-      </c>
-      <c r="D7" s="89" t="s">
-        <v>417</v>
-      </c>
-      <c r="E7" s="87" t="s">
-        <v>418</v>
-      </c>
-      <c r="F7" s="89" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="87"/>
-      <c r="B8" s="50" t="s">
-        <v>420</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F5:F6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor theme="8" tint="-0.25"/>
-  </sheetPr>
-  <dimension ref="E7:I19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="24.4336283185841" customWidth="1"/>
-    <col min="6" max="6" width="14.8053097345133" customWidth="1"/>
-    <col min="7" max="7" width="25.4867256637168" customWidth="1"/>
-    <col min="8" max="8" width="54.1681415929204" customWidth="1"/>
-    <col min="9" max="9" width="45.3362831858407" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="76"/>
-      <c r="F7" s="77" t="s">
-        <v>421</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>422</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="76"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="76" t="s">
-        <v>424</v>
-      </c>
-      <c r="H8" s="76" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="72" t="s">
-        <v>426</v>
-      </c>
-      <c r="F9" s="77" t="s">
-        <v>427</v>
-      </c>
-      <c r="G9" s="76" t="s">
-        <v>428</v>
-      </c>
-      <c r="H9" s="76" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="72"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="79" t="s">
-        <v>430</v>
-      </c>
-      <c r="H10" s="80" t="s">
-        <v>431</v>
-      </c>
-      <c r="I10" s="82" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="81"/>
-      <c r="F11" s="82" t="s">
-        <v>433</v>
-      </c>
-      <c r="G11" s="79" t="s">
-        <v>430</v>
-      </c>
-      <c r="H11" s="80" t="s">
-        <v>434</v>
-      </c>
-      <c r="I11" s="85"/>
-    </row>
-    <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="81"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="77" t="s">
-        <v>435</v>
-      </c>
-      <c r="H12" s="80" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="81"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="84" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="81"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="76" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="81"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="80" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="81"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="76" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="81"/>
-      <c r="F17" s="72" t="s">
-        <v>441</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>442</v>
-      </c>
-      <c r="H17" s="76" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="81"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="76" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="81"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="76" t="s">
-        <v>445</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="E9:E19"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F11:F16"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="I10:I11"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="9"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="1.回归" sheetId="4" r:id="rId8"/>
     <sheet name="2.分类" sheetId="3" r:id="rId9"/>
     <sheet name="3.聚类" sheetId="7" r:id="rId10"/>
-    <sheet name="cv2" sheetId="12" r:id="rId11"/>
+    <sheet name="4.cv2" sheetId="12" r:id="rId11"/>
     <sheet name="深1" sheetId="13" r:id="rId12"/>
     <sheet name="推荐算法" sheetId="16" r:id="rId13"/>
     <sheet name="TF" sheetId="17" r:id="rId14"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="787">
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>（1）旋转</t>
+  </si>
+  <si>
+    <t xml:space="preserve">图像预处理的目的，是让图像数据更适合AI模型进行处理，例如调整大小、颜色。
+</t>
   </si>
   <si>
     <t>（2）平移</t>
@@ -2508,7 +2512,8 @@
     <t>图像数字化</t>
   </si>
   <si>
-    <t>将“一副画面”的数据转换为“计知算机”能够处理的“数字形式”</t>
+    <t>将“一副画面”的数据转换为“计知算机”能够处理的“数字形式”
+“图像数字化”的采样过程是将“空间上连续的图像”变化为“离散的点”</t>
   </si>
   <si>
     <t>量化</t>
@@ -2520,9 +2525,21 @@
     <t>灰度级</t>
   </si>
   <si>
-    <t>每个像素的取值范围称为“灰度级”，
+    <r>
+      <t>每个像素的取值范围称为“灰度级”，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 从最暗到最亮
 量化等级越多，所得图像层次越丰富，灰度分辨率高，图像质量好，但数据量大</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">一副8位的图像，表示每个采样点有2^8=256级。从最暗到最亮，可以分辨256个级别。
@@ -5177,7 +5194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5313,6 +5330,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5657,6 +5677,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6072,105 +6098,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="147" t="s">
+      <c r="D6" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="116" t="s">
+      <c r="E6" s="117" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="122"/>
-      <c r="C7" s="147" t="s">
+      <c r="B7" s="123"/>
+      <c r="C7" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="147" t="s">
+      <c r="D7" s="148" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="147" t="s">
+      <c r="E7" s="148" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="122"/>
-      <c r="C8" s="147" t="s">
+      <c r="B8" s="123"/>
+      <c r="C8" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="116" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="117" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="122"/>
-      <c r="C9" s="147" t="s">
+      <c r="B9" s="123"/>
+      <c r="C9" s="148" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="147" t="s">
+      <c r="D9" s="148" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="116" t="s">
+      <c r="E9" s="117" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="122"/>
-      <c r="C10" s="147" t="s">
+      <c r="B10" s="123"/>
+      <c r="C10" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="147"/>
-      <c r="E10" s="128" t="s">
+      <c r="D10" s="148"/>
+      <c r="E10" s="129" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="122"/>
-      <c r="C11" s="53" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="161" t="s">
+      <c r="D11" s="164" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="53" t="s">
+      <c r="E11" s="54" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="122"/>
-      <c r="C12" s="53" t="s">
+      <c r="B12" s="123"/>
+      <c r="C12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="161" t="s">
+      <c r="D12" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="164" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="92" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="I13" s="176"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="I13" s="179"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6188,7 +6214,7 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -6203,107 +6229,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="72" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="73" t="s">
         <v>442</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="B1" s="74" t="s">
         <v>443</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>444</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
+      <c r="D1" s="49" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="72"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="49" t="s">
+        <v>446</v>
+      </c>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="72"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="49" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="49" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73" t="s">
-        <v>448</v>
-      </c>
-      <c r="C5" s="74" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74" t="s">
         <v>449</v>
       </c>
-      <c r="D5" s="74" t="s">
+      <c r="C5" s="75" t="s">
         <v>450</v>
       </c>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="75" t="s">
         <v>451</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="E5" s="73" t="s">
         <v>452</v>
       </c>
+      <c r="F5" s="76" t="s">
+        <v>453</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="72"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74" t="s">
-        <v>453</v>
-      </c>
-      <c r="D6" s="74" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75" t="s">
         <v>454</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="73"/>
+      <c r="D6" s="75" t="s">
+        <v>455</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="72"/>
-      <c r="B7" s="73"/>
-      <c r="C7" s="74" t="s">
-        <v>455</v>
-      </c>
-      <c r="D7" s="74" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75" t="s">
         <v>456</v>
       </c>
-      <c r="E7" s="72" t="s">
+      <c r="D7" s="75" t="s">
         <v>457</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="E7" s="73" t="s">
         <v>458</v>
       </c>
+      <c r="F7" s="75" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="72"/>
-      <c r="B8" s="50" t="s">
-        <v>459</v>
-      </c>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="48"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="51" t="s">
+        <v>460</v>
+      </c>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6323,8 +6349,8 @@
   <sheetPr/>
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F76" sqref="F76"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -6341,7 +6367,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="31" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -6356,7 +6382,7 @@
     <row r="6" ht="70" customHeight="1" spans="1:6">
       <c r="A6" s="30"/>
       <c r="B6" s="30" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C6" s="30"/>
       <c r="D6" s="30"/>
@@ -6365,16 +6391,16 @@
     </row>
     <row r="7" ht="40.5" spans="2:7">
       <c r="B7" s="30" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -6383,36 +6409,36 @@
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
       <c r="D8" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" ht="27" spans="2:7">
+    <row r="9" ht="71" customHeight="1" spans="2:7">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" ht="47" customHeight="1" spans="2:7">
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -6421,13 +6447,13 @@
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
       <c r="D11" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E11" s="31" t="s">
         <v>472</v>
       </c>
+      <c r="E11" s="45" t="s">
+        <v>473</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G11" s="3"/>
     </row>
@@ -6437,58 +6463,58 @@
       <c r="D12" s="30"/>
       <c r="E12" s="31"/>
       <c r="F12" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
       <c r="B13" s="30"/>
       <c r="C13" s="30" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>476</v>
-      </c>
-      <c r="E13" s="45" t="s">
         <v>477</v>
       </c>
+      <c r="E13" s="46" t="s">
+        <v>478</v>
+      </c>
       <c r="F13" s="42" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
       <c r="D14" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
       <c r="D15" s="31" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F15" s="31" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
@@ -6496,7 +6522,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="31"/>
       <c r="E16" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
@@ -6506,7 +6532,7 @@
       <c r="C17" s="30"/>
       <c r="D17" s="31"/>
       <c r="E17" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
@@ -6516,7 +6542,7 @@
       <c r="C18" s="30"/>
       <c r="D18" s="31"/>
       <c r="E18" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
@@ -6526,20 +6552,20 @@
       <c r="C19" s="30"/>
       <c r="D19" s="31"/>
       <c r="E19" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="30" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -6548,10 +6574,10 @@
     <row r="21" spans="2:7">
       <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -6560,10 +6586,10 @@
     <row r="22" spans="2:7">
       <c r="B22" s="30"/>
       <c r="C22" s="31" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -6573,7 +6599,7 @@
       <c r="B23" s="30"/>
       <c r="C23" s="31"/>
       <c r="D23" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -6582,93 +6608,93 @@
     <row r="24" ht="27" spans="2:7">
       <c r="B24" s="30"/>
       <c r="C24" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="30"/>
-      <c r="C25" s="46" t="s">
-        <v>502</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
+      <c r="C25" s="47" t="s">
+        <v>503</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
       <c r="B26" s="30"/>
-      <c r="C26" s="46" t="s">
-        <v>503</v>
-      </c>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
+      <c r="C26" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
       <c r="B27" s="31" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="D27" s="48" t="s">
         <v>506</v>
       </c>
-      <c r="E27" s="49" t="s">
-        <v>506</v>
+      <c r="D27" s="49" t="s">
+        <v>507</v>
+      </c>
+      <c r="E27" s="50" t="s">
+        <v>507</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
       <c r="B28" s="31"/>
       <c r="C28" s="31" t="s">
-        <v>508</v>
-      </c>
-      <c r="D28" s="48" t="s">
         <v>509</v>
       </c>
-      <c r="E28" s="49" t="s">
-        <v>509</v>
+      <c r="D28" s="49" t="s">
+        <v>510</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>510</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="E29" s="49" t="s">
-        <v>511</v>
+      <c r="D29" s="49" t="s">
+        <v>512</v>
+      </c>
+      <c r="E29" s="50" t="s">
+        <v>512</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
       <c r="B30" s="31"/>
       <c r="C30" s="31" t="s">
-        <v>513</v>
-      </c>
-      <c r="D30" s="48" t="s">
         <v>514</v>
       </c>
+      <c r="D30" s="49" t="s">
+        <v>515</v>
+      </c>
       <c r="E30" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -6676,11 +6702,11 @@
     <row r="31" spans="2:7">
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="50" t="s">
-        <v>516</v>
+      <c r="D31" s="51" t="s">
+        <v>517</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -6688,9 +6714,9 @@
     <row r="32" spans="2:7">
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
-      <c r="D32" s="50"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="44" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -6698,27 +6724,27 @@
     <row r="33" ht="23" customHeight="1" spans="2:7">
       <c r="B33" s="31"/>
       <c r="C33" s="31" t="s">
-        <v>519</v>
-      </c>
-      <c r="D33" s="48" t="s">
         <v>520</v>
       </c>
+      <c r="D33" s="49" t="s">
+        <v>521</v>
+      </c>
       <c r="E33" s="44" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
-      <c r="D34" s="48" t="s">
-        <v>523</v>
+      <c r="D34" s="49" t="s">
+        <v>524</v>
       </c>
       <c r="E34" s="44" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F34" s="30"/>
       <c r="G34" s="3"/>
@@ -6726,27 +6752,27 @@
     <row r="35" spans="2:7">
       <c r="B35" s="31"/>
       <c r="C35" s="31" t="s">
-        <v>525</v>
-      </c>
-      <c r="D35" s="48" t="s">
         <v>526</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="D35" s="49" t="s">
         <v>527</v>
       </c>
+      <c r="E35" s="52" t="s">
+        <v>528</v>
+      </c>
       <c r="F35" s="31" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
-      <c r="D36" s="48" t="s">
-        <v>529</v>
-      </c>
-      <c r="E36" s="51" t="s">
+      <c r="D36" s="49" t="s">
         <v>530</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>531</v>
       </c>
       <c r="F36" s="30"/>
       <c r="G36" s="3"/>
@@ -6754,11 +6780,11 @@
     <row r="37" ht="54" spans="2:7">
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
-      <c r="D37" s="48" t="s">
-        <v>531</v>
-      </c>
-      <c r="E37" s="52" t="s">
+      <c r="D37" s="49" t="s">
         <v>532</v>
+      </c>
+      <c r="E37" s="53" t="s">
+        <v>533</v>
       </c>
       <c r="F37" s="30"/>
       <c r="G37" s="3"/>
@@ -6766,13 +6792,13 @@
     <row r="38" spans="2:7">
       <c r="B38" s="31"/>
       <c r="C38" s="31" t="s">
-        <v>533</v>
-      </c>
-      <c r="D38" s="53" t="s">
         <v>534</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="D38" s="54" t="s">
         <v>535</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>536</v>
       </c>
       <c r="F38" s="30"/>
       <c r="G38" s="3"/>
@@ -6780,59 +6806,59 @@
     <row r="39" ht="108" spans="2:7">
       <c r="B39" s="31"/>
       <c r="C39" s="31" t="s">
-        <v>536</v>
-      </c>
-      <c r="D39" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="D39" s="54" t="s">
         <v>538</v>
       </c>
+      <c r="E39" s="55" t="s">
+        <v>539</v>
+      </c>
       <c r="F39" s="3" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
-      <c r="D40" s="53" t="s">
-        <v>541</v>
-      </c>
-      <c r="E40" s="55" t="s">
+      <c r="D40" s="54" t="s">
         <v>542</v>
+      </c>
+      <c r="E40" s="56" t="s">
+        <v>543</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
       <c r="B41" s="31"/>
       <c r="C41" s="31" t="s">
-        <v>544</v>
-      </c>
-      <c r="D41" s="49" t="s">
         <v>545</v>
       </c>
+      <c r="D41" s="50" t="s">
+        <v>546</v>
+      </c>
       <c r="E41" s="3" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
       <c r="B42" s="31"/>
       <c r="C42" s="31"/>
-      <c r="D42" s="49" t="s">
-        <v>548</v>
+      <c r="D42" s="50" t="s">
+        <v>549</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -6840,245 +6866,245 @@
     <row r="43" ht="33" customHeight="1" spans="2:7">
       <c r="B43" s="31"/>
       <c r="C43" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="D43" s="49" t="s">
         <v>551</v>
       </c>
+      <c r="D43" s="50" t="s">
+        <v>552</v>
+      </c>
       <c r="E43" s="3" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="56" t="s">
-        <v>554</v>
-      </c>
-      <c r="C44" s="56" t="s">
+      <c r="B44" s="57" t="s">
         <v>555</v>
       </c>
-      <c r="D44" s="49" t="s">
+      <c r="C44" s="57" t="s">
         <v>556</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="D44" s="50" t="s">
         <v>557</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="E44" s="50" t="s">
         <v>558</v>
       </c>
+      <c r="F44" s="58" t="s">
+        <v>559</v>
+      </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="56"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="49" t="s">
-        <v>559</v>
-      </c>
-      <c r="E45" s="52" t="s">
+      <c r="B45" s="57"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="F45" s="49" t="s">
+      <c r="E45" s="53" t="s">
         <v>561</v>
       </c>
+      <c r="F45" s="50" t="s">
+        <v>562</v>
+      </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="56"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="49" t="s">
-        <v>562</v>
-      </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="49"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="50" t="s">
+        <v>563</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="59"/>
-      <c r="C47" s="56" t="s">
-        <v>563</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="49"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="57" t="s">
+        <v>564</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="50"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="60" t="s">
-        <v>564</v>
-      </c>
-      <c r="C48" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="D48" s="57" t="s">
+      <c r="B48" s="61" t="s">
         <v>565</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="57"/>
+      <c r="C48" s="57" t="s">
+        <v>565</v>
+      </c>
+      <c r="D48" s="58" t="s">
+        <v>566</v>
+      </c>
+      <c r="E48" s="53"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="60"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="57" t="s">
-        <v>566</v>
-      </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="57"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="58" t="s">
+        <v>567</v>
+      </c>
+      <c r="E49" s="53"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="60"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="57" t="s">
-        <v>567</v>
+      <c r="B50" s="61"/>
+      <c r="C50" s="57"/>
+      <c r="D50" s="58" t="s">
+        <v>568</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F50" s="57"/>
+        <v>569</v>
+      </c>
+      <c r="F50" s="58"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="60"/>
-      <c r="C51" s="56"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="57"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="52"/>
+      <c r="E51" s="53"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
       <c r="B52" s="35" t="s">
-        <v>569</v>
-      </c>
-      <c r="C52" s="61" t="s">
         <v>570</v>
       </c>
+      <c r="C52" s="62" t="s">
+        <v>571</v>
+      </c>
       <c r="D52" s="3" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>572</v>
-      </c>
-      <c r="F52" s="62" t="s">
         <v>573</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="F52" s="63" t="s">
         <v>574</v>
+      </c>
+      <c r="G52" s="64" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
       <c r="B53" s="36"/>
-      <c r="C53" s="64"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="3" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="67"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
       <c r="B54" s="36"/>
-      <c r="C54" s="64"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="35" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="68"/>
+        <v>578</v>
+      </c>
+      <c r="F54" s="68"/>
+      <c r="G54" s="69"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
       <c r="B55" s="36"/>
-      <c r="C55" s="64"/>
+      <c r="C55" s="65"/>
       <c r="D55" s="36"/>
       <c r="E55" s="3" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="36"/>
-      <c r="C56" s="64"/>
+      <c r="C56" s="65"/>
       <c r="D56" s="36"/>
       <c r="E56" s="3" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" ht="27" spans="2:7">
       <c r="B57" s="37"/>
-      <c r="C57" s="69"/>
+      <c r="C57" s="70"/>
       <c r="D57" s="37"/>
       <c r="E57" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="70" t="s">
-        <v>582</v>
-      </c>
-      <c r="D62" s="71"/>
-      <c r="E62" s="71"/>
+      <c r="C62" s="71" t="s">
+        <v>583</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="71"/>
-      <c r="D63" s="71"/>
-      <c r="E63" s="71"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="71"/>
-      <c r="D64" s="71"/>
-      <c r="E64" s="71"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="71"/>
-      <c r="D66" s="71"/>
-      <c r="E66" s="71"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="71"/>
-      <c r="D67" s="71"/>
-      <c r="E67" s="71"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="71"/>
-      <c r="D68" s="71"/>
-      <c r="E68" s="71"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="71"/>
-      <c r="D70" s="71"/>
-      <c r="E70" s="71"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="71"/>
-      <c r="D71" s="71"/>
-      <c r="E71" s="71"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="71"/>
-      <c r="D72" s="71"/>
-      <c r="E72" s="71"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7126,7 +7152,7 @@
   <sheetPr/>
   <dimension ref="C18:H95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C84" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C34" workbookViewId="0">
       <selection activeCell="F94" sqref="F94"/>
     </sheetView>
   </sheetViews>
@@ -7143,16 +7169,16 @@
   <sheetData>
     <row r="18" ht="27" spans="3:8">
       <c r="C18" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="3"/>
@@ -7160,10 +7186,10 @@
     <row r="19" ht="54" spans="3:8">
       <c r="C19" s="10"/>
       <c r="D19" s="12" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="11"/>
@@ -7172,10 +7198,10 @@
     <row r="20" spans="3:8">
       <c r="C20" s="10"/>
       <c r="D20" s="11" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F20" s="14"/>
       <c r="G20" s="11"/>
@@ -7184,7 +7210,7 @@
     <row r="21" ht="72" customHeight="1" spans="3:8">
       <c r="C21" s="10"/>
       <c r="D21" s="12" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="14"/>
@@ -7193,17 +7219,17 @@
     </row>
     <row r="22" ht="32" customHeight="1" spans="3:8">
       <c r="C22" s="14" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="17" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="H22" s="3"/>
     </row>
@@ -7213,23 +7239,23 @@
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
       <c r="G23" s="17" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="H23" s="3"/>
     </row>
     <row r="24" ht="265" customHeight="1" spans="3:8">
       <c r="C24" s="14"/>
       <c r="D24" s="18" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G24" s="20" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H24" s="3"/>
     </row>
@@ -7238,20 +7264,20 @@
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H25" s="3"/>
     </row>
     <row r="26" ht="38" customHeight="1" spans="3:8">
       <c r="C26" s="14"/>
       <c r="D26" s="11" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -7260,42 +7286,42 @@
     <row r="27" ht="409" customHeight="1" spans="3:8">
       <c r="C27" s="14"/>
       <c r="D27" s="12" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="H27" s="3"/>
     </row>
     <row r="28" ht="58" customHeight="1" spans="3:8">
       <c r="C28" s="14"/>
       <c r="D28" s="11" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="G28" s="11"/>
       <c r="H28" s="3"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="21" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="E29" s="22" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -7304,13 +7330,13 @@
     <row r="30" spans="3:8">
       <c r="C30" s="21"/>
       <c r="D30" s="22" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E30" s="22" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G30" s="11"/>
       <c r="H30" s="3"/>
@@ -7318,26 +7344,26 @@
     <row r="31" ht="85" customHeight="1" spans="3:8">
       <c r="C31" s="21"/>
       <c r="D31" s="22" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" ht="37" customHeight="1" spans="3:8">
       <c r="C32" s="21"/>
       <c r="D32" s="25" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E32" s="22" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -7347,7 +7373,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="25"/>
       <c r="E33" s="23" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -7356,10 +7382,10 @@
     <row r="34" ht="83" customHeight="1" spans="3:8">
       <c r="C34" s="21"/>
       <c r="D34" s="22" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -7368,29 +7394,29 @@
     <row r="35" ht="44" customHeight="1" spans="3:8">
       <c r="C35" s="21"/>
       <c r="D35" s="22" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H35" s="3"/>
     </row>
     <row r="36" ht="27" spans="3:8">
       <c r="C36" s="21"/>
       <c r="D36" s="27" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="G36" s="11"/>
       <c r="H36" s="3"/>
@@ -7399,10 +7425,10 @@
       <c r="C37" s="21"/>
       <c r="D37" s="27"/>
       <c r="E37" s="25" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="3"/>
@@ -7412,10 +7438,10 @@
       <c r="D38" s="27"/>
       <c r="E38" s="25"/>
       <c r="F38" s="24" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H38" s="3"/>
     </row>
@@ -7424,10 +7450,10 @@
       <c r="D39" s="27"/>
       <c r="E39" s="25"/>
       <c r="F39" s="24" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H39" s="3"/>
     </row>
@@ -7436,10 +7462,10 @@
       <c r="D40" s="27"/>
       <c r="E40" s="25"/>
       <c r="F40" s="17" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="G40" s="28" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="H40" s="3"/>
     </row>
@@ -7448,20 +7474,20 @@
       <c r="D41" s="27"/>
       <c r="E41" s="25"/>
       <c r="F41" s="17" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="G41" s="17" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="H41" s="3"/>
     </row>
     <row r="42" ht="34" customHeight="1" spans="3:8">
       <c r="C42" s="21"/>
       <c r="D42" s="22" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="E42" s="23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -7469,13 +7495,13 @@
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="2" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -7484,10 +7510,10 @@
     <row r="44" ht="53" customHeight="1" spans="3:8">
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -7499,7 +7525,7 @@
         <v>65</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -7511,7 +7537,7 @@
         <v>68</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -7519,29 +7545,29 @@
     </row>
     <row r="47" ht="99" customHeight="1" spans="3:8">
       <c r="C47" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="H47" s="3"/>
     </row>
     <row r="48" ht="48" customHeight="1" spans="3:8">
       <c r="C48" s="2"/>
       <c r="D48" s="3" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -7550,13 +7576,13 @@
     <row r="49" ht="34" customHeight="1" spans="3:8">
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -7564,13 +7590,13 @@
     <row r="50" ht="34" customHeight="1" spans="3:8">
       <c r="C50" s="2"/>
       <c r="D50" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -7578,13 +7604,13 @@
     <row r="51" ht="107" customHeight="1" spans="3:8">
       <c r="C51" s="2"/>
       <c r="D51" s="30" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
@@ -7593,10 +7619,10 @@
       <c r="C52" s="2"/>
       <c r="D52" s="30"/>
       <c r="E52" s="3" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
@@ -7604,13 +7630,13 @@
     <row r="53" ht="40.5" spans="3:8">
       <c r="C53" s="2"/>
       <c r="D53" s="3" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F53" s="29" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
@@ -7618,16 +7644,16 @@
     <row r="54" spans="3:8">
       <c r="C54" s="2"/>
       <c r="D54" s="30" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G54" s="31" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H54" s="3"/>
     </row>
@@ -7635,7 +7661,7 @@
       <c r="C55" s="2"/>
       <c r="D55" s="30"/>
       <c r="E55" s="3" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="30"/>
@@ -7645,10 +7671,10 @@
       <c r="C56" s="2"/>
       <c r="D56" s="30"/>
       <c r="E56" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G56" s="30"/>
       <c r="H56" s="3"/>
@@ -7656,13 +7682,13 @@
     <row r="57" ht="77" customHeight="1" spans="3:8">
       <c r="C57" s="2"/>
       <c r="D57" s="32" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
@@ -7671,10 +7697,10 @@
       <c r="C58" s="2"/>
       <c r="D58" s="32"/>
       <c r="E58" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
@@ -7683,13 +7709,13 @@
       <c r="C59" s="2"/>
       <c r="D59" s="32"/>
       <c r="E59" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H59" s="3"/>
     </row>
@@ -7697,13 +7723,13 @@
       <c r="C60" s="2"/>
       <c r="D60" s="32"/>
       <c r="E60" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H60" s="3"/>
     </row>
@@ -7711,10 +7737,10 @@
       <c r="C61" s="2"/>
       <c r="D61" s="32"/>
       <c r="E61" s="3" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="3"/>
@@ -7723,13 +7749,13 @@
       <c r="C62" s="2"/>
       <c r="D62" s="32"/>
       <c r="E62" s="33" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H62" s="3"/>
     </row>
@@ -7737,13 +7763,13 @@
       <c r="C63" s="2"/>
       <c r="D63" s="32"/>
       <c r="E63" s="34" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="H63" s="3"/>
     </row>
@@ -7752,13 +7778,13 @@
       <c r="D64" s="32"/>
       <c r="E64" s="34"/>
       <c r="F64" s="30" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H64" s="31" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="65" ht="100" customHeight="1" spans="3:8">
@@ -7767,10 +7793,10 @@
       <c r="E65" s="34"/>
       <c r="F65" s="30"/>
       <c r="G65" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="66" ht="54" customHeight="1" spans="3:8">
@@ -7778,37 +7804,37 @@
       <c r="D66" s="32"/>
       <c r="E66" s="34"/>
       <c r="F66" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="H66" s="3"/>
     </row>
     <row r="67" ht="74" customHeight="1" spans="5:5">
       <c r="E67" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="3:6">
       <c r="C74" s="2" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F74" s="35" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="75" spans="3:6">
       <c r="C75" s="2"/>
       <c r="D75" s="7"/>
       <c r="E75" s="3" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F75" s="36"/>
     </row>
@@ -7816,33 +7842,33 @@
       <c r="C76" s="2"/>
       <c r="D76" s="9"/>
       <c r="E76" s="3" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F76" s="37"/>
     </row>
     <row r="77" ht="27" spans="3:7">
       <c r="C77" s="2"/>
       <c r="D77" s="35" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F77" s="38" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="G77" s="39" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="78" spans="3:7">
       <c r="C78" s="2"/>
       <c r="D78" s="36"/>
       <c r="E78" s="3" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G78" s="40"/>
     </row>
@@ -7850,7 +7876,7 @@
       <c r="C79" s="2"/>
       <c r="D79" s="37"/>
       <c r="E79" s="3" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="F79" s="38"/>
       <c r="G79" s="41"/>
@@ -7858,23 +7884,23 @@
     <row r="80" spans="3:6">
       <c r="C80" s="2"/>
       <c r="D80" s="30" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="81" spans="3:6">
       <c r="C81" s="2"/>
       <c r="D81" s="30"/>
       <c r="E81" s="3" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="82" spans="3:6">
@@ -7882,50 +7908,50 @@
       <c r="D82" s="30"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="83" ht="27" spans="3:6">
       <c r="C83" s="2"/>
       <c r="D83" s="30"/>
       <c r="E83" s="3" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="84" customFormat="1" ht="62" customHeight="1" spans="3:6">
       <c r="C84" s="2"/>
       <c r="D84" s="30" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="85" customFormat="1" ht="108" spans="3:6">
       <c r="C85" s="2"/>
       <c r="D85" s="3" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="86" spans="3:6">
       <c r="C86" s="2"/>
       <c r="D86" s="43" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F86" s="3"/>
     </row>
@@ -7933,91 +7959,91 @@
       <c r="C87" s="2"/>
       <c r="D87" s="36"/>
       <c r="E87" s="44" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="88" ht="74" customHeight="1" spans="3:6">
       <c r="C88" s="2"/>
       <c r="D88" s="36"/>
       <c r="E88" s="44" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="89" ht="26" customHeight="1" spans="3:6">
       <c r="C89" s="2"/>
       <c r="D89" s="37"/>
       <c r="E89" s="3" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" spans="3:6">
       <c r="C90" s="2"/>
       <c r="D90" s="35" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="91" spans="3:6">
       <c r="C91" s="2"/>
       <c r="D91" s="36"/>
       <c r="E91" s="3" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="92" spans="3:6">
       <c r="C92" s="2"/>
       <c r="D92" s="36"/>
       <c r="E92" s="8" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="93" spans="3:6">
       <c r="C93" s="2"/>
       <c r="D93" s="36"/>
       <c r="E93" s="3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="94" spans="3:6">
       <c r="C94" s="2"/>
       <c r="D94" s="37"/>
       <c r="E94" s="3" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="95" ht="27" spans="3:6">
       <c r="C95" s="2"/>
       <c r="D95" s="3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F95" s="3"/>
     </row>
@@ -8078,16 +8104,16 @@
   <sheetData>
     <row r="8" ht="40.5" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8096,10 +8122,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8108,10 +8134,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8120,10 +8146,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8131,16 +8157,16 @@
     <row r="12" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -8150,10 +8176,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8161,10 +8187,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -8174,7 +8200,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -8184,7 +8210,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -8194,7 +8220,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -8204,7 +8230,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -8214,7 +8240,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -8223,7 +8249,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
@@ -8232,7 +8258,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -8242,7 +8268,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8252,7 +8278,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8289,29 +8315,29 @@
   <sheetData>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G17" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="H17" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="I17" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="J17" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -8371,16 +8397,16 @@
       <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="165" t="s">
+      <c r="D13" s="168" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="166" t="s">
+      <c r="F13" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="167" t="s">
+      <c r="G13" s="170" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8388,12 +8414,12 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="165"/>
+      <c r="D14" s="168"/>
       <c r="E14" s="37"/>
-      <c r="F14" s="168" t="s">
+      <c r="F14" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="169" t="s">
+      <c r="G14" s="172" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8401,14 +8427,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="170"/>
+      <c r="D15" s="173"/>
       <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="171" t="s">
+      <c r="F15" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="172"/>
+      <c r="G15" s="175"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="2"/>
@@ -8449,11 +8475,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="173" t="s">
+      <c r="B19" s="176" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="178"/>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
@@ -8625,78 +8651,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="160" t="s">
+      <c r="B5" s="163" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="161" t="s">
+      <c r="D5" s="164" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="135" t="s">
+      <c r="E5" s="136" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="160"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="161" t="s">
+      <c r="E6" s="164" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="163" t="s">
+      <c r="C7" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="164" t="s">
+      <c r="D7" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="164" t="s">
+      <c r="E7" s="167" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="162"/>
-      <c r="C8" s="163" t="s">
+      <c r="B8" s="165"/>
+      <c r="C8" s="166" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="163" t="s">
+      <c r="D8" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="164" t="s">
+      <c r="E8" s="167" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="162"/>
-      <c r="C9" s="163" t="s">
+      <c r="B9" s="165"/>
+      <c r="C9" s="166" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="163" t="s">
+      <c r="D9" s="166" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="164" t="s">
+      <c r="E9" s="167" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="162"/>
-      <c r="C10" s="163" t="s">
+      <c r="B10" s="165"/>
+      <c r="C10" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="163" t="s">
+      <c r="D10" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="164" t="s">
+      <c r="E10" s="167" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8713,13 +8739,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:G18"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="K7 J7"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
     <col min="4" max="4" width="13.5752212389381" customWidth="1"/>
@@ -8732,231 +8758,245 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="152" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="153" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="154" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="G1" s="153" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="153" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="154" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="153" t="s">
+      <c r="G2" s="154" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="153" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="152" t="s">
+      <c r="E3" s="155"/>
+      <c r="F3" s="153" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="153" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="154" t="s">
+      <c r="B4" s="152"/>
+      <c r="C4" s="152"/>
+      <c r="D4" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155" t="s">
+      <c r="E4" s="155"/>
+      <c r="F4" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="154" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152" t="s">
+      <c r="B5" s="152"/>
+      <c r="C5" s="152"/>
+      <c r="D5" s="153" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="157" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="158" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="153" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="153" t="s">
+      <c r="B6" s="152"/>
+      <c r="C6" s="152"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="157"/>
+      <c r="F6" s="154" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="152"/>
+      <c r="G6" s="153"/>
     </row>
     <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="158" t="s">
+      <c r="B7" s="152"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="159" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="154" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="156" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="153" t="s">
+      <c r="G7" s="154" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="151"/>
-      <c r="C8" s="151" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="152"/>
+      <c r="C8" s="152" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="159" t="s">
+      <c r="D8" s="152"/>
+      <c r="E8" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="159" t="s">
+      <c r="F8" s="160"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="159" t="s">
+      <c r="I8" s="162"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="152"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="152"/>
+      <c r="E9" s="160" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="159" t="s">
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="162"/>
+      <c r="I9" s="162"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="152"/>
+      <c r="C10" s="152"/>
+      <c r="D10" s="152"/>
+      <c r="E10" s="160" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="159" t="s">
+      <c r="F10" s="160"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="162"/>
+      <c r="I10" s="162"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="160" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="159" t="s">
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="160"/>
+      <c r="G13" s="160"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="151"/>
-      <c r="C14" s="151" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="151" t="s">
+      <c r="B14" s="152"/>
+      <c r="C14" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="E14" s="159" t="s">
+      <c r="D14" s="152" t="s">
         <v>110</v>
       </c>
-      <c r="F14" s="152" t="s">
+      <c r="E14" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="G14" s="159"/>
+      <c r="F14" s="153" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="160"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="159" t="s">
-        <v>112</v>
-      </c>
-      <c r="F15" s="154"/>
-      <c r="G15" s="159"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="160" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="155"/>
+      <c r="G15" s="160"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151" t="s">
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="159" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="154"/>
-      <c r="G16" s="159"/>
+      <c r="E16" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="155"/>
+      <c r="G16" s="160"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="159" t="s">
-        <v>114</v>
-      </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="159"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="152"/>
+      <c r="E17" s="160" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="155"/>
+      <c r="G17" s="160"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="159" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="154"/>
-      <c r="G18" s="159"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="160" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" s="155"/>
+      <c r="G18" s="160"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="B1:B18"/>
@@ -8970,6 +9010,7 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H8:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8997,378 +9038,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="131" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
+      <c r="A1" s="132" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="133" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="134" t="s">
+      <c r="A2" s="134" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
+      <c r="B2" s="135" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="135" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="134"/>
+      <c r="C3" s="136" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="135"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="134" t="s">
+      <c r="A4" s="134"/>
+      <c r="B4" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="134"/>
+      <c r="C4" s="135" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="135"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="135" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="D5" s="134"/>
+      <c r="C5" s="136" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="135"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="133"/>
-      <c r="B6" s="134" t="s">
-        <v>125</v>
-      </c>
-      <c r="C6" s="135" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="D6" s="134"/>
+      <c r="C6" s="136" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="135"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="133"/>
-      <c r="B7" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="135" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="134"/>
+      <c r="C7" s="136" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="135"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="133"/>
-      <c r="B8" s="133" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="135" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="134"/>
+      <c r="C8" s="136" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="135"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="133"/>
-      <c r="B9" s="133" t="s">
-        <v>131</v>
-      </c>
-      <c r="C9" s="135" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="135" t="s">
+      <c r="C9" s="136" t="s">
         <v>133</v>
       </c>
+      <c r="D9" s="136" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="133"/>
-      <c r="B10" s="134" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="135" t="s">
+      <c r="A10" s="134"/>
+      <c r="B10" s="135" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="C10" s="136" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="135"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="133"/>
-      <c r="B11" s="134" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="135" t="s">
+      <c r="A11" s="134"/>
+      <c r="B11" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="134"/>
+      <c r="C11" s="136" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="135"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="136" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="136" t="s">
+      <c r="A12" s="137" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="137" t="s">
+      <c r="B12" s="137" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="C12" s="138" t="s">
         <v>141</v>
       </c>
+      <c r="D12" s="138" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="138"/>
-      <c r="B13" s="138"/>
-      <c r="C13" s="137" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="137" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="138" t="s">
         <v>143</v>
       </c>
+      <c r="D13" s="138" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="138"/>
-      <c r="B14" s="139"/>
-      <c r="C14" s="137" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="137" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="138" t="s">
         <v>145</v>
       </c>
+      <c r="D14" s="138" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="138"/>
-      <c r="B15" s="136" t="s">
-        <v>146</v>
-      </c>
-      <c r="C15" s="137" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="C15" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="141"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="140" t="s">
-        <v>148</v>
+      <c r="A16" s="139"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D16" s="141" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="138"/>
-      <c r="B17" s="138"/>
-      <c r="C17" s="137" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="137" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="138" t="s">
         <v>150</v>
       </c>
+      <c r="D17" s="138" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="138"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="137" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="137" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="138" t="s">
         <v>152</v>
       </c>
+      <c r="D18" s="138" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="138"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="137" t="s">
+      <c r="A19" s="139"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="138" t="s">
         <v>154</v>
       </c>
+      <c r="D19" s="138" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="138"/>
-      <c r="B20" s="136" t="s">
-        <v>155</v>
-      </c>
-      <c r="C20" s="137" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="C20" s="138" t="s">
         <v>157</v>
       </c>
+      <c r="D20" s="138" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="139"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="137" t="s">
-        <v>158</v>
-      </c>
-      <c r="D21" s="137" t="s">
+      <c r="A21" s="140"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="138" t="s">
         <v>159</v>
       </c>
+      <c r="D21" s="138" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="141" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="142" t="s">
+      <c r="A22" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="C22" s="143" t="s">
+      <c r="B22" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="D22" s="143" t="s">
+      <c r="C22" s="144" t="s">
         <v>163</v>
       </c>
+      <c r="D22" s="144" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="144"/>
-      <c r="B23" s="142" t="s">
-        <v>164</v>
-      </c>
-      <c r="C23" s="143" t="s">
+      <c r="A23" s="145"/>
+      <c r="B23" s="143" t="s">
         <v>165</v>
       </c>
-      <c r="D23" s="143" t="s">
+      <c r="C23" s="144" t="s">
         <v>166</v>
       </c>
+      <c r="D23" s="144" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="144"/>
-      <c r="B24" s="142" t="s">
-        <v>167</v>
-      </c>
-      <c r="C24" s="143" t="s">
+      <c r="A24" s="145"/>
+      <c r="B24" s="143" t="s">
         <v>168</v>
       </c>
-      <c r="D24" s="143" t="s">
+      <c r="C24" s="144" t="s">
         <v>169</v>
       </c>
+      <c r="D24" s="144" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="144"/>
-      <c r="B25" s="142" t="s">
-        <v>170</v>
-      </c>
-      <c r="C25" s="143" t="s">
+      <c r="A25" s="145"/>
+      <c r="B25" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="D25" s="143"/>
+      <c r="C25" s="144" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="144"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="144"/>
-      <c r="B26" s="142" t="s">
-        <v>172</v>
-      </c>
-      <c r="C26" s="143" t="s">
+      <c r="A26" s="145"/>
+      <c r="B26" s="143" t="s">
         <v>173</v>
       </c>
-      <c r="D26" s="143" t="s">
+      <c r="C26" s="144" t="s">
         <v>174</v>
       </c>
+      <c r="D26" s="144" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="144"/>
-      <c r="B27" s="142" t="s">
-        <v>175</v>
-      </c>
-      <c r="C27" s="145" t="s">
+      <c r="A27" s="145"/>
+      <c r="B27" s="143" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="143" t="s">
+      <c r="C27" s="146" t="s">
         <v>177</v>
       </c>
+      <c r="D27" s="144" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="144"/>
-      <c r="B28" s="142" t="s">
-        <v>178</v>
-      </c>
-      <c r="C28" s="143" t="s">
+      <c r="A28" s="145"/>
+      <c r="B28" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="D28" s="143" t="s">
+      <c r="C28" s="144" t="s">
         <v>180</v>
       </c>
+      <c r="D28" s="144" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="144"/>
-      <c r="B29" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="C29" s="143" t="s">
+      <c r="A29" s="145"/>
+      <c r="B29" s="143" t="s">
         <v>182</v>
       </c>
-      <c r="D29" s="143" t="s">
+      <c r="C29" s="144" t="s">
         <v>183</v>
       </c>
+      <c r="D29" s="144" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="146"/>
-      <c r="B30" s="142" t="s">
-        <v>184</v>
-      </c>
-      <c r="C30" s="145" t="s">
+      <c r="A30" s="147"/>
+      <c r="B30" s="143" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="143" t="s">
+      <c r="C30" s="146" t="s">
         <v>186</v>
+      </c>
+      <c r="D30" s="144" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="147" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="116" t="s">
+      <c r="A32" s="148" t="s">
         <v>188</v>
       </c>
-      <c r="C32" s="116" t="s">
+      <c r="B32" s="117" t="s">
         <v>189</v>
       </c>
+      <c r="C32" s="117" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="148" t="s">
-        <v>190</v>
-      </c>
-      <c r="B34" s="116" t="s">
+      <c r="A34" s="149" t="s">
         <v>191</v>
       </c>
-      <c r="C34" s="116" t="s">
+      <c r="B34" s="117" t="s">
         <v>192</v>
+      </c>
+      <c r="C34" s="117" t="s">
+        <v>193</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="149"/>
-      <c r="B35" s="116" t="s">
-        <v>193</v>
-      </c>
-      <c r="C35" s="116" t="s">
+      <c r="A35" s="150"/>
+      <c r="B35" s="117" t="s">
         <v>194</v>
       </c>
+      <c r="C35" s="117" t="s">
+        <v>195</v>
+      </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="150"/>
+      <c r="E35" s="151"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="147" t="s">
-        <v>195</v>
-      </c>
-      <c r="B36" s="128" t="s">
+      <c r="A36" s="148" t="s">
         <v>196</v>
       </c>
-      <c r="C36" s="128"/>
-      <c r="D36" s="147" t="s">
+      <c r="B36" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="E36" s="150"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="148" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9405,61 +9446,61 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="119" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="128" t="s">
+      <c r="D9" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="128" t="s">
+      <c r="E9" s="129" t="s">
         <v>200</v>
       </c>
-      <c r="G9" s="129" t="s">
+      <c r="F9" s="129" t="s">
         <v>201</v>
       </c>
+      <c r="G9" s="130" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="119"/>
-      <c r="E10" s="128" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="128" t="s">
+      <c r="D10" s="120"/>
+      <c r="E10" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G10" s="128" t="s">
+      <c r="F10" s="129" t="s">
         <v>204</v>
       </c>
+      <c r="G10" s="129" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="119"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="130" t="s">
-        <v>205</v>
+      <c r="D11" s="120"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="131" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="119"/>
-      <c r="E12" s="130" t="s">
-        <v>206</v>
-      </c>
-      <c r="F12" s="119" t="s">
+      <c r="D12" s="120"/>
+      <c r="E12" s="131" t="s">
         <v>207</v>
       </c>
-      <c r="G12" s="116" t="s">
+      <c r="F12" s="120" t="s">
         <v>208</v>
       </c>
+      <c r="G12" s="117" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="119"/>
-      <c r="E13" s="128" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="119" t="s">
+      <c r="D13" s="120"/>
+      <c r="E13" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="116" t="s">
+      <c r="F13" s="120" t="s">
         <v>211</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -9494,135 +9535,135 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="116"/>
-      <c r="F7" s="117" t="s">
-        <v>212</v>
-      </c>
-      <c r="G7" s="116" t="s">
+      <c r="E7" s="117"/>
+      <c r="F7" s="118" t="s">
         <v>213</v>
       </c>
-      <c r="H7" s="116" t="s">
+      <c r="G7" s="117" t="s">
         <v>214</v>
       </c>
+      <c r="H7" s="117" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="116"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="116" t="s">
-        <v>215</v>
-      </c>
-      <c r="H8" s="116" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="117" t="s">
         <v>216</v>
       </c>
+      <c r="H8" s="117" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="119" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="117" t="s">
+      <c r="E9" s="120" t="s">
         <v>218</v>
       </c>
-      <c r="G9" s="116" t="s">
+      <c r="F9" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="H9" s="116" t="s">
+      <c r="G9" s="117" t="s">
         <v>220</v>
       </c>
+      <c r="H9" s="117" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="119"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="H10" s="121" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="I10" s="123" t="s">
+      <c r="H10" s="122" t="s">
         <v>223</v>
       </c>
+      <c r="I10" s="124" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="122"/>
-      <c r="F11" s="123" t="s">
-        <v>224</v>
-      </c>
-      <c r="G11" s="120" t="s">
-        <v>221</v>
-      </c>
-      <c r="H11" s="121" t="s">
+      <c r="E11" s="123"/>
+      <c r="F11" s="124" t="s">
         <v>225</v>
       </c>
-      <c r="I11" s="126"/>
+      <c r="G11" s="121" t="s">
+        <v>222</v>
+      </c>
+      <c r="H11" s="122" t="s">
+        <v>226</v>
+      </c>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="122"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="117" t="s">
-        <v>226</v>
-      </c>
-      <c r="H12" s="121" t="s">
+      <c r="E12" s="123"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="118" t="s">
         <v>227</v>
       </c>
+      <c r="H12" s="122" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="122"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="125" t="s">
-        <v>228</v>
+      <c r="E13" s="123"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="126" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="122"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="116" t="s">
-        <v>229</v>
+      <c r="E14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="117" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="122"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="121" t="s">
-        <v>230</v>
+      <c r="E15" s="123"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="122" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="122"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="127"/>
-      <c r="H16" s="116" t="s">
-        <v>231</v>
+      <c r="E16" s="123"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="117" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="122"/>
-      <c r="F17" s="119" t="s">
-        <v>232</v>
-      </c>
-      <c r="G17" s="119" t="s">
+      <c r="E17" s="123"/>
+      <c r="F17" s="120" t="s">
         <v>233</v>
       </c>
-      <c r="H17" s="116" t="s">
+      <c r="G17" s="120" t="s">
         <v>234</v>
       </c>
+      <c r="H17" s="117" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="122"/>
-      <c r="F18" s="119"/>
-      <c r="G18" s="119"/>
-      <c r="H18" s="116" t="s">
-        <v>235</v>
+      <c r="E18" s="123"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="117" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="122"/>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="116" t="s">
-        <v>236</v>
+      <c r="E19" s="123"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="117" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -9660,582 +9701,582 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="B1" s="88" t="s">
+      <c r="A1" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="B1" s="89" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="90"/>
+      <c r="D1" s="90" t="s">
+        <v>241</v>
+      </c>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88" t="s">
-        <v>237</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="89" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="90" t="s">
         <v>242</v>
       </c>
-      <c r="E2" s="91"/>
+      <c r="D2" s="90" t="s">
+        <v>243</v>
+      </c>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="87"/>
-      <c r="B3" s="88" t="s">
-        <v>243</v>
-      </c>
-      <c r="C3" s="92" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="C3" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="91"/>
+      <c r="D3" s="90" t="s">
+        <v>246</v>
+      </c>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88" t="s">
-        <v>246</v>
-      </c>
-      <c r="C4" s="93" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="C4" s="94" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="91"/>
+      <c r="D4" s="90" t="s">
+        <v>249</v>
+      </c>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="93" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="89" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="94" t="s">
         <v>250</v>
       </c>
-      <c r="E5" s="91"/>
+      <c r="D5" s="90" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="92"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="87"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="93" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="89" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="E6" s="91"/>
+      <c r="D6" s="90" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="87"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="93" t="s">
-        <v>253</v>
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="94" t="s">
+        <v>254</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="E7" s="89" t="s">
         <v>255</v>
       </c>
+      <c r="E7" s="90" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="D8" s="89" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="E8" s="89" t="s">
+      <c r="D8" s="90" t="s">
         <v>258</v>
       </c>
+      <c r="E8" s="90" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="87"/>
-      <c r="B9" s="88" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="94" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="C9" s="95" t="s">
         <v>261</v>
       </c>
-      <c r="E9" s="89"/>
+      <c r="D9" s="90" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="87"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="94" t="s">
-        <v>262</v>
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="95" t="s">
+        <v>263</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="E10" s="89"/>
+        <v>264</v>
+      </c>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88" t="s">
-        <v>264</v>
-      </c>
-      <c r="C11" s="94" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="C11" s="95" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="89"/>
+      <c r="D11" s="90" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="87"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="94" t="s">
-        <v>267</v>
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="95" t="s">
+        <v>268</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="E12" s="89"/>
+        <v>269</v>
+      </c>
+      <c r="E12" s="90"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="87"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="94" t="s">
-        <v>269</v>
-      </c>
-      <c r="D13" s="89" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="E13" s="89"/>
+      <c r="D13" s="90" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13" s="90"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="87"/>
-      <c r="B14" s="88" t="s">
-        <v>271</v>
-      </c>
-      <c r="C14" s="94" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="C14" s="95" t="s">
         <v>273</v>
       </c>
-      <c r="E14" s="89"/>
+      <c r="D14" s="90" t="s">
+        <v>274</v>
+      </c>
+      <c r="E14" s="90"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="87"/>
-      <c r="B15" s="95" t="s">
-        <v>274</v>
-      </c>
-      <c r="C15" s="94" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="96" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="89" t="s">
+      <c r="C15" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="E15" s="89" t="s">
+      <c r="D15" s="90" t="s">
         <v>277</v>
       </c>
+      <c r="E15" s="90" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="87"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="94" t="s">
-        <v>278</v>
+      <c r="A16" s="88"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="95" t="s">
+        <v>279</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="E16" s="89" t="s">
         <v>280</v>
       </c>
+      <c r="E16" s="90" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="87"/>
-      <c r="B17" s="88" t="s">
-        <v>281</v>
+      <c r="A17" s="88"/>
+      <c r="B17" s="89" t="s">
+        <v>282</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>282</v>
-      </c>
-      <c r="D17" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="E17" s="89" t="s">
+      <c r="D17" s="90" t="s">
         <v>284</v>
       </c>
+      <c r="E17" s="90" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="18"/>
-      <c r="D18" s="89" t="s">
-        <v>285</v>
-      </c>
-      <c r="E18" s="89" t="s">
+      <c r="D18" s="90" t="s">
         <v>286</v>
       </c>
+      <c r="E18" s="90" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="97" t="s">
-        <v>287</v>
-      </c>
-      <c r="B19" s="98" t="s">
+      <c r="A19" s="98" t="s">
         <v>288</v>
       </c>
-      <c r="C19" s="89" t="s">
+      <c r="B19" s="99" t="s">
         <v>289</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="C19" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="D19" s="92" t="s">
+        <v>291</v>
+      </c>
+      <c r="E19" s="100"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="97"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="89" t="s">
-        <v>291</v>
-      </c>
-      <c r="D20" s="91" t="s">
+      <c r="A20" s="98"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="D20" s="92" t="s">
         <v>293</v>
       </c>
+      <c r="E20" s="102" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="97"/>
-      <c r="B21" s="102" t="s">
-        <v>294</v>
-      </c>
-      <c r="C21" s="101" t="s">
+      <c r="A21" s="98"/>
+      <c r="B21" s="103" t="s">
         <v>295</v>
       </c>
-      <c r="D21" s="89" t="s">
+      <c r="C21" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="E21" s="103"/>
+      <c r="D21" s="90" t="s">
+        <v>297</v>
+      </c>
+      <c r="E21" s="104"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="97"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="89" t="s">
-        <v>297</v>
-      </c>
-      <c r="E22" s="96"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="90" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="97"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="105" t="s">
-        <v>298</v>
-      </c>
-      <c r="B23" s="106" t="s">
+      <c r="A23" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="C23" s="89" t="s">
+      <c r="B23" s="107" t="s">
         <v>300</v>
       </c>
+      <c r="C23" s="90" t="s">
+        <v>301</v>
+      </c>
       <c r="D23" s="18" t="s">
-        <v>301</v>
-      </c>
-      <c r="E23" s="87"/>
+        <v>302</v>
+      </c>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="89" t="s">
-        <v>302</v>
+      <c r="A24" s="108"/>
+      <c r="B24" s="109"/>
+      <c r="C24" s="90" t="s">
+        <v>303</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="E24" s="87"/>
+        <v>304</v>
+      </c>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="107"/>
-      <c r="B25" s="109" t="s">
-        <v>304</v>
-      </c>
-      <c r="C25" s="89" t="s">
+      <c r="A25" s="108"/>
+      <c r="B25" s="110" t="s">
         <v>305</v>
       </c>
+      <c r="C25" s="90" t="s">
+        <v>306</v>
+      </c>
       <c r="D25" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="E25" s="87"/>
+        <v>307</v>
+      </c>
+      <c r="E25" s="88"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="107"/>
-      <c r="B26" s="109" t="s">
-        <v>307</v>
-      </c>
-      <c r="C26" s="89" t="s">
+      <c r="A26" s="108"/>
+      <c r="B26" s="110" t="s">
         <v>308</v>
       </c>
+      <c r="C26" s="90" t="s">
+        <v>309</v>
+      </c>
       <c r="D26" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="E26" s="88" t="s">
         <v>310</v>
       </c>
+      <c r="E26" s="89" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="107"/>
-      <c r="B27" s="106" t="s">
-        <v>311</v>
-      </c>
-      <c r="C27" s="89" t="s">
+      <c r="A27" s="108"/>
+      <c r="B27" s="107" t="s">
         <v>312</v>
       </c>
+      <c r="C27" s="90" t="s">
+        <v>313</v>
+      </c>
       <c r="D27" s="18" t="s">
-        <v>313</v>
-      </c>
-      <c r="E27" s="87"/>
+        <v>314</v>
+      </c>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="107"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="89" t="s">
-        <v>314</v>
+      <c r="A28" s="108"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="90" t="s">
+        <v>315</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>315</v>
-      </c>
-      <c r="E28" s="87"/>
+        <v>316</v>
+      </c>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="107"/>
+      <c r="A29" s="108"/>
       <c r="B29" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D29" s="18"/>
-      <c r="E29" s="87"/>
+      <c r="E29" s="88"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="107"/>
+      <c r="A30" s="108"/>
       <c r="B30" s="18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>320</v>
-      </c>
-      <c r="E30" s="87"/>
+        <v>321</v>
+      </c>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="107"/>
-      <c r="B31" s="88" t="s">
-        <v>321</v>
-      </c>
-      <c r="C31" s="91" t="s">
+      <c r="A31" s="108"/>
+      <c r="B31" s="89" t="s">
         <v>322</v>
       </c>
+      <c r="C31" s="92" t="s">
+        <v>323</v>
+      </c>
       <c r="D31" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="E31" s="87"/>
+        <v>324</v>
+      </c>
+      <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="107"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88" t="s">
-        <v>324</v>
+      <c r="A32" s="108"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89" t="s">
+        <v>325</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="E32" s="87"/>
+        <v>326</v>
+      </c>
+      <c r="E32" s="88"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="107"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
       <c r="D33" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="E33" s="87"/>
+        <v>327</v>
+      </c>
+      <c r="E33" s="88"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="107"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="18" t="s">
-        <v>327</v>
-      </c>
-      <c r="E34" s="87"/>
+        <v>328</v>
+      </c>
+      <c r="E34" s="88"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="107"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
       <c r="D35" s="18" t="s">
-        <v>328</v>
-      </c>
-      <c r="E35" s="87"/>
+        <v>329</v>
+      </c>
+      <c r="E35" s="88"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="107"/>
-      <c r="B36" s="110" t="s">
-        <v>329</v>
+      <c r="A36" s="108"/>
+      <c r="B36" s="111" t="s">
+        <v>330</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="E36" s="88"/>
+        <v>332</v>
+      </c>
+      <c r="E36" s="89"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="107"/>
-      <c r="B37" s="88" t="s">
-        <v>332</v>
-      </c>
-      <c r="C37" s="91" t="s">
+      <c r="A37" s="108"/>
+      <c r="B37" s="89" t="s">
         <v>333</v>
       </c>
+      <c r="C37" s="92" t="s">
+        <v>334</v>
+      </c>
       <c r="D37" s="18" t="s">
-        <v>334</v>
-      </c>
-      <c r="E37" s="87"/>
+        <v>335</v>
+      </c>
+      <c r="E37" s="88"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="107"/>
-      <c r="B38" s="50" t="s">
-        <v>335</v>
-      </c>
-      <c r="C38" s="48" t="s">
+      <c r="A38" s="108"/>
+      <c r="B38" s="51" t="s">
         <v>336</v>
       </c>
+      <c r="C38" s="49" t="s">
+        <v>337</v>
+      </c>
       <c r="D38" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="E38" s="87"/>
+        <v>338</v>
+      </c>
+      <c r="E38" s="88"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="107"/>
-      <c r="B39" s="88" t="s">
-        <v>338</v>
-      </c>
-      <c r="C39" s="91" t="s">
+      <c r="A39" s="108"/>
+      <c r="B39" s="89" t="s">
         <v>339</v>
       </c>
+      <c r="C39" s="92" t="s">
+        <v>340</v>
+      </c>
       <c r="D39" s="18"/>
-      <c r="E39" s="87"/>
+      <c r="E39" s="88"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="107"/>
+      <c r="A40" s="108"/>
       <c r="B40" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C40" s="89" t="s">
         <v>341</v>
       </c>
+      <c r="C40" s="90" t="s">
+        <v>342</v>
+      </c>
       <c r="D40" s="18" t="s">
-        <v>342</v>
-      </c>
-      <c r="E40" s="87"/>
+        <v>343</v>
+      </c>
+      <c r="E40" s="88"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="107"/>
+      <c r="A41" s="108"/>
       <c r="B41" s="18" t="s">
-        <v>343</v>
-      </c>
-      <c r="C41" s="89" t="s">
         <v>344</v>
       </c>
+      <c r="C41" s="90" t="s">
+        <v>345</v>
+      </c>
       <c r="D41" s="18"/>
-      <c r="E41" s="87"/>
+      <c r="E41" s="88"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="107"/>
+      <c r="A42" s="108"/>
       <c r="B42" s="18" t="s">
-        <v>345</v>
-      </c>
-      <c r="C42" s="111" t="s">
         <v>346</v>
       </c>
+      <c r="C42" s="112" t="s">
+        <v>347</v>
+      </c>
       <c r="D42" s="18"/>
-      <c r="E42" s="87"/>
+      <c r="E42" s="88"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="105" t="s">
-        <v>195</v>
-      </c>
-      <c r="B43" s="112" t="s">
-        <v>347</v>
-      </c>
-      <c r="C43" s="113"/>
+      <c r="A43" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="113" t="s">
+        <v>348</v>
+      </c>
+      <c r="C43" s="114"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="87"/>
+      <c r="E43" s="88"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="107"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="18" t="s">
-        <v>348</v>
-      </c>
-      <c r="C44" s="114" t="s">
         <v>349</v>
       </c>
+      <c r="C44" s="115" t="s">
+        <v>350</v>
+      </c>
       <c r="D44" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="E44" s="111" t="s">
         <v>351</v>
       </c>
+      <c r="E44" s="112" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="107"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="E45" s="93" t="s">
         <v>353</v>
       </c>
+      <c r="E45" s="94" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="107"/>
-      <c r="B46" s="88" t="s">
-        <v>354</v>
-      </c>
-      <c r="C46" s="114" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="89" t="s">
         <v>355</v>
       </c>
+      <c r="C46" s="115" t="s">
+        <v>356</v>
+      </c>
       <c r="D46" s="18" t="s">
-        <v>356</v>
-      </c>
-      <c r="E46" s="111" t="s">
         <v>357</v>
       </c>
+      <c r="E46" s="112" t="s">
+        <v>358</v>
+      </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="115"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="19" t="s">
-        <v>358</v>
-      </c>
-      <c r="E47" s="111" t="s">
         <v>359</v>
+      </c>
+      <c r="E47" s="112" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -10287,405 +10328,405 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="76" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="77" t="s">
+      <c r="A1" s="77" t="s">
         <v>361</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="78" t="s">
         <v>362</v>
       </c>
-      <c r="D1" s="77"/>
+      <c r="C1" s="79" t="s">
+        <v>363</v>
+      </c>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="76"/>
-      <c r="B2" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="C2" s="80" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="80" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="80"/>
+      <c r="C2" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79" t="s">
-        <v>365</v>
-      </c>
-      <c r="C3" s="78" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="D3" s="80"/>
+      <c r="C3" s="79" t="s">
+        <v>367</v>
+      </c>
+      <c r="D3" s="81"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="76"/>
-      <c r="B4" s="79" t="s">
-        <v>367</v>
-      </c>
-      <c r="C4" s="81" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80" t="s">
         <v>368</v>
       </c>
-      <c r="D4" s="80"/>
+      <c r="C4" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="76"/>
-      <c r="B5" s="79" t="s">
-        <v>369</v>
-      </c>
-      <c r="C5" s="78" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="D5" s="80"/>
+      <c r="C5" s="79" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79" t="s">
-        <v>371</v>
-      </c>
-      <c r="C6" s="78" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="D6" s="82"/>
+      <c r="C6" s="79" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="83"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="77" t="s">
-        <v>373</v>
-      </c>
-      <c r="B7" s="79" t="s">
+      <c r="A7" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="B7" s="80" t="s">
         <v>375</v>
       </c>
-      <c r="D7" s="83" t="s">
+      <c r="C7" s="79" t="s">
         <v>376</v>
       </c>
+      <c r="D7" s="84" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="77"/>
-      <c r="B8" s="79"/>
-      <c r="C8" s="78" t="s">
-        <v>377</v>
-      </c>
-      <c r="D8" s="77" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="79" t="s">
         <v>378</v>
       </c>
+      <c r="D8" s="78" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="77"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="78" t="s">
-        <v>379</v>
-      </c>
-      <c r="D9" s="79" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="79" t="s">
         <v>380</v>
       </c>
+      <c r="D9" s="80" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="77"/>
-      <c r="B10" s="79"/>
-      <c r="C10" s="78" t="s">
-        <v>381</v>
-      </c>
-      <c r="D10" s="79" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="79" t="s">
         <v>382</v>
       </c>
+      <c r="D10" s="80" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77" t="s">
-        <v>383</v>
-      </c>
-      <c r="C11" s="78" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="77" t="s">
+      <c r="C11" s="79" t="s">
         <v>385</v>
       </c>
+      <c r="D11" s="78" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="77"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="77" t="s">
-        <v>386</v>
-      </c>
-      <c r="D12" s="84" t="s">
-        <v>375</v>
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="78" t="s">
+        <v>387</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="77"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="85" t="s">
-        <v>387</v>
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="86" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="77"/>
-      <c r="B14" s="79"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="85" t="s">
-        <v>388</v>
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="86" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="77"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="84" t="s">
-        <v>389</v>
+      <c r="A15" s="78"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="85" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="77"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="80" t="s">
-        <v>324</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>390</v>
+      <c r="A16" s="78"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
+        <v>325</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="77"/>
-      <c r="B17" s="79" t="s">
-        <v>391</v>
-      </c>
-      <c r="C17" s="79" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="80" t="s">
         <v>392</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="C17" s="80" t="s">
         <v>393</v>
       </c>
+      <c r="D17" s="83" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="77"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79" t="s">
-        <v>352</v>
-      </c>
-      <c r="D18" s="82"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80" t="s">
+        <v>353</v>
+      </c>
+      <c r="D18" s="83"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="77"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="79" t="s">
-        <v>394</v>
-      </c>
-      <c r="D19" s="82"/>
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80" t="s">
+        <v>395</v>
+      </c>
+      <c r="D19" s="83"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="77"/>
-      <c r="B20" s="79"/>
-      <c r="C20" s="79" t="s">
-        <v>395</v>
-      </c>
-      <c r="D20" s="82"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80" t="s">
+        <v>396</v>
+      </c>
+      <c r="D20" s="83"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77" t="s">
-        <v>396</v>
-      </c>
-      <c r="C21" s="80" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="C21" s="81" t="s">
         <v>398</v>
       </c>
+      <c r="D21" s="78" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="77" t="s">
-        <v>399</v>
-      </c>
-      <c r="B22" s="78" t="s">
+      <c r="A22" s="78" t="s">
         <v>400</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="B22" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="D22" s="77"/>
+      <c r="C22" s="79" t="s">
+        <v>402</v>
+      </c>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77" t="s">
-        <v>402</v>
-      </c>
-      <c r="C23" s="78" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78" t="s">
         <v>403</v>
       </c>
-      <c r="D23" s="78"/>
+      <c r="C23" s="79" t="s">
+        <v>404</v>
+      </c>
+      <c r="D23" s="79"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="78" t="s">
-        <v>404</v>
-      </c>
-      <c r="D24" s="78"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79" t="s">
+        <v>405</v>
+      </c>
+      <c r="D24" s="79"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77" t="s">
-        <v>405</v>
-      </c>
-      <c r="C25" s="86" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="D25" s="86"/>
+      <c r="C25" s="87" t="s">
+        <v>407</v>
+      </c>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="78" t="s">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78" t="s">
         <v>408</v>
       </c>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="77"/>
-      <c r="B27" s="79" t="s">
-        <v>409</v>
-      </c>
-      <c r="C27" s="81" t="s">
+      <c r="A27" s="78"/>
+      <c r="B27" s="80" t="s">
         <v>410</v>
       </c>
-      <c r="D27" s="78" t="s">
+      <c r="C27" s="82" t="s">
         <v>411</v>
       </c>
+      <c r="D27" s="79" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="77"/>
-      <c r="B28" s="79"/>
-      <c r="C28" s="81" t="s">
-        <v>412</v>
-      </c>
-      <c r="D28" s="78" t="s">
+      <c r="A28" s="78"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="82" t="s">
         <v>413</v>
       </c>
+      <c r="D28" s="79" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="77"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="81" t="s">
-        <v>414</v>
-      </c>
-      <c r="D29" s="78" t="s">
+      <c r="A29" s="78"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="82" t="s">
         <v>415</v>
       </c>
+      <c r="D29" s="79" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77" t="s">
-        <v>416</v>
-      </c>
-      <c r="C30" s="78" t="s">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78" t="s">
         <v>417</v>
       </c>
-      <c r="D30" s="78"/>
+      <c r="C30" s="79" t="s">
+        <v>418</v>
+      </c>
+      <c r="D30" s="79"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="77" t="s">
-        <v>418</v>
-      </c>
-      <c r="B31" s="77" t="s">
+      <c r="A31" s="78" t="s">
         <v>419</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="B31" s="78" t="s">
         <v>420</v>
       </c>
-      <c r="D31" s="78"/>
+      <c r="C31" s="79" t="s">
+        <v>421</v>
+      </c>
+      <c r="D31" s="79"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77" t="s">
-        <v>421</v>
-      </c>
-      <c r="C32" s="78" t="s">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78" t="s">
         <v>422</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="C32" s="79" t="s">
         <v>423</v>
       </c>
+      <c r="D32" s="79" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78" t="s">
-        <v>424</v>
-      </c>
-      <c r="D33" s="78" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79" t="s">
         <v>425</v>
       </c>
+      <c r="D33" s="79" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78" t="s">
-        <v>426</v>
-      </c>
-      <c r="D34" s="78" t="s">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79" t="s">
         <v>427</v>
       </c>
+      <c r="D34" s="79" t="s">
+        <v>428</v>
+      </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77" t="s">
-        <v>428</v>
-      </c>
-      <c r="C35" s="78" t="s">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78" t="s">
         <v>429</v>
       </c>
-      <c r="D35" s="78" t="s">
+      <c r="C35" s="79" t="s">
         <v>430</v>
       </c>
+      <c r="D35" s="79" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77" t="s">
-        <v>431</v>
-      </c>
-      <c r="C36" s="78" t="s">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78" t="s">
         <v>432</v>
       </c>
-      <c r="D36" s="78" t="s">
+      <c r="C36" s="79" t="s">
         <v>433</v>
       </c>
+      <c r="D36" s="79" t="s">
+        <v>434</v>
+      </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77" t="s">
-        <v>434</v>
-      </c>
-      <c r="C37" s="77" t="s">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78" t="s">
         <v>435</v>
       </c>
-      <c r="D37" s="77"/>
+      <c r="C37" s="78" t="s">
+        <v>436</v>
+      </c>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77" t="s">
-        <v>436</v>
-      </c>
-      <c r="C38" s="77" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78" t="s">
         <v>437</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="C38" s="78" t="s">
         <v>438</v>
       </c>
+      <c r="D38" s="78" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="81" t="s">
-        <v>439</v>
-      </c>
-      <c r="D39" s="81" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="82" t="s">
         <v>440</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>441</v>
       </c>
     </row>
   </sheetData>

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="2.分类" sheetId="3" r:id="rId9"/>
     <sheet name="3.聚类" sheetId="7" r:id="rId10"/>
     <sheet name="4.cv2" sheetId="12" r:id="rId11"/>
-    <sheet name="深1" sheetId="13" r:id="rId12"/>
-    <sheet name="推荐算法" sheetId="16" r:id="rId13"/>
+    <sheet name="5.深度基础" sheetId="13" r:id="rId12"/>
+    <sheet name="推荐" sheetId="16" r:id="rId13"/>
     <sheet name="TF" sheetId="17" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="795">
   <si>
     <t>numpy和python中的数学指标</t>
   </si>
@@ -2526,6 +2526,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个像素的取值范围称为“灰度级”，</t>
     </r>
     <r>
@@ -3214,6 +3222,15 @@
   </si>
   <si>
     <t>（4） "输入层" 有几个神经元 "输出几个值"</t>
+  </si>
+  <si>
+    <t>全连接神经网络</t>
+  </si>
+  <si>
+    <t>每个神经元 和 上一层、下一层每个“神经元相连接”，所以又称“全连接模型”。</t>
+  </si>
+  <si>
+    <t>"层数" 更多的 "网络"，通常具有 "更强的抽象能力"（即: "数据表征能力"）</t>
   </si>
   <si>
     <t>感知机</t>
@@ -3568,6 +3585,10 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">在 "神经网络" 中，将 "输入信号 的总和"转换为 "输出信号" 的函数被称为 "激活函数（ activation function）"
+</t>
+  </si>
+  <si>
     <t>常见 "激活函数"</t>
   </si>
   <si>
@@ -3903,7 +3924,19 @@
 上游在后面下游在前面。</t>
   </si>
   <si>
-    <t>反向传播过程</t>
+    <t>几种梯度下降算法</t>
+  </si>
+  <si>
+    <t>BGD---始版本</t>
+  </si>
+  <si>
+    <t>SGD---随机梯度下降</t>
+  </si>
+  <si>
+    <t>MBGD---批次大小会决定模型精度</t>
+  </si>
+  <si>
+    <t>外层控制训练轮数，内层控制批次。</t>
   </si>
   <si>
     <t>CNN</t>
@@ -3983,16 +4016,20 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t xml:space="preserve">卷积神经网络(Convolutional Neural Network,CNN)
+针对"全连接神经网络" 的局限做出了修改，
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>卷积神经网络(Convolutional Neural Network,CNN)
-针对"全连接神经网络" 的局限做出了修改，
-加入了：
+      <t>加入了：
   卷积层（Convolution层）//可以</t>
     </r>
     <r>
@@ -4008,6 +4045,7 @@
     </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
@@ -4503,31 +4541,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.4"/>
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.4"/>
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4539,7 +4571,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4558,6 +4590,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4778,7 +4816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -4832,28 +4870,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -4927,6 +4943,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -5070,7 +5099,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5082,34 +5111,34 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5194,7 +5223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5225,20 +5254,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5246,490 +5344,451 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -6098,105 +6157,105 @@
   </cols>
   <sheetData>
     <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="123" t="s">
+      <c r="B6" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="158" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="148" t="s">
+      <c r="D6" s="158" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="117" t="s">
+      <c r="E6" s="127" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="123"/>
-      <c r="C7" s="148" t="s">
+      <c r="B7" s="133"/>
+      <c r="C7" s="158" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="158" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="148" t="s">
+      <c r="E7" s="158" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="123"/>
-      <c r="C8" s="148" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="148"/>
-      <c r="E8" s="117" t="s">
+      <c r="D8" s="158"/>
+      <c r="E8" s="127" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="123"/>
-      <c r="C9" s="148" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="158" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="158" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="117" t="s">
+      <c r="E9" s="127" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="123"/>
-      <c r="C10" s="148" t="s">
+      <c r="B10" s="133"/>
+      <c r="C10" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="129" t="s">
+      <c r="D10" s="158"/>
+      <c r="E10" s="139" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="123"/>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="133"/>
+      <c r="C11" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="164" t="s">
+      <c r="D11" s="174" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="59" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="123"/>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="164" t="s">
+      <c r="D12" s="174" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="164" t="s">
+      <c r="E12" s="174" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="106" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="89"/>
-      <c r="E13" s="89"/>
-      <c r="I13" s="179"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="I13" s="189"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6229,107 +6288,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="81" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="82" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="28" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="49" t="s">
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="28" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="81"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="49" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="28" t="s">
         <v>448</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="82" t="s">
         <v>449</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="81" t="s">
         <v>452</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="83" t="s">
         <v>453</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75" t="s">
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="74"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="82"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75" t="s">
+      <c r="A7" s="81"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="81" t="s">
         <v>458</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="33" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="73"/>
-      <c r="B8" s="51" t="s">
+      <c r="A8" s="81"/>
+      <c r="B8" s="32" t="s">
         <v>460</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="49"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -6349,7 +6408,7 @@
   <sheetPr/>
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A45" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -6366,34 +6425,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="48" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="30"/>
+      <c r="A3" s="49"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="49"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="30"/>
+      <c r="A5" s="49"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="49" t="s">
         <v>462</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="49" t="s">
         <v>464</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -6406,8 +6465,8 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
       <c r="D8" s="3" t="s">
         <v>466</v>
       </c>
@@ -6418,8 +6477,8 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="71" customHeight="1" spans="2:7">
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="4" t="s">
         <v>468</v>
       </c>
@@ -6430,8 +6489,8 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="2:7">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
+      <c r="B10" s="49"/>
+      <c r="C10" s="49" t="s">
         <v>470</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -6444,12 +6503,12 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49" t="s">
         <v>472</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="50" t="s">
         <v>473</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -6458,27 +6517,27 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="48"/>
       <c r="F12" s="4" t="s">
         <v>475</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
+      <c r="B13" s="49"/>
+      <c r="C13" s="49" t="s">
         <v>476</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="E13" s="46" t="s">
+      <c r="E13" s="51" t="s">
         <v>478</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="F13" s="52" t="s">
         <v>479</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -6486,15 +6545,15 @@
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="E14" s="52" t="s">
         <v>482</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="52" t="s">
         <v>483</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -6502,63 +6561,63 @@
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="31" t="s">
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="48" t="s">
         <v>485</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="F15" s="31" t="s">
+      <c r="F15" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="G15" s="31" t="s">
+      <c r="G15" s="48" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="31"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="48"/>
       <c r="E16" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="F16" s="31"/>
-      <c r="G16" s="30"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="49"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="31"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="4" t="s">
         <v>490</v>
       </c>
-      <c r="F17" s="31"/>
-      <c r="G17" s="30"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="31"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="4" t="s">
         <v>491</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="30"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="31"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="4" t="s">
         <v>492</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="49" t="s">
         <v>493</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -6572,7 +6631,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="30"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="3" t="s">
         <v>496</v>
       </c>
@@ -6584,8 +6643,8 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="30"/>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="49"/>
+      <c r="C22" s="48" t="s">
         <v>498</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -6596,8 +6655,8 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="30"/>
-      <c r="C23" s="31"/>
+      <c r="B23" s="49"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="3" t="s">
         <v>500</v>
       </c>
@@ -6606,7 +6665,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="30"/>
+      <c r="B24" s="49"/>
       <c r="C24" s="4" t="s">
         <v>501</v>
       </c>
@@ -6618,36 +6677,36 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="30"/>
-      <c r="C25" s="47" t="s">
+      <c r="B25" s="49"/>
+      <c r="C25" s="53" t="s">
         <v>503</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="30"/>
-      <c r="C26" s="47" t="s">
+      <c r="B26" s="49"/>
+      <c r="C26" s="53" t="s">
         <v>504</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="48" t="s">
         <v>505</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="D27" s="49" t="s">
+      <c r="D27" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="55" t="s">
         <v>507</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -6656,14 +6715,14 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31" t="s">
+      <c r="B28" s="48"/>
+      <c r="C28" s="48" t="s">
         <v>509</v>
       </c>
-      <c r="D28" s="49" t="s">
+      <c r="D28" s="28" t="s">
         <v>510</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="E28" s="55" t="s">
         <v>510</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -6672,12 +6731,12 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="49" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="55" t="s">
         <v>512</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -6686,11 +6745,11 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31" t="s">
+      <c r="B30" s="48"/>
+      <c r="C30" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="D30" s="49" t="s">
+      <c r="D30" s="28" t="s">
         <v>515</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -6700,118 +6759,118 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="51" t="s">
+      <c r="B31" s="48"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="E31" s="42" t="s">
+      <c r="E31" s="52" t="s">
         <v>518</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="44" t="s">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="56" t="s">
         <v>519</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31" t="s">
+      <c r="B33" s="48"/>
+      <c r="C33" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="D33" s="49" t="s">
+      <c r="D33" s="28" t="s">
         <v>521</v>
       </c>
-      <c r="E33" s="44" t="s">
+      <c r="E33" s="56" t="s">
         <v>522</v>
       </c>
-      <c r="F33" s="31" t="s">
+      <c r="F33" s="48" t="s">
         <v>523</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="49" t="s">
+      <c r="B34" s="48"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="28" t="s">
         <v>524</v>
       </c>
-      <c r="E34" s="44" t="s">
+      <c r="E34" s="56" t="s">
         <v>525</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="49"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31" t="s">
+      <c r="B35" s="48"/>
+      <c r="C35" s="48" t="s">
         <v>526</v>
       </c>
-      <c r="D35" s="49" t="s">
+      <c r="D35" s="28" t="s">
         <v>527</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="57" t="s">
         <v>528</v>
       </c>
-      <c r="F35" s="31" t="s">
+      <c r="F35" s="48" t="s">
         <v>529</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="49" t="s">
+      <c r="B36" s="48"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="28" t="s">
         <v>530</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="57" t="s">
         <v>531</v>
       </c>
-      <c r="F36" s="30"/>
+      <c r="F36" s="49"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="49" t="s">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="28" t="s">
         <v>532</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="58" t="s">
         <v>533</v>
       </c>
-      <c r="F37" s="30"/>
+      <c r="F37" s="49"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="31"/>
-      <c r="C38" s="31" t="s">
+      <c r="B38" s="48"/>
+      <c r="C38" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="D38" s="54" t="s">
+      <c r="D38" s="59" t="s">
         <v>535</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="59" t="s">
         <v>536</v>
       </c>
-      <c r="F38" s="30"/>
+      <c r="F38" s="49"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="31"/>
-      <c r="C39" s="31" t="s">
+      <c r="B39" s="48"/>
+      <c r="C39" s="48" t="s">
         <v>537</v>
       </c>
-      <c r="D39" s="54" t="s">
+      <c r="D39" s="59" t="s">
         <v>538</v>
       </c>
-      <c r="E39" s="55" t="s">
+      <c r="E39" s="60" t="s">
         <v>539</v>
       </c>
       <c r="F39" s="3" t="s">
@@ -6822,12 +6881,12 @@
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="54" t="s">
+      <c r="B40" s="48"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="59" t="s">
         <v>542</v>
       </c>
-      <c r="E40" s="56" t="s">
+      <c r="E40" s="61" t="s">
         <v>543</v>
       </c>
       <c r="F40" s="3"/>
@@ -6836,11 +6895,11 @@
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="31"/>
-      <c r="C41" s="31" t="s">
+      <c r="B41" s="48"/>
+      <c r="C41" s="48" t="s">
         <v>545</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="55" t="s">
         <v>546</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -6852,9 +6911,9 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="50" t="s">
+      <c r="B42" s="48"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="55" t="s">
         <v>549</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -6864,11 +6923,11 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="31"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="D43" s="50" t="s">
+      <c r="D43" s="55" t="s">
         <v>552</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -6880,106 +6939,106 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="62" t="s">
         <v>555</v>
       </c>
-      <c r="C44" s="57" t="s">
+      <c r="C44" s="62" t="s">
         <v>556</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="55" t="s">
         <v>557</v>
       </c>
-      <c r="E44" s="50" t="s">
+      <c r="E44" s="55" t="s">
         <v>558</v>
       </c>
-      <c r="F44" s="58" t="s">
+      <c r="F44" s="63" t="s">
         <v>559</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="57"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="50" t="s">
+      <c r="B45" s="62"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="55" t="s">
         <v>560</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="58" t="s">
         <v>561</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="55" t="s">
         <v>562</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="57"/>
-      <c r="C46" s="59"/>
-      <c r="D46" s="50" t="s">
+      <c r="B46" s="62"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="55" t="s">
         <v>563</v>
       </c>
-      <c r="E46" s="53"/>
-      <c r="F46" s="50"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="60"/>
-      <c r="C47" s="57" t="s">
+      <c r="B47" s="65"/>
+      <c r="C47" s="62" t="s">
         <v>564</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="50"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="61" t="s">
+      <c r="B48" s="66" t="s">
         <v>565</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="62" t="s">
         <v>565</v>
       </c>
-      <c r="D48" s="58" t="s">
+      <c r="D48" s="63" t="s">
         <v>566</v>
       </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="63"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="61"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="58" t="s">
+      <c r="B49" s="66"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63" t="s">
         <v>567</v>
       </c>
-      <c r="E49" s="53"/>
-      <c r="F49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="63"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="61"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="58" t="s">
+      <c r="B50" s="66"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63" t="s">
         <v>568</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="F50" s="58"/>
+      <c r="F50" s="63"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="61"/>
-      <c r="C51" s="57"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="53"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="C52" s="62" t="s">
+      <c r="C52" s="68" t="s">
         <v>571</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -6988,49 +7047,49 @@
       <c r="E52" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F52" s="69" t="s">
         <v>574</v>
       </c>
-      <c r="G52" s="64" t="s">
+      <c r="G52" s="70" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="36"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="3" t="s">
         <v>576</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="67"/>
+      <c r="F53" s="73"/>
+      <c r="G53" s="74"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="36"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="35" t="s">
+      <c r="B54" s="71"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="67" t="s">
         <v>577</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="F54" s="68"/>
-      <c r="G54" s="69"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="36"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="36"/>
+      <c r="B55" s="71"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="71"/>
       <c r="E55" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
+      <c r="F55" s="49"/>
+      <c r="G55" s="49"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="36"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="36"/>
+      <c r="B56" s="71"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="71"/>
       <c r="E56" s="3" t="s">
         <v>580</v>
       </c>
@@ -7038,9 +7097,9 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="37"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="37"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="78"/>
+      <c r="D57" s="77"/>
       <c r="E57" s="4" t="s">
         <v>581</v>
       </c>
@@ -7050,61 +7109,61 @@
       <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="79" t="s">
         <v>583</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
+      <c r="D62" s="80"/>
+      <c r="E62" s="80"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="80"/>
+      <c r="E64" s="80"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="80"/>
+      <c r="E65" s="80"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="80"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="80"/>
+      <c r="E68" s="80"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="80"/>
+      <c r="E69" s="80"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7150,10 +7209,10 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C18:H95"/>
+  <dimension ref="C18:H96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C34" workbookViewId="0">
-      <selection activeCell="F94" sqref="F94"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -7181,902 +7240,971 @@
         <v>587</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" ht="54" spans="3:8">
-      <c r="C19" s="10"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="12" t="s">
         <v>588</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="F19" s="14"/>
+      <c r="F19" s="16"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="3"/>
+      <c r="H19" s="14"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="10"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="11" t="s">
         <v>590</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="F20" s="14"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="14"/>
     </row>
     <row r="21" ht="72" customHeight="1" spans="3:8">
-      <c r="C21" s="10"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="12" t="s">
         <v>592</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" ht="32" customHeight="1" spans="3:8">
-      <c r="C22" s="14" t="s">
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" ht="72" customHeight="1" spans="3:8">
+      <c r="C22" s="17"/>
+      <c r="D22" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="19" t="s">
         <v>594</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="F22" s="20" t="s">
         <v>595</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17" t="s">
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" customFormat="1" ht="72" customHeight="1"/>
+    <row r="24" ht="72" customHeight="1"/>
+    <row r="25" ht="32" customHeight="1" spans="3:8">
+      <c r="C25" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" ht="51" customHeight="1" spans="3:8">
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17" t="s">
+      <c r="D25" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" ht="265" customHeight="1" spans="3:8">
-      <c r="C24" s="14"/>
-      <c r="D24" s="18" t="s">
+      <c r="E25" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="12" t="s">
         <v>599</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" ht="51" customHeight="1" spans="3:8">
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="12" t="s">
         <v>600</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" ht="265" customHeight="1" spans="3:8">
+      <c r="C27" s="16"/>
+      <c r="D27" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" ht="72" customHeight="1" spans="3:8">
-      <c r="C25" s="14"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18" t="s">
+      <c r="E27" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="F27" s="13" t="s">
         <v>603</v>
       </c>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" ht="38" customHeight="1" spans="3:8">
-      <c r="C26" s="14"/>
-      <c r="D26" s="11" t="s">
+      <c r="G27" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" ht="72" customHeight="1" spans="3:8">
+      <c r="C28" s="16"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
         <v>605</v>
       </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" ht="409" customHeight="1" spans="3:8">
-      <c r="C27" s="14"/>
-      <c r="D27" s="12" t="s">
+      <c r="G28" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" ht="38" customHeight="1" spans="3:8">
+      <c r="C29" s="16"/>
+      <c r="D29" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>608</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>609</v>
-      </c>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" ht="58" customHeight="1" spans="3:8">
-      <c r="C28" s="14"/>
-      <c r="D28" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="3:8">
-      <c r="C29" s="21" t="s">
-        <v>613</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>615</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="3:8">
-      <c r="C30" s="21"/>
-      <c r="D30" s="22" t="s">
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" ht="409" customHeight="1" spans="3:8">
+      <c r="C30" s="16"/>
+      <c r="D30" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="H30" s="14"/>
+    </row>
+    <row r="31" ht="58" customHeight="1" spans="3:8">
+      <c r="C31" s="16"/>
+      <c r="D31" s="11" t="s">
+        <v>613</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>615</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="14"/>
+    </row>
+    <row r="32" spans="3:8">
+      <c r="C32" s="25" t="s">
         <v>616</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="D32" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="F30" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>618</v>
-      </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" ht="85" customHeight="1" spans="3:8">
-      <c r="C31" s="21"/>
-      <c r="D31" s="22" t="s">
-        <v>613</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="F31" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>621</v>
-      </c>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" ht="37" customHeight="1" spans="3:8">
-      <c r="C32" s="21"/>
-      <c r="D32" s="25" t="s">
-        <v>622</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>623</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" ht="52" customHeight="1" spans="3:8">
-      <c r="C33" s="21"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="23" t="s">
+      <c r="H32" s="14"/>
+    </row>
+    <row r="33" spans="3:8">
+      <c r="C33" s="25"/>
+      <c r="D33" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>621</v>
+      </c>
+      <c r="G33" s="11"/>
+      <c r="H33" s="14"/>
+    </row>
+    <row r="34" ht="85" customHeight="1" spans="3:8">
+      <c r="C34" s="25"/>
+      <c r="D34" s="11" t="s">
+        <v>616</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="G34" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" ht="83" customHeight="1" spans="3:8">
-      <c r="C34" s="21"/>
-      <c r="D34" s="22" t="s">
+      <c r="H34" s="14"/>
+    </row>
+    <row r="35" ht="37" customHeight="1" spans="3:8">
+      <c r="C35" s="25"/>
+      <c r="D35" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="E34" s="26" t="s">
+      <c r="E35" s="11" t="s">
         <v>626</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" ht="44" customHeight="1" spans="3:8">
-      <c r="C35" s="21"/>
-      <c r="D35" s="22" t="s">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="14"/>
+    </row>
+    <row r="36" ht="52" customHeight="1" spans="3:8">
+      <c r="C36" s="25"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="12" t="s">
         <v>627</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="14"/>
+    </row>
+    <row r="37" ht="83" customHeight="1" spans="3:8">
+      <c r="C37" s="25"/>
+      <c r="D37" s="11" t="s">
         <v>628</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="E37" s="26" t="s">
         <v>629</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="14"/>
+    </row>
+    <row r="38" ht="44" customHeight="1" spans="3:8">
+      <c r="C38" s="25"/>
+      <c r="D38" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" ht="27" spans="3:8">
-      <c r="C36" s="21"/>
-      <c r="D36" s="27" t="s">
+      <c r="E38" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="E36" s="22" t="s">
+      <c r="F38" s="11" t="s">
         <v>632</v>
       </c>
-      <c r="F36" s="24" t="s">
+      <c r="G38" s="11" t="s">
         <v>633</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" ht="53" customHeight="1" spans="3:8">
-      <c r="C37" s="21"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="25" t="s">
+      <c r="H38" s="14"/>
+    </row>
+    <row r="39" ht="67.5" spans="3:8">
+      <c r="C39" s="25"/>
+      <c r="D39" s="27" t="s">
         <v>634</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="E39" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" ht="40.5" spans="3:8">
-      <c r="C38" s="21"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="24" t="s">
+      <c r="F39" s="29" t="s">
         <v>636</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="G39" s="30" t="s">
         <v>637</v>
       </c>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" ht="40.5" spans="3:8">
-      <c r="C39" s="21"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="24" t="s">
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" ht="53" customHeight="1" spans="3:8">
+      <c r="C40" s="25"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="32" t="s">
         <v>638</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="F40" s="28" t="s">
         <v>639</v>
       </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" ht="40.5" spans="3:8">
-      <c r="C40" s="21"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="17" t="s">
+      <c r="G40" s="28"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" ht="40.5" spans="3:8">
+      <c r="C41" s="25"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="29" t="s">
         <v>640</v>
       </c>
-      <c r="G40" s="28" t="s">
+      <c r="G41" s="28" t="s">
         <v>641</v>
       </c>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" ht="81" spans="3:8">
-      <c r="C41" s="21"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="17" t="s">
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" ht="40.5" spans="3:8">
+      <c r="C42" s="25"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="29" t="s">
         <v>642</v>
       </c>
-      <c r="G41" s="17" t="s">
+      <c r="G42" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" ht="34" customHeight="1" spans="3:8">
-      <c r="C42" s="21"/>
-      <c r="D42" s="22" t="s">
+      <c r="H42" s="31"/>
+    </row>
+    <row r="43" ht="40.5" spans="3:8">
+      <c r="C43" s="25"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33" t="s">
         <v>644</v>
       </c>
-      <c r="E42" s="23" t="s">
+      <c r="G43" s="28" t="s">
         <v>645</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="3:8">
-      <c r="C43" s="2" t="s">
+      <c r="H43" s="31"/>
+    </row>
+    <row r="44" ht="81" spans="3:8">
+      <c r="C44" s="25"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33" t="s">
         <v>646</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="G44" s="33" t="s">
         <v>647</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" ht="34" customHeight="1" spans="3:8">
+      <c r="C45" s="25"/>
+      <c r="D45" s="11" t="s">
         <v>648</v>
       </c>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" ht="53" customHeight="1" spans="3:8">
-      <c r="C44" s="2"/>
-      <c r="D44" s="3" t="s">
+      <c r="E45" s="12" t="s">
         <v>649</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" ht="27" spans="3:8">
-      <c r="C45" s="2"/>
-      <c r="D45" s="3" t="s">
+      <c r="D46" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+    </row>
+    <row r="47" ht="53" customHeight="1" spans="3:8">
+      <c r="C47" s="34"/>
+      <c r="D47" s="14" t="s">
+        <v>653</v>
+      </c>
+      <c r="E47" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+    </row>
+    <row r="48" ht="27" spans="3:8">
+      <c r="C48" s="34"/>
+      <c r="D48" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>651</v>
-      </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" ht="54" spans="3:8">
-      <c r="C46" s="2"/>
-      <c r="D46" s="3" t="s">
+      <c r="E48" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+    </row>
+    <row r="49" ht="54" spans="3:8">
+      <c r="C49" s="34"/>
+      <c r="D49" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>652</v>
-      </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" ht="99" customHeight="1" spans="3:8">
-      <c r="C47" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="G47" s="29" t="s">
+      <c r="E49" s="35" t="s">
         <v>656</v>
       </c>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" ht="48" customHeight="1" spans="3:8">
-      <c r="C48" s="2"/>
-      <c r="D48" s="3" t="s">
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+    </row>
+    <row r="50" ht="99" customHeight="1" spans="3:8">
+      <c r="C50" s="36" t="s">
         <v>657</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="D50" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>658</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" ht="34" customHeight="1" spans="3:8">
-      <c r="C49" s="2"/>
-      <c r="D49" s="3" t="s">
+      <c r="F50" s="35" t="s">
         <v>659</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="G50" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="H50" s="14"/>
+    </row>
+    <row r="51" ht="48" customHeight="1" spans="3:8">
+      <c r="C51" s="36"/>
+      <c r="D51" s="14" t="s">
         <v>661</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" ht="34" customHeight="1" spans="3:8">
-      <c r="C50" s="2"/>
-      <c r="D50" s="4" t="s">
+      <c r="E51" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+    </row>
+    <row r="52" ht="34" customHeight="1" spans="3:8">
+      <c r="C52" s="36"/>
+      <c r="D52" s="14" t="s">
         <v>663</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="E52" s="35" t="s">
         <v>664</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" ht="107" customHeight="1" spans="3:8">
-      <c r="C51" s="2"/>
-      <c r="D51" s="30" t="s">
+      <c r="F52" s="14" t="s">
         <v>665</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+    </row>
+    <row r="53" ht="34" customHeight="1" spans="3:8">
+      <c r="C53" s="36"/>
+      <c r="D53" s="35" t="s">
         <v>666</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="E53" s="35" t="s">
         <v>667</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="3:8">
-      <c r="C52" s="2"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="3" t="s">
+      <c r="F53" s="14" t="s">
         <v>668</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+    </row>
+    <row r="54" ht="107" customHeight="1" spans="3:8">
+      <c r="C54" s="36"/>
+      <c r="D54" s="38" t="s">
         <v>669</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" ht="40.5" spans="3:8">
-      <c r="C53" s="2"/>
-      <c r="D53" s="3" t="s">
+      <c r="E54" s="14" t="s">
         <v>670</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F54" s="35" t="s">
         <v>671</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="36"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="3:8">
-      <c r="C54" s="2"/>
-      <c r="D54" s="30" t="s">
+      <c r="F55" s="14" t="s">
         <v>673</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+    </row>
+    <row r="56" ht="40.5" spans="3:8">
+      <c r="C56" s="36"/>
+      <c r="D56" s="14" t="s">
         <v>674</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="E56" s="35" t="s">
         <v>675</v>
       </c>
-      <c r="G54" s="31" t="s">
+      <c r="F56" s="37" t="s">
         <v>676</v>
       </c>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" ht="20" customHeight="1" spans="3:8">
-      <c r="C55" s="2"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="3" t="s">
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="36"/>
+      <c r="D57" s="38" t="s">
         <v>677</v>
       </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" ht="27" spans="3:8">
-      <c r="C56" s="2"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="4" t="s">
+      <c r="E57" s="14" t="s">
         <v>678</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F57" s="35" t="s">
         <v>679</v>
       </c>
-      <c r="G56" s="30"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" ht="77" customHeight="1" spans="3:8">
-      <c r="C57" s="2"/>
-      <c r="D57" s="32" t="s">
+      <c r="G57" s="39" t="s">
         <v>680</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="H57" s="14"/>
+    </row>
+    <row r="58" ht="20" customHeight="1" spans="3:8">
+      <c r="C58" s="36"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="14" t="s">
         <v>681</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F58" s="35"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="14"/>
+    </row>
+    <row r="59" ht="27" spans="3:8">
+      <c r="C59" s="36"/>
+      <c r="D59" s="38"/>
+      <c r="E59" s="35" t="s">
         <v>682</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" ht="77" customHeight="1" spans="3:8">
-      <c r="C58" s="2"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="4" t="s">
+      <c r="F59" s="35" t="s">
         <v>683</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="G59" s="38"/>
+      <c r="H59" s="14"/>
+    </row>
+    <row r="60" ht="77" customHeight="1" spans="3:8">
+      <c r="C60" s="36"/>
+      <c r="D60" s="40" t="s">
         <v>684</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" ht="148.5" spans="3:8">
-      <c r="C59" s="2"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="4" t="s">
+      <c r="E60" s="35" t="s">
         <v>685</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F60" s="35" t="s">
         <v>686</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G60" s="14"/>
+      <c r="H60" s="14"/>
+    </row>
+    <row r="61" ht="77" customHeight="1" spans="3:8">
+      <c r="C61" s="36"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="35" t="s">
         <v>687</v>
       </c>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" ht="243" spans="3:8">
-      <c r="C60" s="2"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="4" t="s">
+      <c r="F61" s="35" t="s">
         <v>688</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="G61" s="14"/>
+      <c r="H61" s="14"/>
+    </row>
+    <row r="62" ht="148.5" spans="3:8">
+      <c r="C62" s="36"/>
+      <c r="D62" s="40"/>
+      <c r="E62" s="35" t="s">
         <v>689</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="F62" s="35" t="s">
         <v>690</v>
       </c>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" ht="71" customHeight="1" spans="3:8">
-      <c r="C61" s="2"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="3" t="s">
+      <c r="G62" s="35" t="s">
         <v>691</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="H62" s="14"/>
+    </row>
+    <row r="63" ht="243" spans="3:8">
+      <c r="C63" s="36"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="35" t="s">
         <v>692</v>
       </c>
-      <c r="G61" s="4"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" ht="114" customHeight="1" spans="3:8">
-      <c r="C62" s="2"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="33" t="s">
+      <c r="F63" s="35" t="s">
         <v>693</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G63" s="35" t="s">
         <v>694</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="H63" s="14"/>
+    </row>
+    <row r="64" ht="71" customHeight="1" spans="3:8">
+      <c r="C64" s="36"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="14" t="s">
         <v>695</v>
       </c>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" ht="106" customHeight="1" spans="3:8">
-      <c r="C63" s="2"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="34" t="s">
+      <c r="F64" s="35" t="s">
         <v>696</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="G64" s="35"/>
+      <c r="H64" s="14"/>
+    </row>
+    <row r="65" ht="114" customHeight="1" spans="3:8">
+      <c r="C65" s="36"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="41" t="s">
         <v>697</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="F65" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" ht="77" customHeight="1" spans="3:8">
-      <c r="C64" s="2"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="34"/>
-      <c r="F64" s="30" t="s">
+      <c r="G65" s="35" t="s">
         <v>699</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="H65" s="14"/>
+    </row>
+    <row r="66" ht="106" customHeight="1" spans="3:8">
+      <c r="C66" s="36"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="42" t="s">
         <v>700</v>
       </c>
-      <c r="H64" s="31" t="s">
+      <c r="F66" s="35" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="65" ht="100" customHeight="1" spans="3:8">
-      <c r="C65" s="2"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="34"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="4" t="s">
+      <c r="G66" s="35" t="s">
         <v>702</v>
       </c>
-      <c r="H65" s="4" t="s">
+      <c r="H66" s="14"/>
+    </row>
+    <row r="67" ht="77" customHeight="1" spans="3:8">
+      <c r="C67" s="36"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="38" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="66" ht="54" customHeight="1" spans="3:8">
-      <c r="C66" s="2"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="34"/>
-      <c r="F66" s="3" t="s">
+      <c r="G67" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="H67" s="39" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="68" ht="100" customHeight="1" spans="3:8">
+      <c r="C68" s="36"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="35" t="s">
+        <v>706</v>
+      </c>
+      <c r="H68" s="35" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="69" ht="54" customHeight="1" spans="3:8">
+      <c r="C69" s="36"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="14" t="s">
         <v>527</v>
       </c>
-      <c r="G66" s="4" t="s">
-        <v>704</v>
-      </c>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" ht="74" customHeight="1" spans="5:5">
-      <c r="E67" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="74" ht="20" customHeight="1" spans="3:6">
-      <c r="C74" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D74" s="5" t="s">
-        <v>707</v>
-      </c>
-      <c r="E74" s="3" t="s">
+      <c r="G69" s="35" t="s">
         <v>708</v>
       </c>
-      <c r="F74" s="35" t="s">
+      <c r="H69" s="14"/>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="36"/>
+      <c r="D70" s="43" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="75" spans="3:6">
-      <c r="C75" s="2"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="3" t="s">
+      <c r="E70" s="19" t="s">
         <v>710</v>
       </c>
-      <c r="F75" s="36"/>
-    </row>
-    <row r="76" spans="3:6">
-      <c r="C76" s="2"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="3" t="s">
+      <c r="F70" s="21"/>
+      <c r="G70" s="21"/>
+      <c r="H70" s="21"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="36"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="19" t="s">
         <v>711</v>
       </c>
-      <c r="F76" s="37"/>
-    </row>
-    <row r="77" ht="27" spans="3:7">
-      <c r="C77" s="2"/>
-      <c r="D77" s="35" t="s">
+      <c r="F71" s="21"/>
+      <c r="G71" s="21"/>
+      <c r="H71" s="21"/>
+    </row>
+    <row r="72" ht="23" customHeight="1" spans="3:8">
+      <c r="C72" s="36"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="19" t="s">
         <v>712</v>
       </c>
-      <c r="E77" s="4" t="s">
+      <c r="F72" s="21" t="s">
         <v>713</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="G72" s="21"/>
+      <c r="H72" s="21"/>
+    </row>
+    <row r="73" ht="70" customHeight="1"/>
+    <row r="74" ht="93" customHeight="1"/>
+    <row r="75" ht="20" customHeight="1" spans="3:7">
+      <c r="C75" s="25" t="s">
         <v>714</v>
       </c>
-      <c r="G77" s="39" t="s">
+      <c r="D75" s="25" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="78" spans="3:7">
-      <c r="C78" s="2"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="3" t="s">
+      <c r="E75" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="F78" s="38" t="s">
+      <c r="F75" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="G78" s="40"/>
+      <c r="G75" s="21"/>
+    </row>
+    <row r="76" spans="3:7">
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="11" t="s">
+        <v>718</v>
+      </c>
+      <c r="F76" s="16"/>
+      <c r="G76" s="21"/>
+    </row>
+    <row r="77" spans="3:7">
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="F77" s="16"/>
+      <c r="G77" s="21"/>
+    </row>
+    <row r="78" ht="27" spans="3:7">
+      <c r="C78" s="25"/>
+      <c r="D78" s="16" t="s">
+        <v>720</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="G78" s="44" t="s">
+        <v>723</v>
+      </c>
     </row>
     <row r="79" spans="3:7">
-      <c r="C79" s="2"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="3" t="s">
-        <v>718</v>
-      </c>
-      <c r="F79" s="38"/>
-      <c r="G79" s="41"/>
-    </row>
-    <row r="80" spans="3:6">
-      <c r="C80" s="2"/>
-      <c r="D80" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>720</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="81" spans="3:6">
-      <c r="C81" s="2"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="3" t="s">
-        <v>722</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="82" spans="3:6">
-      <c r="C82" s="2"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3" t="s">
+      <c r="C79" s="25"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="11" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="83" ht="27" spans="3:6">
-      <c r="C83" s="2"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="3" t="s">
+      <c r="F79" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="G79" s="45"/>
+    </row>
+    <row r="80" spans="3:7">
+      <c r="C80" s="25"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="11" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="84" customFormat="1" ht="62" customHeight="1" spans="3:6">
-      <c r="C84" s="2"/>
-      <c r="D84" s="30" t="s">
+      <c r="F80" s="11"/>
+      <c r="G80" s="46"/>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" s="25"/>
+      <c r="D81" s="16" t="s">
         <v>727</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E81" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F81" s="11" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="85" customFormat="1" ht="108" spans="3:6">
-      <c r="C85" s="2"/>
-      <c r="D85" s="3" t="s">
+      <c r="G81" s="21"/>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="C82" s="25"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="F82" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="G82" s="21"/>
+    </row>
+    <row r="83" spans="3:7">
+      <c r="C83" s="25"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="86" spans="3:6">
-      <c r="C86" s="2"/>
-      <c r="D86" s="43" t="s">
+      <c r="G83" s="21"/>
+    </row>
+    <row r="84" ht="27" spans="3:7">
+      <c r="C84" s="25"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="11" t="s">
         <v>733</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="F84" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="3:6">
-      <c r="C87" s="2"/>
-      <c r="D87" s="36"/>
-      <c r="E87" s="44" t="s">
+      <c r="G84" s="21"/>
+    </row>
+    <row r="85" customFormat="1" ht="62" customHeight="1" spans="3:7">
+      <c r="C85" s="25"/>
+      <c r="D85" s="16" t="s">
         <v>735</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="E85" s="11" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="88" ht="74" customHeight="1" spans="3:6">
-      <c r="C88" s="2"/>
-      <c r="D88" s="36"/>
-      <c r="E88" s="44" t="s">
+      <c r="F85" s="12" t="s">
         <v>737</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="G85" s="21"/>
+    </row>
+    <row r="86" customFormat="1" ht="108" spans="3:7">
+      <c r="C86" s="25"/>
+      <c r="D86" s="11" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="89" ht="26" customHeight="1" spans="3:6">
-      <c r="C89" s="2"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="3" t="s">
+      <c r="E86" s="24" t="s">
         <v>739</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F86" s="12" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="90" spans="3:6">
-      <c r="C90" s="2"/>
-      <c r="D90" s="35" t="s">
+      <c r="G86" s="21"/>
+    </row>
+    <row r="87" spans="3:7">
+      <c r="C87" s="25"/>
+      <c r="D87" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E87" s="11" t="s">
         <v>742</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F87" s="11"/>
+      <c r="G87" s="21"/>
+    </row>
+    <row r="88" spans="3:7">
+      <c r="C88" s="25"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="47" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="91" spans="3:6">
-      <c r="C91" s="2"/>
-      <c r="D91" s="36"/>
-      <c r="E91" s="3" t="s">
+      <c r="F88" s="11" t="s">
         <v>744</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="G88" s="21"/>
+    </row>
+    <row r="89" ht="74" customHeight="1" spans="3:7">
+      <c r="C89" s="25"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="47" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="92" spans="3:6">
-      <c r="C92" s="2"/>
-      <c r="D92" s="36"/>
-      <c r="E92" s="8" t="s">
+      <c r="F89" s="12" t="s">
         <v>746</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="G89" s="21"/>
+    </row>
+    <row r="90" ht="26" customHeight="1" spans="3:7">
+      <c r="C90" s="25"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="11" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="93" spans="3:6">
-      <c r="C93" s="2"/>
-      <c r="D93" s="36"/>
-      <c r="E93" s="3" t="s">
+      <c r="F90" s="11" t="s">
         <v>748</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="G90" s="21"/>
+    </row>
+    <row r="91" spans="3:7">
+      <c r="C91" s="25"/>
+      <c r="D91" s="16" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="94" spans="3:6">
-      <c r="C94" s="2"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="3" t="s">
+      <c r="E91" s="11" t="s">
         <v>750</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F91" s="11" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="95" ht="27" spans="3:6">
-      <c r="C95" s="2"/>
-      <c r="D95" s="3" t="s">
+      <c r="G91" s="21"/>
+    </row>
+    <row r="92" spans="3:7">
+      <c r="C92" s="25"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="11" t="s">
+        <v>752</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>753</v>
+      </c>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="3:7">
+      <c r="C93" s="25"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="11" t="s">
+        <v>754</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="G93" s="21"/>
+    </row>
+    <row r="94" spans="3:7">
+      <c r="C94" s="25"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="11" t="s">
+        <v>756</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="G94" s="21"/>
+    </row>
+    <row r="95" spans="3:7">
+      <c r="C95" s="25"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>759</v>
+      </c>
+      <c r="G95" s="21"/>
+    </row>
+    <row r="96" ht="27" spans="3:7">
+      <c r="C96" s="25"/>
+      <c r="D96" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="F95" s="3"/>
+      <c r="E96" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="F96" s="11"/>
+      <c r="G96" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C18:C21"/>
-    <mergeCell ref="C22:C28"/>
-    <mergeCell ref="C29:C42"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="C47:C66"/>
-    <mergeCell ref="C74:C95"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="D36:D41"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="D54:D56"/>
-    <mergeCell ref="D57:D66"/>
-    <mergeCell ref="D74:D76"/>
-    <mergeCell ref="D77:D79"/>
-    <mergeCell ref="D80:D83"/>
-    <mergeCell ref="D86:D89"/>
-    <mergeCell ref="D90:D94"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E63:E66"/>
+  <mergeCells count="29">
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="C32:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="C50:C72"/>
+    <mergeCell ref="C75:C96"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D39:D44"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D57:D59"/>
+    <mergeCell ref="D60:D69"/>
+    <mergeCell ref="D70:D72"/>
+    <mergeCell ref="D75:D77"/>
+    <mergeCell ref="D78:D80"/>
+    <mergeCell ref="D81:D84"/>
+    <mergeCell ref="D87:D90"/>
+    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E40:E44"/>
+    <mergeCell ref="E66:E69"/>
     <mergeCell ref="F18:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="F74:F76"/>
-    <mergeCell ref="G54:G56"/>
-    <mergeCell ref="G77:G79"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="F75:F77"/>
+    <mergeCell ref="G57:G59"/>
+    <mergeCell ref="G78:G80"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8089,7 +8217,7 @@
   <dimension ref="B8:G23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8104,16 +8232,16 @@
   <sheetData>
     <row r="8" ht="40.5" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8122,10 +8250,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8134,10 +8262,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8146,10 +8274,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8157,16 +8285,16 @@
     <row r="12" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -8176,10 +8304,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8187,10 +8315,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -8200,7 +8328,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -8210,7 +8338,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -8220,7 +8348,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -8230,7 +8358,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -8240,7 +8368,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -8249,7 +8377,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
@@ -8258,7 +8386,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -8268,7 +8396,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8278,7 +8406,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8315,29 +8443,29 @@
   <sheetData>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="G17" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="H17" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="I17" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="J17" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
     </row>
   </sheetData>
@@ -8366,26 +8494,26 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" ht="27" spans="1:7">
       <c r="A13" s="9" t="s">
@@ -8397,16 +8525,16 @@
       <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="168" t="s">
+      <c r="D13" s="178" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="36" t="s">
+      <c r="E13" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="169" t="s">
+      <c r="F13" s="179" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="170" t="s">
+      <c r="G13" s="180" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8414,12 +8542,12 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="171" t="s">
+      <c r="D14" s="178"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="172" t="s">
+      <c r="G14" s="182" t="s">
         <v>33</v>
       </c>
     </row>
@@ -8427,14 +8555,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="173"/>
+      <c r="D15" s="183"/>
       <c r="E15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="174" t="s">
+      <c r="F15" s="184" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="175"/>
+      <c r="G15" s="185"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="2"/>
@@ -8475,11 +8603,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="176" t="s">
+      <c r="B19" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="177"/>
-      <c r="D19" s="178"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="188"/>
       <c r="E19" s="3" t="s">
         <v>42</v>
       </c>
@@ -8651,78 +8779,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="173" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="164" t="s">
+      <c r="D5" s="174" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="146" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="163"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="173"/>
+      <c r="C6" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="164" t="s">
+      <c r="E6" s="174" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="176" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="167" t="s">
+      <c r="D7" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="E7" s="167" t="s">
+      <c r="E7" s="177" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="165"/>
-      <c r="C8" s="166" t="s">
+      <c r="B8" s="175"/>
+      <c r="C8" s="176" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="176" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="167" t="s">
+      <c r="E8" s="177" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="165"/>
-      <c r="C9" s="166" t="s">
+      <c r="B9" s="175"/>
+      <c r="C9" s="176" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="176" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="167" t="s">
+      <c r="E9" s="177" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="165"/>
-      <c r="C10" s="166" t="s">
+      <c r="B10" s="175"/>
+      <c r="C10" s="176" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="176" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="167" t="s">
+      <c r="E10" s="177" t="s">
         <v>76</v>
       </c>
     </row>
@@ -8741,7 +8869,7 @@
   <sheetPr/>
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
@@ -8758,242 +8886,242 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="152" t="s">
+      <c r="B1" s="162" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="152" t="s">
+      <c r="C1" s="162" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="153" t="s">
+      <c r="D1" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="154" t="s">
+      <c r="E1" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="154" t="s">
+      <c r="F1" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="163" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="152"/>
-      <c r="C2" s="152"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="154" t="s">
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="153" t="s">
+      <c r="F2" s="163" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="154" t="s">
+      <c r="G2" s="164" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="153" t="s">
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="155"/>
-      <c r="F3" s="153" t="s">
+      <c r="E3" s="165"/>
+      <c r="F3" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="153" t="s">
+      <c r="G3" s="163" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="152"/>
-      <c r="C4" s="152"/>
-      <c r="D4" s="155" t="s">
+      <c r="B4" s="162"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="165" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="155"/>
-      <c r="F4" s="156" t="s">
+      <c r="E4" s="165"/>
+      <c r="F4" s="166" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="154" t="s">
+      <c r="G4" s="164" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="152"/>
-      <c r="C5" s="152"/>
-      <c r="D5" s="153" t="s">
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="157" t="s">
+      <c r="E5" s="167" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="158" t="s">
+      <c r="F5" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="153" t="s">
+      <c r="G5" s="163" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="152"/>
-      <c r="C6" s="152"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="157"/>
-      <c r="F6" s="154" t="s">
+      <c r="B6" s="162"/>
+      <c r="C6" s="162"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="153"/>
+      <c r="G6" s="163"/>
     </row>
     <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="152"/>
-      <c r="C7" s="152"/>
-      <c r="D7" s="159" t="s">
+      <c r="B7" s="162"/>
+      <c r="C7" s="162"/>
+      <c r="D7" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="E7" s="164" t="s">
         <v>98</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="166" t="s">
         <v>99</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="164" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="152"/>
-      <c r="C8" s="152" t="s">
+      <c r="B8" s="162"/>
+      <c r="C8" s="162" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="152"/>
-      <c r="E8" s="160" t="s">
+      <c r="D8" s="162"/>
+      <c r="E8" s="170" t="s">
         <v>102</v>
       </c>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="161" t="s">
+      <c r="F8" s="170"/>
+      <c r="G8" s="170"/>
+      <c r="H8" s="171" t="s">
         <v>103</v>
       </c>
-      <c r="I8" s="162"/>
+      <c r="I8" s="172"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="152"/>
-      <c r="C9" s="152"/>
-      <c r="D9" s="152"/>
-      <c r="E9" s="160" t="s">
+      <c r="B9" s="162"/>
+      <c r="C9" s="162"/>
+      <c r="D9" s="162"/>
+      <c r="E9" s="170" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="162"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="170"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="152"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="152"/>
-      <c r="E10" s="160" t="s">
+      <c r="B10" s="162"/>
+      <c r="C10" s="162"/>
+      <c r="D10" s="162"/>
+      <c r="E10" s="170" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="162"/>
-      <c r="I10" s="162"/>
+      <c r="F10" s="170"/>
+      <c r="G10" s="170"/>
+      <c r="H10" s="172"/>
+      <c r="I10" s="172"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="152"/>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="160" t="s">
+      <c r="B11" s="162"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="160"/>
-      <c r="G11" s="160"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="152"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="160" t="s">
+      <c r="B12" s="162"/>
+      <c r="C12" s="162"/>
+      <c r="D12" s="162"/>
+      <c r="E12" s="170" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
+      <c r="F12" s="170"/>
+      <c r="G12" s="170"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="152"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="160" t="s">
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="170" t="s">
         <v>108</v>
       </c>
-      <c r="F13" s="160"/>
-      <c r="G13" s="160"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
+      <c r="F13" s="170"/>
+      <c r="G13" s="170"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="152"/>
-      <c r="C14" s="152" t="s">
+      <c r="B14" s="162"/>
+      <c r="C14" s="162" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="162" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="160" t="s">
+      <c r="E14" s="170" t="s">
         <v>111</v>
       </c>
-      <c r="F14" s="153" t="s">
+      <c r="F14" s="163" t="s">
         <v>112</v>
       </c>
-      <c r="G14" s="160"/>
+      <c r="G14" s="170"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="152"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="152"/>
-      <c r="E15" s="160" t="s">
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="170" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="155"/>
-      <c r="G15" s="160"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="170"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="152"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="152" t="s">
+      <c r="B16" s="162"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="170" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="155"/>
-      <c r="G16" s="160"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="170"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="152"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="152"/>
-      <c r="E17" s="160" t="s">
+      <c r="B17" s="162"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="170" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="155"/>
-      <c r="G17" s="160"/>
+      <c r="F17" s="165"/>
+      <c r="G17" s="170"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="160" t="s">
+      <c r="B18" s="162"/>
+      <c r="C18" s="162"/>
+      <c r="D18" s="162"/>
+      <c r="E18" s="170" t="s">
         <v>116</v>
       </c>
-      <c r="F18" s="155"/>
-      <c r="G18" s="160"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9038,349 +9166,349 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="145" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="134"/>
-      <c r="B3" s="135" t="s">
+      <c r="A3" s="144"/>
+      <c r="B3" s="145" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="146" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="135"/>
+      <c r="D3" s="145"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="134"/>
-      <c r="B4" s="135" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="145" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="145"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="134"/>
-      <c r="B5" s="135" t="s">
+      <c r="A5" s="144"/>
+      <c r="B5" s="145" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="146" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="145"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135" t="s">
+      <c r="A6" s="144"/>
+      <c r="B6" s="145" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="146" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="135"/>
+      <c r="D6" s="145"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134" t="s">
+      <c r="A7" s="144"/>
+      <c r="B7" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="145"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134" t="s">
+      <c r="A8" s="144"/>
+      <c r="B8" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="146" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="135"/>
+      <c r="D8" s="145"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134" t="s">
+      <c r="A9" s="144"/>
+      <c r="B9" s="144" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="146" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="134"/>
-      <c r="B10" s="135" t="s">
+      <c r="A10" s="144"/>
+      <c r="B10" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="146" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="145"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="134"/>
-      <c r="B11" s="135" t="s">
+      <c r="A11" s="144"/>
+      <c r="B11" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="146" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="145"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="148" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="138" t="s">
+      <c r="A13" s="149"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="148" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="139"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="138" t="s">
+      <c r="A14" s="149"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="148" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="139"/>
-      <c r="B15" s="137" t="s">
+      <c r="A15" s="149"/>
+      <c r="B15" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="151"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="139"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="138" t="s">
+      <c r="A16" s="149"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="148" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="141" t="s">
+      <c r="D16" s="151" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="139"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="138" t="s">
+      <c r="A17" s="149"/>
+      <c r="B17" s="149"/>
+      <c r="C17" s="148" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="148" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="139"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="138" t="s">
+      <c r="A18" s="149"/>
+      <c r="B18" s="149"/>
+      <c r="C18" s="148" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="148" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="139"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="138" t="s">
+      <c r="A19" s="149"/>
+      <c r="B19" s="150"/>
+      <c r="C19" s="148" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="148" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="139"/>
-      <c r="B20" s="137" t="s">
+      <c r="A20" s="149"/>
+      <c r="B20" s="147" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="148" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="138" t="s">
+      <c r="D20" s="148" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="140"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="138" t="s">
+      <c r="A21" s="150"/>
+      <c r="B21" s="150"/>
+      <c r="C21" s="148" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="148" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="152" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="153" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="154" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="144" t="s">
+      <c r="D22" s="154" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="145"/>
-      <c r="B23" s="143" t="s">
+      <c r="A23" s="155"/>
+      <c r="B23" s="153" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="144" t="s">
+      <c r="C23" s="154" t="s">
         <v>166</v>
       </c>
-      <c r="D23" s="144" t="s">
+      <c r="D23" s="154" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="145"/>
-      <c r="B24" s="143" t="s">
+      <c r="A24" s="155"/>
+      <c r="B24" s="153" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="154" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="144" t="s">
+      <c r="D24" s="154" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="145"/>
-      <c r="B25" s="143" t="s">
+      <c r="A25" s="155"/>
+      <c r="B25" s="153" t="s">
         <v>171</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="154" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="144"/>
+      <c r="D25" s="154"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="145"/>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="155"/>
+      <c r="B26" s="153" t="s">
         <v>173</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="154" t="s">
         <v>174</v>
       </c>
-      <c r="D26" s="144" t="s">
+      <c r="D26" s="154" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="145"/>
-      <c r="B27" s="143" t="s">
+      <c r="A27" s="155"/>
+      <c r="B27" s="153" t="s">
         <v>176</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="156" t="s">
         <v>177</v>
       </c>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="154" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="145"/>
-      <c r="B28" s="143" t="s">
+      <c r="A28" s="155"/>
+      <c r="B28" s="153" t="s">
         <v>179</v>
       </c>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="154" t="s">
         <v>180</v>
       </c>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="154" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="145"/>
-      <c r="B29" s="143" t="s">
+      <c r="A29" s="155"/>
+      <c r="B29" s="153" t="s">
         <v>182</v>
       </c>
-      <c r="C29" s="144" t="s">
+      <c r="C29" s="154" t="s">
         <v>183</v>
       </c>
-      <c r="D29" s="144" t="s">
+      <c r="D29" s="154" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="147"/>
-      <c r="B30" s="143" t="s">
+      <c r="A30" s="157"/>
+      <c r="B30" s="153" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="156" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="144" t="s">
+      <c r="D30" s="154" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="158" t="s">
         <v>188</v>
       </c>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="127" t="s">
         <v>189</v>
       </c>
-      <c r="C32" s="117" t="s">
+      <c r="C32" s="127" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="159" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="127" t="s">
         <v>192</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="127" t="s">
         <v>193</v>
       </c>
       <c r="D34" s="3"/>
@@ -9388,28 +9516,28 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="150"/>
-      <c r="B35" s="117" t="s">
+      <c r="A35" s="160"/>
+      <c r="B35" s="127" t="s">
         <v>194</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="127" t="s">
         <v>195</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="151"/>
+      <c r="E35" s="161"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="158" t="s">
         <v>196</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="C36" s="129"/>
-      <c r="D36" s="148" t="s">
+      <c r="C36" s="139"/>
+      <c r="D36" s="158" t="s">
         <v>198</v>
       </c>
-      <c r="E36" s="151"/>
+      <c r="E36" s="161"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9446,60 +9574,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="130" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="139" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="140" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="120"/>
-      <c r="E10" s="129" t="s">
+      <c r="D10" s="130"/>
+      <c r="E10" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="139" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="120"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="131" t="s">
+      <c r="D11" s="130"/>
+      <c r="E11" s="139"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="141" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="120"/>
-      <c r="E12" s="131" t="s">
+      <c r="D12" s="130"/>
+      <c r="E12" s="141" t="s">
         <v>207</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G12" s="117" t="s">
+      <c r="G12" s="127" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="120"/>
-      <c r="E13" s="129" t="s">
+      <c r="D13" s="130"/>
+      <c r="E13" s="139" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="127" t="s">
         <v>212</v>
       </c>
     </row>
@@ -9535,134 +9663,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="117"/>
-      <c r="F7" s="118" t="s">
+      <c r="E7" s="127"/>
+      <c r="F7" s="128" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="127" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="117"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="117" t="s">
+      <c r="E8" s="127"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="127" t="s">
         <v>216</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="127" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="127" t="s">
         <v>220</v>
       </c>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="127" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="120"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="121" t="s">
+      <c r="E10" s="130"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="H10" s="122" t="s">
+      <c r="H10" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="134" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="123"/>
-      <c r="F11" s="124" t="s">
+      <c r="E11" s="133"/>
+      <c r="F11" s="134" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="131" t="s">
         <v>222</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="132" t="s">
         <v>226</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="137"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="123"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="118" t="s">
+      <c r="E12" s="133"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="128" t="s">
         <v>227</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="132" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="123"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="126" t="s">
+      <c r="E13" s="133"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="136" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="117" t="s">
+      <c r="E14" s="133"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="127" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="123"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="122" t="s">
+      <c r="E15" s="133"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="132" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="123"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="117" t="s">
+      <c r="E16" s="133"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="127" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="123"/>
-      <c r="F17" s="120" t="s">
+      <c r="E17" s="133"/>
+      <c r="F17" s="130" t="s">
         <v>233</v>
       </c>
-      <c r="G17" s="120" t="s">
+      <c r="G17" s="130" t="s">
         <v>234</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H17" s="127" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="123"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="117" t="s">
+      <c r="E18" s="133"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="127" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="123"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="117" t="s">
+      <c r="E19" s="133"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="127" t="s">
         <v>237</v>
       </c>
     </row>
@@ -9701,581 +9829,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="96" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="91"/>
+      <c r="E1" s="98"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="92"/>
+      <c r="E2" s="99"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="100" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="95"/>
+      <c r="B4" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="101" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="92"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="94" t="s">
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="99"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="94" t="s">
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="97" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="92"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="94" t="s">
+      <c r="A7" s="95"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="101" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="97" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="95" t="s">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="103" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="97" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="97" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89" t="s">
+      <c r="A9" s="95"/>
+      <c r="B9" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="103" t="s">
         <v>261</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="97" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="97"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="88"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="95" t="s">
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="103" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="102" t="s">
         <v>264</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="97"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="95"/>
+      <c r="B11" s="96" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="95" t="s">
+      <c r="C11" s="103" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="97"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="95" t="s">
+      <c r="A12" s="95"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="97"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="95" t="s">
+      <c r="A13" s="95"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="97" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="97"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="95"/>
+      <c r="B14" s="96" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="103" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="97" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="97"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="88"/>
-      <c r="B15" s="96" t="s">
+      <c r="A15" s="95"/>
+      <c r="B15" s="104" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="103" t="s">
         <v>276</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="97" t="s">
         <v>277</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="97" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="88"/>
-      <c r="B16" s="97"/>
-      <c r="C16" s="95" t="s">
+      <c r="A16" s="95"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="103" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="97" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="95"/>
+      <c r="B17" s="96" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="106" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="97" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="97" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="90" t="s">
+      <c r="A18" s="95"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="97" t="s">
         <v>286</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="97" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="98" t="s">
+      <c r="A19" s="107" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="108" t="s">
         <v>289</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="E19" s="100"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="98"/>
-      <c r="B20" s="101"/>
-      <c r="C20" s="90" t="s">
+      <c r="A20" s="107"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="97" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="E20" s="102" t="s">
+      <c r="E20" s="111" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="98"/>
-      <c r="B21" s="103" t="s">
+      <c r="A21" s="107"/>
+      <c r="B21" s="112" t="s">
         <v>295</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="97" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="104"/>
+      <c r="E21" s="113"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="98"/>
-      <c r="B22" s="105"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="90" t="s">
+      <c r="A22" s="107"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="97" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="97"/>
+      <c r="E22" s="105"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="106" t="s">
+      <c r="A23" s="115" t="s">
         <v>299</v>
       </c>
-      <c r="B23" s="107" t="s">
+      <c r="B23" s="116" t="s">
         <v>300</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="97" t="s">
         <v>301</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="106" t="s">
         <v>302</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="95"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="108"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="90" t="s">
+      <c r="A24" s="117"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="97" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="106" t="s">
         <v>304</v>
       </c>
-      <c r="E24" s="88"/>
+      <c r="E24" s="95"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="108"/>
-      <c r="B25" s="110" t="s">
+      <c r="A25" s="117"/>
+      <c r="B25" s="119" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="106" t="s">
         <v>307</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="95"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="108"/>
-      <c r="B26" s="110" t="s">
+      <c r="A26" s="117"/>
+      <c r="B26" s="119" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="97" t="s">
         <v>309</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="106" t="s">
         <v>310</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="96" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="108"/>
-      <c r="B27" s="107" t="s">
+      <c r="A27" s="117"/>
+      <c r="B27" s="116" t="s">
         <v>312</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="97" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="106" t="s">
         <v>314</v>
       </c>
-      <c r="E27" s="88"/>
+      <c r="E27" s="95"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="108"/>
-      <c r="B28" s="109"/>
-      <c r="C28" s="90" t="s">
+      <c r="A28" s="117"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="97" t="s">
         <v>315</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="E28" s="88"/>
+      <c r="E28" s="95"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="108"/>
-      <c r="B29" s="18" t="s">
+      <c r="A29" s="117"/>
+      <c r="B29" s="106" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="106" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="88"/>
+      <c r="D29" s="106"/>
+      <c r="E29" s="95"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="108"/>
-      <c r="B30" s="18" t="s">
+      <c r="A30" s="117"/>
+      <c r="B30" s="106" t="s">
         <v>319</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="106" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="106" t="s">
         <v>321</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="95"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="108"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="117"/>
+      <c r="B31" s="96" t="s">
         <v>322</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="106" t="s">
         <v>324</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="95"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="108"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89" t="s">
+      <c r="A32" s="117"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="96" t="s">
         <v>325</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="106" t="s">
         <v>326</v>
       </c>
-      <c r="E32" s="88"/>
+      <c r="E32" s="95"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="108"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="18" t="s">
+      <c r="A33" s="117"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="106" t="s">
         <v>327</v>
       </c>
-      <c r="E33" s="88"/>
+      <c r="E33" s="95"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="108"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="18" t="s">
+      <c r="A34" s="117"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="106" t="s">
         <v>328</v>
       </c>
-      <c r="E34" s="88"/>
+      <c r="E34" s="95"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="108"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="18" t="s">
+      <c r="A35" s="117"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="96"/>
+      <c r="D35" s="106" t="s">
         <v>329</v>
       </c>
-      <c r="E35" s="88"/>
+      <c r="E35" s="95"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="108"/>
-      <c r="B36" s="111" t="s">
+      <c r="A36" s="117"/>
+      <c r="B36" s="120" t="s">
         <v>330</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="106" t="s">
         <v>331</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="121" t="s">
         <v>332</v>
       </c>
-      <c r="E36" s="89"/>
+      <c r="E36" s="96"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="108"/>
-      <c r="B37" s="89" t="s">
+      <c r="A37" s="117"/>
+      <c r="B37" s="96" t="s">
         <v>333</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="99" t="s">
         <v>334</v>
       </c>
-      <c r="D37" s="18" t="s">
+      <c r="D37" s="106" t="s">
         <v>335</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="95"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="108"/>
-      <c r="B38" s="51" t="s">
+      <c r="A38" s="117"/>
+      <c r="B38" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="C38" s="49" t="s">
+      <c r="C38" s="28" t="s">
         <v>337</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="106" t="s">
         <v>338</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="95"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="108"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="117"/>
+      <c r="B39" s="96" t="s">
         <v>339</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="99" t="s">
         <v>340</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="88"/>
+      <c r="D39" s="106"/>
+      <c r="E39" s="95"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="108"/>
-      <c r="B40" s="18" t="s">
+      <c r="A40" s="117"/>
+      <c r="B40" s="106" t="s">
         <v>341</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="D40" s="18" t="s">
+      <c r="D40" s="106" t="s">
         <v>343</v>
       </c>
-      <c r="E40" s="88"/>
+      <c r="E40" s="95"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="108"/>
-      <c r="B41" s="18" t="s">
+      <c r="A41" s="117"/>
+      <c r="B41" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="97" t="s">
         <v>345</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="88"/>
+      <c r="D41" s="106"/>
+      <c r="E41" s="95"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="108"/>
-      <c r="B42" s="18" t="s">
+      <c r="A42" s="117"/>
+      <c r="B42" s="106" t="s">
         <v>346</v>
       </c>
-      <c r="C42" s="112" t="s">
+      <c r="C42" s="122" t="s">
         <v>347</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="88"/>
+      <c r="D42" s="106"/>
+      <c r="E42" s="95"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="123" t="s">
         <v>348</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="88"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="106"/>
+      <c r="E43" s="95"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="108"/>
-      <c r="B44" s="18" t="s">
+      <c r="A44" s="117"/>
+      <c r="B44" s="106" t="s">
         <v>349</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="125" t="s">
         <v>350</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="106" t="s">
         <v>351</v>
       </c>
-      <c r="E44" s="112" t="s">
+      <c r="E44" s="122" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="108"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18" t="s">
+      <c r="A45" s="117"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="106"/>
+      <c r="D45" s="106" t="s">
         <v>353</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="E45" s="101" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="108"/>
-      <c r="B46" s="89" t="s">
+      <c r="A46" s="117"/>
+      <c r="B46" s="96" t="s">
         <v>355</v>
       </c>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="125" t="s">
         <v>356</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="106" t="s">
         <v>357</v>
       </c>
-      <c r="E46" s="112" t="s">
+      <c r="E46" s="122" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="116"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="19" t="s">
+      <c r="A47" s="126"/>
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="121" t="s">
         <v>359</v>
       </c>
-      <c r="E47" s="112" t="s">
+      <c r="E47" s="122" t="s">
         <v>360</v>
       </c>
     </row>
@@ -10328,404 +10456,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="84" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="85" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="86" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="78"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="87" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="88" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="77"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="87" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="86" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="88"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="84"/>
+      <c r="B4" s="87" t="s">
         <v>368</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="89" t="s">
         <v>369</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="88"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="87" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="86" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="88"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="77"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="87" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="86" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="90"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="85" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="87" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="86" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="91" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="78"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="79" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="86" t="s">
         <v>378</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="85" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="78"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="79" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="86" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="87" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="78"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="79" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="86" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="87" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="85" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="78"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="78" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="92" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="78"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="86" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="93" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="86" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="93" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="78"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="85" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="92" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="78"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88" t="s">
         <v>325</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="85" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="78"/>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="87" t="s">
         <v>392</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="87" t="s">
         <v>393</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="90" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87" t="s">
         <v>353</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="90"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87" t="s">
         <v>395</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="90"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="78"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80" t="s">
+      <c r="A20" s="85"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87" t="s">
         <v>396</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="90"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85" t="s">
         <v>397</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="88" t="s">
         <v>398</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="85" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="85" t="s">
         <v>400</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="86" t="s">
         <v>401</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="86" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="85"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="85"/>
+      <c r="B23" s="85" t="s">
         <v>403</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="86" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="86"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79" t="s">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86" t="s">
         <v>405</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="86"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85" t="s">
         <v>406</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="94" t="s">
         <v>407</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="94"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85" t="s">
         <v>408</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79" t="s">
+      <c r="C26" s="86"/>
+      <c r="D26" s="86" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="78"/>
-      <c r="B27" s="80" t="s">
+      <c r="A27" s="85"/>
+      <c r="B27" s="87" t="s">
         <v>410</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="89" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="86" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="78"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="82" t="s">
+      <c r="A28" s="85"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="89" t="s">
         <v>413</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="86" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="78"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="82" t="s">
+      <c r="A29" s="85"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="89" t="s">
         <v>415</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="86" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="86" t="s">
         <v>418</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="86"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="86" t="s">
         <v>421</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="86"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="85"/>
+      <c r="B32" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="86" t="s">
         <v>423</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="86" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79" t="s">
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="86" t="s">
         <v>425</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="86" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79" t="s">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86" t="s">
         <v>427</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="86" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="86" t="s">
         <v>430</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="86" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="85"/>
+      <c r="B36" s="85" t="s">
         <v>432</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="86" t="s">
         <v>433</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="86" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78" t="s">
+      <c r="A37" s="85"/>
+      <c r="B37" s="85" t="s">
         <v>435</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="85" t="s">
         <v>436</v>
       </c>
-      <c r="D37" s="78"/>
+      <c r="D37" s="85"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78" t="s">
+      <c r="A38" s="85"/>
+      <c r="B38" s="85" t="s">
         <v>437</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="85" t="s">
         <v>438</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="85" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="82" t="s">
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="89" t="s">
         <v>440</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="89" t="s">
         <v>441</v>
       </c>
     </row>

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,23 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="11"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="0.数学指标" sheetId="9" r:id="rId1"/>
-    <sheet name="0.AI体系" sheetId="10" r:id="rId2"/>
-    <sheet name="0.分析" sheetId="11" r:id="rId3"/>
-    <sheet name="0.预处理" sheetId="2" r:id="rId4"/>
-    <sheet name="基础" sheetId="1" r:id="rId5"/>
-    <sheet name="优化" sheetId="6" r:id="rId6"/>
-    <sheet name="评估" sheetId="5" r:id="rId7"/>
-    <sheet name="1.回归" sheetId="4" r:id="rId8"/>
-    <sheet name="2.分类" sheetId="3" r:id="rId9"/>
-    <sheet name="3.聚类" sheetId="7" r:id="rId10"/>
-    <sheet name="4.cv2" sheetId="12" r:id="rId11"/>
-    <sheet name="5.深度基础" sheetId="13" r:id="rId12"/>
-    <sheet name="推荐" sheetId="16" r:id="rId13"/>
-    <sheet name="TF" sheetId="17" r:id="rId14"/>
+    <sheet name="0.AI体系" sheetId="10" r:id="rId1"/>
+    <sheet name="0.分析" sheetId="11" r:id="rId2"/>
+    <sheet name="0.预处理" sheetId="2" r:id="rId3"/>
+    <sheet name="基础" sheetId="1" r:id="rId4"/>
+    <sheet name="优化" sheetId="6" r:id="rId5"/>
+    <sheet name="评估" sheetId="5" r:id="rId6"/>
+    <sheet name="1.回归" sheetId="4" r:id="rId7"/>
+    <sheet name="2.分类" sheetId="3" r:id="rId8"/>
+    <sheet name="3.聚类" sheetId="7" r:id="rId9"/>
+    <sheet name="4.cv2" sheetId="12" r:id="rId10"/>
+    <sheet name="5.深度基础" sheetId="13" r:id="rId11"/>
+    <sheet name="6.推荐" sheetId="16" r:id="rId12"/>
+    <sheet name="TF" sheetId="17" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,96 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="795">
-  <si>
-    <t>numpy和python中的数学指标</t>
-  </si>
-  <si>
-    <t>算数平均值</t>
-  </si>
-  <si>
-    <t>平均值的作用：算数平均值表示——“对增值进行一个无偏估计”</t>
-  </si>
-  <si>
-    <t>m = np.mean(array)   #np的接口
-m = array.mean()  #pandas中Series的接口
-m = df.mean(axis=0)  #pandas中Dataframe的接口</t>
-  </si>
-  <si>
-    <t>加权平均值</t>
-  </si>
-  <si>
-    <t>求平均值时，考虑 "不同样本" 的重要性，可以为 "不同的样本赋予不同的权重"</t>
-  </si>
-  <si>
-    <t>ap = np.average(array,weights=volumes)</t>
-  </si>
-  <si>
-    <t>最小值、最大值</t>
-  </si>
-  <si>
-    <t>np.max()
-np.min()</t>
-  </si>
-  <si>
-    <t>极差</t>
-  </si>
-  <si>
-    <t>最大值减去最不小值</t>
-  </si>
-  <si>
-    <t>np.ptp()</t>
-  </si>
-  <si>
-    <t>最值索引</t>
-  </si>
-  <si>
-    <t>（1）np用法  //返回 "位置" 索引 ，如果返回值相同，会取前面一个
-print(np.argmax(a),np.argmin(a))
-（2）pandas中 //返回 "标签" 索引
-print(series.idxmax(),series.idxmin())  
-print(dataframe.idxmax(),dataframe.idxmin())</t>
-  </si>
-  <si>
-    <t>中位数</t>
-  </si>
-  <si>
-    <t>和平均值有点像
-当特殊数据比较多的时候，求平均值，特殊数据一定会影响整体数据的分布状态
-所以这时候中位数就派上了用场</t>
-  </si>
-  <si>
-    <t>np.median()</t>
-  </si>
-  <si>
-    <t>标准差</t>
-  </si>
-  <si>
-    <t>"评估一组数据" 震荡的幅度。
- 标准差大好，还是标准差小好?
-   标准差 + 平均值结合起来分析
-   （1）"标准差" 比较小
-   （2）且 "平均值" 比较高
-   说明：又好又稳定</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> （1）求平均值
- （2）求离差(deviation): 表示某组数据距离某个中心点偏离程度
- （3）求离差方 //因为有负数，所以(离差的平方)
- （4）方差：  //对 "离差方"  求均值，
- （5）校准差： //对 "方差"开根号，就是标准差//因为前面平方过
-</t>
-  </si>
-  <si>
-    <t>正太分布</t>
-  </si>
-  <si>
-    <t>越接近  "期望值"  的部分，出现的概率越大。
-越远离  "期望值"  的部分，出现的概率越小。</t>
-  </si>
-  <si>
-    <t>高斯分布</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="827">
   <si>
     <t>artificial    intelligence
 读：阿尔提（费学） 赢特ne（jin ce）</t>
@@ -3982,40 +3893,160 @@
     <t>卷积运算</t>
   </si>
   <si>
-    <t>单通道、二维卷积</t>
-  </si>
-  <si>
-    <t>单通道、二维卷积、同维卷积</t>
-  </si>
-  <si>
-    <t>单通道、二维卷积 + 偏置</t>
-  </si>
-  <si>
-    <t>带填充的: padding，在外部填充1圈0或2圈0</t>
-  </si>
-  <si>
-    <t>步幅: stride</t>
-  </si>
-  <si>
-    <t>多通道</t>
-  </si>
-  <si>
-    <t>还是对应位置相乘之后，再求和，3 个特征图，把它们 "对应位置相加" 。</t>
+    <t>“对应位置相称”，然后“全部相加”。</t>
+  </si>
+  <si>
+    <t>卷积核/滤波器</t>
+  </si>
+  <si>
+    <t>卷积核 一般是 n*n的小图像，n一般取奇数，值代表的是权重</t>
+  </si>
+  <si>
+    <t>2 0 1
+0 1 2
+1 0 2</t>
+  </si>
+  <si>
+    <t>不带偏置</t>
+  </si>
+  <si>
+    <t>1 2 3 0              2 0 1          15 16
+0 2 2 3      *       0 1 2     =    6  15    
+3 0 1 2              1 0 2
+2 3 0 1</t>
+  </si>
+  <si>
+    <t>示例：“4*4的图”与“3*3的卷积核”卷积运算得到“2*2特征图”</t>
+  </si>
+  <si>
+    <t>带偏置</t>
+  </si>
+  <si>
+    <t>先卷积，再加偏置。</t>
+  </si>
+  <si>
+    <t>1 2 3 0              2 0 1               18 19
+0 2 2 3      *       0 1 2   +  3   =    9  18
+3 0 1 2              1 0 2
+2 3 0 1</t>
+  </si>
+  <si>
+    <t>这里加上了偏置</t>
+  </si>
+  <si>
+    <t>填充</t>
+  </si>
+  <si>
+    <t>带填充的: padding，在外部填充1圈0或2圈0
+在周围填一圈0，表示填充为1
+padding: 1，表示填充一圈0
+padding: 2，表示填充两圈0</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0             2 0 1            7  12 10 2
+0 0 2 2 3 0      *      0 1 2     =      4  15 16 10
+0 3 0 1 2 0             1 0 2            10 6  15 6
+0 2 3 0 1 0                              8  10 4  3
+0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>填0之后，再次运算得到的大小和原来一样 4*4</t>
+  </si>
+  <si>
+    <t>同维卷积</t>
+  </si>
+  <si>
+    <t>填充一圈0之后，再次运算得到的“大小和原来一样”的特征图，
+就叫同维卷积</t>
+  </si>
+  <si>
+    <t>0 0 0 0 0 0             2 0 1            7  12 10 2
+0 0 2 2 3 0      *      0 1 2     =      4  15 16 10
+0 3 0 1 2 0             1 0 2    10 6  15 6
+0 2 3 0 1 0         8  10 4  3
+0 0 0 0 0 0</t>
+  </si>
+  <si>
+    <t>步幅</t>
+  </si>
+  <si>
+    <t>步幅就是指 "向右" 或 "向下" 要移动的单位。
+步幅越大，能卷出来的结果就越少。</t>
+  </si>
+  <si>
+    <t>偏移为1，就步幅1。
+偏移为2，就步幅2。</t>
   </si>
   <si>
     <t>卷积结果维度的计算</t>
   </si>
   <si>
-    <t>OH = (H + 2P -FH)/S +1</t>
-  </si>
-  <si>
-    <t>OW = (W + 2P - FW)/S + 1</t>
+    <t>通过：原始图大小、卷积核大小、填充、步幅可以计算出特征图的大小</t>
+  </si>
+  <si>
+    <t>OH = (H + 2P -FH)/S +1
+OW = (W + 2P - FW)/S + 1</t>
+  </si>
+  <si>
+    <t>单通道的卷积</t>
+  </si>
+  <si>
+    <t>输入图像是“单通道”的，卷积核也是“单通道”的，生成一个“特征图”。</t>
+  </si>
+  <si>
+    <t>有“几个卷积核”生成几个“特征图”
+“特殊图的通道数”和“原图”一致</t>
+  </si>
+  <si>
+    <t>多通道的卷积</t>
+  </si>
+  <si>
+    <t>输入图像有“多个通道”，卷积核也有“相同数量”的通道，
+每个通道进行“卷积后相加”，生成一个特征图。</t>
+  </si>
+  <si>
+    <t>它有两层意思：
+（1）"卷积核的通道数" 应该与 "输入数据的通道数" 相匹配，这样就是进行多通道卷积运算。
+（2）"卷积核的通道数为1"，输入数据为 "多个通道"， 这时 "每个通道" 和 "通道数为1卷积核" 运算，得到一个结果，有多少卷积核就有多少结果，这是多个单通道运算。</t>
+  </si>
+  <si>
+    <t>卷积层的参数计算</t>
+  </si>
+  <si>
+    <t>权重：输入通道数 * 卷积核尺寸 * 输出通道数
+偏置：神经元个数</t>
+  </si>
+  <si>
+    <t>权重示例：128  *  (5 * 5) * 256 = 819200 //81万
+偏置：256</t>
+  </si>
+  <si>
+    <t>多通道卷积示例</t>
+  </si>
+  <si>
+    <t>从一个卷积核（三通道）的得到三个结果，对应位置相加之后得到 "一个特征图"。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 5
+ 2 3
+ 6 4               21 17
+      ——————&gt; 
+ 4 3               17 9
+ 8 8
+11 3</t>
   </si>
   <si>
     <t>卷积神经网络</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">卷积神经网络(Convolutional Neural Network,CNN)
 针对"全连接神经网络" 的局限做出了修改，
 </t>
@@ -4109,6 +4140,13 @@
     </r>
   </si>
   <si>
+    <t>阶跃 0|1
+sigmoid 0-1
+tanh、 -1到1
+relu、0-正
+softmax</t>
+  </si>
+  <si>
     <t>没有要学习的参数</t>
   </si>
   <si>
@@ -4131,8 +4169,13 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>————降低宽高</t>
-    </r>
+      <t xml:space="preserve">————降低宽高
+</t>
+    </r>
+  </si>
+  <si>
+    <t>将输入切割成 "若干大小相等" 的块，对每一个区域取 "最大值或平均值"，组成一个新的矩阵
+也叫："子采样*（Subsampling）" 或 "下采样"</t>
   </si>
   <si>
     <t>池化里面 "没有要学习的参数"
@@ -4141,6 +4184,10 @@
 鲁棒性：输入数据发生微小变化时， 池化仍会返回相同的结果。</t>
   </si>
   <si>
+    <t>Max池化：取最大值 //图像领域用的最多
+Average池化：取平均值 //会让图像模糊</t>
+  </si>
+  <si>
     <t>全连接层</t>
   </si>
   <si>
@@ -4153,35 +4200,150 @@
     <t>LeNet 5层</t>
   </si>
   <si>
-    <t>第一个 "卷积神经网络"，开山鼻祖。</t>
+    <t>2个卷积激活池化组+ 3个全连接</t>
+  </si>
+  <si>
+    <t>第一个 "卷积神经网络"，开山鼻祖。奠定了CNN的基本架构，</t>
+  </si>
+  <si>
+    <t>使用场景：手写体识别（图像分类）</t>
   </si>
   <si>
     <t>AlexNet 8层</t>
   </si>
   <si>
-    <t>"随机忽略一部分防止过拟合"</t>
-  </si>
-  <si>
-    <t>VGG 19</t>
-  </si>
-  <si>
-    <t>卷中卷</t>
+    <t>5个卷积-池化组  + 3个全连接</t>
+  </si>
+  <si>
+    <t>使用ReLU作为激活函数</t>
+  </si>
+  <si>
+    <t>使用Dropout，随机忽略一部分防止过拟合</t>
+  </si>
+  <si>
+    <t>平均池化，修改为最大池化</t>
+  </si>
+  <si>
+    <t>GPU强大的并行计算能力</t>
+  </si>
+  <si>
+    <t>VGG-19</t>
+  </si>
+  <si>
+    <t>有 11 13 16 19 四种深度</t>
+  </si>
+  <si>
+    <t>卷积配置相同：区域都是 3*3 ，步长为 1 ，填充为1的卷积
+池化：步长为 2*2 ，步长为 2</t>
+  </si>
+  <si>
+    <t>卷中卷：“组卷积-池化层”里面不止卷一次
+意思是：卷积+激活、卷积+激活，再池化</t>
   </si>
   <si>
     <t>GoogLeNet 22层</t>
   </si>
   <si>
-    <t>Inception 并行卷积结构，特征融合</t>
-  </si>
-  <si>
-    <t>Res Net 152层</t>
-  </si>
-  <si>
-    <t>残差网络</t>
-  </si>
-  <si>
-    <t>都离不开CNN，它们都要进行 "特征提取"。
-不管什么网络，它都要进行卷积，提取特征</t>
+    <t>18-layer
+34-layer
+50-layer
+101-layer
+152-layer</t>
+  </si>
+  <si>
+    <t>（1）大量的Inception 并行卷积结构，
+（2）另外1*1做降维，降低参数量</t>
+  </si>
+  <si>
+    <t>Inception使用了大、中、小三种卷积核，分别提取了全貌和细节，然后做特征融合。</t>
+  </si>
+  <si>
+    <t>Res Net 152层
+（残差网络）</t>
+  </si>
+  <si>
+    <t>也有多种深度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">把“”和卷积结果融合到一起防止梯度消失的问题
+</t>
+  </si>
+  <si>
+    <t>使用“残差结构”缓解了梯度消失</t>
+  </si>
+  <si>
+    <t>感受野</t>
+  </si>
+  <si>
+    <t>指“特征图”中的一个“特征值”，对“应原始图像”当中“图像的大小”</t>
+  </si>
+  <si>
+    <t>比如说：
+（1）特征图中一个“特征值”对应原图中“3*3”的大小，那么就说它的感受野是3*3大小
+（2）再次卷积之后“特征值”再次变小，那么一个特征值对应原始图像就可能是5*5了。</t>
+  </si>
+  <si>
+    <t>“特征图大小” 与“感受野” 关系</t>
+  </si>
+  <si>
+    <t>（1）“感受野” 越大，特征表达越好，表征能力越强，特征图越小
+      //能看到全貌
+（2）“感受野” 越小，特征图越大，
+      //能看到细节</t>
+  </si>
+  <si>
+    <t>“感受野大”好，还是“感受野小”好，都好
+感受野 大，能看清楚全貌
+感受野 小，能看清楚细节</t>
+  </si>
+  <si>
+    <t>1*1卷积核降维</t>
+  </si>
+  <si>
+    <t>降维过程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+输入数据 ： 100 * 100 * 128
+卷积: 256 个 5 * 5 的卷积核，步长为 1 ，填充为2
+结果维度： 100 * 100 * 256
+     // (100 + 4 -5) / 1  + 1 = 100 ，所以宽度和高是100，同维卷积
+     // 256个核，所以结果是256
+     //
+【卷积层的参数】：输入通道数 * 卷积核尺寸 * 输出通道数
+     128  *  5 * 5 * 256 = 819200 //81万</t>
+  </si>
+  <si>
+    <t>//============【1】
+输入数据 ： 100 * 100 * 128
+卷积： 32 个步长为 1 * 1 ，填充为 0 的卷积核。
+结果维度： 100 * 100 * 32
+  //( 100 + 2*0 - 1 ) / 1 + 1 =  100 同维度卷积
+//============【2】
+继续卷积: 256 个 5 * 5 的卷积核，步长为 1 ，填充为2
+结果维度： 100 * 100 * 256
+【卷积层的参数】：输入通道数 * 卷积核尺寸 * 输出通道数 
+     128 * 1 * 1 * 32  +  32  * 5 * 5 * 256
+     4094 + 204800 = 208896   //20万</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>CNN的不足</t>
+  </si>
+  <si>
+    <t xml:space="preserve">输入都是标准的等长向量，而序列数据长度
+是可变的。
+</t>
+  </si>
+  <si>
+    <t>循环神经网络（Recurrent Neural Network，RNN）</t>
+  </si>
+  <si>
+    <t>短期记忆能力的神
+经网络
+适合用于处理视频、语音、文本等与时序相关的问题</t>
   </si>
   <si>
     <t>推荐算法</t>
@@ -4359,13 +4521,6 @@
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -4521,12 +4676,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4547,7 +4709,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4559,25 +4727,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5093,70 +5243,76 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5165,10 +5321,10 @@
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5177,10 +5333,10 @@
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5189,10 +5345,10 @@
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5201,10 +5357,10 @@
     <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5213,17 +5369,11 @@
     <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5266,496 +5416,469 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -5790,9 +5913,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6142,126 +6262,285 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B6:I14"/>
+  <dimension ref="A11:G30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:E13"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="2" max="2" width="27.8938053097345" customWidth="1"/>
-    <col min="3" max="3" width="15.6283185840708" customWidth="1"/>
-    <col min="4" max="4" width="77.3628318584071" customWidth="1"/>
-    <col min="5" max="5" width="58.1858407079646" customWidth="1"/>
+    <col min="1" max="1" width="7.38938053097345" customWidth="1"/>
+    <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
+    <col min="3" max="4" width="17.7610619469027" customWidth="1"/>
+    <col min="5" max="5" width="44.9380530973451" customWidth="1"/>
+    <col min="6" max="6" width="21.7699115044248" customWidth="1"/>
+    <col min="7" max="7" width="53.4778761061947" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" ht="40.5" spans="2:5">
-      <c r="B6" s="133" t="s">
+    <row r="11" ht="51" customHeight="1" spans="1:7">
+      <c r="A11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="158" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" ht="85" customHeight="1" spans="1:7">
+      <c r="A12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="158" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" ht="27" spans="1:7">
+      <c r="A13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="127" t="s">
+      <c r="B13" s="9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="133"/>
-      <c r="C7" s="158" t="s">
+      <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="158" t="s">
+      <c r="D13" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="158" t="s">
+      <c r="E13" s="63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" ht="27" spans="2:5">
-      <c r="B8" s="133"/>
-      <c r="C8" s="158" t="s">
+      <c r="F13" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="158"/>
-      <c r="E8" s="127" t="s">
+      <c r="G13" s="171" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
-      <c r="B9" s="133"/>
-      <c r="C9" s="158" t="s">
+    <row r="14" ht="25" customHeight="1" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="158" t="s">
+      <c r="G14" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="127" t="s">
+    </row>
+    <row r="15" ht="85" customHeight="1" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" ht="81" spans="2:5">
-      <c r="B10" s="133"/>
-      <c r="C10" s="158" t="s">
+      <c r="F15" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="158"/>
-      <c r="E10" s="139" t="s">
+      <c r="G15" s="176"/>
+    </row>
+    <row r="16" ht="40.5" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" ht="40.5" spans="2:5">
-      <c r="B11" s="133"/>
-      <c r="C11" s="59" t="s">
+      <c r="D16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="C17" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" ht="94.5" spans="2:5">
-      <c r="B12" s="133"/>
-      <c r="C12" s="59" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="174" t="s">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="174" t="s">
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" ht="58" customHeight="1" spans="2:9">
-      <c r="B13" s="99" t="s">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="106" t="s">
+      <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="I13" s="189"/>
-    </row>
-    <row r="14" ht="30" customHeight="1" spans="2:5">
-      <c r="B14" s="99" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B6:B12"/>
+  <mergeCells count="13">
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="A13:A30"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B30"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E21:E25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6269,141 +6548,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I8"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
-  <cols>
-    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
-    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
-    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
-    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
-    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
-    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="81" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="82" t="s">
-        <v>443</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>445</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="81"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="28" t="s">
-        <v>447</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="81"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-    </row>
-    <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="81"/>
-      <c r="B5" s="82" t="s">
-        <v>449</v>
-      </c>
-      <c r="C5" s="33" t="s">
-        <v>450</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>452</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>453</v>
-      </c>
-      <c r="I5" s="3"/>
-    </row>
-    <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="81"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="33" t="s">
-        <v>454</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="82"/>
-    </row>
-    <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="81"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>458</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="81"/>
-      <c r="B8" s="32" t="s">
-        <v>460</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A1:A8"/>
-    <mergeCell ref="B1:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="F5:F6"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A2:G72"/>
@@ -6425,745 +6569,745 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="48" t="s">
-        <v>461</v>
+      <c r="A2" s="40" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="49"/>
+      <c r="A3" s="41"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="49"/>
+      <c r="A4" s="41"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="49"/>
+      <c r="A5" s="41"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="49"/>
-      <c r="B6" s="49" t="s">
-        <v>462</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41" t="s">
+        <v>439</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="49" t="s">
-        <v>463</v>
-      </c>
-      <c r="C7" s="49" t="s">
-        <v>464</v>
+      <c r="B7" s="41" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>441</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="71" customHeight="1" spans="2:7">
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="4" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="2:7">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49" t="s">
-        <v>470</v>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41" t="s">
+        <v>447</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
+        <v>449</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" ht="27" spans="2:7">
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" ht="67.5" spans="2:7">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>456</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" ht="78" customHeight="1" spans="2:7">
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>460</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="15" ht="61" customHeight="1" spans="2:7">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="16" ht="94.5" spans="2:7">
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+    </row>
+    <row r="17" ht="54" customHeight="1" spans="2:7">
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+    </row>
+    <row r="19" ht="27" spans="2:7">
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="41" t="s">
+        <v>470</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>473</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="4" t="s">
-        <v>475</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="49"/>
-      <c r="C13" s="49" t="s">
-        <v>476</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>478</v>
-      </c>
-      <c r="F13" s="52" t="s">
-        <v>479</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>482</v>
-      </c>
-      <c r="F14" s="52" t="s">
-        <v>483</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="4" t="s">
-        <v>489</v>
-      </c>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-    </row>
-    <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="4" t="s">
-        <v>492</v>
-      </c>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="49" t="s">
-        <v>493</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="49"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="3" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="49"/>
-      <c r="C22" s="48" t="s">
-        <v>498</v>
+      <c r="B22" s="41"/>
+      <c r="C22" s="40" t="s">
+        <v>475</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="49"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="3" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="49"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="4" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="49"/>
-      <c r="C25" s="53" t="s">
-        <v>503</v>
-      </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="45" t="s">
+        <v>480</v>
+      </c>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="49"/>
-      <c r="C26" s="53" t="s">
-        <v>504</v>
-      </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="45" t="s">
+        <v>481</v>
+      </c>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="48" t="s">
-        <v>505</v>
+      <c r="B27" s="40" t="s">
+        <v>482</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>507</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>507</v>
+        <v>483</v>
+      </c>
+      <c r="D27" s="47" t="s">
+        <v>484</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>484</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="48"/>
-      <c r="C28" s="48" t="s">
-        <v>509</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>510</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>510</v>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="D28" s="47" t="s">
+        <v>487</v>
+      </c>
+      <c r="E28" s="48" t="s">
+        <v>487</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>511</v>
+        <v>488</v>
       </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="28" t="s">
-        <v>512</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>512</v>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="47" t="s">
+        <v>489</v>
+      </c>
+      <c r="E29" s="48" t="s">
+        <v>489</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="48"/>
-      <c r="C30" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>515</v>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40" t="s">
+        <v>491</v>
+      </c>
+      <c r="D30" s="47" t="s">
+        <v>492</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>516</v>
+        <v>493</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="32" t="s">
-        <v>517</v>
-      </c>
-      <c r="E31" s="52" t="s">
-        <v>518</v>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="49" t="s">
+        <v>494</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>495</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="56" t="s">
-        <v>519</v>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50" t="s">
+        <v>496</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="48"/>
-      <c r="C33" s="48" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40" t="s">
+        <v>497</v>
+      </c>
+      <c r="D33" s="47" t="s">
+        <v>498</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>499</v>
+      </c>
+      <c r="F33" s="40" t="s">
+        <v>500</v>
+      </c>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" ht="33" customHeight="1" spans="2:7">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="47" t="s">
+        <v>501</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>502</v>
+      </c>
+      <c r="F34" s="41"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40" t="s">
+        <v>503</v>
+      </c>
+      <c r="D35" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>505</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>506</v>
+      </c>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>508</v>
+      </c>
+      <c r="F36" s="41"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" ht="54" spans="2:7">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="47" t="s">
+        <v>509</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>510</v>
+      </c>
+      <c r="F37" s="41"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40" t="s">
+        <v>511</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>513</v>
+      </c>
+      <c r="F38" s="41"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" ht="108" spans="2:7">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40" t="s">
+        <v>514</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>515</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="40" ht="68" customHeight="1" spans="2:7">
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="E40" s="53" t="s">
         <v>520</v>
-      </c>
-      <c r="D33" s="28" t="s">
-        <v>521</v>
-      </c>
-      <c r="E33" s="56" t="s">
-        <v>522</v>
-      </c>
-      <c r="F33" s="48" t="s">
-        <v>523</v>
-      </c>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="28" t="s">
-        <v>524</v>
-      </c>
-      <c r="E34" s="56" t="s">
-        <v>525</v>
-      </c>
-      <c r="F34" s="49"/>
-      <c r="G34" s="3"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="48"/>
-      <c r="C35" s="48" t="s">
-        <v>526</v>
-      </c>
-      <c r="D35" s="28" t="s">
-        <v>527</v>
-      </c>
-      <c r="E35" s="57" t="s">
-        <v>528</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>529</v>
-      </c>
-      <c r="G35" s="3"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="28" t="s">
-        <v>530</v>
-      </c>
-      <c r="E36" s="57" t="s">
-        <v>531</v>
-      </c>
-      <c r="F36" s="49"/>
-      <c r="G36" s="3"/>
-    </row>
-    <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="28" t="s">
-        <v>532</v>
-      </c>
-      <c r="E37" s="58" t="s">
-        <v>533</v>
-      </c>
-      <c r="F37" s="49"/>
-      <c r="G37" s="3"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="48"/>
-      <c r="C38" s="48" t="s">
-        <v>534</v>
-      </c>
-      <c r="D38" s="59" t="s">
-        <v>535</v>
-      </c>
-      <c r="E38" s="59" t="s">
-        <v>536</v>
-      </c>
-      <c r="F38" s="49"/>
-      <c r="G38" s="3"/>
-    </row>
-    <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="48"/>
-      <c r="C39" s="48" t="s">
-        <v>537</v>
-      </c>
-      <c r="D39" s="59" t="s">
-        <v>538</v>
-      </c>
-      <c r="E39" s="60" t="s">
-        <v>539</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="59" t="s">
-        <v>542</v>
-      </c>
-      <c r="E40" s="61" t="s">
-        <v>543</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="4" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="48"/>
-      <c r="C41" s="48" t="s">
-        <v>545</v>
-      </c>
-      <c r="D41" s="55" t="s">
-        <v>546</v>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40" t="s">
+        <v>522</v>
+      </c>
+      <c r="D41" s="48" t="s">
+        <v>523</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="55" t="s">
-        <v>549</v>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="48" t="s">
+        <v>526</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="48"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="4" t="s">
-        <v>551</v>
-      </c>
-      <c r="D43" s="55" t="s">
-        <v>552</v>
+        <v>528</v>
+      </c>
+      <c r="D43" s="48" t="s">
+        <v>529</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>553</v>
+        <v>530</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>554</v>
+        <v>531</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="62" t="s">
-        <v>555</v>
-      </c>
-      <c r="C44" s="62" t="s">
-        <v>556</v>
-      </c>
-      <c r="D44" s="55" t="s">
-        <v>557</v>
-      </c>
-      <c r="E44" s="55" t="s">
-        <v>558</v>
-      </c>
-      <c r="F44" s="63" t="s">
-        <v>559</v>
+      <c r="B44" s="54" t="s">
+        <v>532</v>
+      </c>
+      <c r="C44" s="54" t="s">
+        <v>533</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>534</v>
+      </c>
+      <c r="E44" s="48" t="s">
+        <v>535</v>
+      </c>
+      <c r="F44" s="55" t="s">
+        <v>536</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="62"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="55" t="s">
-        <v>560</v>
-      </c>
-      <c r="E45" s="58" t="s">
-        <v>561</v>
-      </c>
-      <c r="F45" s="55" t="s">
-        <v>562</v>
+      <c r="B45" s="54"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="48" t="s">
+        <v>537</v>
+      </c>
+      <c r="E45" s="52" t="s">
+        <v>538</v>
+      </c>
+      <c r="F45" s="48" t="s">
+        <v>539</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="62"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="55" t="s">
-        <v>563</v>
-      </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="55"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="48" t="s">
+        <v>540</v>
+      </c>
+      <c r="E46" s="52"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="65"/>
-      <c r="C47" s="62" t="s">
-        <v>564</v>
-      </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="55"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="54" t="s">
+        <v>541</v>
+      </c>
+      <c r="D47" s="48"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="66" t="s">
-        <v>565</v>
-      </c>
-      <c r="C48" s="62" t="s">
-        <v>565</v>
-      </c>
-      <c r="D48" s="63" t="s">
-        <v>566</v>
-      </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="63"/>
+      <c r="B48" s="58" t="s">
+        <v>542</v>
+      </c>
+      <c r="C48" s="54" t="s">
+        <v>542</v>
+      </c>
+      <c r="D48" s="55" t="s">
+        <v>543</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="66"/>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63" t="s">
-        <v>567</v>
-      </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="63"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="E49" s="52"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="66"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63" t="s">
-        <v>568</v>
+      <c r="B50" s="58"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55" t="s">
+        <v>545</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="F50" s="63"/>
+        <v>546</v>
+      </c>
+      <c r="F50" s="55"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="66"/>
-      <c r="C51" s="62"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="58"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="67" t="s">
-        <v>570</v>
-      </c>
-      <c r="C52" s="68" t="s">
-        <v>571</v>
+      <c r="B52" s="59" t="s">
+        <v>547</v>
+      </c>
+      <c r="C52" s="60" t="s">
+        <v>548</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>572</v>
+        <v>549</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>573</v>
-      </c>
-      <c r="F52" s="69" t="s">
-        <v>574</v>
-      </c>
-      <c r="G52" s="70" t="s">
-        <v>575</v>
+        <v>550</v>
+      </c>
+      <c r="F52" s="61" t="s">
+        <v>551</v>
+      </c>
+      <c r="G52" s="62" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="71"/>
-      <c r="C53" s="72"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="3" t="s">
-        <v>576</v>
+        <v>553</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="74"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="71"/>
-      <c r="C54" s="72"/>
-      <c r="D54" s="67" t="s">
-        <v>577</v>
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="59" t="s">
+        <v>554</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="F54" s="75"/>
-      <c r="G54" s="76"/>
+        <v>555</v>
+      </c>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="71"/>
-      <c r="C55" s="72"/>
-      <c r="D55" s="71"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
+        <v>556</v>
+      </c>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="71"/>
-      <c r="C56" s="72"/>
-      <c r="D56" s="71"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="3" t="s">
-        <v>580</v>
+        <v>557</v>
       </c>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="77"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="77"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="4" t="s">
-        <v>581</v>
+        <v>558</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>582</v>
+        <v>559</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="79" t="s">
-        <v>583</v>
-      </c>
-      <c r="D62" s="80"/>
-      <c r="E62" s="80"/>
+      <c r="C62" s="71" t="s">
+        <v>560</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="80"/>
-      <c r="D64" s="80"/>
-      <c r="E64" s="80"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="80"/>
-      <c r="D65" s="80"/>
-      <c r="E65" s="80"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="80"/>
-      <c r="D69" s="80"/>
-      <c r="E69" s="80"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="80"/>
-      <c r="D72" s="80"/>
-      <c r="E72" s="80"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7206,982 +7350,1226 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C18:H96"/>
+  <dimension ref="C18:H123"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="C72" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D98" workbookViewId="0">
+      <selection activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="40.5840707964602" customWidth="1"/>
-    <col min="3" max="3" width="13.4336283185841" customWidth="1"/>
-    <col min="4" max="4" width="34.5929203539823" customWidth="1"/>
+    <col min="3" max="3" width="14.7964601769912" customWidth="1"/>
+    <col min="4" max="4" width="30.4424778761062" customWidth="1"/>
     <col min="5" max="5" width="53.6902654867257" customWidth="1"/>
-    <col min="6" max="6" width="52.6991150442478" customWidth="1"/>
-    <col min="7" max="7" width="33.4336283185841" customWidth="1"/>
-    <col min="8" max="8" width="50.6902654867257" customWidth="1"/>
+    <col min="6" max="6" width="66.1769911504425" customWidth="1"/>
+    <col min="7" max="7" width="61.4424778761062" customWidth="1"/>
+    <col min="8" max="8" width="58.1681415929204" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" ht="27" spans="3:8">
       <c r="C18" s="10" t="s">
-        <v>584</v>
+        <v>561</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>585</v>
+        <v>562</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>586</v>
+        <v>563</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>587</v>
+        <v>564</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" ht="54" spans="3:8">
-      <c r="C19" s="15"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="12" t="s">
-        <v>588</v>
+        <v>565</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="F19" s="16"/>
+        <v>566</v>
+      </c>
+      <c r="F19" s="15"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="14"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="15"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="11" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="F20" s="16"/>
+        <v>568</v>
+      </c>
+      <c r="F20" s="15"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="14"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" ht="72" customHeight="1" spans="3:8">
-      <c r="C21" s="15"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="12" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="16"/>
+      <c r="F21" s="15"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="14"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" ht="72" customHeight="1" spans="3:8">
-      <c r="C22" s="17"/>
-      <c r="D22" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>594</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>595</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" customFormat="1" ht="72" customHeight="1"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" ht="72" customHeight="1"/>
     <row r="24" ht="72" customHeight="1"/>
     <row r="25" ht="32" customHeight="1" spans="3:8">
-      <c r="C25" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>597</v>
+      <c r="C25" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>574</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="F25" s="13"/>
       <c r="G25" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="H25" s="14"/>
+        <v>576</v>
+      </c>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" ht="51" customHeight="1" spans="3:8">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="13"/>
       <c r="F26" s="13"/>
       <c r="G26" s="12" t="s">
-        <v>600</v>
-      </c>
-      <c r="H26" s="14"/>
+        <v>577</v>
+      </c>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" ht="265" customHeight="1" spans="3:8">
-      <c r="C27" s="16"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>602</v>
+        <v>578</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>579</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>603</v>
-      </c>
-      <c r="G27" s="24" t="s">
-        <v>604</v>
-      </c>
-      <c r="H27" s="14"/>
+        <v>580</v>
+      </c>
+      <c r="G27" s="18" t="s">
+        <v>581</v>
+      </c>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" ht="72" customHeight="1" spans="3:8">
-      <c r="C28" s="16"/>
+      <c r="C28" s="15"/>
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13" t="s">
-        <v>605</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="H28" s="14"/>
+        <v>582</v>
+      </c>
+      <c r="G28" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" ht="38" customHeight="1" spans="3:8">
-      <c r="C29" s="16"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="11" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="14"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" ht="409" customHeight="1" spans="3:8">
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="12" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>612</v>
-      </c>
-      <c r="H30" s="14"/>
+        <v>589</v>
+      </c>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" ht="58" customHeight="1" spans="3:8">
-      <c r="C31" s="16"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="11" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="14"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="25" t="s">
-        <v>616</v>
+      <c r="C32" s="19" t="s">
+        <v>593</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="25"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="11" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="G33" s="11"/>
-      <c r="H33" s="14"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" ht="85" customHeight="1" spans="3:8">
-      <c r="C34" s="25"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="11" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>623</v>
+        <v>599</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>600</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>624</v>
-      </c>
-      <c r="H34" s="14"/>
+        <v>601</v>
+      </c>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" ht="37" customHeight="1" spans="3:8">
-      <c r="C35" s="25"/>
-      <c r="D35" s="16" t="s">
-        <v>625</v>
+      <c r="C35" s="19"/>
+      <c r="D35" s="15" t="s">
+        <v>602</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="14"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" ht="52" customHeight="1" spans="3:8">
-      <c r="C36" s="25"/>
-      <c r="D36" s="16"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="12" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
-      <c r="H36" s="14"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" ht="83" customHeight="1" spans="3:8">
-      <c r="C37" s="25"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="E37" s="26" t="s">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>606</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
-      <c r="H37" s="14"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" ht="44" customHeight="1" spans="3:8">
-      <c r="C38" s="25"/>
+      <c r="C38" s="19"/>
       <c r="D38" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" ht="40.5" spans="3:8">
+      <c r="C39" s="19"/>
+      <c r="D39" s="21" t="s">
+        <v>611</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>612</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="G39" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" ht="53" customHeight="1" spans="3:8">
+      <c r="C40" s="19"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="25" t="s">
+        <v>615</v>
+      </c>
+      <c r="F40" s="22" t="s">
+        <v>616</v>
+      </c>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" ht="40.5" spans="3:8">
+      <c r="C41" s="19"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="23" t="s">
+        <v>617</v>
+      </c>
+      <c r="G41" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" ht="40.5" spans="3:8">
+      <c r="C42" s="19"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" ht="40.5" spans="3:8">
+      <c r="C43" s="19"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="24" t="s">
+        <v>621</v>
+      </c>
+      <c r="G43" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" ht="54" spans="3:8">
+      <c r="C44" s="19"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="G44" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" ht="34" customHeight="1" spans="3:8">
+      <c r="C45" s="19"/>
+      <c r="D45" s="11" t="s">
+        <v>625</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>628</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>629</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" ht="53" customHeight="1" spans="3:8">
+      <c r="C47" s="19"/>
+      <c r="D47" s="11" t="s">
         <v>630</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" ht="27" spans="3:8">
+      <c r="C48" s="19"/>
+      <c r="D48" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="12" t="s">
         <v>632</v>
       </c>
-      <c r="G38" s="11" t="s">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" ht="54" spans="3:8">
+      <c r="C49" s="19"/>
+      <c r="D49" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="H38" s="14"/>
-    </row>
-    <row r="39" ht="67.5" spans="3:8">
-      <c r="C39" s="25"/>
-      <c r="D39" s="27" t="s">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" ht="99" customHeight="1" spans="3:8">
+      <c r="C50" s="19" t="s">
         <v>634</v>
       </c>
-      <c r="E39" s="28" t="s">
+      <c r="D50" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="E50" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F50" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="G39" s="30" t="s">
+      <c r="G50" s="26" t="s">
         <v>637</v>
       </c>
-      <c r="H39" s="31"/>
-    </row>
-    <row r="40" ht="53" customHeight="1" spans="3:8">
-      <c r="C40" s="25"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="32" t="s">
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" ht="48" customHeight="1" spans="3:8">
+      <c r="C51" s="19"/>
+      <c r="D51" s="11" t="s">
         <v>638</v>
       </c>
-      <c r="F40" s="28" t="s">
+      <c r="E51" s="12" t="s">
         <v>639</v>
       </c>
-      <c r="G40" s="28"/>
-      <c r="H40" s="31"/>
-    </row>
-    <row r="41" ht="40.5" spans="3:8">
-      <c r="C41" s="25"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="29" t="s">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" ht="34" customHeight="1" spans="3:8">
+      <c r="C52" s="19"/>
+      <c r="D52" s="11" t="s">
         <v>640</v>
       </c>
-      <c r="G41" s="28" t="s">
+      <c r="E52" s="12" t="s">
         <v>641</v>
       </c>
-      <c r="H41" s="31"/>
-    </row>
-    <row r="42" ht="40.5" spans="3:8">
-      <c r="C42" s="25"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="29" t="s">
+      <c r="F52" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" ht="34" customHeight="1" spans="3:8">
+      <c r="C53" s="19"/>
+      <c r="D53" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="H42" s="31"/>
-    </row>
-    <row r="43" ht="40.5" spans="3:8">
-      <c r="C43" s="25"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33" t="s">
+      <c r="E53" s="12" t="s">
         <v>644</v>
       </c>
-      <c r="G43" s="28" t="s">
+      <c r="F53" s="11" t="s">
         <v>645</v>
       </c>
-      <c r="H43" s="31"/>
-    </row>
-    <row r="44" ht="81" spans="3:8">
-      <c r="C44" s="25"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="33" t="s">
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" ht="107" customHeight="1" spans="3:8">
+      <c r="C54" s="19"/>
+      <c r="D54" s="15" t="s">
         <v>646</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="E54" s="11" t="s">
         <v>647</v>
       </c>
-      <c r="H44" s="31"/>
-    </row>
-    <row r="45" ht="34" customHeight="1" spans="3:8">
-      <c r="C45" s="25"/>
-      <c r="D45" s="11" t="s">
+      <c r="F54" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="E45" s="12" t="s">
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="3:8">
+      <c r="C55" s="19"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="11" t="s">
         <v>649</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="34" t="s">
+      <c r="F55" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="D46" s="14" t="s">
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" ht="40.5" spans="3:8">
+      <c r="C56" s="19"/>
+      <c r="D56" s="11" t="s">
         <v>651</v>
       </c>
-      <c r="E46" s="14" t="s">
+      <c r="E56" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-    </row>
-    <row r="47" ht="53" customHeight="1" spans="3:8">
-      <c r="C47" s="34"/>
-      <c r="D47" s="14" t="s">
+      <c r="F56" s="26" t="s">
         <v>653</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="3:8">
+      <c r="C57" s="19"/>
+      <c r="D57" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-    </row>
-    <row r="48" ht="27" spans="3:8">
-      <c r="C48" s="34"/>
-      <c r="D48" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" s="35" t="s">
+      <c r="E57" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-    </row>
-    <row r="49" ht="54" spans="3:8">
-      <c r="C49" s="34"/>
-      <c r="D49" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E49" s="35" t="s">
+      <c r="F57" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-    </row>
-    <row r="50" ht="99" customHeight="1" spans="3:8">
-      <c r="C50" s="36" t="s">
+      <c r="G57" s="13" t="s">
         <v>657</v>
       </c>
-      <c r="D50" s="14" t="s">
-        <v>597</v>
-      </c>
-      <c r="E50" s="35" t="s">
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" ht="20" customHeight="1" spans="3:8">
+      <c r="C58" s="19"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="F50" s="35" t="s">
+      <c r="F58" s="12"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" ht="27" spans="3:8">
+      <c r="C59" s="19"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="12" t="s">
         <v>659</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="F59" s="12" t="s">
         <v>660</v>
       </c>
-      <c r="H50" s="14"/>
-    </row>
-    <row r="51" ht="48" customHeight="1" spans="3:8">
-      <c r="C51" s="36"/>
-      <c r="D51" s="14" t="s">
+      <c r="G59" s="15"/>
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" ht="77" customHeight="1" spans="3:8">
+      <c r="C60" s="19"/>
+      <c r="D60" s="27" t="s">
         <v>661</v>
       </c>
-      <c r="E51" s="35" t="s">
+      <c r="E60" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-    </row>
-    <row r="52" ht="34" customHeight="1" spans="3:8">
-      <c r="C52" s="36"/>
-      <c r="D52" s="14" t="s">
+      <c r="F60" s="12" t="s">
         <v>663</v>
       </c>
-      <c r="E52" s="35" t="s">
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" ht="77" customHeight="1" spans="3:8">
+      <c r="C61" s="19"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="12" t="s">
         <v>664</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F61" s="12" t="s">
         <v>665</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-    </row>
-    <row r="53" ht="34" customHeight="1" spans="3:8">
-      <c r="C53" s="36"/>
-      <c r="D53" s="35" t="s">
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" ht="135" spans="3:8">
+      <c r="C62" s="19"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="12" t="s">
         <v>666</v>
       </c>
-      <c r="E53" s="35" t="s">
+      <c r="F62" s="12" t="s">
         <v>667</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="G62" s="12" t="s">
         <v>668</v>
       </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-    </row>
-    <row r="54" ht="107" customHeight="1" spans="3:8">
-      <c r="C54" s="36"/>
-      <c r="D54" s="38" t="s">
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" ht="175.5" spans="3:8">
+      <c r="C63" s="19"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="12" t="s">
         <v>669</v>
       </c>
-      <c r="E54" s="14" t="s">
+      <c r="F63" s="12" t="s">
         <v>670</v>
       </c>
-      <c r="F54" s="35" t="s">
+      <c r="G63" s="12" t="s">
         <v>671</v>
       </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-    </row>
-    <row r="55" spans="3:8">
-      <c r="C55" s="36"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="14" t="s">
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" ht="71" customHeight="1" spans="3:8">
+      <c r="C64" s="19"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F64" s="12" t="s">
         <v>673</v>
       </c>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-    </row>
-    <row r="56" ht="40.5" spans="3:8">
-      <c r="C56" s="36"/>
-      <c r="D56" s="14" t="s">
+      <c r="G64" s="12"/>
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" ht="114" customHeight="1" spans="3:8">
+      <c r="C65" s="19"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="28" t="s">
         <v>674</v>
       </c>
-      <c r="E56" s="35" t="s">
+      <c r="F65" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="F56" s="37" t="s">
+      <c r="G65" s="12" t="s">
         <v>676</v>
       </c>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-    </row>
-    <row r="57" spans="3:8">
-      <c r="C57" s="36"/>
-      <c r="D57" s="38" t="s">
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" ht="106" customHeight="1" spans="3:8">
+      <c r="C66" s="19"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="29" t="s">
         <v>677</v>
       </c>
-      <c r="E57" s="14" t="s">
+      <c r="F66" s="12" t="s">
         <v>678</v>
       </c>
-      <c r="F57" s="35" t="s">
+      <c r="G66" s="12" t="s">
         <v>679</v>
       </c>
-      <c r="G57" s="39" t="s">
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" ht="77" customHeight="1" spans="3:8">
+      <c r="C67" s="19"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="15" t="s">
         <v>680</v>
       </c>
-      <c r="H57" s="14"/>
-    </row>
-    <row r="58" ht="20" customHeight="1" spans="3:8">
-      <c r="C58" s="36"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="14" t="s">
+      <c r="G67" s="11" t="s">
         <v>681</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="14"/>
-    </row>
-    <row r="59" ht="27" spans="3:8">
-      <c r="C59" s="36"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="35" t="s">
+      <c r="H67" s="13" t="s">
         <v>682</v>
       </c>
-      <c r="F59" s="35" t="s">
+    </row>
+    <row r="68" ht="100" customHeight="1" spans="3:8">
+      <c r="C68" s="19"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="12" t="s">
         <v>683</v>
       </c>
-      <c r="G59" s="38"/>
-      <c r="H59" s="14"/>
-    </row>
-    <row r="60" ht="77" customHeight="1" spans="3:8">
-      <c r="C60" s="36"/>
-      <c r="D60" s="40" t="s">
+      <c r="H68" s="12" t="s">
         <v>684</v>
       </c>
-      <c r="E60" s="35" t="s">
+    </row>
+    <row r="69" ht="54" customHeight="1" spans="3:8">
+      <c r="C69" s="19"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="G69" s="12" t="s">
         <v>685</v>
       </c>
-      <c r="F60" s="35" t="s">
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="3:8">
+      <c r="C70" s="19"/>
+      <c r="D70" s="19" t="s">
         <v>686</v>
       </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-    </row>
-    <row r="61" ht="77" customHeight="1" spans="3:8">
-      <c r="C61" s="36"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="35" t="s">
+      <c r="E70" s="12" t="s">
         <v>687</v>
       </c>
-      <c r="F61" s="35" t="s">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="3:8">
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="12" t="s">
         <v>688</v>
       </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-    </row>
-    <row r="62" ht="148.5" spans="3:8">
-      <c r="C62" s="36"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="35" t="s">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" ht="23" customHeight="1" spans="3:8">
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="12" t="s">
         <v>689</v>
       </c>
-      <c r="F62" s="35" t="s">
+      <c r="F72" s="11" t="s">
         <v>690</v>
       </c>
-      <c r="G62" s="35" t="s">
-        <v>691</v>
-      </c>
-      <c r="H62" s="14"/>
-    </row>
-    <row r="63" ht="243" spans="3:8">
-      <c r="C63" s="36"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="35" t="s">
-        <v>692</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>693</v>
-      </c>
-      <c r="G63" s="35" t="s">
-        <v>694</v>
-      </c>
-      <c r="H63" s="14"/>
-    </row>
-    <row r="64" ht="71" customHeight="1" spans="3:8">
-      <c r="C64" s="36"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="14" t="s">
-        <v>695</v>
-      </c>
-      <c r="F64" s="35" t="s">
-        <v>696</v>
-      </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="14"/>
-    </row>
-    <row r="65" ht="114" customHeight="1" spans="3:8">
-      <c r="C65" s="36"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41" t="s">
-        <v>697</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>698</v>
-      </c>
-      <c r="G65" s="35" t="s">
-        <v>699</v>
-      </c>
-      <c r="H65" s="14"/>
-    </row>
-    <row r="66" ht="106" customHeight="1" spans="3:8">
-      <c r="C66" s="36"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="42" t="s">
-        <v>700</v>
-      </c>
-      <c r="F66" s="35" t="s">
-        <v>701</v>
-      </c>
-      <c r="G66" s="35" t="s">
-        <v>702</v>
-      </c>
-      <c r="H66" s="14"/>
-    </row>
-    <row r="67" ht="77" customHeight="1" spans="3:8">
-      <c r="C67" s="36"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="42"/>
-      <c r="F67" s="38" t="s">
-        <v>703</v>
-      </c>
-      <c r="G67" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="H67" s="39" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="68" ht="100" customHeight="1" spans="3:8">
-      <c r="C68" s="36"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="42"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="35" t="s">
-        <v>706</v>
-      </c>
-      <c r="H68" s="35" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="69" ht="54" customHeight="1" spans="3:8">
-      <c r="C69" s="36"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="14" t="s">
-        <v>527</v>
-      </c>
-      <c r="G69" s="35" t="s">
-        <v>708</v>
-      </c>
-      <c r="H69" s="14"/>
-    </row>
-    <row r="70" spans="3:8">
-      <c r="C70" s="36"/>
-      <c r="D70" s="43" t="s">
-        <v>709</v>
-      </c>
-      <c r="E70" s="19" t="s">
-        <v>710</v>
-      </c>
-      <c r="F70" s="21"/>
-      <c r="G70" s="21"/>
-      <c r="H70" s="21"/>
-    </row>
-    <row r="71" spans="3:8">
-      <c r="C71" s="36"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="19" t="s">
-        <v>711</v>
-      </c>
-      <c r="F71" s="21"/>
-      <c r="G71" s="21"/>
-      <c r="H71" s="21"/>
-    </row>
-    <row r="72" ht="23" customHeight="1" spans="3:8">
-      <c r="C72" s="36"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="19" t="s">
-        <v>712</v>
-      </c>
-      <c r="F72" s="21" t="s">
-        <v>713</v>
-      </c>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" ht="70" customHeight="1"/>
     <row r="74" ht="93" customHeight="1"/>
-    <row r="75" ht="20" customHeight="1" spans="3:7">
-      <c r="C75" s="25" t="s">
+    <row r="75" ht="20" customHeight="1" spans="3:8">
+      <c r="C75" s="19" t="s">
+        <v>691</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>692</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>693</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>694</v>
+      </c>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="3:8">
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F76" s="15"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="3:8">
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="11" t="s">
+        <v>696</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" ht="27" spans="3:8">
+      <c r="C78" s="19"/>
+      <c r="D78" s="15" t="s">
+        <v>697</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="G78" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="3:8">
+      <c r="C79" s="19"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="11" t="s">
+        <v>701</v>
+      </c>
+      <c r="F79" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="G79" s="30"/>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="3:8">
+      <c r="C80" s="19"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="F80" s="11"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" ht="44" customHeight="1" spans="3:8">
+      <c r="C81" s="19"/>
+      <c r="D81" s="31" t="s">
+        <v>704</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="F81" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="G81" s="30"/>
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" ht="44" customHeight="1" spans="3:8">
+      <c r="C82" s="19"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="11" t="s">
+        <v>706</v>
+      </c>
+      <c r="F82" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="G82" s="17" t="s">
+        <v>708</v>
+      </c>
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" ht="58" customHeight="1" spans="3:8">
+      <c r="C83" s="19"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="F83" s="12"/>
+      <c r="G83" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="H83" s="30" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="84" ht="59" customHeight="1" spans="3:8">
+      <c r="C84" s="19"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="G84" s="12" t="s">
         <v>714</v>
       </c>
-      <c r="D75" s="25" t="s">
+      <c r="H84" s="30" t="s">
         <v>715</v>
       </c>
-      <c r="E75" s="11" t="s">
+    </row>
+    <row r="85" ht="74" customHeight="1" spans="3:8">
+      <c r="C85" s="19"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="F85" s="12" t="s">
         <v>717</v>
       </c>
-      <c r="G75" s="21"/>
-    </row>
-    <row r="76" spans="3:7">
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="11" t="s">
+      <c r="G85" s="12" t="s">
         <v>718</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="21"/>
-    </row>
-    <row r="77" spans="3:7">
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="11" t="s">
+      <c r="H85" s="12" t="s">
         <v>719</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="21"/>
-    </row>
-    <row r="78" ht="27" spans="3:7">
-      <c r="C78" s="25"/>
-      <c r="D78" s="16" t="s">
+    </row>
+    <row r="86" ht="74" customHeight="1" spans="3:8">
+      <c r="C86" s="19"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="F86" s="12" t="s">
         <v>721</v>
       </c>
-      <c r="F78" s="11" t="s">
+      <c r="G86" s="12" t="s">
         <v>722</v>
       </c>
-      <c r="G78" s="44" t="s">
+      <c r="H86" s="12"/>
+    </row>
+    <row r="87" ht="49" customHeight="1" spans="3:8">
+      <c r="C87" s="19"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="11" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="79" spans="3:7">
-      <c r="C79" s="25"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="11" t="s">
+      <c r="F87" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="F79" s="11" t="s">
+      <c r="G87" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="G79" s="45"/>
-    </row>
-    <row r="80" spans="3:7">
-      <c r="C80" s="25"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="11" t="s">
+      <c r="H87" s="12"/>
+    </row>
+    <row r="88" ht="49" customHeight="1" spans="3:8">
+      <c r="C88" s="19"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="46"/>
-    </row>
-    <row r="81" spans="3:7">
-      <c r="C81" s="25"/>
-      <c r="D81" s="16" t="s">
+      <c r="F88" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="E81" s="11" t="s">
+      <c r="G88" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="F81" s="11" t="s">
+      <c r="H88" s="12"/>
+    </row>
+    <row r="89" ht="67" customHeight="1" spans="3:8">
+      <c r="C89" s="19"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="G81" s="21"/>
-    </row>
-    <row r="82" spans="3:7">
-      <c r="C82" s="25"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="11" t="s">
+      <c r="F89" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="F82" s="11" t="s">
+      <c r="G89" s="12"/>
+      <c r="H89" s="33" t="s">
         <v>731</v>
       </c>
-      <c r="G82" s="21"/>
-    </row>
-    <row r="83" spans="3:7">
-      <c r="C83" s="25"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11" t="s">
+    </row>
+    <row r="90" ht="120" customHeight="1" spans="3:8">
+      <c r="C90" s="19"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="G83" s="21"/>
-    </row>
-    <row r="84" ht="27" spans="3:7">
-      <c r="C84" s="25"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="11" t="s">
+      <c r="F90" s="12" t="s">
         <v>733</v>
       </c>
-      <c r="F84" s="12" t="s">
+      <c r="G90" s="34" t="s">
         <v>734</v>
       </c>
-      <c r="G84" s="21"/>
-    </row>
-    <row r="85" customFormat="1" ht="62" customHeight="1" spans="3:7">
-      <c r="C85" s="25"/>
-      <c r="D85" s="16" t="s">
+      <c r="H90" s="34"/>
+    </row>
+    <row r="91" ht="42" customHeight="1" spans="3:8">
+      <c r="C91" s="19"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="11" t="s">
         <v>735</v>
       </c>
-      <c r="E85" s="11" t="s">
+      <c r="F91" s="12" t="s">
         <v>736</v>
       </c>
-      <c r="F85" s="12" t="s">
+      <c r="G91" s="34" t="s">
         <v>737</v>
       </c>
-      <c r="G85" s="21"/>
-    </row>
-    <row r="86" customFormat="1" ht="108" spans="3:7">
-      <c r="C86" s="25"/>
-      <c r="D86" s="11" t="s">
+      <c r="H91" s="34"/>
+    </row>
+    <row r="92" ht="126" customHeight="1" spans="3:8">
+      <c r="C92" s="19"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="11" t="s">
         <v>738</v>
       </c>
-      <c r="E86" s="24" t="s">
+      <c r="F92" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="F86" s="12" t="s">
+      <c r="G92" s="12" t="s">
         <v>740</v>
       </c>
-      <c r="G86" s="21"/>
-    </row>
-    <row r="87" spans="3:7">
-      <c r="C87" s="25"/>
-      <c r="D87" s="13" t="s">
+      <c r="H92" s="12"/>
+    </row>
+    <row r="93" customFormat="1" ht="108" spans="3:8">
+      <c r="C93" s="19"/>
+      <c r="D93" s="11" t="s">
         <v>741</v>
       </c>
-      <c r="E87" s="11" t="s">
+      <c r="E93" s="18" t="s">
         <v>742</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="21"/>
-    </row>
-    <row r="88" spans="3:7">
-      <c r="C88" s="25"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="47" t="s">
+      <c r="F93" s="12" t="s">
         <v>743</v>
       </c>
-      <c r="F88" s="11" t="s">
+      <c r="G93" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="H93" s="12"/>
+    </row>
+    <row r="94" ht="23" customHeight="1" spans="3:8">
+      <c r="C94" s="19"/>
+      <c r="D94" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="G88" s="21"/>
-    </row>
-    <row r="89" ht="74" customHeight="1" spans="3:7">
-      <c r="C89" s="25"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="47" t="s">
+      <c r="E94" s="11" t="s">
         <v>745</v>
       </c>
-      <c r="F89" s="12" t="s">
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="12"/>
+    </row>
+    <row r="95" ht="67.5" spans="3:8">
+      <c r="C95" s="19"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="35" t="s">
         <v>746</v>
       </c>
-      <c r="G89" s="21"/>
-    </row>
-    <row r="90" ht="26" customHeight="1" spans="3:7">
-      <c r="C90" s="25"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="11" t="s">
+      <c r="F95" s="12" t="s">
         <v>747</v>
       </c>
-      <c r="F90" s="11" t="s">
+      <c r="G95" s="12"/>
+      <c r="H95" s="12" t="s">
         <v>748</v>
       </c>
-      <c r="G90" s="21"/>
-    </row>
-    <row r="91" spans="3:7">
-      <c r="C91" s="25"/>
-      <c r="D91" s="16" t="s">
+    </row>
+    <row r="96" ht="67" customHeight="1" spans="3:8">
+      <c r="C96" s="19"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="E91" s="11" t="s">
+      <c r="F96" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="F91" s="11" t="s">
+      <c r="G96" s="12" t="s">
         <v>751</v>
       </c>
-      <c r="G91" s="21"/>
-    </row>
-    <row r="92" spans="3:7">
-      <c r="C92" s="25"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="11" t="s">
+      <c r="H96" s="12" t="s">
         <v>752</v>
       </c>
-      <c r="F92" s="11" t="s">
+    </row>
+    <row r="97" ht="26" customHeight="1" spans="3:8">
+      <c r="C97" s="19"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="G92" s="21"/>
-    </row>
-    <row r="93" spans="3:7">
-      <c r="C93" s="25"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="11" t="s">
+      <c r="F97" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="F93" s="11" t="s">
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+    </row>
+    <row r="98" ht="18" customHeight="1" spans="3:8">
+      <c r="C98" s="19"/>
+      <c r="D98" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="G93" s="21"/>
-    </row>
-    <row r="94" spans="3:7">
-      <c r="C94" s="25"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="11" t="s">
+      <c r="E98" s="36" t="s">
         <v>756</v>
       </c>
-      <c r="F94" s="11" t="s">
+      <c r="F98" s="24" t="s">
         <v>757</v>
       </c>
-      <c r="G94" s="21"/>
-    </row>
-    <row r="95" spans="3:7">
-      <c r="C95" s="25"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="11" t="s">
+      <c r="G98" s="22" t="s">
         <v>758</v>
       </c>
-      <c r="F95" s="11" t="s">
+      <c r="H98" s="24" t="s">
         <v>759</v>
       </c>
-      <c r="G95" s="21"/>
-    </row>
-    <row r="96" ht="27" spans="3:7">
-      <c r="C96" s="25"/>
-      <c r="D96" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="E96" s="12" t="s">
+    </row>
+    <row r="99" spans="3:8">
+      <c r="C99" s="19"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25" t="s">
         <v>760</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="21"/>
+      <c r="F99" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="H99" s="24"/>
+    </row>
+    <row r="100" spans="3:8">
+      <c r="C100" s="19"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="22" t="s">
+        <v>763</v>
+      </c>
+      <c r="H100" s="24"/>
+    </row>
+    <row r="101" spans="3:8">
+      <c r="C101" s="19"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="H101" s="24"/>
+    </row>
+    <row r="102" spans="3:8">
+      <c r="C102" s="19"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="H102" s="24"/>
+    </row>
+    <row r="103" ht="27" spans="3:8">
+      <c r="C103" s="19"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="36" t="s">
+        <v>766</v>
+      </c>
+      <c r="F103" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="G103" s="24" t="s">
+        <v>768</v>
+      </c>
+      <c r="H103" s="24"/>
+    </row>
+    <row r="104" ht="39" customHeight="1" spans="3:8">
+      <c r="C104" s="19"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="37"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="24" t="s">
+        <v>769</v>
+      </c>
+      <c r="H104" s="24"/>
+    </row>
+    <row r="105" ht="77" customHeight="1" spans="3:8">
+      <c r="C105" s="19"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="F105" s="38" t="s">
+        <v>771</v>
+      </c>
+      <c r="G105" s="24" t="s">
+        <v>772</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="106" ht="56" customHeight="1" spans="3:8">
+      <c r="C106" s="19"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="38" t="s">
+        <v>774</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>775</v>
+      </c>
+      <c r="G106" s="38" t="s">
+        <v>776</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="107" ht="67.5" spans="4:8">
+      <c r="D107" s="15" t="s">
+        <v>778</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+    </row>
+    <row r="108" ht="54" spans="4:8">
+      <c r="D108" s="15"/>
+      <c r="E108" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="H108" s="12"/>
+    </row>
+    <row r="109" ht="231" customHeight="1" spans="4:8">
+      <c r="D109" s="11" t="s">
+        <v>784</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>787</v>
+      </c>
+      <c r="H109" s="11"/>
+    </row>
+    <row r="122" ht="40.5" spans="3:5">
+      <c r="C122" t="s">
+        <v>788</v>
+      </c>
+      <c r="D122" t="s">
+        <v>789</v>
+      </c>
+      <c r="E122" s="39" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="123" ht="40.5" spans="4:5">
+      <c r="D123" s="39" t="s">
+        <v>791</v>
+      </c>
+      <c r="E123" s="39" t="s">
+        <v>792</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="34">
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="C32:C45"/>
     <mergeCell ref="C46:C49"/>
     <mergeCell ref="C50:C72"/>
-    <mergeCell ref="C75:C96"/>
+    <mergeCell ref="C75:C106"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="D35:D36"/>
@@ -8192,17 +8580,22 @@
     <mergeCell ref="D70:D72"/>
     <mergeCell ref="D75:D77"/>
     <mergeCell ref="D78:D80"/>
-    <mergeCell ref="D81:D84"/>
-    <mergeCell ref="D87:D90"/>
-    <mergeCell ref="D91:D95"/>
+    <mergeCell ref="D81:D92"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="D98:D106"/>
+    <mergeCell ref="D107:D108"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E40:E44"/>
     <mergeCell ref="E66:E69"/>
+    <mergeCell ref="E99:E102"/>
+    <mergeCell ref="E103:E104"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F67:F68"/>
     <mergeCell ref="F75:F77"/>
+    <mergeCell ref="F99:F102"/>
+    <mergeCell ref="F103:F104"/>
     <mergeCell ref="G57:G59"/>
     <mergeCell ref="G78:G80"/>
   </mergeCells>
@@ -8211,13 +8604,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B8:G23"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8232,16 +8625,16 @@
   <sheetData>
     <row r="8" ht="40.5" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>761</v>
+        <v>793</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>762</v>
+        <v>794</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>763</v>
+        <v>795</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>764</v>
+        <v>796</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8250,10 +8643,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>765</v>
+        <v>797</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>766</v>
+        <v>798</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8262,10 +8655,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>767</v>
+        <v>799</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>768</v>
+        <v>800</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8274,10 +8667,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>769</v>
+        <v>801</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>770</v>
+        <v>802</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8285,16 +8678,16 @@
     <row r="12" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>771</v>
+        <v>803</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>772</v>
+        <v>804</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>773</v>
+        <v>805</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>774</v>
+        <v>806</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -8304,10 +8697,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>775</v>
+        <v>807</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>776</v>
+        <v>808</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8315,10 +8708,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
-        <v>777</v>
+        <v>809</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>778</v>
+        <v>810</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -8328,7 +8721,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>779</v>
+        <v>811</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -8338,7 +8731,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>780</v>
+        <v>812</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -8348,7 +8741,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>781</v>
+        <v>813</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -8358,7 +8751,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -8368,7 +8761,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -8377,7 +8770,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
-        <v>784</v>
+        <v>816</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
@@ -8386,7 +8779,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>785</v>
+        <v>817</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -8396,7 +8789,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>786</v>
+        <v>818</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8406,7 +8799,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>787</v>
+        <v>819</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8427,7 +8820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D15:J18"/>
@@ -8443,29 +8836,29 @@
   <sheetData>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>788</v>
+        <v>820</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>789</v>
+        <v>821</v>
       </c>
       <c r="G17" t="s">
-        <v>790</v>
+        <v>822</v>
       </c>
       <c r="H17" t="s">
-        <v>791</v>
+        <v>823</v>
       </c>
       <c r="I17" t="s">
-        <v>792</v>
+        <v>824</v>
       </c>
       <c r="J17" t="s">
-        <v>793</v>
+        <v>825</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>794</v>
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -8474,295 +8867,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A11:G30"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="7.38938053097345" customWidth="1"/>
-    <col min="2" max="2" width="11.3097345132743" customWidth="1"/>
-    <col min="3" max="4" width="17.7610619469027" customWidth="1"/>
-    <col min="5" max="5" width="44.9380530973451" customWidth="1"/>
-    <col min="6" max="6" width="21.7699115044248" customWidth="1"/>
-    <col min="7" max="7" width="53.4778761061947" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="48" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-    </row>
-    <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-    </row>
-    <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="178" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="179" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="180" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="181" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="182" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="183"/>
-      <c r="E15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="184" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="185"/>
-    </row>
-    <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="186" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="187"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="3"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="3"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="A13:A30"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B21:B30"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E21:E25"/>
-  </mergeCells>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B5:E10"/>
@@ -8779,79 +8900,79 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="173" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="174" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="146" t="s">
-        <v>60</v>
+      <c r="B5" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="173"/>
-      <c r="C6" s="59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="59" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="174" t="s">
-        <v>63</v>
+      <c r="B6" s="165"/>
+      <c r="C6" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="175" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="176" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="177" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="177" t="s">
-        <v>67</v>
+      <c r="B7" s="166" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="167" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="168" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="168" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="175"/>
-      <c r="C8" s="176" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="176" t="s">
-        <v>69</v>
-      </c>
-      <c r="E8" s="177" t="s">
-        <v>70</v>
+      <c r="B8" s="166"/>
+      <c r="C8" s="167" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="167" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="168" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="175"/>
-      <c r="C9" s="176" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="176" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" s="177" t="s">
-        <v>73</v>
+      <c r="B9" s="166"/>
+      <c r="C9" s="167" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="167" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="168" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="175"/>
-      <c r="C10" s="176" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="176" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="177" t="s">
-        <v>76</v>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="168" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -8864,7 +8985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="B1:I18"/>
@@ -8886,242 +9007,242 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="162" t="s">
+      <c r="B1" s="154" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="154" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="155" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="156" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="156" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="155" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="2:7">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="156" t="s">
+        <v>60</v>
+      </c>
+      <c r="F2" s="155" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="156" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" ht="175.5" spans="2:7">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="157"/>
+      <c r="F3" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="155" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="2:7">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="157" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="157"/>
+      <c r="F4" s="158" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="156" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="159" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="160" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="155" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="156" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="155"/>
+    </row>
+    <row r="7" ht="121.5" spans="2:7">
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="161" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="156" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="158" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" s="156" t="s">
         <v>77</v>
       </c>
-      <c r="C1" s="162" t="s">
+    </row>
+    <row r="8" spans="2:9">
+      <c r="B8" s="154"/>
+      <c r="C8" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="D1" s="163" t="s">
+      <c r="D8" s="154"/>
+      <c r="E8" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="164" t="s">
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="164" t="s">
+      <c r="I8" s="164"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="163" t="s">
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="162" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="164" t="s">
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="163" t="s">
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="G2" s="164" t="s">
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="162" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163" t="s">
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="154"/>
+      <c r="C14" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="165"/>
-      <c r="F3" s="163" t="s">
+      <c r="D14" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="163" t="s">
+      <c r="E14" s="162" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="165" t="s">
+      <c r="F14" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="165"/>
-      <c r="F4" s="166" t="s">
+      <c r="G14" s="162"/>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="164" t="s">
+      <c r="F15" s="157"/>
+      <c r="G15" s="162"/>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="162" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="163" t="s">
+      <c r="F16" s="157"/>
+      <c r="G16" s="162"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="167" t="s">
+      <c r="F17" s="157"/>
+      <c r="G17" s="162"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="168" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="163" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="162"/>
-      <c r="C6" s="162"/>
-      <c r="D6" s="163"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="164" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="163"/>
-    </row>
-    <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="169" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="164" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="166" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="164" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="162"/>
-      <c r="C8" s="162" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="162"/>
-      <c r="E8" s="170" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="171" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="172"/>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="162"/>
-      <c r="C9" s="162"/>
-      <c r="D9" s="162"/>
-      <c r="E9" s="170" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="162"/>
-      <c r="C10" s="162"/>
-      <c r="D10" s="162"/>
-      <c r="E10" s="170" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="170"/>
-      <c r="G10" s="170"/>
-      <c r="H10" s="172"/>
-      <c r="I10" s="172"/>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="162"/>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="170" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="172"/>
-      <c r="I11" s="172"/>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="162"/>
-      <c r="C12" s="162"/>
-      <c r="D12" s="162"/>
-      <c r="E12" s="170" t="s">
-        <v>107</v>
-      </c>
-      <c r="F12" s="170"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="162"/>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="170" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="170"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="162"/>
-      <c r="C14" s="162" t="s">
-        <v>109</v>
-      </c>
-      <c r="D14" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="E14" s="170" t="s">
-        <v>111</v>
-      </c>
-      <c r="F14" s="163" t="s">
-        <v>112</v>
-      </c>
-      <c r="G14" s="170"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="162"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="170" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="165"/>
-      <c r="G15" s="170"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="162"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="170" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="165"/>
-      <c r="G16" s="170"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="162"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="165"/>
-      <c r="G17" s="170"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="162"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="170" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="165"/>
-      <c r="G18" s="170"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9146,7 +9267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F36"/>
@@ -9166,378 +9287,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="135" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+    </row>
+    <row r="2" ht="76" customHeight="1" spans="1:4">
+      <c r="A2" s="137" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+    </row>
+    <row r="3" ht="86" customHeight="1" spans="1:4">
+      <c r="A3" s="137"/>
+      <c r="B3" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="139" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="138"/>
+    </row>
+    <row r="4" ht="27" spans="1:4">
+      <c r="A4" s="137"/>
+      <c r="B4" s="138" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="138" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="138"/>
+    </row>
+    <row r="5" ht="86" customHeight="1" spans="1:4">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" s="138"/>
+    </row>
+    <row r="6" ht="160" customHeight="1" spans="1:4">
+      <c r="A6" s="137"/>
+      <c r="B6" s="138" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="138"/>
+    </row>
+    <row r="7" ht="86" customHeight="1" spans="1:4">
+      <c r="A7" s="137"/>
+      <c r="B7" s="137" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="138"/>
+    </row>
+    <row r="8" ht="148.5" spans="1:4">
+      <c r="A8" s="137"/>
+      <c r="B8" s="137" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="139" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="138"/>
+    </row>
+    <row r="9" ht="182" customHeight="1" spans="1:4">
+      <c r="A9" s="137"/>
+      <c r="B9" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="139" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="139" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" ht="94.5" spans="1:4">
+      <c r="A10" s="137"/>
+      <c r="B10" s="138" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="139" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="138"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:4">
+      <c r="A11" s="137"/>
+      <c r="B11" s="138" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="138"/>
+    </row>
+    <row r="12" ht="94" customHeight="1" spans="1:4">
+      <c r="A12" s="140" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-    </row>
-    <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="144" t="s">
+      <c r="C12" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="145" t="s">
+      <c r="D12" s="141" t="s">
         <v>119</v>
       </c>
-      <c r="C2" s="145"/>
-      <c r="D2" s="145"/>
-    </row>
-    <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145" t="s">
+    </row>
+    <row r="13" ht="96" customHeight="1" spans="1:4">
+      <c r="A13" s="142"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="146" t="s">
+      <c r="D13" s="141" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="145"/>
-    </row>
-    <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145" t="s">
+    </row>
+    <row r="14" ht="91" customHeight="1" spans="1:4">
+      <c r="A14" s="142"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="D14" s="141" t="s">
         <v>123</v>
       </c>
-      <c r="D4" s="145"/>
-    </row>
-    <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="144"/>
-      <c r="B5" s="145" t="s">
+    </row>
+    <row r="15" ht="111" customHeight="1" spans="1:4">
+      <c r="A15" s="142"/>
+      <c r="B15" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="146" t="s">
+      <c r="C15" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="D5" s="145"/>
-    </row>
-    <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="144"/>
-      <c r="B6" s="145" t="s">
+      <c r="D15" s="144"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="142"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="141" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" s="144" t="s">
         <v>126</v>
       </c>
-      <c r="C6" s="146" t="s">
+    </row>
+    <row r="17" ht="162" spans="1:4">
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="145"/>
-    </row>
-    <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="144"/>
-      <c r="B7" s="144" t="s">
+      <c r="D17" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="146" t="s">
+    </row>
+    <row r="18" ht="47" customHeight="1" spans="1:4">
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="145"/>
-    </row>
-    <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="144"/>
-      <c r="B8" s="144" t="s">
+      <c r="D18" s="141" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="146" t="s">
+    </row>
+    <row r="19" ht="31" customHeight="1" spans="1:4">
+      <c r="A19" s="142"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="145"/>
-    </row>
-    <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144" t="s">
+      <c r="D19" s="141" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="146" t="s">
+    </row>
+    <row r="20" ht="56" customHeight="1" spans="1:4">
+      <c r="A20" s="142"/>
+      <c r="B20" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="C20" s="141" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="144"/>
-      <c r="B10" s="145" t="s">
+      <c r="D20" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="C10" s="146" t="s">
+    </row>
+    <row r="21" ht="33" customHeight="1" spans="1:4">
+      <c r="A21" s="143"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="145"/>
-    </row>
-    <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="144"/>
-      <c r="B11" s="145" t="s">
+      <c r="D21" s="141" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="146" t="s">
+    </row>
+    <row r="22" ht="148.5" spans="1:4">
+      <c r="A22" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="145"/>
-    </row>
-    <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="147" t="s">
+      <c r="B22" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="147" t="s">
+      <c r="C22" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="148" t="s">
+      <c r="D22" s="147" t="s">
         <v>141</v>
       </c>
-      <c r="D12" s="148" t="s">
+    </row>
+    <row r="23" ht="132" customHeight="1" spans="1:4">
+      <c r="A23" s="148"/>
+      <c r="B23" s="146" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="149"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="148" t="s">
+      <c r="C23" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="D13" s="148" t="s">
+      <c r="D23" s="147" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="149"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="148" t="s">
+    <row r="24" ht="66" customHeight="1" spans="1:4">
+      <c r="A24" s="148"/>
+      <c r="B24" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="D14" s="148" t="s">
+      <c r="C24" s="147" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="149"/>
-      <c r="B15" s="147" t="s">
+      <c r="D24" s="147" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="148" t="s">
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="148"/>
+      <c r="B25" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="151"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="149"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="148" t="s">
-        <v>141</v>
-      </c>
-      <c r="D16" s="151" t="s">
+      <c r="C25" s="147" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="149"/>
-      <c r="B17" s="149"/>
-      <c r="C17" s="148" t="s">
+      <c r="D25" s="147"/>
+    </row>
+    <row r="26" ht="27" spans="1:4">
+      <c r="A26" s="148"/>
+      <c r="B26" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="148" t="s">
+      <c r="C26" s="147" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="149"/>
-      <c r="B18" s="149"/>
-      <c r="C18" s="148" t="s">
+      <c r="D26" s="147" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="148" t="s">
+    </row>
+    <row r="27" ht="34" customHeight="1" spans="1:4">
+      <c r="A27" s="148"/>
+      <c r="B27" s="146" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="149"/>
-      <c r="B19" s="150"/>
-      <c r="C19" s="148" t="s">
+      <c r="C27" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="148" t="s">
+      <c r="D27" s="147" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="149"/>
-      <c r="B20" s="147" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="148"/>
+      <c r="B28" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="C20" s="148" t="s">
+      <c r="C28" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="D20" s="148" t="s">
+      <c r="D28" s="147" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="150"/>
-      <c r="B21" s="150"/>
-      <c r="C21" s="148" t="s">
+    <row r="29" spans="1:4">
+      <c r="A29" s="148"/>
+      <c r="B29" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="D21" s="148" t="s">
+      <c r="C29" s="147" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="152" t="s">
+      <c r="D29" s="147" t="s">
         <v>161</v>
       </c>
-      <c r="B22" s="153" t="s">
+    </row>
+    <row r="30" ht="40.5" spans="1:4">
+      <c r="A30" s="150"/>
+      <c r="B30" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="C30" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="D22" s="154" t="s">
+      <c r="D30" s="147" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="155"/>
-      <c r="B23" s="153" t="s">
-        <v>165</v>
-      </c>
-      <c r="C23" s="154" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="154" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="155"/>
-      <c r="B24" s="153" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="154" t="s">
-        <v>169</v>
-      </c>
-      <c r="D24" s="154" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="155"/>
-      <c r="B25" s="153" t="s">
-        <v>171</v>
-      </c>
-      <c r="C25" s="154" t="s">
-        <v>172</v>
-      </c>
-      <c r="D25" s="154"/>
-    </row>
-    <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="155"/>
-      <c r="B26" s="153" t="s">
-        <v>173</v>
-      </c>
-      <c r="C26" s="154" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="155"/>
-      <c r="B27" s="153" t="s">
-        <v>176</v>
-      </c>
-      <c r="C27" s="156" t="s">
-        <v>177</v>
-      </c>
-      <c r="D27" s="154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="155"/>
-      <c r="B28" s="153" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="154" t="s">
-        <v>180</v>
-      </c>
-      <c r="D28" s="154" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="155"/>
-      <c r="B29" s="153" t="s">
-        <v>182</v>
-      </c>
-      <c r="C29" s="154" t="s">
-        <v>183</v>
-      </c>
-      <c r="D29" s="154" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="157"/>
-      <c r="B30" s="153" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="156" t="s">
-        <v>186</v>
-      </c>
-      <c r="D30" s="154" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="158" t="s">
-        <v>188</v>
-      </c>
-      <c r="B32" s="127" t="s">
-        <v>189</v>
-      </c>
-      <c r="C32" s="127" t="s">
-        <v>190</v>
+      <c r="A32" s="151" t="s">
+        <v>165</v>
+      </c>
+      <c r="B32" s="120" t="s">
+        <v>166</v>
+      </c>
+      <c r="C32" s="120" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="159" t="s">
-        <v>191</v>
-      </c>
-      <c r="B34" s="127" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="127" t="s">
-        <v>193</v>
+      <c r="A34" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" s="120" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="120" t="s">
+        <v>170</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="4"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="160"/>
-      <c r="B35" s="127" t="s">
-        <v>194</v>
-      </c>
-      <c r="C35" s="127" t="s">
-        <v>195</v>
+      <c r="A35" s="153"/>
+      <c r="B35" s="120" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="120" t="s">
+        <v>172</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="161"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="158" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" s="139" t="s">
-        <v>197</v>
-      </c>
-      <c r="C36" s="139"/>
-      <c r="D36" s="158" t="s">
-        <v>198</v>
-      </c>
-      <c r="E36" s="161"/>
+      <c r="A36" s="151" t="s">
+        <v>173</v>
+      </c>
+      <c r="B36" s="132" t="s">
+        <v>174</v>
+      </c>
+      <c r="C36" s="132"/>
+      <c r="D36" s="151" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9557,7 +9678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D9:G13"/>
@@ -9574,61 +9695,61 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="130" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" s="139" t="s">
-        <v>200</v>
-      </c>
-      <c r="F9" s="139" t="s">
-        <v>201</v>
-      </c>
-      <c r="G9" s="140" t="s">
-        <v>202</v>
+      <c r="D9" s="123" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="132" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="132" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" s="133" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="130"/>
-      <c r="E10" s="139" t="s">
-        <v>203</v>
-      </c>
-      <c r="F10" s="139" t="s">
-        <v>204</v>
-      </c>
-      <c r="G10" s="139" t="s">
-        <v>205</v>
+      <c r="D10" s="123"/>
+      <c r="E10" s="132" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="132" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="132" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="130"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="141" t="s">
-        <v>206</v>
+      <c r="D11" s="123"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="134" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="130"/>
-      <c r="E12" s="141" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="130" t="s">
-        <v>208</v>
-      </c>
-      <c r="G12" s="127" t="s">
-        <v>209</v>
+      <c r="D12" s="123"/>
+      <c r="E12" s="134" t="s">
+        <v>184</v>
+      </c>
+      <c r="F12" s="123" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="120" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="130"/>
-      <c r="E13" s="139" t="s">
-        <v>210</v>
-      </c>
-      <c r="F13" s="130" t="s">
-        <v>211</v>
-      </c>
-      <c r="G13" s="127" t="s">
-        <v>212</v>
+      <c r="D13" s="123"/>
+      <c r="E13" s="132" t="s">
+        <v>187</v>
+      </c>
+      <c r="F13" s="123" t="s">
+        <v>188</v>
+      </c>
+      <c r="G13" s="120" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9642,7 +9763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="8" tint="-0.25"/>
@@ -9663,135 +9784,135 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="127"/>
-      <c r="F7" s="128" t="s">
+      <c r="E7" s="120"/>
+      <c r="F7" s="121" t="s">
+        <v>190</v>
+      </c>
+      <c r="G7" s="120" t="s">
+        <v>191</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" ht="48" customHeight="1" spans="5:8">
+      <c r="E8" s="120"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="120" t="s">
+        <v>193</v>
+      </c>
+      <c r="H8" s="120" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" ht="114" customHeight="1" spans="5:8">
+      <c r="E9" s="123" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="121" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="120" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="120" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="5:9">
+      <c r="E10" s="123"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="125" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="127" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="5:9">
+      <c r="E11" s="126"/>
+      <c r="F11" s="127" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="124" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="125" t="s">
+        <v>203</v>
+      </c>
+      <c r="I11" s="130"/>
+    </row>
+    <row r="12" ht="54" spans="5:8">
+      <c r="E12" s="126"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="121" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="125" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" ht="121.5" spans="5:8">
+      <c r="E13" s="126"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="129" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="14" ht="79" customHeight="1" spans="5:8">
+      <c r="E14" s="126"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="120" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" ht="54" customHeight="1" spans="5:8">
+      <c r="E15" s="126"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="125" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" ht="55" customHeight="1" spans="5:8">
+      <c r="E16" s="126"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="120" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="5:8">
+      <c r="E17" s="126"/>
+      <c r="F17" s="123" t="s">
+        <v>210</v>
+      </c>
+      <c r="G17" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="H17" s="120" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="18" ht="81" spans="5:8">
+      <c r="E18" s="126"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="127" t="s">
+    </row>
+    <row r="19" ht="27" spans="5:8">
+      <c r="E19" s="126"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="120" t="s">
         <v>214</v>
-      </c>
-      <c r="H7" s="127" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="127"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="127" t="s">
-        <v>216</v>
-      </c>
-      <c r="H8" s="127" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="130" t="s">
-        <v>218</v>
-      </c>
-      <c r="F9" s="128" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="127" t="s">
-        <v>220</v>
-      </c>
-      <c r="H9" s="127" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="130"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="131" t="s">
-        <v>222</v>
-      </c>
-      <c r="H10" s="132" t="s">
-        <v>223</v>
-      </c>
-      <c r="I10" s="134" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="133"/>
-      <c r="F11" s="134" t="s">
-        <v>225</v>
-      </c>
-      <c r="G11" s="131" t="s">
-        <v>222</v>
-      </c>
-      <c r="H11" s="132" t="s">
-        <v>226</v>
-      </c>
-      <c r="I11" s="137"/>
-    </row>
-    <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="133"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="128" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="132" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="133"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="136" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="133"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="127" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="133"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="132" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="133"/>
-      <c r="F16" s="137"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="127" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="133"/>
-      <c r="F17" s="130" t="s">
-        <v>233</v>
-      </c>
-      <c r="G17" s="130" t="s">
-        <v>234</v>
-      </c>
-      <c r="H17" s="127" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="133"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="127" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="133"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="127" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -9810,13 +9931,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="B42" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -9829,582 +9950,582 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="88" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>216</v>
+      </c>
+      <c r="C1" s="90" t="s">
+        <v>217</v>
+      </c>
+      <c r="D1" s="90" t="s">
+        <v>218</v>
+      </c>
+      <c r="E1" s="91"/>
+    </row>
+    <row r="2" ht="27" spans="1:5">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="92"/>
+    </row>
+    <row r="3" ht="57" customHeight="1" spans="1:5">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="90" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3" s="92"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="94" t="s">
+        <v>225</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="92"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="92"/>
+    </row>
+    <row r="6" ht="27" spans="1:5">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" s="92"/>
+    </row>
+    <row r="7" ht="54" spans="1:5">
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" ht="40.5" spans="1:5">
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="96" t="s">
+        <v>234</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>235</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="1:5">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="96" t="s">
+      <c r="D9" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="C1" s="97" t="s">
+      <c r="E9" s="90"/>
+    </row>
+    <row r="10" ht="81" spans="1:5">
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="97" t="s">
+      <c r="D10" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="E1" s="98"/>
-    </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="95"/>
-      <c r="B2" s="96" t="s">
-        <v>238</v>
-      </c>
-      <c r="C2" s="97" t="s">
+      <c r="E10" s="90"/>
+    </row>
+    <row r="11" ht="72" customHeight="1" spans="1:5">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="97" t="s">
+      <c r="C11" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="E2" s="99"/>
-    </row>
-    <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="95"/>
-      <c r="B3" s="96" t="s">
+      <c r="D11" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="C3" s="100" t="s">
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" ht="54" spans="1:5">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D12" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="E3" s="99"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="95"/>
-      <c r="B4" s="96" t="s">
+      <c r="E12" s="90"/>
+    </row>
+    <row r="13" ht="54" spans="1:5">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="D13" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="D4" s="97" t="s">
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" ht="27" spans="1:5">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="E4" s="99"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="101" t="s">
+      <c r="C14" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="D5" s="97" t="s">
+      <c r="D14" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="E5" s="99"/>
-    </row>
-    <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="101" t="s">
+      <c r="E14" s="90"/>
+    </row>
+    <row r="15" ht="63" customHeight="1" spans="1:5">
+      <c r="A15" s="88"/>
+      <c r="B15" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="C15" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="E6" s="99"/>
-    </row>
-    <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="95"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="101" t="s">
+      <c r="D15" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="E15" s="90" t="s">
         <v>255</v>
       </c>
-      <c r="E7" s="97" t="s">
+    </row>
+    <row r="16" ht="81" spans="1:5">
+      <c r="A16" s="88"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="96" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="103" t="s">
+      <c r="D16" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="D8" s="97" t="s">
+      <c r="E16" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="E8" s="97" t="s">
+    </row>
+    <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="95"/>
-      <c r="B9" s="96" t="s">
+      <c r="C17" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="D17" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="D9" s="97" t="s">
+      <c r="E17" s="90" t="s">
         <v>262</v>
       </c>
-      <c r="E9" s="97"/>
-    </row>
-    <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="95"/>
-      <c r="B10" s="96"/>
-      <c r="C10" s="103" t="s">
+    </row>
+    <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="D10" s="102" t="s">
+      <c r="E18" s="90" t="s">
         <v>264</v>
       </c>
-      <c r="E10" s="97"/>
-    </row>
-    <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="95"/>
-      <c r="B11" s="96" t="s">
+    </row>
+    <row r="19" ht="72" customHeight="1" spans="1:5">
+      <c r="A19" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="C11" s="103" t="s">
+      <c r="B19" s="101" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="97" t="s">
+      <c r="C19" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="E11" s="97"/>
-    </row>
-    <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="95"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="103" t="s">
+      <c r="D19" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="E19" s="102"/>
+    </row>
+    <row r="20" ht="109" customHeight="1" spans="1:5">
+      <c r="A20" s="100"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="E12" s="97"/>
-    </row>
-    <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="95"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="103" t="s">
+      <c r="D20" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="D13" s="97" t="s">
+      <c r="E20" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="E13" s="97"/>
-    </row>
-    <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="95"/>
-      <c r="B14" s="96" t="s">
+    </row>
+    <row r="21" ht="40.5" spans="1:5">
+      <c r="A21" s="100"/>
+      <c r="B21" s="105" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C21" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D21" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="E14" s="97"/>
-    </row>
-    <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="95"/>
-      <c r="B15" s="104" t="s">
+      <c r="E21" s="106"/>
+    </row>
+    <row r="22" ht="121.5" spans="1:5">
+      <c r="A22" s="100"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="C15" s="103" t="s">
+      <c r="E22" s="98"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="D15" s="97" t="s">
+      <c r="B23" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="C23" s="90" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="95"/>
-      <c r="B16" s="105"/>
-      <c r="C16" s="103" t="s">
+      <c r="D23" s="99" t="s">
         <v>279</v>
       </c>
-      <c r="D16" s="102" t="s">
+      <c r="E23" s="88"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:5">
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="D24" s="99" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="95"/>
-      <c r="B17" s="96" t="s">
+      <c r="E24" s="88"/>
+    </row>
+    <row r="25" ht="27" spans="1:5">
+      <c r="A25" s="110"/>
+      <c r="B25" s="112" t="s">
         <v>282</v>
       </c>
-      <c r="C17" s="106" t="s">
+      <c r="C25" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D25" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E25" s="88"/>
+    </row>
+    <row r="26" ht="44" customHeight="1" spans="1:5">
+      <c r="A26" s="110"/>
+      <c r="B26" s="112" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="95"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="97" t="s">
+      <c r="C26" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="D26" s="99" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="107" t="s">
+      <c r="E26" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="B19" s="108" t="s">
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="110"/>
+      <c r="B27" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="C19" s="97" t="s">
+      <c r="C27" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D27" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="E19" s="109"/>
-    </row>
-    <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="107"/>
-      <c r="B20" s="110"/>
-      <c r="C20" s="97" t="s">
+      <c r="E27" s="88"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="110"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D28" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="E20" s="111" t="s">
+      <c r="E28" s="88"/>
+    </row>
+    <row r="29" ht="51" customHeight="1" spans="1:5">
+      <c r="A29" s="110"/>
+      <c r="B29" s="99" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="107"/>
-      <c r="B21" s="112" t="s">
+      <c r="C29" s="99" t="s">
         <v>295</v>
       </c>
-      <c r="C21" s="111" t="s">
+      <c r="D29" s="99"/>
+      <c r="E29" s="88"/>
+    </row>
+    <row r="30" ht="94.5" spans="1:5">
+      <c r="A30" s="110"/>
+      <c r="B30" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="D21" s="97" t="s">
+      <c r="C30" s="99" t="s">
         <v>297</v>
       </c>
-      <c r="E21" s="113"/>
-    </row>
-    <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="107"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="97" t="s">
+      <c r="D30" s="99" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="105"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="115" t="s">
+      <c r="E30" s="88"/>
+    </row>
+    <row r="31" ht="36" customHeight="1" spans="1:5">
+      <c r="A31" s="110"/>
+      <c r="B31" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="B23" s="116" t="s">
+      <c r="C31" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="D31" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="D23" s="106" t="s">
+      <c r="E31" s="88"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="110"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89" t="s">
         <v>302</v>
       </c>
-      <c r="E23" s="95"/>
-    </row>
-    <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="117"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="97" t="s">
+      <c r="D32" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="D24" s="106" t="s">
+      <c r="E32" s="88"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="110"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="E24" s="95"/>
-    </row>
-    <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="117"/>
-      <c r="B25" s="119" t="s">
+      <c r="E33" s="88"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="110"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="99" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="97" t="s">
+      <c r="E34" s="88"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="110"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="106" t="s">
+      <c r="E35" s="88"/>
+    </row>
+    <row r="36" ht="44" customHeight="1" spans="1:5">
+      <c r="A36" s="110"/>
+      <c r="B36" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="E25" s="95"/>
-    </row>
-    <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="117"/>
-      <c r="B26" s="119" t="s">
+      <c r="C36" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="D36" s="114" t="s">
         <v>309</v>
       </c>
-      <c r="D26" s="106" t="s">
+      <c r="E36" s="89"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="110"/>
+      <c r="B37" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="E26" s="96" t="s">
+      <c r="C37" s="92" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="117"/>
-      <c r="B27" s="116" t="s">
+      <c r="D37" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="C27" s="97" t="s">
+      <c r="E37" s="88"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="110"/>
+      <c r="B38" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="D27" s="106" t="s">
+      <c r="C38" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="E27" s="95"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="117"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="97" t="s">
+      <c r="D38" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="D28" s="106" t="s">
+      <c r="E38" s="88"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="110"/>
+      <c r="B39" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="E28" s="95"/>
-    </row>
-    <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="117"/>
-      <c r="B29" s="106" t="s">
+      <c r="C39" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="C29" s="106" t="s">
+      <c r="D39" s="99"/>
+      <c r="E39" s="88"/>
+    </row>
+    <row r="40" ht="40.5" spans="1:5">
+      <c r="A40" s="110"/>
+      <c r="B40" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="D29" s="106"/>
-      <c r="E29" s="95"/>
-    </row>
-    <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="117"/>
-      <c r="B30" s="106" t="s">
+      <c r="C40" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="C30" s="106" t="s">
+      <c r="D40" s="99" t="s">
         <v>320</v>
       </c>
-      <c r="D30" s="106" t="s">
+      <c r="E40" s="88"/>
+    </row>
+    <row r="41" ht="46" customHeight="1" spans="1:5">
+      <c r="A41" s="110"/>
+      <c r="B41" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="E30" s="95"/>
-    </row>
-    <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="117"/>
-      <c r="B31" s="96" t="s">
+      <c r="C41" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="D41" s="99"/>
+      <c r="E41" s="88"/>
+    </row>
+    <row r="42" ht="176" customHeight="1" spans="1:5">
+      <c r="A42" s="110"/>
+      <c r="B42" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="D31" s="106" t="s">
+      <c r="C42" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="E31" s="95"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="117"/>
-      <c r="B32" s="96"/>
-      <c r="C32" s="96" t="s">
+      <c r="D42" s="99"/>
+      <c r="E42" s="88"/>
+    </row>
+    <row r="43" ht="47" customHeight="1" spans="1:5">
+      <c r="A43" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="116" t="s">
         <v>325</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="C43" s="117"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="88"/>
+    </row>
+    <row r="44" ht="94" customHeight="1" spans="1:5">
+      <c r="A44" s="110"/>
+      <c r="B44" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="E32" s="95"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="117"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="106" t="s">
+      <c r="C44" s="118" t="s">
         <v>327</v>
       </c>
-      <c r="E33" s="95"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="117"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="106" t="s">
+      <c r="D44" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="E34" s="95"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="117"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="106" t="s">
+      <c r="E44" s="115" t="s">
         <v>329</v>
       </c>
-      <c r="E35" s="95"/>
-    </row>
-    <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="117"/>
-      <c r="B36" s="120" t="s">
+    </row>
+    <row r="45" ht="98" customHeight="1" spans="1:5">
+      <c r="A45" s="110"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="C36" s="106" t="s">
+      <c r="E45" s="94" t="s">
         <v>331</v>
       </c>
-      <c r="D36" s="121" t="s">
+    </row>
+    <row r="46" ht="40.5" spans="1:5">
+      <c r="A46" s="110"/>
+      <c r="B46" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="E36" s="96"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="117"/>
-      <c r="B37" s="96" t="s">
+      <c r="C46" s="118" t="s">
         <v>333</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="D46" s="99" t="s">
         <v>334</v>
       </c>
-      <c r="D37" s="106" t="s">
+      <c r="E46" s="115" t="s">
         <v>335</v>
       </c>
-      <c r="E37" s="95"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="117"/>
-      <c r="B38" s="32" t="s">
+    </row>
+    <row r="47" ht="67.5" spans="1:5">
+      <c r="A47" s="119"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="E47" s="115" t="s">
         <v>337</v>
-      </c>
-      <c r="D38" s="106" t="s">
-        <v>338</v>
-      </c>
-      <c r="E38" s="95"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="117"/>
-      <c r="B39" s="96" t="s">
-        <v>339</v>
-      </c>
-      <c r="C39" s="99" t="s">
-        <v>340</v>
-      </c>
-      <c r="D39" s="106"/>
-      <c r="E39" s="95"/>
-    </row>
-    <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="117"/>
-      <c r="B40" s="106" t="s">
-        <v>341</v>
-      </c>
-      <c r="C40" s="97" t="s">
-        <v>342</v>
-      </c>
-      <c r="D40" s="106" t="s">
-        <v>343</v>
-      </c>
-      <c r="E40" s="95"/>
-    </row>
-    <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="117"/>
-      <c r="B41" s="106" t="s">
-        <v>344</v>
-      </c>
-      <c r="C41" s="97" t="s">
-        <v>345</v>
-      </c>
-      <c r="D41" s="106"/>
-      <c r="E41" s="95"/>
-    </row>
-    <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="117"/>
-      <c r="B42" s="106" t="s">
-        <v>346</v>
-      </c>
-      <c r="C42" s="122" t="s">
-        <v>347</v>
-      </c>
-      <c r="D42" s="106"/>
-      <c r="E42" s="95"/>
-    </row>
-    <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="115" t="s">
-        <v>196</v>
-      </c>
-      <c r="B43" s="123" t="s">
-        <v>348</v>
-      </c>
-      <c r="C43" s="124"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="95"/>
-    </row>
-    <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="117"/>
-      <c r="B44" s="106" t="s">
-        <v>349</v>
-      </c>
-      <c r="C44" s="125" t="s">
-        <v>350</v>
-      </c>
-      <c r="D44" s="106" t="s">
-        <v>351</v>
-      </c>
-      <c r="E44" s="122" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="117"/>
-      <c r="B45" s="106"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="106" t="s">
-        <v>353</v>
-      </c>
-      <c r="E45" s="101" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="117"/>
-      <c r="B46" s="96" t="s">
-        <v>355</v>
-      </c>
-      <c r="C46" s="125" t="s">
-        <v>356</v>
-      </c>
-      <c r="D46" s="106" t="s">
-        <v>357</v>
-      </c>
-      <c r="E46" s="122" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="126"/>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="121" t="s">
-        <v>359</v>
-      </c>
-      <c r="E47" s="122" t="s">
-        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -10438,13 +10559,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -10456,405 +10577,405 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="77" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="78" t="s">
+        <v>339</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="78"/>
+    </row>
+    <row r="2" ht="44" customHeight="1" spans="1:4">
+      <c r="A2" s="77"/>
+      <c r="B2" s="80" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="81"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:4">
+      <c r="A3" s="77"/>
+      <c r="B3" s="80" t="s">
+        <v>343</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3" s="81"/>
+    </row>
+    <row r="4" ht="71" customHeight="1" spans="1:4">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="82" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="81"/>
+    </row>
+    <row r="5" ht="71" customHeight="1" spans="1:4">
+      <c r="A5" s="77"/>
+      <c r="B5" s="80" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="79" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="81"/>
+    </row>
+    <row r="6" ht="90" customHeight="1" spans="1:4">
+      <c r="A6" s="77"/>
+      <c r="B6" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" s="83"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="80" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="79" t="s">
+        <v>353</v>
+      </c>
+      <c r="D7" s="84" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="78"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="79" t="s">
+        <v>355</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="78"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="79" t="s">
+        <v>357</v>
+      </c>
+      <c r="D9" s="80" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" ht="37" customHeight="1" spans="1:4">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="C11" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="C1" s="86" t="s">
+      <c r="D11" s="78" t="s">
         <v>363</v>
       </c>
-      <c r="D1" s="85"/>
-    </row>
-    <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="87" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="78" t="s">
         <v>364</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="D12" s="85" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:4">
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="86" t="s">
         <v>365</v>
       </c>
-      <c r="D2" s="88"/>
-    </row>
-    <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="84"/>
-      <c r="B3" s="87" t="s">
+    </row>
+    <row r="14" ht="27" spans="1:4">
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="86" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="86" t="s">
+    </row>
+    <row r="15" ht="67.5" spans="1:4">
+      <c r="A15" s="78"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="85" t="s">
         <v>367</v>
       </c>
-      <c r="D3" s="88"/>
-    </row>
-    <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="84"/>
-      <c r="B4" s="87" t="s">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="78"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="78" t="s">
         <v>368</v>
       </c>
-      <c r="C4" s="89" t="s">
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="78"/>
+      <c r="B17" s="80" t="s">
         <v>369</v>
       </c>
-      <c r="D4" s="88"/>
-    </row>
-    <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="84"/>
-      <c r="B5" s="87" t="s">
+      <c r="C17" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="D17" s="83" t="s">
         <v>371</v>
       </c>
-      <c r="D5" s="88"/>
-    </row>
-    <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="84"/>
-      <c r="B6" s="87" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80" t="s">
+        <v>330</v>
+      </c>
+      <c r="D18" s="83"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="D19" s="83"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="78"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="D6" s="90"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="85" t="s">
+      <c r="D20" s="83"/>
+    </row>
+    <row r="21" ht="81" spans="1:4">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="C21" s="81" t="s">
         <v>375</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="D21" s="78" t="s">
         <v>376</v>
       </c>
-      <c r="D7" s="91" t="s">
+    </row>
+    <row r="22" ht="85" customHeight="1" spans="1:4">
+      <c r="A22" s="78" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="85"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="86" t="s">
+      <c r="B22" s="79" t="s">
         <v>378</v>
       </c>
-      <c r="D8" s="85" t="s">
+      <c r="C22" s="79" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="86" t="s">
+      <c r="D22" s="78"/>
+    </row>
+    <row r="23" ht="65" customHeight="1" spans="1:4">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="C23" s="79" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="85"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="86" t="s">
+      <c r="D23" s="79"/>
+    </row>
+    <row r="24" ht="67.5" spans="1:4">
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79" t="s">
         <v>382</v>
       </c>
-      <c r="D10" s="87" t="s">
+      <c r="D24" s="79"/>
+    </row>
+    <row r="25" ht="57" customHeight="1" spans="1:4">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85" t="s">
+      <c r="C25" s="87" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="D25" s="87"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="79" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="85"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="85" t="s">
+    <row r="27" spans="1:4">
+      <c r="A27" s="78"/>
+      <c r="B27" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="D12" s="92" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="85"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="93" t="s">
+      <c r="C27" s="82" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="85"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="93" t="s">
+      <c r="D27" s="79" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="92" t="s">
+    <row r="28" ht="35" customHeight="1" spans="1:4">
+      <c r="A28" s="78"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="82" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="85"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88" t="s">
-        <v>325</v>
-      </c>
-      <c r="D16" s="85" t="s">
+      <c r="D28" s="79" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="85"/>
-      <c r="B17" s="87" t="s">
+    <row r="29" ht="28" customHeight="1" spans="1:4">
+      <c r="A29" s="78"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="82" t="s">
         <v>392</v>
       </c>
-      <c r="C17" s="87" t="s">
+      <c r="D29" s="79" t="s">
         <v>393</v>
       </c>
-      <c r="D17" s="90" t="s">
+    </row>
+    <row r="30" ht="27" spans="1:4">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="85"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="87" t="s">
-        <v>353</v>
-      </c>
-      <c r="D18" s="90"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="85"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87" t="s">
+      <c r="C30" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="D19" s="90"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="85"/>
-      <c r="B20" s="87"/>
-      <c r="C20" s="87" t="s">
+      <c r="D30" s="79"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="D20" s="90"/>
-    </row>
-    <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85" t="s">
+      <c r="B31" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C31" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="D21" s="85" t="s">
+      <c r="D31" s="79"/>
+    </row>
+    <row r="32" ht="54" spans="1:4">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="85" t="s">
+      <c r="C32" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="B22" s="86" t="s">
+      <c r="D32" s="79" t="s">
         <v>401</v>
       </c>
-      <c r="C22" s="86" t="s">
+    </row>
+    <row r="33" ht="108" spans="1:4">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="D22" s="85"/>
-    </row>
-    <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85" t="s">
+      <c r="D33" s="79" t="s">
         <v>403</v>
       </c>
-      <c r="C23" s="86" t="s">
+    </row>
+    <row r="34" ht="40.5" spans="1:4">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="D23" s="86"/>
-    </row>
-    <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="86" t="s">
+      <c r="D34" s="79" t="s">
         <v>405</v>
       </c>
-      <c r="D24" s="86"/>
-    </row>
-    <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85" t="s">
+    </row>
+    <row r="35" ht="27" spans="1:4">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="C25" s="94" t="s">
+      <c r="C35" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="D25" s="94"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85" t="s">
+      <c r="D35" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86" t="s">
+    </row>
+    <row r="36" ht="81" spans="1:4">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="85"/>
-      <c r="B27" s="87" t="s">
+      <c r="C36" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="C27" s="89" t="s">
+      <c r="D36" s="79" t="s">
         <v>411</v>
       </c>
-      <c r="D27" s="86" t="s">
+    </row>
+    <row r="37" ht="50" customHeight="1" spans="1:4">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="85"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="89" t="s">
+      <c r="C37" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D37" s="78"/>
+    </row>
+    <row r="38" ht="50" customHeight="1" spans="1:4">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="85"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="89" t="s">
+      <c r="C38" s="78" t="s">
         <v>415</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D38" s="78" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85" t="s">
+    <row r="39" ht="81" spans="1:4">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="D39" s="82" t="s">
         <v>418</v>
-      </c>
-      <c r="D30" s="86"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="85" t="s">
-        <v>419</v>
-      </c>
-      <c r="B31" s="85" t="s">
-        <v>420</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>421</v>
-      </c>
-      <c r="D31" s="86"/>
-    </row>
-    <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85" t="s">
-        <v>422</v>
-      </c>
-      <c r="C32" s="86" t="s">
-        <v>423</v>
-      </c>
-      <c r="D32" s="86" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="85"/>
-      <c r="B33" s="85"/>
-      <c r="C33" s="86" t="s">
-        <v>425</v>
-      </c>
-      <c r="D33" s="86" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="85"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="86" t="s">
-        <v>427</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="85"/>
-      <c r="B35" s="85" t="s">
-        <v>429</v>
-      </c>
-      <c r="C35" s="86" t="s">
-        <v>430</v>
-      </c>
-      <c r="D35" s="86" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85" t="s">
-        <v>432</v>
-      </c>
-      <c r="C36" s="86" t="s">
-        <v>433</v>
-      </c>
-      <c r="D36" s="86" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="85"/>
-      <c r="B37" s="85" t="s">
-        <v>435</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>436</v>
-      </c>
-      <c r="D37" s="85"/>
-    </row>
-    <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="85"/>
-      <c r="B38" s="85" t="s">
-        <v>437</v>
-      </c>
-      <c r="C38" s="85" t="s">
-        <v>438</v>
-      </c>
-      <c r="D38" s="85" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="89" t="s">
-        <v>440</v>
-      </c>
-      <c r="D39" s="89" t="s">
-        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -10878,4 +10999,139 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="24.6991150442478" customWidth="1"/>
+    <col min="2" max="2" width="24.2743362831858" customWidth="1"/>
+    <col min="3" max="3" width="37.3893805309735" customWidth="1"/>
+    <col min="4" max="4" width="25.5663716814159" customWidth="1"/>
+    <col min="5" max="5" width="41.6283185840708" customWidth="1"/>
+    <col min="6" max="6" width="51.4690265486726" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="73" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" s="74" t="s">
+        <v>420</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="47" t="s">
+        <v>425</v>
+      </c>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+    </row>
+    <row r="5" ht="226" customHeight="1" spans="1:9">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="75" t="s">
+        <v>427</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>428</v>
+      </c>
+      <c r="E5" s="73" t="s">
+        <v>429</v>
+      </c>
+      <c r="F5" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:6">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75" t="s">
+        <v>431</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" s="75"/>
+      <c r="F6" s="74"/>
+    </row>
+    <row r="7" ht="128" customHeight="1" spans="1:6">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75" t="s">
+        <v>433</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>434</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>435</v>
+      </c>
+      <c r="F7" s="75" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" spans="1:6">
+      <c r="A8" s="73"/>
+      <c r="B8" s="49" t="s">
+        <v>437</v>
+      </c>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="A1:A8"/>
+    <mergeCell ref="B1:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F5:F6"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="844">
   <si>
     <t>artificial    intelligence
 读：阿尔提（费学） 赢特ne（jin ce）</t>
@@ -4244,25 +4244,28 @@
     <t>GoogLeNet 22层</t>
   </si>
   <si>
-    <t>18-layer
+    <t>（1）大量的Inception 并行卷积结构，
+（2）另外1*1做降维，降低参数量</t>
+  </si>
+  <si>
+    <t>Inception使用了大、中、小三种卷积核，分别提取了全貌和细节，然后做特征融合。</t>
+  </si>
+  <si>
+    <t>特征融合的方式：
+对位位置相加
+水平组合、垂直组合、深度方向融合</t>
+  </si>
+  <si>
+    <t>Res Net 152层
+（残差网络）</t>
+  </si>
+  <si>
+    <t>也有多种深度
+18-layer
 34-layer
 50-layer
 101-layer
 152-layer</t>
-  </si>
-  <si>
-    <t>（1）大量的Inception 并行卷积结构，
-（2）另外1*1做降维，降低参数量</t>
-  </si>
-  <si>
-    <t>Inception使用了大、中、小三种卷积核，分别提取了全貌和细节，然后做特征融合。</t>
-  </si>
-  <si>
-    <t>Res Net 152层
-（残差网络）</t>
-  </si>
-  <si>
-    <t>也有多种深度</t>
   </si>
   <si>
     <t xml:space="preserve">把“”和卷积结果融合到一起防止梯度消失的问题
@@ -4330,20 +4333,94 @@
     <t>RNN</t>
   </si>
   <si>
-    <t>CNN的不足</t>
-  </si>
-  <si>
-    <t xml:space="preserve">输入都是标准的等长向量，而序列数据长度
-是可变的。
+    <t>CNN前提</t>
+  </si>
+  <si>
+    <t>（1）数据之前是独立的
+（2）数据长度一致</t>
+  </si>
+  <si>
+    <t>就像图像，每一个像素值，和其它值是没有关系的。
+CNN 是做的内积运算，对应位置相乘，再求和。</t>
+  </si>
+  <si>
+    <t>（1）语音、文本、视频，数据之前有关联。具有序列特征。
+（2）输入长度不定</t>
+  </si>
+  <si>
+    <t>延伸出RNN</t>
+  </si>
+  <si>
+    <t>RNN模型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X_t  ————————————&gt; H_t ——————————&gt; Y_t
+                ↑                     |
+                 |                     |
+                  ———————————
 </t>
   </si>
   <si>
-    <t>循环神经网络（Recurrent Neural Network，RNN）</t>
-  </si>
-  <si>
-    <t>短期记忆能力的神
-经网络
-适合用于处理视频、语音、文本等与时序相关的问题</t>
+    <t>//===【0】说明
+X表示是 "输入数据"
+H表示隐藏层
+Y表示输出
+//===【1】t时刻
+X_t表示是 t时刻 的 "输入数据"
+H_t隐藏层计算得到输出Y_t
+//===【2】t+1 时刻 
+X_t+1 作为输入数据
+H_(t+1)、H_t 进行计算，得到Y_(t+1)</t>
+  </si>
+  <si>
+    <t>Y_1     Y_2    Y_3     Y_4     Y_5     Y_6    Y_7     Y_8
+↑      ↑     ↑      ↑      ↑     ↑       ↑     ↑ 
+H_1 -&gt;  H_2 -&gt; H_3 -&gt;  H_4 -&gt;  H_5 -&gt;  H_6 -&gt; H_7 -&gt;  H_8 
+↑      ↑     ↑      ↑      ↑     ↑       ↑     ↑ 
+X_1     X_2    X_3     X_4     X_5     X_6    X_7     X_8</t>
+  </si>
+  <si>
+    <t>从图中可以看出 "下一时刻" 有 "上一时刻" 隐藏的状态。</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>对RNN的改进，得到了 "长短期记忆网络模型" （Long Short-Term Memory，简称LSTM）</t>
+  </si>
+  <si>
+    <t>门："子神经网络" 在LSTM 叫做门，</t>
+  </si>
+  <si>
+    <t>【遗忘门】 决定丢弃什么信息//丢弃不重要的特征
+【输入门】 什么信息可以输入进来
+【输出门】 决定输出什么。</t>
+  </si>
+  <si>
+    <t>这些门计算是 "并行" 进行的
+三个门的计算是并行进行的，它们不需要等待前一个门的计算结果。
+每个门都有自己的权重参数和输入，通过这些参数来调整记忆细胞中的信息。
+这种并行计算的方式有助于 LSTM 网络更有效地捕捉长期依赖关系。</t>
+  </si>
+  <si>
+    <t>细胞状态</t>
+  </si>
+  <si>
+    <t>细胞状态 是在不断的 "更新迭代中"，</t>
+  </si>
+  <si>
+    <t>Transformer</t>
+  </si>
+  <si>
+    <t>Transformer是一种 "注意力机制驱动的模型"，它引入了 "自注意力机制"，
+允许模型在处理序列数据时关注不同位置的信息。
+Transformer的架构不依赖于序列的顺序，允许并行处理输入序列</t>
+  </si>
+  <si>
+    <t>适用场景</t>
+  </si>
+  <si>
+    <t>适用于各种序列任务，如机器翻译、语言建模等。</t>
   </si>
   <si>
     <t>推荐算法</t>
@@ -4688,7 +4765,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4710,6 +4787,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5249,7 +5332,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5273,16 +5356,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5291,89 +5374,89 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5482,24 +5565,51 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -5509,11 +5619,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5521,262 +5628,265 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5794,73 +5904,73 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5872,13 +5982,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6279,26 +6389,26 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
     </row>
     <row r="13" ht="27" spans="1:7">
       <c r="A13" s="9" t="s">
@@ -6310,16 +6420,16 @@
       <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="169" t="s">
+      <c r="D13" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="170" t="s">
+      <c r="F13" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="171" t="s">
+      <c r="G13" s="180" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6327,12 +6437,12 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="172" t="s">
+      <c r="D14" s="178"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="181" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="173" t="s">
+      <c r="G14" s="182" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6340,14 +6450,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="174"/>
+      <c r="D15" s="183"/>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="175" t="s">
+      <c r="F15" s="184" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="176"/>
+      <c r="G15" s="185"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="2"/>
@@ -6388,11 +6498,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="177" t="s">
+      <c r="B19" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
+      <c r="C19" s="187"/>
+      <c r="D19" s="188"/>
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
@@ -6569,34 +6679,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="50"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="50"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="50"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="50" t="s">
         <v>441</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -6609,8 +6719,8 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="3" t="s">
         <v>443</v>
       </c>
@@ -6621,8 +6731,8 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="71" customHeight="1" spans="2:7">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
       <c r="D9" s="4" t="s">
         <v>445</v>
       </c>
@@ -6633,8 +6743,8 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="2:7">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50" t="s">
         <v>447</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -6647,12 +6757,12 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="51" t="s">
         <v>450</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -6661,27 +6771,27 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="40"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="4" t="s">
         <v>452</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50" t="s">
         <v>453</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="52" t="s">
         <v>455</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="53" t="s">
         <v>456</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -6689,15 +6799,15 @@
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
       <c r="D14" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="53" t="s">
         <v>459</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="53" t="s">
         <v>460</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -6705,63 +6815,63 @@
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40" t="s">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="49" t="s">
         <v>462</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="49" t="s">
         <v>464</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="49" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="49"/>
       <c r="E16" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="50"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="49"/>
       <c r="E17" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="50"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="49"/>
       <c r="E18" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="50"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="50"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="50" t="s">
         <v>470</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -6775,7 +6885,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="41"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="3" t="s">
         <v>473</v>
       </c>
@@ -6787,8 +6897,8 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="41"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="50"/>
+      <c r="C22" s="49" t="s">
         <v>475</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -6799,8 +6909,8 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="3" t="s">
         <v>477</v>
       </c>
@@ -6809,7 +6919,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="41"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="4" t="s">
         <v>478</v>
       </c>
@@ -6821,36 +6931,36 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="41"/>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="50"/>
+      <c r="C25" s="54" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="41"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="54" t="s">
         <v>481</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="49" t="s">
         <v>482</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="56" t="s">
         <v>484</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="57" t="s">
         <v>484</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -6859,14 +6969,14 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40" t="s">
+      <c r="B28" s="49"/>
+      <c r="C28" s="49" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="56" t="s">
         <v>487</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="57" t="s">
         <v>487</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -6875,12 +6985,12 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="47" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="49"/>
+      <c r="D29" s="56" t="s">
         <v>489</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="57" t="s">
         <v>489</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -6889,11 +6999,11 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="49"/>
+      <c r="C30" s="49" t="s">
         <v>491</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="56" t="s">
         <v>492</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -6903,98 +7013,98 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="49" t="s">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="58" t="s">
         <v>494</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="53" t="s">
         <v>495</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59" t="s">
         <v>496</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="49"/>
+      <c r="C33" s="49" t="s">
         <v>497</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="56" t="s">
         <v>498</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="49" t="s">
         <v>500</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="47" t="s">
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="56" t="s">
         <v>501</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="59" t="s">
         <v>502</v>
       </c>
-      <c r="F34" s="41"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40" t="s">
+      <c r="B35" s="49"/>
+      <c r="C35" s="49" t="s">
         <v>503</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="56" t="s">
         <v>504</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="60" t="s">
         <v>505</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="49" t="s">
         <v>506</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="47" t="s">
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="56" t="s">
         <v>507</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="60" t="s">
         <v>508</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="47" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="56" t="s">
         <v>509</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="61" t="s">
         <v>510</v>
       </c>
-      <c r="F37" s="41"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="49" t="s">
         <v>511</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -7003,12 +7113,12 @@
       <c r="E38" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="F38" s="41"/>
+      <c r="F38" s="50"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40" t="s">
+      <c r="B39" s="49"/>
+      <c r="C39" s="49" t="s">
         <v>514</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -7025,12 +7135,12 @@
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="62" t="s">
         <v>520</v>
       </c>
       <c r="F40" s="3"/>
@@ -7039,11 +7149,11 @@
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40" t="s">
+      <c r="B41" s="49"/>
+      <c r="C41" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="57" t="s">
         <v>523</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -7055,9 +7165,9 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="48" t="s">
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="57" t="s">
         <v>526</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -7067,11 +7177,11 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="40"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="57" t="s">
         <v>529</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -7083,106 +7193,106 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="63" t="s">
         <v>533</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="57" t="s">
         <v>535</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="64" t="s">
         <v>536</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="54"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="48" t="s">
+      <c r="B45" s="63"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="57" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="61" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="57" t="s">
         <v>539</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="54"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="48" t="s">
+      <c r="B46" s="63"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="57" t="s">
         <v>540</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="48"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="57"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="57"/>
-      <c r="C47" s="54" t="s">
+      <c r="B47" s="66"/>
+      <c r="C47" s="63" t="s">
         <v>541</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="48"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="57"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="67" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="63" t="s">
         <v>542</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="64" t="s">
         <v>543</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="55"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="64"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="58"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="55" t="s">
+      <c r="B49" s="67"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="64" t="s">
         <v>544</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="55"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="64"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="58"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55" t="s">
+      <c r="B50" s="67"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64" t="s">
         <v>545</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F50" s="55"/>
+      <c r="F50" s="64"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="58"/>
-      <c r="C51" s="54"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="63"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="52"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="68" t="s">
         <v>547</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="69" t="s">
         <v>548</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -7191,49 +7301,49 @@
       <c r="E52" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="70" t="s">
         <v>551</v>
       </c>
-      <c r="G52" s="62" t="s">
+      <c r="G52" s="71" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
+      <c r="B53" s="72"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="3" t="s">
         <v>553</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="75"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="59" t="s">
+      <c r="B54" s="72"/>
+      <c r="C54" s="73"/>
+      <c r="D54" s="68" t="s">
         <v>554</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="68"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="77"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="63"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="72"/>
       <c r="E55" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="63"/>
+      <c r="B56" s="72"/>
+      <c r="C56" s="73"/>
+      <c r="D56" s="72"/>
       <c r="E56" s="3" t="s">
         <v>557</v>
       </c>
@@ -7241,9 +7351,9 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="69"/>
+      <c r="B57" s="78"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="78"/>
       <c r="E57" s="4" t="s">
         <v>558</v>
       </c>
@@ -7253,61 +7363,61 @@
       <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="80" t="s">
         <v>560</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
+      <c r="D62" s="81"/>
+      <c r="E62" s="81"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
+      <c r="C64" s="81"/>
+      <c r="D64" s="81"/>
+      <c r="E64" s="81"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
+      <c r="C65" s="81"/>
+      <c r="D65" s="81"/>
+      <c r="E65" s="81"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
+      <c r="C67" s="81"/>
+      <c r="D67" s="81"/>
+      <c r="E67" s="81"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
+      <c r="C69" s="81"/>
+      <c r="D69" s="81"/>
+      <c r="E69" s="81"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
+      <c r="C71" s="81"/>
+      <c r="D71" s="81"/>
+      <c r="E71" s="81"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
+      <c r="C72" s="81"/>
+      <c r="D72" s="81"/>
+      <c r="E72" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7353,13 +7463,13 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C18:H123"/>
+  <dimension ref="C18:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D98" workbookViewId="0">
-      <selection activeCell="H109" sqref="H109"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="40.5840707964602" customWidth="1"/>
     <col min="3" max="3" width="14.7964601769912" customWidth="1"/>
@@ -7368,6 +7478,7 @@
     <col min="6" max="6" width="66.1769911504425" customWidth="1"/>
     <col min="7" max="7" width="61.4424778761062" customWidth="1"/>
     <col min="8" max="8" width="58.1681415929204" customWidth="1"/>
+    <col min="9" max="9" width="41.6371681415929" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="18" ht="27" spans="3:8">
@@ -8374,22 +8485,22 @@
     </row>
     <row r="97" ht="26" customHeight="1" spans="3:8">
       <c r="C97" s="19"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="11" t="s">
+      <c r="D97" s="31"/>
+      <c r="E97" s="36" t="s">
         <v>753</v>
       </c>
-      <c r="F97" s="11" t="s">
+      <c r="F97" s="36" t="s">
         <v>754</v>
       </c>
-      <c r="G97" s="11"/>
-      <c r="H97" s="12"/>
-    </row>
-    <row r="98" ht="18" customHeight="1" spans="3:8">
+      <c r="G97" s="36"/>
+      <c r="H97" s="33"/>
+    </row>
+    <row r="98" ht="18" customHeight="1" spans="3:9">
       <c r="C98" s="19"/>
       <c r="D98" s="25" t="s">
         <v>755</v>
       </c>
-      <c r="E98" s="36" t="s">
+      <c r="E98" s="25" t="s">
         <v>756</v>
       </c>
       <c r="F98" s="24" t="s">
@@ -8401,8 +8512,9 @@
       <c r="H98" s="24" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="99" spans="3:8">
+      <c r="I98" s="46"/>
+    </row>
+    <row r="99" spans="3:9">
       <c r="C99" s="19"/>
       <c r="D99" s="25"/>
       <c r="E99" s="25" t="s">
@@ -8415,8 +8527,9 @@
         <v>762</v>
       </c>
       <c r="H99" s="24"/>
-    </row>
-    <row r="100" spans="3:8">
+      <c r="I99" s="46"/>
+    </row>
+    <row r="100" spans="3:9">
       <c r="C100" s="19"/>
       <c r="D100" s="25"/>
       <c r="E100" s="25"/>
@@ -8425,8 +8538,9 @@
         <v>763</v>
       </c>
       <c r="H100" s="24"/>
-    </row>
-    <row r="101" spans="3:8">
+      <c r="I100" s="46"/>
+    </row>
+    <row r="101" spans="3:9">
       <c r="C101" s="19"/>
       <c r="D101" s="25"/>
       <c r="E101" s="25"/>
@@ -8435,8 +8549,9 @@
         <v>764</v>
       </c>
       <c r="H101" s="24"/>
-    </row>
-    <row r="102" spans="3:8">
+      <c r="I101" s="46"/>
+    </row>
+    <row r="102" spans="3:9">
       <c r="C102" s="19"/>
       <c r="D102" s="25"/>
       <c r="E102" s="25"/>
@@ -8445,11 +8560,12 @@
         <v>765</v>
       </c>
       <c r="H102" s="24"/>
-    </row>
-    <row r="103" ht="27" spans="3:8">
+      <c r="I102" s="46"/>
+    </row>
+    <row r="103" ht="27" spans="3:9">
       <c r="C103" s="19"/>
       <c r="D103" s="25"/>
-      <c r="E103" s="36" t="s">
+      <c r="E103" s="25" t="s">
         <v>766</v>
       </c>
       <c r="F103" s="25" t="s">
@@ -8459,61 +8575,65 @@
         <v>768</v>
       </c>
       <c r="H103" s="24"/>
-    </row>
-    <row r="104" ht="39" customHeight="1" spans="3:8">
+      <c r="I103" s="46"/>
+    </row>
+    <row r="104" ht="39" customHeight="1" spans="3:9">
       <c r="C104" s="19"/>
       <c r="D104" s="25"/>
-      <c r="E104" s="37"/>
+      <c r="E104" s="25"/>
       <c r="F104" s="25"/>
       <c r="G104" s="24" t="s">
         <v>769</v>
       </c>
       <c r="H104" s="24"/>
-    </row>
-    <row r="105" ht="77" customHeight="1" spans="3:8">
+      <c r="I104" s="46"/>
+    </row>
+    <row r="105" ht="77" customHeight="1" spans="3:9">
       <c r="C105" s="19"/>
       <c r="D105" s="25"/>
       <c r="E105" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="F105" s="38" t="s">
+      <c r="F105" s="24"/>
+      <c r="G105" s="24" t="s">
         <v>771</v>
       </c>
-      <c r="G105" s="24" t="s">
+      <c r="H105" s="24" t="s">
         <v>772</v>
       </c>
-      <c r="H105" s="24" t="s">
+      <c r="I105" s="47" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="106" ht="56" customHeight="1" spans="3:8">
+    <row r="106" ht="100" customHeight="1" spans="3:9">
       <c r="C106" s="19"/>
       <c r="D106" s="25"/>
-      <c r="E106" s="38" t="s">
+      <c r="E106" s="24" t="s">
         <v>774</v>
       </c>
-      <c r="F106" s="22" t="s">
+      <c r="F106" s="37" t="s">
         <v>775</v>
       </c>
-      <c r="G106" s="38" t="s">
+      <c r="G106" s="24" t="s">
         <v>776</v>
       </c>
       <c r="H106" s="24" t="s">
         <v>777</v>
       </c>
+      <c r="I106" s="48"/>
     </row>
     <row r="107" ht="67.5" spans="4:8">
-      <c r="D107" s="15" t="s">
+      <c r="D107" s="38" t="s">
         <v>778</v>
       </c>
-      <c r="E107" s="12" t="s">
+      <c r="E107" s="34" t="s">
         <v>779</v>
       </c>
-      <c r="F107" s="12" t="s">
+      <c r="F107" s="34" t="s">
         <v>780</v>
       </c>
-      <c r="G107" s="12"/>
-      <c r="H107" s="12"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
     </row>
     <row r="108" ht="54" spans="4:8">
       <c r="D108" s="15"/>
@@ -8543,27 +8663,127 @@
       </c>
       <c r="H109" s="11"/>
     </row>
-    <row r="122" ht="40.5" spans="3:5">
+    <row r="114" ht="27" spans="4:8">
+      <c r="D114" s="39" t="s">
+        <v>788</v>
+      </c>
+      <c r="E114" s="40" t="s">
+        <v>789</v>
+      </c>
+      <c r="F114" s="41" t="s">
+        <v>790</v>
+      </c>
+      <c r="G114" s="41" t="s">
+        <v>791</v>
+      </c>
+      <c r="H114" s="40"/>
+    </row>
+    <row r="115" ht="33" customHeight="1" spans="4:8">
+      <c r="D115" s="39"/>
+      <c r="E115" s="41" t="s">
+        <v>792</v>
+      </c>
+      <c r="F115" s="41" t="s">
+        <v>793</v>
+      </c>
+      <c r="G115" s="40"/>
+      <c r="H115" s="40"/>
+    </row>
+    <row r="116" ht="171" customHeight="1" spans="4:8">
+      <c r="D116" s="39"/>
+      <c r="E116" s="39" t="s">
+        <v>794</v>
+      </c>
+      <c r="F116" s="42" t="s">
+        <v>795</v>
+      </c>
+      <c r="G116" s="41" t="s">
+        <v>796</v>
+      </c>
+      <c r="H116" s="40"/>
+    </row>
+    <row r="117" ht="129" customHeight="1" spans="4:8">
+      <c r="D117" s="39"/>
+      <c r="E117" s="39"/>
+      <c r="F117" s="42" t="s">
+        <v>797</v>
+      </c>
+      <c r="G117" s="40" t="s">
+        <v>798</v>
+      </c>
+      <c r="H117" s="40"/>
+    </row>
+    <row r="118" ht="27" spans="4:8">
+      <c r="D118" s="39"/>
+      <c r="E118" s="39" t="s">
+        <v>799</v>
+      </c>
+      <c r="F118" s="41" t="s">
+        <v>574</v>
+      </c>
+      <c r="G118" s="41" t="s">
+        <v>800</v>
+      </c>
+      <c r="H118" s="40"/>
+    </row>
+    <row r="119" ht="94.5" spans="4:8">
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="40" t="s">
+        <v>801</v>
+      </c>
+      <c r="G119" s="41" t="s">
+        <v>802</v>
+      </c>
+      <c r="H119" s="41" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="120" ht="25" customHeight="1" spans="4:8">
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="G120" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="H120" s="40"/>
+    </row>
+    <row r="121" ht="38" customHeight="1"/>
+    <row r="122" spans="3:5">
       <c r="C122" t="s">
         <v>788</v>
       </c>
-      <c r="D122" t="s">
-        <v>789</v>
-      </c>
-      <c r="E122" s="39" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="123" ht="40.5" spans="4:5">
-      <c r="D123" s="39" t="s">
-        <v>791</v>
-      </c>
-      <c r="E123" s="39" t="s">
-        <v>792</v>
+      <c r="D122"/>
+      <c r="E122" s="43"/>
+    </row>
+    <row r="123" spans="4:5">
+      <c r="D123" s="43"/>
+      <c r="E123" s="43"/>
+    </row>
+    <row r="124" ht="40.5" spans="4:6">
+      <c r="D124" s="44" t="s">
+        <v>806</v>
+      </c>
+      <c r="E124" s="40" t="s">
+        <v>574</v>
+      </c>
+      <c r="F124" s="41" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6">
+      <c r="D125" s="45"/>
+      <c r="E125" s="40" t="s">
+        <v>808</v>
+      </c>
+      <c r="F125" s="40" t="s">
+        <v>809</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="39">
     <mergeCell ref="C18:C22"/>
     <mergeCell ref="C25:C31"/>
     <mergeCell ref="C32:C45"/>
@@ -8584,12 +8804,16 @@
     <mergeCell ref="D94:D97"/>
     <mergeCell ref="D98:D106"/>
     <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D114:D120"/>
+    <mergeCell ref="D124:D125"/>
     <mergeCell ref="E25:E26"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E40:E44"/>
     <mergeCell ref="E66:E69"/>
     <mergeCell ref="E99:E102"/>
     <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="E118:E120"/>
     <mergeCell ref="F18:F21"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F67:F68"/>
@@ -8598,6 +8822,7 @@
     <mergeCell ref="F103:F104"/>
     <mergeCell ref="G57:G59"/>
     <mergeCell ref="G78:G80"/>
+    <mergeCell ref="I105:I106"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8625,16 +8850,16 @@
   <sheetData>
     <row r="8" ht="40.5" spans="2:7">
       <c r="B8" s="2" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -8643,10 +8868,10 @@
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="3" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8655,10 +8880,10 @@
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="3" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -8667,10 +8892,10 @@
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="3" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -8678,16 +8903,16 @@
     <row r="12" spans="2:7">
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="G12" s="3"/>
     </row>
@@ -8697,10 +8922,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -8708,10 +8933,10 @@
       <c r="C14" s="3"/>
       <c r="D14" s="7"/>
       <c r="E14" s="2" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="G14" s="2"/>
     </row>
@@ -8721,7 +8946,7 @@
       <c r="D15" s="7"/>
       <c r="E15" s="2"/>
       <c r="F15" s="3" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -8731,7 +8956,7 @@
       <c r="D16" s="7"/>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="G16" s="2"/>
     </row>
@@ -8741,7 +8966,7 @@
       <c r="D17" s="7"/>
       <c r="E17" s="2"/>
       <c r="F17" s="8" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="G17" s="2"/>
     </row>
@@ -8751,7 +8976,7 @@
       <c r="D18" s="7"/>
       <c r="E18" s="2"/>
       <c r="F18" s="3" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="G18" s="2"/>
     </row>
@@ -8761,7 +8986,7 @@
       <c r="D19" s="9"/>
       <c r="E19" s="2"/>
       <c r="F19" s="3" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="G19" s="2"/>
     </row>
@@ -8770,7 +8995,7 @@
       <c r="C20" s="3"/>
       <c r="D20" s="9"/>
       <c r="E20" s="2" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="2"/>
@@ -8779,7 +9004,7 @@
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -8789,7 +9014,7 @@
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8799,7 +9024,7 @@
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -8836,29 +9061,29 @@
   <sheetData>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="G17" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="H17" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="I17" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="J17" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
     </row>
   </sheetData>
@@ -8900,7 +9125,7 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="174" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -8909,12 +9134,12 @@
       <c r="D5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="148" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="165"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="22" t="s">
         <v>38</v>
       </c>
@@ -8926,52 +9151,52 @@
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="175" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="176" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="177" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="177" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="166"/>
-      <c r="C8" s="167" t="s">
+      <c r="B8" s="175"/>
+      <c r="C8" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="177" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="166"/>
-      <c r="C9" s="167" t="s">
+      <c r="B9" s="175"/>
+      <c r="C9" s="176" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="176" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="168" t="s">
+      <c r="E9" s="177" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167" t="s">
+      <c r="B10" s="175"/>
+      <c r="C10" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="168" t="s">
+      <c r="E10" s="177" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9007,242 +9232,242 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="164" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="156" t="s">
+      <c r="E1" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="156" t="s">
+      <c r="F1" s="165" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="164" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="165" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="s">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="164" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="155" t="s">
+      <c r="E3" s="166"/>
+      <c r="F3" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="164" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="157" t="s">
+      <c r="B4" s="163"/>
+      <c r="C4" s="163"/>
+      <c r="D4" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="158" t="s">
+      <c r="E4" s="166"/>
+      <c r="F4" s="167" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="165" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155" t="s">
+      <c r="B5" s="163"/>
+      <c r="C5" s="163"/>
+      <c r="D5" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="168" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="164" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="156" t="s">
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="164"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="155"/>
+      <c r="G6" s="164"/>
     </row>
     <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="161" t="s">
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="167" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="165" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="154"/>
-      <c r="C8" s="154" t="s">
+      <c r="B8" s="163"/>
+      <c r="C8" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="162" t="s">
+      <c r="D8" s="163"/>
+      <c r="E8" s="171" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="163" t="s">
+      <c r="F8" s="171"/>
+      <c r="G8" s="171"/>
+      <c r="H8" s="172" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="164"/>
+      <c r="I8" s="173"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="162" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="163"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="171" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
+      <c r="F9" s="171"/>
+      <c r="G9" s="171"/>
+      <c r="H9" s="173"/>
+      <c r="I9" s="173"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="162" t="s">
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="171" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="173"/>
+      <c r="I10" s="173"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="162" t="s">
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="163"/>
+      <c r="E11" s="171" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
+      <c r="F11" s="171"/>
+      <c r="G11" s="171"/>
+      <c r="H11" s="173"/>
+      <c r="I11" s="173"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="162" t="s">
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="163"/>
+      <c r="E12" s="171" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
+      <c r="F12" s="171"/>
+      <c r="G12" s="171"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="162" t="s">
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="171" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
+      <c r="F13" s="171"/>
+      <c r="G13" s="171"/>
+      <c r="H13" s="173"/>
+      <c r="I13" s="173"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="154"/>
-      <c r="C14" s="154" t="s">
+      <c r="B14" s="163"/>
+      <c r="C14" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="162" t="s">
+      <c r="E14" s="171" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="155" t="s">
+      <c r="F14" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="162"/>
+      <c r="G14" s="171"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="162" t="s">
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="157"/>
-      <c r="G15" s="162"/>
+      <c r="F15" s="166"/>
+      <c r="G15" s="171"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154" t="s">
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="162" t="s">
+      <c r="E16" s="171" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="157"/>
-      <c r="G16" s="162"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="171"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="162" t="s">
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="162"/>
+      <c r="F17" s="166"/>
+      <c r="G17" s="171"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="162" t="s">
+      <c r="B18" s="163"/>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="171" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="157"/>
-      <c r="G18" s="162"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9287,349 +9512,349 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="144" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
+      <c r="B1" s="145"/>
+      <c r="C1" s="145"/>
+      <c r="D1" s="145"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="146" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="147" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="137"/>
-      <c r="B3" s="138" t="s">
+      <c r="A3" s="146"/>
+      <c r="B3" s="147" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="148" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="147"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="138" t="s">
+      <c r="A4" s="146"/>
+      <c r="B4" s="147" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="138"/>
+      <c r="D4" s="147"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138" t="s">
+      <c r="A5" s="146"/>
+      <c r="B5" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="148" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="138"/>
+      <c r="D5" s="147"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138" t="s">
+      <c r="A6" s="146"/>
+      <c r="B6" s="147" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="148" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="138"/>
+      <c r="D6" s="147"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137" t="s">
+      <c r="A7" s="146"/>
+      <c r="B7" s="146" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="148" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="138"/>
+      <c r="D7" s="147"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137" t="s">
+      <c r="A8" s="146"/>
+      <c r="B8" s="146" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="148" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="138"/>
+      <c r="D8" s="147"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137" t="s">
+      <c r="A9" s="146"/>
+      <c r="B9" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="148" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="137"/>
-      <c r="B10" s="138" t="s">
+      <c r="A10" s="146"/>
+      <c r="B10" s="147" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="148" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="147"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138" t="s">
+      <c r="A11" s="146"/>
+      <c r="B11" s="147" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="148" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="138"/>
+      <c r="D11" s="147"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="149" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="150" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="142"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="141" t="s">
+      <c r="A13" s="151"/>
+      <c r="B13" s="151"/>
+      <c r="C13" s="150" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="150" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="142"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="141" t="s">
+      <c r="A14" s="151"/>
+      <c r="B14" s="152"/>
+      <c r="C14" s="150" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="150" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="142"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="151"/>
+      <c r="B15" s="149" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="150" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="144"/>
+      <c r="D15" s="153"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="142"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="141" t="s">
+      <c r="A16" s="151"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="150" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="D16" s="153" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="141" t="s">
+      <c r="A17" s="151"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="150" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="142"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="141" t="s">
+      <c r="A18" s="151"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="150" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="141" t="s">
+      <c r="D18" s="150" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="142"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="141" t="s">
+      <c r="A19" s="151"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="150" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="150" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="142"/>
-      <c r="B20" s="140" t="s">
+      <c r="A20" s="151"/>
+      <c r="B20" s="149" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="141" t="s">
+      <c r="D20" s="150" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="143"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="141" t="s">
+      <c r="A21" s="152"/>
+      <c r="B21" s="152"/>
+      <c r="C21" s="150" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="150" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="155" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="156" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="147" t="s">
+      <c r="D22" s="156" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="148"/>
-      <c r="B23" s="146" t="s">
+      <c r="A23" s="157"/>
+      <c r="B23" s="155" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="156" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="147" t="s">
+      <c r="D23" s="156" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="148"/>
-      <c r="B24" s="146" t="s">
+      <c r="A24" s="157"/>
+      <c r="B24" s="155" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="147" t="s">
+      <c r="D24" s="156" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="148"/>
-      <c r="B25" s="146" t="s">
+      <c r="A25" s="157"/>
+      <c r="B25" s="155" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="147" t="s">
+      <c r="C25" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="147"/>
+      <c r="D25" s="156"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="148"/>
-      <c r="B26" s="146" t="s">
+      <c r="A26" s="157"/>
+      <c r="B26" s="155" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="156" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="147" t="s">
+      <c r="D26" s="156" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="148"/>
-      <c r="B27" s="146" t="s">
+      <c r="A27" s="157"/>
+      <c r="B27" s="155" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="158" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="147" t="s">
+      <c r="D27" s="156" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="148"/>
-      <c r="B28" s="146" t="s">
+      <c r="A28" s="157"/>
+      <c r="B28" s="155" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="156" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="147" t="s">
+      <c r="D28" s="156" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="148"/>
-      <c r="B29" s="146" t="s">
+      <c r="A29" s="157"/>
+      <c r="B29" s="155" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="156" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="156" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="150"/>
-      <c r="B30" s="146" t="s">
+      <c r="A30" s="159"/>
+      <c r="B30" s="155" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="158" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="147" t="s">
+      <c r="D30" s="156" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="151" t="s">
+      <c r="A32" s="160" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="129" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="129" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="161" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="129" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="120" t="s">
+      <c r="C34" s="129" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="3"/>
@@ -9637,28 +9862,28 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="153"/>
-      <c r="B35" s="120" t="s">
+      <c r="A35" s="162"/>
+      <c r="B35" s="129" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="129" t="s">
         <v>172</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="39"/>
+      <c r="E35" s="43"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="151" t="s">
+      <c r="A36" s="160" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="141" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="151" t="s">
+      <c r="C36" s="141"/>
+      <c r="D36" s="160" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="39"/>
+      <c r="E36" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9695,60 +9920,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="132" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="141" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="133" t="s">
+      <c r="G9" s="142" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="123"/>
-      <c r="E10" s="132" t="s">
+      <c r="D10" s="132"/>
+      <c r="E10" s="141" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="141" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="141" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="123"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="134" t="s">
+      <c r="D11" s="132"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="143" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="123"/>
-      <c r="E12" s="134" t="s">
+      <c r="D12" s="132"/>
+      <c r="E12" s="143" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="132" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="120" t="s">
+      <c r="G12" s="129" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="123"/>
-      <c r="E13" s="132" t="s">
+      <c r="D13" s="132"/>
+      <c r="E13" s="141" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="132" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="129" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9784,134 +10009,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="120"/>
-      <c r="F7" s="121" t="s">
+      <c r="E7" s="129"/>
+      <c r="F7" s="130" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="129" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="129" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="120"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="120" t="s">
+      <c r="E8" s="129"/>
+      <c r="F8" s="131"/>
+      <c r="G8" s="129" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="129" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="129" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="129" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="123"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="124" t="s">
+      <c r="E10" s="132"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="125" t="s">
+      <c r="H10" s="134" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="127" t="s">
+      <c r="I10" s="136" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="126"/>
-      <c r="F11" s="127" t="s">
+      <c r="E11" s="135"/>
+      <c r="F11" s="136" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="133" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="134" t="s">
         <v>203</v>
       </c>
-      <c r="I11" s="130"/>
+      <c r="I11" s="139"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="126"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="121" t="s">
+      <c r="E12" s="135"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="134" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="126"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="129" t="s">
+      <c r="E13" s="135"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="138" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="126"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="120" t="s">
+      <c r="E14" s="135"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="129" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="126"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="125" t="s">
+      <c r="E15" s="135"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="134" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="126"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="120" t="s">
+      <c r="E16" s="135"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="129" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="126"/>
-      <c r="F17" s="123" t="s">
+      <c r="E17" s="135"/>
+      <c r="F17" s="132" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="123" t="s">
+      <c r="G17" s="132" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="129" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="126"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="120" t="s">
+      <c r="E18" s="135"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="129" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="126"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="120" t="s">
+      <c r="E19" s="135"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="129" t="s">
         <v>214</v>
       </c>
     </row>
@@ -9950,581 +10175,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="97" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="91"/>
+      <c r="E1" s="100"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="97"/>
+      <c r="B2" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="99" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="92"/>
+      <c r="E2" s="101"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89" t="s">
+      <c r="A3" s="97"/>
+      <c r="B3" s="98" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="101"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="97"/>
+      <c r="B4" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="103" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="92"/>
+      <c r="E4" s="101"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="94" t="s">
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="101"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="94" t="s">
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="92"/>
+      <c r="E6" s="101"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="94" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="103" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="104" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="99" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="96" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="105" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="99" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="99" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="99"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="88"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="96" t="s">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="105" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="104" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="99"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="97"/>
+      <c r="B11" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="105" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="99"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="96" t="s">
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="105" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="104" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="99"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="96" t="s">
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="105" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="99"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="97"/>
+      <c r="B14" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="105" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="99" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="99"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="88"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="97"/>
+      <c r="B15" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="105" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="99" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="99" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="88"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="97"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="105" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="104" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="99" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="97"/>
+      <c r="B17" s="98" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="108" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="99" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="99" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="90" t="s">
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="99" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="109" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="110" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="99" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="101" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="102"/>
+      <c r="E19" s="111"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="100"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="90" t="s">
+      <c r="A20" s="109"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="99" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="101" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="113" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="100"/>
-      <c r="B21" s="105" t="s">
+      <c r="A21" s="109"/>
+      <c r="B21" s="114" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="113" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="106"/>
+      <c r="E21" s="115"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="100"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="90" t="s">
+      <c r="A22" s="109"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="98"/>
+      <c r="E22" s="107"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="117" t="s">
         <v>276</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="97"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="90" t="s">
+      <c r="A24" s="119"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="99" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="108" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="88"/>
+      <c r="E24" s="97"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="110"/>
-      <c r="B25" s="112" t="s">
+      <c r="A25" s="119"/>
+      <c r="B25" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="99" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="108" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="97"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="110"/>
-      <c r="B26" s="112" t="s">
+      <c r="A26" s="119"/>
+      <c r="B26" s="121" t="s">
         <v>285</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="99" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="99" t="s">
+      <c r="D26" s="108" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="98" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="110"/>
-      <c r="B27" s="109" t="s">
+      <c r="A27" s="119"/>
+      <c r="B27" s="118" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="99" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="108" t="s">
         <v>291</v>
       </c>
-      <c r="E27" s="88"/>
+      <c r="E27" s="97"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="110"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="90" t="s">
+      <c r="A28" s="119"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="99" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="88"/>
+      <c r="E28" s="97"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="110"/>
-      <c r="B29" s="99" t="s">
+      <c r="A29" s="119"/>
+      <c r="B29" s="108" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="108" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="88"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="97"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="110"/>
-      <c r="B30" s="99" t="s">
+      <c r="A30" s="119"/>
+      <c r="B30" s="108" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="108" t="s">
         <v>297</v>
       </c>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="97"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="110"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="119"/>
+      <c r="B31" s="98" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="101" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="108" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="97"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="110"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89" t="s">
+      <c r="A32" s="119"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="108" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="88"/>
+      <c r="E32" s="97"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="110"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="99" t="s">
+      <c r="A33" s="119"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="108" t="s">
         <v>304</v>
       </c>
-      <c r="E33" s="88"/>
+      <c r="E33" s="97"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="110"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="99" t="s">
+      <c r="A34" s="119"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="108" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="88"/>
+      <c r="E34" s="97"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="110"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="99" t="s">
+      <c r="A35" s="119"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="108" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="88"/>
+      <c r="E35" s="97"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="110"/>
-      <c r="B36" s="113" t="s">
+      <c r="A36" s="119"/>
+      <c r="B36" s="122" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="108" t="s">
         <v>308</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="123" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="89"/>
+      <c r="E36" s="98"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="110"/>
-      <c r="B37" s="89" t="s">
+      <c r="A37" s="119"/>
+      <c r="B37" s="98" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="101" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="108" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="97"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="110"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="119"/>
+      <c r="B38" s="58" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="108" t="s">
         <v>315</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="97"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="110"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="119"/>
+      <c r="B39" s="98" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="101" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="88"/>
+      <c r="D39" s="108"/>
+      <c r="E39" s="97"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="110"/>
-      <c r="B40" s="99" t="s">
+      <c r="A40" s="119"/>
+      <c r="B40" s="108" t="s">
         <v>318</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="99" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="108" t="s">
         <v>320</v>
       </c>
-      <c r="E40" s="88"/>
+      <c r="E40" s="97"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="110"/>
-      <c r="B41" s="99" t="s">
+      <c r="A41" s="119"/>
+      <c r="B41" s="108" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="99" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="99"/>
-      <c r="E41" s="88"/>
+      <c r="D41" s="108"/>
+      <c r="E41" s="97"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="110"/>
-      <c r="B42" s="99" t="s">
+      <c r="A42" s="119"/>
+      <c r="B42" s="108" t="s">
         <v>323</v>
       </c>
-      <c r="C42" s="115" t="s">
+      <c r="C42" s="124" t="s">
         <v>324</v>
       </c>
-      <c r="D42" s="99"/>
-      <c r="E42" s="88"/>
+      <c r="D42" s="108"/>
+      <c r="E42" s="97"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="117" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="125" t="s">
         <v>325</v>
       </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="88"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="108"/>
+      <c r="E43" s="97"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="110"/>
-      <c r="B44" s="99" t="s">
+      <c r="A44" s="119"/>
+      <c r="B44" s="108" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="118" t="s">
+      <c r="C44" s="127" t="s">
         <v>327</v>
       </c>
-      <c r="D44" s="99" t="s">
+      <c r="D44" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="124" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="110"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99" t="s">
+      <c r="A45" s="119"/>
+      <c r="B45" s="108"/>
+      <c r="C45" s="108"/>
+      <c r="D45" s="108" t="s">
         <v>330</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="E45" s="103" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="110"/>
-      <c r="B46" s="89" t="s">
+      <c r="A46" s="119"/>
+      <c r="B46" s="98" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="118" t="s">
+      <c r="C46" s="127" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="99" t="s">
+      <c r="D46" s="108" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="115" t="s">
+      <c r="E46" s="124" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="119"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="114" t="s">
+      <c r="A47" s="128"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="123" t="s">
         <v>336</v>
       </c>
-      <c r="E47" s="115" t="s">
+      <c r="E47" s="124" t="s">
         <v>337</v>
       </c>
     </row>
@@ -10577,404 +10802,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="87" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="88" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="78"/>
+      <c r="D1" s="87"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="86"/>
+      <c r="B2" s="89" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="90" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="90"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="77"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="86"/>
+      <c r="B3" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="88" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="90"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="86"/>
+      <c r="B4" s="89" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="90"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80" t="s">
+      <c r="A5" s="86"/>
+      <c r="B5" s="89" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="88" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="90"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="77"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="86"/>
+      <c r="B6" s="89" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="88" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="87" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="89" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="88" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="93" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="78"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="79" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="88" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="87" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="78"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="79" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="88" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="89" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="78"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="79" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="88" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="89" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="88" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="87" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="78"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="78" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="87" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="94" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="78"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="86" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="95" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="86" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="89"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="95" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="78"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="85" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
+      <c r="D15" s="94" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="78"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="90" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="87" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="78"/>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="89" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="89" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="92" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="89" t="s">
         <v>330</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="92"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="89" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="92"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="78"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="89" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="92"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="90" t="s">
         <v>375</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="87" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="87" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="88" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="88" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="87"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="88" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="88"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="88" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="88"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="96" t="s">
         <v>384</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="96"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="87"/>
+      <c r="B26" s="87" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79" t="s">
+      <c r="C26" s="88"/>
+      <c r="D26" s="88" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="78"/>
-      <c r="B27" s="80" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="89" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="91" t="s">
         <v>388</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="88" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="78"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="82" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="91" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="88" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="78"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="82" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="91" t="s">
         <v>392</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="88" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="87" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="88" t="s">
         <v>395</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="88"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="87" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="87" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="88" t="s">
         <v>398</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="88"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="87" t="s">
         <v>399</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="88" t="s">
         <v>400</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="88" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88" t="s">
         <v>402</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="88" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79" t="s">
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88" t="s">
         <v>404</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="88" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87" t="s">
         <v>406</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="88" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="88" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="87" t="s">
         <v>409</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="88" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="87" t="s">
         <v>412</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="87" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="78"/>
+      <c r="D37" s="87"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="87" t="s">
         <v>414</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="87" t="s">
         <v>415</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="87" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="82" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="91" t="s">
         <v>418</v>
       </c>
     </row>
@@ -11021,107 +11246,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="82" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="83" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="56" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="56" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="56" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="56" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="56" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="82"/>
+      <c r="B5" s="83" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="82" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="85" t="s">
         <v>430</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="84" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="74"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="83"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84" t="s">
         <v>433</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="84" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="82" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="84" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="73"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="82"/>
+      <c r="B8" s="58" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="10"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0.AI体系" sheetId="10" r:id="rId1"/>
@@ -4765,7 +4765,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4787,12 +4787,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5332,7 +5326,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5356,16 +5350,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5374,89 +5368,89 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5568,427 +5562,400 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6389,26 +6356,26 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" ht="27" spans="1:7">
       <c r="A13" s="9" t="s">
@@ -6420,16 +6387,16 @@
       <c r="C13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="178" t="s">
+      <c r="D13" s="169" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="72" t="s">
+      <c r="E13" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="179" t="s">
+      <c r="F13" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="180" t="s">
+      <c r="G13" s="171" t="s">
         <v>8</v>
       </c>
     </row>
@@ -6437,12 +6404,12 @@
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="178"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="181" t="s">
+      <c r="D14" s="169"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="182" t="s">
+      <c r="G14" s="173" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6450,14 +6417,14 @@
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="183"/>
+      <c r="D15" s="174"/>
       <c r="E15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="184" t="s">
+      <c r="F15" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="185"/>
+      <c r="G15" s="176"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
       <c r="A16" s="2"/>
@@ -6498,11 +6465,11 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2"/>
-      <c r="B19" s="186" t="s">
+      <c r="B19" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="187"/>
-      <c r="D19" s="188"/>
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
       <c r="E19" s="3" t="s">
         <v>19</v>
       </c>
@@ -6679,34 +6646,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="40" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="50"/>
+      <c r="A3" s="41"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="50"/>
+      <c r="A4" s="41"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="50"/>
+      <c r="A5" s="41"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="50"/>
-      <c r="B6" s="50" t="s">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="41" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="41" t="s">
         <v>441</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -6719,8 +6686,8 @@
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="3" t="s">
         <v>443</v>
       </c>
@@ -6731,8 +6698,8 @@
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="71" customHeight="1" spans="2:7">
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
       <c r="D9" s="4" t="s">
         <v>445</v>
       </c>
@@ -6743,8 +6710,8 @@
       <c r="G9" s="3"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="2:7">
-      <c r="B10" s="50"/>
-      <c r="C10" s="50" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="41" t="s">
         <v>447</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -6757,12 +6724,12 @@
       <c r="G10" s="3"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="42" t="s">
         <v>450</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -6771,27 +6738,27 @@
       <c r="G11" s="3"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="49"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="40"/>
       <c r="F12" s="4" t="s">
         <v>452</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="50"/>
-      <c r="C13" s="50" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="41" t="s">
         <v>453</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="F13" s="44" t="s">
         <v>456</v>
       </c>
       <c r="G13" s="3" t="s">
@@ -6799,15 +6766,15 @@
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="E14" s="53" t="s">
+      <c r="E14" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="F14" s="44" t="s">
         <v>460</v>
       </c>
       <c r="G14" s="3" t="s">
@@ -6815,63 +6782,63 @@
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="49" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40" t="s">
         <v>462</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="F15" s="40" t="s">
         <v>464</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="G15" s="40" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="49"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="50"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="49"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="4" t="s">
         <v>467</v>
       </c>
-      <c r="F17" s="49"/>
-      <c r="G17" s="50"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="F18" s="49"/>
-      <c r="G18" s="50"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="49"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="4" t="s">
         <v>469</v>
       </c>
-      <c r="F19" s="49"/>
-      <c r="G19" s="50"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="41" t="s">
         <v>470</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -6885,7 +6852,7 @@
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="50"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="3" t="s">
         <v>473</v>
       </c>
@@ -6897,8 +6864,8 @@
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="50"/>
-      <c r="C22" s="49" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="40" t="s">
         <v>475</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -6909,8 +6876,8 @@
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="50"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="3" t="s">
         <v>477</v>
       </c>
@@ -6919,7 +6886,7 @@
       <c r="G23" s="3"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="50"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="4" t="s">
         <v>478</v>
       </c>
@@ -6931,36 +6898,36 @@
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="50"/>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="41"/>
+      <c r="C25" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="50"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="41"/>
+      <c r="C26" s="45" t="s">
         <v>481</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="40" t="s">
         <v>482</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>483</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="48" t="s">
         <v>484</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -6969,14 +6936,14 @@
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="49"/>
-      <c r="C28" s="49" t="s">
+      <c r="B28" s="40"/>
+      <c r="C28" s="40" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="48" t="s">
         <v>487</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -6985,12 +6952,12 @@
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="56" t="s">
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="48" t="s">
         <v>489</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -6999,11 +6966,11 @@
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="49"/>
-      <c r="C30" s="49" t="s">
+      <c r="B30" s="40"/>
+      <c r="C30" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="47" t="s">
         <v>492</v>
       </c>
       <c r="E30" s="3" t="s">
@@ -7013,98 +6980,98 @@
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="58" t="s">
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="44" t="s">
         <v>495</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="59" t="s">
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50" t="s">
         <v>496</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="49"/>
-      <c r="C33" s="49" t="s">
+      <c r="B33" s="40"/>
+      <c r="C33" s="40" t="s">
         <v>497</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="40" t="s">
         <v>500</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="56" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="E34" s="59" t="s">
+      <c r="E34" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="F34" s="50"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="49"/>
-      <c r="C35" s="49" t="s">
+      <c r="B35" s="40"/>
+      <c r="C35" s="40" t="s">
         <v>503</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="47" t="s">
         <v>504</v>
       </c>
-      <c r="E35" s="60" t="s">
+      <c r="E35" s="51" t="s">
         <v>505</v>
       </c>
-      <c r="F35" s="49" t="s">
+      <c r="F35" s="40" t="s">
         <v>506</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="56" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="47" t="s">
         <v>507</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="F36" s="50"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="3"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="56" t="s">
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="47" t="s">
         <v>509</v>
       </c>
-      <c r="E37" s="61" t="s">
+      <c r="E37" s="52" t="s">
         <v>510</v>
       </c>
-      <c r="F37" s="50"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="49"/>
-      <c r="C38" s="49" t="s">
+      <c r="B38" s="40"/>
+      <c r="C38" s="40" t="s">
         <v>511</v>
       </c>
       <c r="D38" s="22" t="s">
@@ -7113,12 +7080,12 @@
       <c r="E38" s="22" t="s">
         <v>513</v>
       </c>
-      <c r="F38" s="50"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="3"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="49"/>
-      <c r="C39" s="49" t="s">
+      <c r="B39" s="40"/>
+      <c r="C39" s="40" t="s">
         <v>514</v>
       </c>
       <c r="D39" s="22" t="s">
@@ -7135,12 +7102,12 @@
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
       <c r="D40" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="53" t="s">
         <v>520</v>
       </c>
       <c r="F40" s="3"/>
@@ -7149,11 +7116,11 @@
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="49"/>
-      <c r="C41" s="49" t="s">
+      <c r="B41" s="40"/>
+      <c r="C41" s="40" t="s">
         <v>522</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="D41" s="48" t="s">
         <v>523</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -7165,9 +7132,9 @@
       <c r="G41" s="3"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="57" t="s">
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="48" t="s">
         <v>526</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -7177,11 +7144,11 @@
       <c r="G42" s="3"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="49"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="48" t="s">
         <v>529</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -7193,106 +7160,106 @@
       <c r="G43" s="3"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="63" t="s">
+      <c r="B44" s="54" t="s">
         <v>532</v>
       </c>
-      <c r="C44" s="63" t="s">
+      <c r="C44" s="54" t="s">
         <v>533</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="D44" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="E44" s="57" t="s">
+      <c r="E44" s="48" t="s">
         <v>535</v>
       </c>
-      <c r="F44" s="64" t="s">
+      <c r="F44" s="55" t="s">
         <v>536</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="63"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="57" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="48" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="61" t="s">
+      <c r="E45" s="52" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="F45" s="48" t="s">
         <v>539</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="63"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="57" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="57"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="48"/>
       <c r="G46" s="3"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="66"/>
-      <c r="C47" s="63" t="s">
+      <c r="B47" s="57"/>
+      <c r="C47" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="D47" s="57"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="57"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="48"/>
       <c r="G47" s="3"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="67" t="s">
+      <c r="B48" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="63" t="s">
+      <c r="C48" s="54" t="s">
         <v>542</v>
       </c>
-      <c r="D48" s="64" t="s">
+      <c r="D48" s="55" t="s">
         <v>543</v>
       </c>
-      <c r="E48" s="61"/>
-      <c r="F48" s="64"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="3"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="67"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="64" t="s">
+      <c r="B49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55" t="s">
         <v>544</v>
       </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="64"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="3"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="67"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64" t="s">
+      <c r="B50" s="58"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55" t="s">
         <v>545</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="F50" s="64"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="3"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="67"/>
-      <c r="C51" s="63"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="61"/>
+      <c r="E51" s="52"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="68" t="s">
+      <c r="B52" s="59" t="s">
         <v>547</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C52" s="60" t="s">
         <v>548</v>
       </c>
       <c r="D52" s="3" t="s">
@@ -7301,49 +7268,49 @@
       <c r="E52" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="F52" s="70" t="s">
+      <c r="F52" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="G52" s="71" t="s">
+      <c r="G52" s="62" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="72"/>
-      <c r="C53" s="73"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="3" t="s">
         <v>553</v>
       </c>
       <c r="E53" s="3"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="75"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="72"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="68" t="s">
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="59" t="s">
         <v>554</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="72"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="72"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="63"/>
       <c r="E55" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="F55" s="50"/>
-      <c r="G55" s="50"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="72"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="72"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="63"/>
       <c r="E56" s="3" t="s">
         <v>557</v>
       </c>
@@ -7351,9 +7318,9 @@
       <c r="G56" s="3"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="78"/>
-      <c r="C57" s="79"/>
-      <c r="D57" s="78"/>
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="4" t="s">
         <v>558</v>
       </c>
@@ -7363,61 +7330,61 @@
       <c r="G57" s="3"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="80" t="s">
+      <c r="C62" s="71" t="s">
         <v>560</v>
       </c>
-      <c r="D62" s="81"/>
-      <c r="E62" s="81"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="81"/>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="81"/>
-      <c r="D64" s="81"/>
-      <c r="E64" s="81"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="81"/>
-      <c r="D65" s="81"/>
-      <c r="E65" s="81"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="81"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="81"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="81"/>
-      <c r="D69" s="81"/>
-      <c r="E69" s="81"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="81"/>
-      <c r="D70" s="81"/>
-      <c r="E70" s="81"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="81"/>
-      <c r="D71" s="81"/>
-      <c r="E71" s="81"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="81"/>
-      <c r="D72" s="81"/>
-      <c r="E72" s="81"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7465,7 +7432,7 @@
   <sheetPr/>
   <dimension ref="C18:I125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D109" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="D110" workbookViewId="0">
       <selection activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
@@ -8512,7 +8479,7 @@
       <c r="H98" s="24" t="s">
         <v>759</v>
       </c>
-      <c r="I98" s="46"/>
+      <c r="I98" s="3"/>
     </row>
     <row r="99" spans="3:9">
       <c r="C99" s="19"/>
@@ -8527,7 +8494,7 @@
         <v>762</v>
       </c>
       <c r="H99" s="24"/>
-      <c r="I99" s="46"/>
+      <c r="I99" s="3"/>
     </row>
     <row r="100" spans="3:9">
       <c r="C100" s="19"/>
@@ -8538,7 +8505,7 @@
         <v>763</v>
       </c>
       <c r="H100" s="24"/>
-      <c r="I100" s="46"/>
+      <c r="I100" s="3"/>
     </row>
     <row r="101" spans="3:9">
       <c r="C101" s="19"/>
@@ -8549,7 +8516,7 @@
         <v>764</v>
       </c>
       <c r="H101" s="24"/>
-      <c r="I101" s="46"/>
+      <c r="I101" s="3"/>
     </row>
     <row r="102" spans="3:9">
       <c r="C102" s="19"/>
@@ -8560,7 +8527,7 @@
         <v>765</v>
       </c>
       <c r="H102" s="24"/>
-      <c r="I102" s="46"/>
+      <c r="I102" s="3"/>
     </row>
     <row r="103" ht="27" spans="3:9">
       <c r="C103" s="19"/>
@@ -8575,7 +8542,7 @@
         <v>768</v>
       </c>
       <c r="H103" s="24"/>
-      <c r="I103" s="46"/>
+      <c r="I103" s="3"/>
     </row>
     <row r="104" ht="39" customHeight="1" spans="3:9">
       <c r="C104" s="19"/>
@@ -8586,7 +8553,7 @@
         <v>769</v>
       </c>
       <c r="H104" s="24"/>
-      <c r="I104" s="46"/>
+      <c r="I104" s="3"/>
     </row>
     <row r="105" ht="77" customHeight="1" spans="3:9">
       <c r="C105" s="19"/>
@@ -8601,7 +8568,7 @@
       <c r="H105" s="24" t="s">
         <v>772</v>
       </c>
-      <c r="I105" s="47" t="s">
+      <c r="I105" s="40" t="s">
         <v>773</v>
       </c>
     </row>
@@ -8611,7 +8578,7 @@
       <c r="E106" s="24" t="s">
         <v>774</v>
       </c>
-      <c r="F106" s="37" t="s">
+      <c r="F106" s="24" t="s">
         <v>775</v>
       </c>
       <c r="G106" s="24" t="s">
@@ -8620,10 +8587,10 @@
       <c r="H106" s="24" t="s">
         <v>777</v>
       </c>
-      <c r="I106" s="48"/>
+      <c r="I106" s="41"/>
     </row>
     <row r="107" ht="67.5" spans="4:8">
-      <c r="D107" s="38" t="s">
+      <c r="D107" s="37" t="s">
         <v>778</v>
       </c>
       <c r="E107" s="34" t="s">
@@ -8664,121 +8631,120 @@
       <c r="H109" s="11"/>
     </row>
     <row r="114" ht="27" spans="4:8">
-      <c r="D114" s="39" t="s">
+      <c r="D114" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="E114" s="40" t="s">
+      <c r="E114" s="11" t="s">
         <v>789</v>
       </c>
-      <c r="F114" s="41" t="s">
+      <c r="F114" s="12" t="s">
         <v>790</v>
       </c>
-      <c r="G114" s="41" t="s">
+      <c r="G114" s="12" t="s">
         <v>791</v>
       </c>
-      <c r="H114" s="40"/>
+      <c r="H114" s="11"/>
     </row>
     <row r="115" ht="33" customHeight="1" spans="4:8">
-      <c r="D115" s="39"/>
-      <c r="E115" s="41" t="s">
+      <c r="D115" s="15"/>
+      <c r="E115" s="12" t="s">
         <v>792</v>
       </c>
-      <c r="F115" s="41" t="s">
+      <c r="F115" s="12" t="s">
         <v>793</v>
       </c>
-      <c r="G115" s="40"/>
-      <c r="H115" s="40"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
     </row>
     <row r="116" ht="171" customHeight="1" spans="4:8">
-      <c r="D116" s="39"/>
-      <c r="E116" s="39" t="s">
+      <c r="D116" s="15"/>
+      <c r="E116" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="F116" s="42" t="s">
+      <c r="F116" s="38" t="s">
         <v>795</v>
       </c>
-      <c r="G116" s="41" t="s">
+      <c r="G116" s="12" t="s">
         <v>796</v>
       </c>
-      <c r="H116" s="40"/>
+      <c r="H116" s="11"/>
     </row>
     <row r="117" ht="129" customHeight="1" spans="4:8">
-      <c r="D117" s="39"/>
-      <c r="E117" s="39"/>
-      <c r="F117" s="42" t="s">
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="38" t="s">
         <v>797</v>
       </c>
-      <c r="G117" s="40" t="s">
+      <c r="G117" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="H117" s="40"/>
+      <c r="H117" s="11"/>
     </row>
     <row r="118" ht="27" spans="4:8">
-      <c r="D118" s="39"/>
-      <c r="E118" s="39" t="s">
+      <c r="D118" s="15"/>
+      <c r="E118" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="F118" s="41" t="s">
+      <c r="F118" s="12" t="s">
         <v>574</v>
       </c>
-      <c r="G118" s="41" t="s">
+      <c r="G118" s="12" t="s">
         <v>800</v>
       </c>
-      <c r="H118" s="40"/>
+      <c r="H118" s="11"/>
     </row>
     <row r="119" ht="94.5" spans="4:8">
-      <c r="D119" s="39"/>
-      <c r="E119" s="39"/>
-      <c r="F119" s="40" t="s">
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="G119" s="41" t="s">
+      <c r="G119" s="12" t="s">
         <v>802</v>
       </c>
-      <c r="H119" s="41" t="s">
+      <c r="H119" s="12" t="s">
         <v>803</v>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1" spans="4:8">
-      <c r="D120" s="39"/>
-      <c r="E120" s="39"/>
-      <c r="F120" s="40" t="s">
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="G120" s="40" t="s">
+      <c r="G120" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="H120" s="40"/>
+      <c r="H120" s="11"/>
     </row>
     <row r="121" ht="38" customHeight="1"/>
     <row r="122" spans="3:5">
       <c r="C122" t="s">
         <v>788</v>
       </c>
-      <c r="D122"/>
-      <c r="E122" s="43"/>
+      <c r="E122" s="39"/>
     </row>
     <row r="123" spans="4:5">
-      <c r="D123" s="43"/>
-      <c r="E123" s="43"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
     </row>
     <row r="124" ht="40.5" spans="4:6">
-      <c r="D124" s="44" t="s">
+      <c r="D124" s="31" t="s">
         <v>806</v>
       </c>
-      <c r="E124" s="40" t="s">
+      <c r="E124" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="F124" s="41" t="s">
+      <c r="F124" s="12" t="s">
         <v>807</v>
       </c>
     </row>
     <row r="125" spans="4:6">
-      <c r="D125" s="45"/>
-      <c r="E125" s="40" t="s">
+      <c r="D125" s="37"/>
+      <c r="E125" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="F125" s="40" t="s">
+      <c r="F125" s="11" t="s">
         <v>809</v>
       </c>
     </row>
@@ -8834,8 +8800,8 @@
   <sheetPr/>
   <dimension ref="B8:G23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -9125,7 +9091,7 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="174" t="s">
+      <c r="B5" s="165" t="s">
         <v>34</v>
       </c>
       <c r="C5" s="22" t="s">
@@ -9134,12 +9100,12 @@
       <c r="D5" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="148" t="s">
+      <c r="E5" s="139" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="174"/>
+      <c r="B6" s="165"/>
       <c r="C6" s="22" t="s">
         <v>38</v>
       </c>
@@ -9151,52 +9117,52 @@
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="177" t="s">
+      <c r="D7" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="177" t="s">
+      <c r="E7" s="168" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="175"/>
-      <c r="C8" s="176" t="s">
+      <c r="B8" s="166"/>
+      <c r="C8" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="176" t="s">
+      <c r="D8" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="177" t="s">
+      <c r="E8" s="168" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="175"/>
-      <c r="C9" s="176" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="176" t="s">
+      <c r="D9" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="177" t="s">
+      <c r="E9" s="168" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="175"/>
-      <c r="C10" s="176" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="176" t="s">
+      <c r="D10" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="177" t="s">
+      <c r="E10" s="168" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9232,242 +9198,242 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="165" t="s">
+      <c r="E1" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="165" t="s">
+      <c r="F1" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="155" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="165" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="164" t="s">
+      <c r="F2" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="165" t="s">
+      <c r="G2" s="156" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="164" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="166"/>
-      <c r="F3" s="164" t="s">
+      <c r="E3" s="157"/>
+      <c r="F3" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="164" t="s">
+      <c r="G3" s="155" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="163"/>
-      <c r="C4" s="163"/>
-      <c r="D4" s="166" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="166"/>
-      <c r="F4" s="167" t="s">
+      <c r="E4" s="157"/>
+      <c r="F4" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="156" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="163"/>
-      <c r="C5" s="163"/>
-      <c r="D5" s="164" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="168" t="s">
+      <c r="E5" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="169" t="s">
+      <c r="F5" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="164" t="s">
+      <c r="G5" s="155" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="163"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="164"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="165" t="s">
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="164"/>
+      <c r="G6" s="155"/>
     </row>
     <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="170" t="s">
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="167" t="s">
+      <c r="F7" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="165" t="s">
+      <c r="G7" s="156" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="163"/>
-      <c r="C8" s="163" t="s">
+      <c r="B8" s="154"/>
+      <c r="C8" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="163"/>
-      <c r="E8" s="171" t="s">
+      <c r="D8" s="154"/>
+      <c r="E8" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="171"/>
-      <c r="G8" s="171"/>
-      <c r="H8" s="172" t="s">
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="173"/>
+      <c r="I8" s="164"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="163"/>
-      <c r="C9" s="163"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="171" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="171"/>
-      <c r="G9" s="171"/>
-      <c r="H9" s="173"/>
-      <c r="I9" s="173"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="163"/>
-      <c r="C10" s="163"/>
-      <c r="D10" s="163"/>
-      <c r="E10" s="171" t="s">
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="173"/>
-      <c r="I10" s="173"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="163"/>
-      <c r="C11" s="163"/>
-      <c r="D11" s="163"/>
-      <c r="E11" s="171" t="s">
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="171"/>
-      <c r="G11" s="171"/>
-      <c r="H11" s="173"/>
-      <c r="I11" s="173"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="163"/>
-      <c r="C12" s="163"/>
-      <c r="D12" s="163"/>
-      <c r="E12" s="171" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="173"/>
-      <c r="I12" s="173"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="171" t="s">
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="171"/>
-      <c r="G13" s="171"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="163"/>
-      <c r="C14" s="163" t="s">
+      <c r="B14" s="154"/>
+      <c r="C14" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="163" t="s">
+      <c r="D14" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="171" t="s">
+      <c r="E14" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="164" t="s">
+      <c r="F14" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="171"/>
+      <c r="G14" s="162"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="163"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="171" t="s">
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="166"/>
-      <c r="G15" s="171"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="162"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="163"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163" t="s">
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="171" t="s">
+      <c r="E16" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="166"/>
-      <c r="G16" s="171"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="162"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="163"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="171" t="s">
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="166"/>
-      <c r="G17" s="171"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="162"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="163"/>
-      <c r="C18" s="163"/>
-      <c r="D18" s="163"/>
-      <c r="E18" s="171" t="s">
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="166"/>
-      <c r="G18" s="171"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9512,349 +9478,349 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="147" t="s">
+      <c r="B2" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147" t="s">
+      <c r="A3" s="137"/>
+      <c r="B3" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="148" t="s">
+      <c r="C3" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="147"/>
+      <c r="D3" s="138"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="147" t="s">
+      <c r="C4" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="147"/>
+      <c r="D4" s="138"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="146"/>
-      <c r="B5" s="147" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="148" t="s">
+      <c r="C5" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="147"/>
+      <c r="D5" s="138"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="148" t="s">
+      <c r="C6" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="147"/>
+      <c r="D6" s="138"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="146"/>
-      <c r="B7" s="146" t="s">
+      <c r="A7" s="137"/>
+      <c r="B7" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="147"/>
+      <c r="D7" s="138"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146" t="s">
+      <c r="A8" s="137"/>
+      <c r="B8" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="148" t="s">
+      <c r="C8" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="147"/>
+      <c r="D8" s="138"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="146"/>
-      <c r="B9" s="146" t="s">
+      <c r="A9" s="137"/>
+      <c r="B9" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="148" t="s">
+      <c r="C9" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="148" t="s">
+      <c r="D9" s="139" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="146"/>
-      <c r="B10" s="147" t="s">
+      <c r="A10" s="137"/>
+      <c r="B10" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="147"/>
+      <c r="D10" s="138"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="146"/>
-      <c r="B11" s="147" t="s">
+      <c r="A11" s="137"/>
+      <c r="B11" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="148" t="s">
+      <c r="C11" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="147"/>
+      <c r="D11" s="138"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="149" t="s">
+      <c r="A12" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="150" t="s">
+      <c r="D12" s="141" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="151"/>
-      <c r="B13" s="151"/>
-      <c r="C13" s="150" t="s">
+      <c r="A13" s="142"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="141" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="151"/>
-      <c r="B14" s="152"/>
-      <c r="C14" s="150" t="s">
+      <c r="A14" s="142"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="150" t="s">
+      <c r="D14" s="141" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="151"/>
-      <c r="B15" s="149" t="s">
+      <c r="A15" s="142"/>
+      <c r="B15" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="153"/>
+      <c r="D15" s="144"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="151"/>
-      <c r="B16" s="151"/>
-      <c r="C16" s="150" t="s">
+      <c r="A16" s="142"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="153" t="s">
+      <c r="D16" s="144" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="151"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="150" t="s">
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="150" t="s">
+      <c r="D17" s="141" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="151"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="150" t="s">
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="150" t="s">
+      <c r="D18" s="141" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="151"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="150" t="s">
+      <c r="A19" s="142"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="150" t="s">
+      <c r="D19" s="141" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="151"/>
-      <c r="B20" s="149" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="150" t="s">
+      <c r="C20" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="150" t="s">
+      <c r="D20" s="141" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="152"/>
-      <c r="B21" s="152"/>
-      <c r="C21" s="150" t="s">
+      <c r="A21" s="143"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="150" t="s">
+      <c r="D21" s="141" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="154" t="s">
+      <c r="A22" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="156" t="s">
+      <c r="C22" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="156" t="s">
+      <c r="D22" s="147" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="157"/>
-      <c r="B23" s="155" t="s">
+      <c r="A23" s="148"/>
+      <c r="B23" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="156" t="s">
+      <c r="C23" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="156" t="s">
+      <c r="D23" s="147" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="157"/>
-      <c r="B24" s="155" t="s">
+      <c r="A24" s="148"/>
+      <c r="B24" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="156" t="s">
+      <c r="C24" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="156" t="s">
+      <c r="D24" s="147" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="157"/>
-      <c r="B25" s="155" t="s">
+      <c r="A25" s="148"/>
+      <c r="B25" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="156" t="s">
+      <c r="C25" s="147" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="156"/>
+      <c r="D25" s="147"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="157"/>
-      <c r="B26" s="155" t="s">
+      <c r="A26" s="148"/>
+      <c r="B26" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="156" t="s">
+      <c r="C26" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="147" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="157"/>
-      <c r="B27" s="155" t="s">
+      <c r="A27" s="148"/>
+      <c r="B27" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="158" t="s">
+      <c r="C27" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="156" t="s">
+      <c r="D27" s="147" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="157"/>
-      <c r="B28" s="155" t="s">
+      <c r="A28" s="148"/>
+      <c r="B28" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="156" t="s">
+      <c r="C28" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="156" t="s">
+      <c r="D28" s="147" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="157"/>
-      <c r="B29" s="155" t="s">
+      <c r="A29" s="148"/>
+      <c r="B29" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="156" t="s">
+      <c r="C29" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="156" t="s">
+      <c r="D29" s="147" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="159"/>
-      <c r="B30" s="155" t="s">
+      <c r="A30" s="150"/>
+      <c r="B30" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="158" t="s">
+      <c r="C30" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="156" t="s">
+      <c r="D30" s="147" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="160" t="s">
+      <c r="A32" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="129" t="s">
+      <c r="B32" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="129" t="s">
+      <c r="C32" s="120" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="161" t="s">
+      <c r="A34" s="152" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="129" t="s">
+      <c r="B34" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="129" t="s">
+      <c r="C34" s="120" t="s">
         <v>170</v>
       </c>
       <c r="D34" s="3"/>
@@ -9862,28 +9828,28 @@
       <c r="F34" s="3"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="162"/>
-      <c r="B35" s="129" t="s">
+      <c r="A35" s="153"/>
+      <c r="B35" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="129" t="s">
+      <c r="C35" s="120" t="s">
         <v>172</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="43"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="141" t="s">
+      <c r="B36" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="141"/>
-      <c r="D36" s="160" t="s">
+      <c r="C36" s="132"/>
+      <c r="D36" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="43"/>
+      <c r="E36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9920,60 +9886,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="141" t="s">
+      <c r="E9" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="141" t="s">
+      <c r="F9" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="142" t="s">
+      <c r="G9" s="133" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="132"/>
-      <c r="E10" s="141" t="s">
+      <c r="D10" s="123"/>
+      <c r="E10" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="141" t="s">
+      <c r="F10" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="141" t="s">
+      <c r="G10" s="132" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="132"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="143" t="s">
+      <c r="D11" s="123"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="134" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="132"/>
-      <c r="E12" s="143" t="s">
+      <c r="D12" s="123"/>
+      <c r="E12" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="132" t="s">
+      <c r="F12" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="120" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="132"/>
-      <c r="E13" s="141" t="s">
+      <c r="D13" s="123"/>
+      <c r="E13" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="132" t="s">
+      <c r="F13" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="120" t="s">
         <v>189</v>
       </c>
     </row>
@@ -10009,134 +9975,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="129"/>
-      <c r="F7" s="130" t="s">
+      <c r="E7" s="120"/>
+      <c r="F7" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="120" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="129" t="s">
+      <c r="H7" s="120" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="129"/>
-      <c r="F8" s="131"/>
-      <c r="G8" s="129" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="129" t="s">
+      <c r="H8" s="120" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="120" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="129" t="s">
+      <c r="H9" s="120" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="132"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="133" t="s">
+      <c r="E10" s="123"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="134" t="s">
+      <c r="H10" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="136" t="s">
+      <c r="I10" s="127" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="135"/>
-      <c r="F11" s="136" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="I11" s="139"/>
+      <c r="I11" s="130"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="135"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="130" t="s">
+      <c r="E12" s="126"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="134" t="s">
+      <c r="H12" s="125" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="135"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="138" t="s">
+      <c r="E13" s="126"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="129" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="135"/>
-      <c r="F14" s="137"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="129" t="s">
+      <c r="E14" s="126"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="120" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="135"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="134" t="s">
+      <c r="E15" s="126"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="125" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="135"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="129" t="s">
+      <c r="E16" s="126"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="120" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="135"/>
-      <c r="F17" s="132" t="s">
+      <c r="E17" s="126"/>
+      <c r="F17" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="132" t="s">
+      <c r="G17" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="129" t="s">
+      <c r="H17" s="120" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="135"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="129" t="s">
+      <c r="E18" s="126"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="120" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="135"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="132"/>
-      <c r="H19" s="129" t="s">
+      <c r="E19" s="126"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="120" t="s">
         <v>214</v>
       </c>
     </row>
@@ -10175,581 +10141,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="98" t="s">
+      <c r="B1" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="99" t="s">
+      <c r="C1" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="100"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="97"/>
-      <c r="B2" s="98" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="99" t="s">
+      <c r="C2" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="99" t="s">
+      <c r="D2" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="101"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="97"/>
-      <c r="B3" s="98" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="102" t="s">
+      <c r="C3" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="99" t="s">
+      <c r="D3" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="101"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="101"/>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="103" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="99" t="s">
+      <c r="D5" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="92"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="103" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="99" t="s">
+      <c r="D6" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="101"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="97"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="103" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="E7" s="90" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="105" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="99" t="s">
+      <c r="E8" s="90" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="99"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="105" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="99"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="99" t="s">
+      <c r="D11" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="99"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="105" t="s">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="104" t="s">
+      <c r="D12" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="99"/>
+      <c r="E12" s="90"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="105" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D13" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="99"/>
+      <c r="E13" s="90"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="99" t="s">
+      <c r="D14" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="99"/>
+      <c r="E14" s="90"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="97"/>
-      <c r="B15" s="106" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="99" t="s">
+      <c r="D15" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="99" t="s">
+      <c r="E15" s="90" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="97"/>
-      <c r="B16" s="107"/>
-      <c r="C16" s="105" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="104" t="s">
+      <c r="D16" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="99" t="s">
+      <c r="E16" s="90" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="C17" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="99" t="s">
+      <c r="D17" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="99" t="s">
+      <c r="E17" s="90" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="99" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="90" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="101" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="111"/>
+      <c r="E19" s="102"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="109"/>
-      <c r="B20" s="112"/>
-      <c r="C20" s="99" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="101" t="s">
+      <c r="D20" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="113" t="s">
+      <c r="E20" s="104" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="109"/>
-      <c r="B21" s="114" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="105" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="99" t="s">
+      <c r="D21" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="115"/>
+      <c r="E21" s="106"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="109"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="99" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="107"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="117" t="s">
+      <c r="A23" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="B23" s="118" t="s">
+      <c r="B23" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="99" t="s">
+      <c r="C23" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="108" t="s">
+      <c r="D23" s="99" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="97"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="119"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="99" t="s">
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="108" t="s">
+      <c r="D24" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="97"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="119"/>
-      <c r="B25" s="121" t="s">
+      <c r="A25" s="110"/>
+      <c r="B25" s="112" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="108" t="s">
+      <c r="D25" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="97"/>
+      <c r="E25" s="88"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="119"/>
-      <c r="B26" s="121" t="s">
+      <c r="A26" s="110"/>
+      <c r="B26" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="C26" s="99" t="s">
+      <c r="C26" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="108" t="s">
+      <c r="D26" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="89" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="119"/>
-      <c r="B27" s="118" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="99" t="s">
+      <c r="C27" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="108" t="s">
+      <c r="D27" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="E27" s="97"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="119"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="99" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="108" t="s">
+      <c r="D28" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="97"/>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="119"/>
-      <c r="B29" s="108" t="s">
+      <c r="A29" s="110"/>
+      <c r="B29" s="99" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="99" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="108"/>
-      <c r="E29" s="97"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="88"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="119"/>
-      <c r="B30" s="108" t="s">
+      <c r="A30" s="110"/>
+      <c r="B30" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="108" t="s">
+      <c r="C30" s="99" t="s">
         <v>297</v>
       </c>
-      <c r="D30" s="108" t="s">
+      <c r="D30" s="99" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="97"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="119"/>
-      <c r="B31" s="98" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="101" t="s">
+      <c r="C31" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="108" t="s">
+      <c r="D31" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="97"/>
+      <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="119"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98" t="s">
+      <c r="A32" s="110"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="108" t="s">
+      <c r="D32" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="97"/>
+      <c r="E32" s="88"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="119"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="108" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="E33" s="97"/>
+      <c r="E33" s="88"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="119"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="108" t="s">
+      <c r="A34" s="110"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="99" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="97"/>
+      <c r="E34" s="88"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="119"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="108" t="s">
+      <c r="A35" s="110"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="97"/>
+      <c r="E35" s="88"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="119"/>
-      <c r="B36" s="122" t="s">
+      <c r="A36" s="110"/>
+      <c r="B36" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="108" t="s">
+      <c r="C36" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="D36" s="123" t="s">
+      <c r="D36" s="114" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="98"/>
+      <c r="E36" s="89"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="119"/>
-      <c r="B37" s="98" t="s">
+      <c r="A37" s="110"/>
+      <c r="B37" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="108" t="s">
+      <c r="D37" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="97"/>
+      <c r="E37" s="88"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="119"/>
-      <c r="B38" s="58" t="s">
+      <c r="A38" s="110"/>
+      <c r="B38" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="108" t="s">
+      <c r="D38" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="E38" s="97"/>
+      <c r="E38" s="88"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="119"/>
-      <c r="B39" s="98" t="s">
+      <c r="A39" s="110"/>
+      <c r="B39" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="101" t="s">
+      <c r="C39" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="97"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="88"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="119"/>
-      <c r="B40" s="108" t="s">
+      <c r="A40" s="110"/>
+      <c r="B40" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="C40" s="99" t="s">
+      <c r="C40" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="108" t="s">
+      <c r="D40" s="99" t="s">
         <v>320</v>
       </c>
-      <c r="E40" s="97"/>
+      <c r="E40" s="88"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="119"/>
-      <c r="B41" s="108" t="s">
+      <c r="A41" s="110"/>
+      <c r="B41" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="108"/>
-      <c r="E41" s="97"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="88"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="119"/>
-      <c r="B42" s="108" t="s">
+      <c r="A42" s="110"/>
+      <c r="B42" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="C42" s="124" t="s">
+      <c r="C42" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="97"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="88"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="117" t="s">
+      <c r="A43" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="125" t="s">
+      <c r="B43" s="116" t="s">
         <v>325</v>
       </c>
-      <c r="C43" s="126"/>
-      <c r="D43" s="108"/>
-      <c r="E43" s="97"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="88"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="119"/>
-      <c r="B44" s="108" t="s">
+      <c r="A44" s="110"/>
+      <c r="B44" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="127" t="s">
+      <c r="C44" s="118" t="s">
         <v>327</v>
       </c>
-      <c r="D44" s="108" t="s">
+      <c r="D44" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="E44" s="124" t="s">
+      <c r="E44" s="115" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="119"/>
-      <c r="B45" s="108"/>
-      <c r="C45" s="108"/>
-      <c r="D45" s="108" t="s">
+      <c r="A45" s="110"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="E45" s="94" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="119"/>
-      <c r="B46" s="98" t="s">
+      <c r="A46" s="110"/>
+      <c r="B46" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="127" t="s">
+      <c r="C46" s="118" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="108" t="s">
+      <c r="D46" s="99" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="124" t="s">
+      <c r="E46" s="115" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="128"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="123" t="s">
+      <c r="A47" s="119"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E47" s="124" t="s">
+      <c r="E47" s="115" t="s">
         <v>337</v>
       </c>
     </row>
@@ -10802,404 +10768,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="77" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="78" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="79" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="87"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="86"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="81" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="90"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="86"/>
-      <c r="B3" s="89" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="80" t="s">
         <v>343</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="90"/>
+      <c r="D3" s="81"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="86"/>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="82" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="90"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="86"/>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="90"/>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="86"/>
-      <c r="B6" s="89" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="92"/>
+      <c r="D6" s="83"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="80" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="93" t="s">
+      <c r="D7" s="84" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="87"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="88" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="78" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="87"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="88" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="80" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="87"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="88" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="80" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="87"/>
-      <c r="B11" s="87" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="78" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="87"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="87" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="78" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D12" s="85" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="87"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="95" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="86" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="87"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="95" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="86" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="87"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="94" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="85" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="87"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="87" t="s">
+      <c r="D16" s="78" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="87"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="80" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="92" t="s">
+      <c r="D17" s="83" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="87"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="89" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="D18" s="92"/>
+      <c r="D18" s="83"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="87"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="92"/>
+      <c r="D19" s="83"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="87"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="89" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="92"/>
+      <c r="D20" s="83"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="87"/>
-      <c r="B21" s="87" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="81" t="s">
         <v>375</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="78" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="87" t="s">
+      <c r="A22" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="79" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="88" t="s">
+      <c r="C22" s="79" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="87"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="87"/>
-      <c r="B23" s="87" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="88" t="s">
+      <c r="C23" s="79" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="79"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="87"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88" t="s">
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="88"/>
+      <c r="D24" s="79"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="87"/>
-      <c r="B25" s="87" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="96" t="s">
+      <c r="C25" s="87" t="s">
         <v>384</v>
       </c>
-      <c r="D25" s="96"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="87"/>
-      <c r="B26" s="87" t="s">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="79" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="87"/>
-      <c r="B27" s="89" t="s">
+      <c r="A27" s="78"/>
+      <c r="B27" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="91" t="s">
+      <c r="C27" s="82" t="s">
         <v>388</v>
       </c>
-      <c r="D27" s="88" t="s">
+      <c r="D27" s="79" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="87"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="91" t="s">
+      <c r="A28" s="78"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="88" t="s">
+      <c r="D28" s="79" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="87"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="91" t="s">
+      <c r="A29" s="78"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="82" t="s">
         <v>392</v>
       </c>
-      <c r="D29" s="88" t="s">
+      <c r="D29" s="79" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="87"/>
-      <c r="B30" s="87" t="s">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="D30" s="88"/>
+      <c r="D30" s="79"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="87" t="s">
+      <c r="A31" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="87" t="s">
+      <c r="B31" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="88" t="s">
+      <c r="C31" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="D31" s="88"/>
+      <c r="D31" s="79"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="87"/>
-      <c r="B32" s="87" t="s">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78" t="s">
         <v>399</v>
       </c>
-      <c r="C32" s="88" t="s">
+      <c r="C32" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="D32" s="88" t="s">
+      <c r="D32" s="79" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="87"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="D33" s="88" t="s">
+      <c r="D33" s="79" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="87"/>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88" t="s">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="D34" s="88" t="s">
+      <c r="D34" s="79" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87" t="s">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="88" t="s">
+      <c r="D35" s="79" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87" t="s">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="D36" s="88" t="s">
+      <c r="D36" s="79" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87" t="s">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78" t="s">
         <v>412</v>
       </c>
-      <c r="C37" s="87" t="s">
+      <c r="C37" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="87"/>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="87"/>
-      <c r="B38" s="87" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="C38" s="87" t="s">
+      <c r="C38" s="78" t="s">
         <v>415</v>
       </c>
-      <c r="D38" s="87" t="s">
+      <c r="D38" s="78" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="87"/>
-      <c r="B39" s="87"/>
-      <c r="C39" s="91" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="91" t="s">
+      <c r="D39" s="82" t="s">
         <v>418</v>
       </c>
     </row>
@@ -11246,107 +11212,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="73" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="47" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="47" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="56" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="47" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="82"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="56" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="82"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="47" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="82"/>
-      <c r="B5" s="83" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="75" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="75" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="E5" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="76" t="s">
         <v>430</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="D6" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="84"/>
-      <c r="F6" s="83"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="82"/>
-      <c r="B7" s="83"/>
-      <c r="C7" s="84" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75" t="s">
         <v>433</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="75" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="82" t="s">
+      <c r="E7" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="84" t="s">
+      <c r="F7" s="75" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="82"/>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="49" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="56"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="11"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="0.AI体系" sheetId="10" r:id="rId1"/>
@@ -17,9 +17,9 @@
     <sheet name="2.分类" sheetId="3" r:id="rId8"/>
     <sheet name="3.聚类" sheetId="7" r:id="rId9"/>
     <sheet name="4.cv2" sheetId="12" r:id="rId10"/>
-    <sheet name="5.深度基础" sheetId="13" r:id="rId11"/>
-    <sheet name="6.推荐" sheetId="16" r:id="rId12"/>
-    <sheet name="TF" sheetId="17" r:id="rId13"/>
+    <sheet name="5.推荐" sheetId="16" r:id="rId11"/>
+    <sheet name="6.深度基础" sheetId="13" r:id="rId12"/>
+    <sheet name="7.tensor_flow" sheetId="17" r:id="rId13"/>
     <sheet name="Sheet1" sheetId="18" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="857">
   <si>
     <t>artificial    intelligence
 读：阿尔提（费学） 赢特ne（jin ce）</t>
@@ -3095,6 +3095,161 @@
 （1）（纯图像技术）图像矫正
 （2）（纯图像技术）瑕疵检测（也可以使用深度学习）
 （3）数据增强：灰度、翻转、缩放、拉伸、旋转得到新图。</t>
+  </si>
+  <si>
+    <t>推荐算法</t>
+  </si>
+  <si>
+    <t>数据属性</t>
+  </si>
+  <si>
+    <t>人口属性</t>
+  </si>
+  <si>
+    <t>男的、女的、已婚的、未婚的
+是否戴眼镜，是否留胡子，这些都是人口属性</t>
+  </si>
+  <si>
+    <t>地理属性</t>
+  </si>
+  <si>
+    <t>当前你所在的位置，你所在的地区、风俗、习俗。
+是平原、还是盆地</t>
+  </si>
+  <si>
+    <t>资产属性</t>
+  </si>
+  <si>
+    <t>你有多少钱，你的账户余额，你有多少房，有多少车</t>
+  </si>
+  <si>
+    <t>兴趣属性</t>
+  </si>
+  <si>
+    <t>旅游、玩车</t>
+  </si>
+  <si>
+    <t>推荐算法-
+四大分支</t>
+  </si>
+  <si>
+    <t>"协同过滤"推荐算法</t>
+  </si>
+  <si>
+    <t>【一】"基于内存的协同过滤/
+基于邻域" 的协同过滤</t>
+  </si>
+  <si>
+    <t>UCF 用户与用户之间的相似商</t>
+  </si>
+  <si>
+    <t>通过“用户相似度”推荐</t>
+  </si>
+  <si>
+    <t>距离指标</t>
+  </si>
+  <si>
+    <t>欧几里得距离
+马哈拉诺比斯距离
+曼哈顿距离
+切比雪夫距离
+明可夫斯距离
+海明距离</t>
+  </si>
+  <si>
+    <t>相似度指标</t>
+  </si>
+  <si>
+    <t>余弦
+皮尔森
+Jaccard相似系统
+Tanimoto系数
+对数似然
+互信息/信息增益
+信息检索
+词对相似度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">协同过滤 的缺点:
+并不是所有商品都能使用 "协同过滤"
+（1）冷启动
+  //必须要先有数据，没有数据时无法做协同过滤
+（2）马太效应
+  //强者更强，弱者更弱，爆款商品会形成良性循环
+  //基于内容：给商品打标签
+（3）推荐解释模糊
+  //基于用户解释模糊。有时候推荐解释不通
+</t>
+  </si>
+  <si>
+    <t>ICF 商品与商品的相似度</t>
+  </si>
+  <si>
+    <t>通过“商品相似度”推荐</t>
+  </si>
+  <si>
+    <t>【二】基于 "模型" 的协同过滤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">用 "分类算法" 做做协同过滤 </t>
+  </si>
+  <si>
+    <t>用 "回归算法" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>用 "矩阵分解" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>用 "神经网络" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>用 "图模型" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>用 "隐语义" 做做协同过滤</t>
+  </si>
+  <si>
+    <t>【三】关联关系</t>
+  </si>
+  <si>
+    <t>Apriori</t>
+  </si>
+  <si>
+    <t>哪些商品同时出现，酱油和醋</t>
+  </si>
+  <si>
+    <t>FPGROWTH</t>
+  </si>
+  <si>
+    <t>对 Apriori 的升级版，它只需要遍历数据库两次，就能得到想到的结果。</t>
+  </si>
+  <si>
+    <t>"基于内容"的推荐算法</t>
+  </si>
+  <si>
+    <t>"混合推荐"算法</t>
+  </si>
+  <si>
+    <t>"流行度" 推荐算法</t>
+  </si>
+  <si>
+    <t>算法 和 数据的关系</t>
+  </si>
+  <si>
+    <t>算法是由 "数据" 产生的，
+"不同的数据" 能做 "不同的算法"
+根据 "数据" 选择 "算法"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">如：
+（1）在 "地理属性" 上面做 "基于内容"的推荐
+（2）在 "人口属性" 上面做 "基于协同过滤"的推荐
+（3）在 "资产属性" 上面做 "混合推荐"
+（4）在 "兴趣属性" 上面做 "流行度推荐"
+//这不是绝对的，
+//在 "人口属性" 上面做 "混合推荐" 也是可以的。
+//要根据实际业务场景选择
+</t>
   </si>
   <si>
     <t>深度神经网络</t>
@@ -4421,90 +4576,6 @@
   </si>
   <si>
     <t>适用于各种序列任务，如机器翻译、语言建模等。</t>
-  </si>
-  <si>
-    <t>推荐算法</t>
-  </si>
-  <si>
-    <t>数据属性</t>
-  </si>
-  <si>
-    <t>人口属性</t>
-  </si>
-  <si>
-    <t>男的、女的、已婚的、未婚的
-是否戴眼镜，是否留胡子，这些都是人口属性</t>
-  </si>
-  <si>
-    <t>地理属性</t>
-  </si>
-  <si>
-    <t>当前你所在的位置，你所在的地区、风俗、习俗。
-是平原、还是盆地</t>
-  </si>
-  <si>
-    <t>资产属性</t>
-  </si>
-  <si>
-    <t>你有多少钱，你的账户余额，你有多少房，有多少车</t>
-  </si>
-  <si>
-    <t>兴趣属性</t>
-  </si>
-  <si>
-    <t>旅游、玩车</t>
-  </si>
-  <si>
-    <t>算法属性</t>
-  </si>
-  <si>
-    <t>"协同过滤"推荐算法</t>
-  </si>
-  <si>
-    <t>"基于内存的协同过滤/
-基于邻域" 的协同过滤</t>
-  </si>
-  <si>
-    <t>UCF 用户与用户之间的相似商</t>
-  </si>
-  <si>
-    <t>ICF 商品与商品的相似度</t>
-  </si>
-  <si>
-    <t>（1）拿到每个商品共同出现的次数</t>
-  </si>
-  <si>
-    <t>基于 "模型的" 协同过滤</t>
-  </si>
-  <si>
-    <t xml:space="preserve">用 "分类算法" 做做协同过滤 </t>
-  </si>
-  <si>
-    <t>用 "回归算法" 做做协同过滤</t>
-  </si>
-  <si>
-    <t>用 "矩阵分解" 做做协同过滤</t>
-  </si>
-  <si>
-    <t>用 "神经网络" 做做协同过滤</t>
-  </si>
-  <si>
-    <t>用 "图模型" 做做协同过滤</t>
-  </si>
-  <si>
-    <t>用 "隐语义" 做做协同过滤</t>
-  </si>
-  <si>
-    <t>关联关系</t>
-  </si>
-  <si>
-    <t>"基于内容"的推荐算法</t>
-  </si>
-  <si>
-    <t>"混合推荐"算法</t>
-  </si>
-  <si>
-    <t>"流行度" 推荐算法</t>
   </si>
   <si>
     <t>搭建模型</t>
@@ -4765,7 +4836,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4787,6 +4858,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5061,9 +5144,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -5076,7 +5157,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5326,7 +5409,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5350,16 +5433,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5368,620 +5451,665 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5989,6 +6117,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6356,252 +6487,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="181" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="169" t="s">
+      <c r="D13" s="182" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="170" t="s">
+      <c r="F13" s="183" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="171" t="s">
+      <c r="G13" s="184" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="169"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="172" t="s">
+      <c r="A14" s="185"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="185"/>
+      <c r="D14" s="182"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="186" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="173" t="s">
+      <c r="G14" s="187" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="3" t="s">
+      <c r="A15" s="185"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="185"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="175" t="s">
+      <c r="F15" s="189" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="176"/>
+      <c r="G15" s="190"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3" t="s">
+      <c r="A16" s="185"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="185"/>
+      <c r="B17" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="3" t="s">
+      <c r="A18" s="185"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="177" t="s">
+      <c r="A19" s="185"/>
+      <c r="B19" s="192" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="3" t="s">
+      <c r="C19" s="193"/>
+      <c r="D19" s="194"/>
+      <c r="E19" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="A20" s="185"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="5" t="s">
+      <c r="A21" s="185"/>
+      <c r="B21" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="191" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="32"/>
+      <c r="E21" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="3"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="3" t="s">
+      <c r="A22" s="185"/>
+      <c r="B22" s="195"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="3"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="3" t="s">
+      <c r="A23" s="185"/>
+      <c r="B23" s="195"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="3"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="3" t="s">
+      <c r="A24" s="185"/>
+      <c r="B24" s="195"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="3"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="A25" s="185"/>
+      <c r="B25" s="195"/>
+      <c r="C25" s="181"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="181"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="3" t="s">
+      <c r="A26" s="185"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="D26" s="32"/>
+      <c r="E26" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="185"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="32"/>
+      <c r="E27" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="3" t="s">
+      <c r="A28" s="185"/>
+      <c r="B28" s="195"/>
+      <c r="C28" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="2"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="3" t="s">
+      <c r="A29" s="185"/>
+      <c r="B29" s="195"/>
+      <c r="C29" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="2"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="3" t="s">
+      <c r="A30" s="185"/>
+      <c r="B30" s="181"/>
+      <c r="C30" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6646,745 +6777,745 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="33" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="41"/>
+      <c r="A3" s="34"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="41"/>
+      <c r="A4" s="34"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="41"/>
+      <c r="A5" s="34"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="34" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="34" t="s">
         <v>441</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="32" t="s">
         <v>441</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="53" t="s">
         <v>442</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="3" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="32" t="s">
         <v>443</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="53" t="s">
         <v>444</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" ht="71" customHeight="1" spans="2:7">
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="53" t="s">
         <v>445</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="53" t="s">
         <v>446</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="2:7">
-      <c r="B10" s="41"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="32" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="32" t="s">
         <v>448</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="G11" s="3"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="4" t="s">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="G12" s="3"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="41"/>
-      <c r="C13" s="41" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34" t="s">
         <v>453</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="55" t="s">
         <v>455</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="56" t="s">
         <v>456</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="32" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="3" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="32" t="s">
         <v>458</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="F14" s="44" t="s">
+      <c r="F14" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="32" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="40" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="53" t="s">
         <v>463</v>
       </c>
-      <c r="F15" s="40" t="s">
+      <c r="F15" s="33" t="s">
         <v>464</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="33" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="4" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="34"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="4" t="s">
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="34"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="4" t="s">
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="53" t="s">
         <v>469</v>
       </c>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="32" t="s">
         <v>472</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="41"/>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="32" t="s">
         <v>473</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="32" t="s">
         <v>474</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="41"/>
-      <c r="C22" s="40" t="s">
+      <c r="B22" s="34"/>
+      <c r="C22" s="33" t="s">
         <v>475</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="32" t="s">
         <v>476</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="41"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="32" t="s">
         <v>477</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="41"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="34"/>
+      <c r="C24" s="53" t="s">
         <v>478</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4" t="s">
+      <c r="D24" s="32"/>
+      <c r="E24" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="41"/>
-      <c r="C25" s="45" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="57" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="41"/>
-      <c r="C26" s="45" t="s">
+      <c r="B26" s="34"/>
+      <c r="C26" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="33" t="s">
         <v>482</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="53" t="s">
         <v>483</v>
       </c>
-      <c r="D27" s="47" t="s">
+      <c r="D27" s="59" t="s">
         <v>484</v>
       </c>
-      <c r="E27" s="48" t="s">
+      <c r="E27" s="60" t="s">
         <v>484</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="32" t="s">
         <v>485</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="32"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="33" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="47" t="s">
+      <c r="D28" s="59" t="s">
         <v>487</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="E28" s="60" t="s">
         <v>487</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="32" t="s">
         <v>488</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="32"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="47" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="59" t="s">
         <v>489</v>
       </c>
-      <c r="E29" s="48" t="s">
+      <c r="E29" s="60" t="s">
         <v>489</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="32" t="s">
         <v>490</v>
       </c>
-      <c r="G29" s="3"/>
+      <c r="G29" s="32"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33" t="s">
         <v>491</v>
       </c>
-      <c r="D30" s="47" t="s">
+      <c r="D30" s="59" t="s">
         <v>492</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="32" t="s">
         <v>493</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="49" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="61" t="s">
         <v>494</v>
       </c>
-      <c r="E31" s="44" t="s">
+      <c r="E31" s="56" t="s">
         <v>495</v>
       </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="33" t="s">
         <v>497</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="59" t="s">
         <v>498</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="62" t="s">
         <v>499</v>
       </c>
-      <c r="F33" s="40" t="s">
+      <c r="F33" s="33" t="s">
         <v>500</v>
       </c>
-      <c r="G33" s="3"/>
+      <c r="G33" s="32"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="47" t="s">
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="59" t="s">
         <v>501</v>
       </c>
-      <c r="E34" s="50" t="s">
+      <c r="E34" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="3"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40" t="s">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33" t="s">
         <v>503</v>
       </c>
-      <c r="D35" s="47" t="s">
+      <c r="D35" s="59" t="s">
         <v>504</v>
       </c>
-      <c r="E35" s="51" t="s">
+      <c r="E35" s="63" t="s">
         <v>505</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="33" t="s">
         <v>506</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="32"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="47" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="59" t="s">
         <v>507</v>
       </c>
-      <c r="E36" s="51" t="s">
+      <c r="E36" s="63" t="s">
         <v>508</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="3"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="32"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="47" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="59" t="s">
         <v>509</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="64" t="s">
         <v>510</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="3"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="32"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="33" t="s">
         <v>511</v>
       </c>
-      <c r="D38" s="22" t="s">
+      <c r="D38" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="E38" s="22" t="s">
+      <c r="E38" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="3"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="32"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40" t="s">
+      <c r="B39" s="33"/>
+      <c r="C39" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="D39" s="22" t="s">
+      <c r="D39" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="E39" s="23" t="s">
+      <c r="E39" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="32" t="s">
         <v>517</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="53" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="22" t="s">
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="65" t="s">
         <v>520</v>
       </c>
-      <c r="F40" s="3"/>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="32"/>
+      <c r="G40" s="53" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="33" t="s">
         <v>522</v>
       </c>
-      <c r="D41" s="48" t="s">
+      <c r="D41" s="60" t="s">
         <v>523</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="32" t="s">
         <v>524</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="32" t="s">
         <v>525</v>
       </c>
-      <c r="G41" s="3"/>
+      <c r="G41" s="32"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="48" t="s">
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="60" t="s">
         <v>526</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="32" t="s">
         <v>527</v>
       </c>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="40"/>
-      <c r="C43" s="4" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="53" t="s">
         <v>528</v>
       </c>
-      <c r="D43" s="48" t="s">
+      <c r="D43" s="60" t="s">
         <v>529</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="32" t="s">
         <v>530</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="32" t="s">
         <v>531</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="32"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="66" t="s">
         <v>532</v>
       </c>
-      <c r="C44" s="54" t="s">
+      <c r="C44" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="D44" s="60" t="s">
         <v>534</v>
       </c>
-      <c r="E44" s="48" t="s">
+      <c r="E44" s="60" t="s">
         <v>535</v>
       </c>
-      <c r="F44" s="55" t="s">
+      <c r="F44" s="67" t="s">
         <v>536</v>
       </c>
-      <c r="G44" s="3"/>
+      <c r="G44" s="32"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="54"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="48" t="s">
+      <c r="B45" s="66"/>
+      <c r="C45" s="68"/>
+      <c r="D45" s="60" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E45" s="64" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="48" t="s">
+      <c r="F45" s="60" t="s">
         <v>539</v>
       </c>
-      <c r="G45" s="3"/>
+      <c r="G45" s="32"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="54"/>
-      <c r="C46" s="56"/>
-      <c r="D46" s="48" t="s">
+      <c r="B46" s="66"/>
+      <c r="C46" s="68"/>
+      <c r="D46" s="60" t="s">
         <v>540</v>
       </c>
-      <c r="E46" s="52"/>
-      <c r="F46" s="48"/>
-      <c r="G46" s="3"/>
+      <c r="E46" s="64"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="32"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="57"/>
-      <c r="C47" s="54" t="s">
+      <c r="B47" s="69"/>
+      <c r="C47" s="66" t="s">
         <v>541</v>
       </c>
-      <c r="D47" s="48"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="48"/>
-      <c r="G47" s="3"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="32"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="58" t="s">
+      <c r="B48" s="70" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="66" t="s">
         <v>542</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="67" t="s">
         <v>543</v>
       </c>
-      <c r="E48" s="52"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="3"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="67"/>
+      <c r="G48" s="32"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="58"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="55" t="s">
+      <c r="B49" s="70"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="67" t="s">
         <v>544</v>
       </c>
-      <c r="E49" s="52"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="3"/>
+      <c r="E49" s="64"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="58"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="55" t="s">
+      <c r="B50" s="70"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="67" t="s">
         <v>545</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="3"/>
+      <c r="F50" s="67"/>
+      <c r="G50" s="32"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="58"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="52"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="B51" s="70"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="59" t="s">
+      <c r="B52" s="71" t="s">
         <v>547</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C52" s="72" t="s">
         <v>548</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="53" t="s">
         <v>550</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="G52" s="62" t="s">
+      <c r="G52" s="74" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="63"/>
-      <c r="C53" s="64"/>
-      <c r="D53" s="3" t="s">
+      <c r="B53" s="75"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="65"/>
-      <c r="G53" s="66"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="78"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="63"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="59" t="s">
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="71" t="s">
         <v>554</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="F54" s="67"/>
-      <c r="G54" s="68"/>
+      <c r="F54" s="79"/>
+      <c r="G54" s="80"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="3" t="s">
+      <c r="B55" s="75"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="75"/>
+      <c r="E55" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="3" t="s">
+      <c r="B56" s="75"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="75"/>
+      <c r="E56" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="69"/>
-      <c r="C57" s="70"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="4" t="s">
+      <c r="B57" s="81"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="81"/>
+      <c r="E57" s="53" t="s">
         <v>558</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="53" t="s">
         <v>559</v>
       </c>
-      <c r="G57" s="3"/>
+      <c r="G57" s="32"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="71" t="s">
+      <c r="C62" s="83" t="s">
         <v>560</v>
       </c>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="72"/>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="72"/>
-      <c r="D70" s="72"/>
-      <c r="E70" s="72"/>
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="72"/>
-      <c r="D72" s="72"/>
-      <c r="E72" s="72"/>
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7430,10 +7561,361 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="B8:L25"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="23.2389380530973" customWidth="1"/>
+    <col min="2" max="2" width="12.0265486725664" customWidth="1"/>
+    <col min="3" max="3" width="23.141592920354" customWidth="1"/>
+    <col min="4" max="4" width="32.6283185840708" customWidth="1"/>
+    <col min="5" max="5" width="37.7699115044248" customWidth="1"/>
+    <col min="6" max="6" width="31.7964601769912" customWidth="1"/>
+    <col min="7" max="7" width="32.2477876106195" customWidth="1"/>
+    <col min="9" max="9" width="23.8938053097345" customWidth="1"/>
+    <col min="11" max="11" width="27.0265486725664" customWidth="1"/>
+    <col min="12" max="12" width="25.2212389380531" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" ht="40.5" spans="2:11">
+      <c r="B8" s="35" t="s">
+        <v>561</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="E8" s="38" t="s">
+        <v>564</v>
+      </c>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+    </row>
+    <row r="9" ht="40.5" spans="2:11">
+      <c r="B9" s="35"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="E9" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+    </row>
+    <row r="10" ht="27" spans="2:11">
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="E10" s="38" t="s">
+        <v>568</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="37" t="s">
+        <v>569</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>570</v>
+      </c>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="40"/>
+    </row>
+    <row r="12" ht="62" customHeight="1" spans="2:12">
+      <c r="B12" s="35"/>
+      <c r="C12" s="41" t="s">
+        <v>571</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>572</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>573</v>
+      </c>
+      <c r="F12" s="39" t="s">
+        <v>574</v>
+      </c>
+      <c r="G12" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>576</v>
+      </c>
+      <c r="I12" s="49" t="s">
+        <v>577</v>
+      </c>
+      <c r="J12" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="K12" s="49" t="s">
+        <v>579</v>
+      </c>
+      <c r="L12" s="50" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="13" ht="58" customHeight="1" spans="2:12">
+      <c r="B13" s="35"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="39" t="s">
+        <v>581</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="52"/>
+    </row>
+    <row r="14" spans="2:12">
+      <c r="B14" s="35"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="36" t="s">
+        <v>583</v>
+      </c>
+      <c r="F14" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="G14" s="45"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="52"/>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="35"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="39" t="s">
+        <v>585</v>
+      </c>
+      <c r="G15" s="45"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="52"/>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="B16" s="35"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="39" t="s">
+        <v>586</v>
+      </c>
+      <c r="G16" s="45"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="52"/>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="35"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="39" t="s">
+        <v>587</v>
+      </c>
+      <c r="G17" s="45"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+      <c r="L17" s="52"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="35"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="39" t="s">
+        <v>588</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="52"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="35"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="39" t="s">
+        <v>589</v>
+      </c>
+      <c r="G19" s="45"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
+      <c r="L19" s="52"/>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="2:12">
+      <c r="B20" s="35"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42" t="s">
+        <v>590</v>
+      </c>
+      <c r="F20" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>592</v>
+      </c>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40"/>
+      <c r="L20" s="52"/>
+    </row>
+    <row r="21" ht="40.5" spans="2:12">
+      <c r="B21" s="35"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="39" t="s">
+        <v>593</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>594</v>
+      </c>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="52"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="35"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="35"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="37" t="s">
+        <v>596</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="35"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="37" t="s">
+        <v>597</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+    </row>
+    <row r="25" ht="111" customHeight="1" spans="2:11">
+      <c r="B25" s="35"/>
+      <c r="C25" s="46" t="s">
+        <v>598</v>
+      </c>
+      <c r="D25" s="47" t="s">
+        <v>599</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>600</v>
+      </c>
+      <c r="F25" s="46"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="B8:B25"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C12:C24"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L21"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C18:I125"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="D110" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="D109" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -7449,1303 +7931,1303 @@
   </cols>
   <sheetData>
     <row r="18" ht="27" spans="3:8">
-      <c r="C18" s="10" t="s">
-        <v>561</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>562</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>563</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>564</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="C18" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
     </row>
     <row r="19" ht="54" spans="3:8">
-      <c r="C19" s="14"/>
-      <c r="D19" s="12" t="s">
-        <v>565</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>566</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="14"/>
-      <c r="D20" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" ht="72" customHeight="1" spans="3:8">
-      <c r="C21" s="14"/>
-      <c r="D21" s="12" t="s">
-        <v>569</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
     </row>
     <row r="22" ht="72" customHeight="1" spans="3:8">
-      <c r="C22" s="16"/>
-      <c r="D22" s="12" t="s">
-        <v>570</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="4" t="s">
+        <v>610</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" ht="72" customHeight="1"/>
     <row r="24" ht="72" customHeight="1"/>
     <row r="25" ht="32" customHeight="1" spans="3:8">
-      <c r="C25" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>574</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>575</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="H25" s="11"/>
+      <c r="C25" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4" t="s">
+        <v>616</v>
+      </c>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" ht="51" customHeight="1" spans="3:8">
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="H26" s="11"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" ht="265" customHeight="1" spans="3:8">
-      <c r="C27" s="15"/>
-      <c r="D27" s="13" t="s">
-        <v>578</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>581</v>
-      </c>
-      <c r="H27" s="11"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>621</v>
+      </c>
+      <c r="H27" s="3"/>
     </row>
     <row r="28" ht="72" customHeight="1" spans="3:8">
-      <c r="C28" s="15"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13" t="s">
-        <v>582</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>583</v>
-      </c>
-      <c r="H28" s="11"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" ht="38" customHeight="1" spans="3:8">
-      <c r="C29" s="15"/>
-      <c r="D29" s="11" t="s">
-        <v>584</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>585</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>625</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
     </row>
     <row r="30" ht="409" customHeight="1" spans="3:8">
-      <c r="C30" s="15"/>
-      <c r="D30" s="12" t="s">
-        <v>586</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>587</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>588</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="H30" s="11"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="H30" s="3"/>
     </row>
     <row r="31" ht="58" customHeight="1" spans="3:8">
-      <c r="C31" s="15"/>
-      <c r="D31" s="11" t="s">
-        <v>590</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>591</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>592</v>
-      </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="19" t="s">
-        <v>593</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>594</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>595</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="C32" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="19"/>
-      <c r="D33" s="11" t="s">
-        <v>596</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>597</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>598</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
     </row>
     <row r="34" ht="85" customHeight="1" spans="3:8">
-      <c r="C34" s="19"/>
-      <c r="D34" s="11" t="s">
-        <v>593</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>599</v>
-      </c>
-      <c r="F34" s="18" t="s">
-        <v>600</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="H34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>640</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="H34" s="3"/>
     </row>
     <row r="35" ht="37" customHeight="1" spans="3:8">
-      <c r="C35" s="19"/>
-      <c r="D35" s="15" t="s">
-        <v>602</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>603</v>
-      </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
     </row>
     <row r="36" ht="52" customHeight="1" spans="3:8">
-      <c r="C36" s="19"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="12" t="s">
-        <v>604</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
     </row>
     <row r="37" ht="83" customHeight="1" spans="3:8">
-      <c r="C37" s="19"/>
-      <c r="D37" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>606</v>
-      </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" ht="44" customHeight="1" spans="3:8">
-      <c r="C38" s="19"/>
-      <c r="D38" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>608</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>609</v>
-      </c>
-      <c r="G38" s="11" t="s">
-        <v>610</v>
-      </c>
-      <c r="H38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="H38" s="3"/>
     </row>
     <row r="39" ht="40.5" spans="3:8">
-      <c r="C39" s="19"/>
-      <c r="D39" s="21" t="s">
-        <v>611</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>613</v>
-      </c>
-      <c r="G39" s="24" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="13" t="s">
+        <v>651</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>652</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="H39" s="14"/>
+    </row>
+    <row r="40" ht="53" customHeight="1" spans="3:8">
+      <c r="C40" s="11"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="17" t="s">
+        <v>655</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>656</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+    </row>
+    <row r="41" ht="40.5" spans="3:8">
+      <c r="C41" s="11"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="15" t="s">
+        <v>657</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>658</v>
+      </c>
+      <c r="H41" s="14"/>
+    </row>
+    <row r="42" ht="40.5" spans="3:8">
+      <c r="C42" s="11"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="15" t="s">
+        <v>659</v>
+      </c>
+      <c r="G42" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="H42" s="14"/>
+    </row>
+    <row r="43" ht="40.5" spans="3:8">
+      <c r="C43" s="11"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="16" t="s">
+        <v>661</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="H43" s="14"/>
+    </row>
+    <row r="44" ht="54" spans="3:8">
+      <c r="C44" s="11"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16" t="s">
+        <v>663</v>
+      </c>
+      <c r="G44" s="16" t="s">
+        <v>664</v>
+      </c>
+      <c r="H44" s="14"/>
+    </row>
+    <row r="45" ht="34" customHeight="1" spans="3:8">
+      <c r="C45" s="11"/>
+      <c r="D45" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="3:8">
+      <c r="C46" s="11" t="s">
+        <v>667</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" ht="53" customHeight="1" spans="3:8">
+      <c r="C47" s="11"/>
+      <c r="D47" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" ht="27" spans="3:8">
+      <c r="C48" s="11"/>
+      <c r="D48" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" ht="54" spans="3:8">
+      <c r="C49" s="11"/>
+      <c r="D49" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" ht="99" customHeight="1" spans="3:8">
+      <c r="C50" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="D50" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" ht="53" customHeight="1" spans="3:8">
-      <c r="C40" s="19"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="25" t="s">
-        <v>615</v>
-      </c>
-      <c r="F40" s="22" t="s">
-        <v>616</v>
-      </c>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" ht="40.5" spans="3:8">
-      <c r="C41" s="19"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="23" t="s">
-        <v>617</v>
-      </c>
-      <c r="G41" s="22" t="s">
-        <v>618</v>
-      </c>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" ht="40.5" spans="3:8">
-      <c r="C42" s="19"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="G42" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" ht="40.5" spans="3:8">
-      <c r="C43" s="19"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="G43" s="22" t="s">
-        <v>622</v>
-      </c>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" ht="54" spans="3:8">
-      <c r="C44" s="19"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="24" t="s">
-        <v>623</v>
-      </c>
-      <c r="G44" s="24" t="s">
-        <v>624</v>
-      </c>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" ht="34" customHeight="1" spans="3:8">
-      <c r="C45" s="19"/>
-      <c r="D45" s="11" t="s">
-        <v>625</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-    </row>
-    <row r="46" spans="3:8">
-      <c r="C46" s="19" t="s">
-        <v>627</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>628</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>629</v>
-      </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-    </row>
-    <row r="47" ht="53" customHeight="1" spans="3:8">
-      <c r="C47" s="19"/>
-      <c r="D47" s="11" t="s">
-        <v>630</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-    </row>
-    <row r="48" ht="27" spans="3:8">
-      <c r="C48" s="19"/>
-      <c r="D48" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-    </row>
-    <row r="49" ht="54" spans="3:8">
-      <c r="C49" s="19"/>
-      <c r="D49" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" ht="99" customHeight="1" spans="3:8">
-      <c r="C50" s="19" t="s">
-        <v>634</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>637</v>
-      </c>
-      <c r="H50" s="11"/>
+      <c r="E50" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" ht="48" customHeight="1" spans="3:8">
-      <c r="C51" s="19"/>
-      <c r="D51" s="11" t="s">
-        <v>638</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>639</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" ht="34" customHeight="1" spans="3:8">
-      <c r="C52" s="19"/>
-      <c r="D52" s="11" t="s">
-        <v>640</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>641</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>642</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" ht="34" customHeight="1" spans="3:8">
-      <c r="C53" s="19"/>
-      <c r="D53" s="12" t="s">
-        <v>643</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>644</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>645</v>
-      </c>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" ht="107" customHeight="1" spans="3:8">
-      <c r="C54" s="19"/>
-      <c r="D54" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="E54" s="11" t="s">
-        <v>647</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="3:8">
-      <c r="C55" s="19"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="11" t="s">
-        <v>649</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" ht="40.5" spans="3:8">
-      <c r="C56" s="19"/>
-      <c r="D56" s="11" t="s">
-        <v>651</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>652</v>
-      </c>
-      <c r="F56" s="26" t="s">
-        <v>653</v>
-      </c>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>693</v>
+      </c>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="3:8">
-      <c r="C57" s="19"/>
-      <c r="D57" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="E57" s="11" t="s">
-        <v>655</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>657</v>
-      </c>
-      <c r="H57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="3:8">
-      <c r="C58" s="19"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="11" t="s">
-        <v>658</v>
-      </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" ht="27" spans="3:8">
-      <c r="C59" s="19"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>660</v>
-      </c>
-      <c r="G59" s="15"/>
-      <c r="H59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="G59" s="7"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" ht="77" customHeight="1" spans="3:8">
-      <c r="C60" s="19"/>
-      <c r="D60" s="27" t="s">
-        <v>661</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>662</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>663</v>
-      </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="19" t="s">
+        <v>701</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
     </row>
     <row r="61" ht="77" customHeight="1" spans="3:8">
-      <c r="C61" s="19"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="4" t="s">
+        <v>704</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
     </row>
     <row r="62" ht="135" spans="3:8">
-      <c r="C62" s="19"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="12" t="s">
-        <v>666</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>667</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>668</v>
-      </c>
-      <c r="H62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="19"/>
+      <c r="E62" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="H62" s="3"/>
     </row>
     <row r="63" ht="175.5" spans="3:8">
-      <c r="C63" s="19"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>670</v>
-      </c>
-      <c r="G63" s="12" t="s">
-        <v>671</v>
-      </c>
-      <c r="H63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="H63" s="3"/>
     </row>
     <row r="64" ht="71" customHeight="1" spans="3:8">
-      <c r="C64" s="19"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="11" t="s">
-        <v>672</v>
-      </c>
-      <c r="F64" s="12" t="s">
-        <v>673</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="3"/>
     </row>
     <row r="65" ht="114" customHeight="1" spans="3:8">
-      <c r="C65" s="19"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="28" t="s">
-        <v>674</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="H65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="19"/>
+      <c r="E65" s="20" t="s">
+        <v>714</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="H65" s="3"/>
     </row>
     <row r="66" ht="106" customHeight="1" spans="3:8">
-      <c r="C66" s="19"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="29" t="s">
-        <v>677</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>678</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>679</v>
-      </c>
-      <c r="H66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="21" t="s">
+        <v>717</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="H66" s="3"/>
     </row>
     <row r="67" ht="77" customHeight="1" spans="3:8">
-      <c r="C67" s="19"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="15" t="s">
-        <v>680</v>
-      </c>
-      <c r="G67" s="11" t="s">
-        <v>681</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>682</v>
+      <c r="C67" s="11"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="68" ht="100" customHeight="1" spans="3:8">
-      <c r="C68" s="19"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="12" t="s">
-        <v>683</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>684</v>
+      <c r="C68" s="11"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="69" ht="54" customHeight="1" spans="3:8">
-      <c r="C69" s="19"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="11" t="s">
+      <c r="C69" s="11"/>
+      <c r="D69" s="19"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="G69" s="12" t="s">
-        <v>685</v>
-      </c>
-      <c r="H69" s="11"/>
+      <c r="G69" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="H69" s="3"/>
     </row>
     <row r="70" spans="3:8">
-      <c r="C70" s="19"/>
-      <c r="D70" s="19" t="s">
-        <v>686</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
     </row>
     <row r="71" spans="3:8">
-      <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
     </row>
     <row r="72" ht="23" customHeight="1" spans="3:8">
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>690</v>
-      </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3"/>
     </row>
     <row r="73" ht="70" customHeight="1"/>
     <row r="74" ht="93" customHeight="1"/>
     <row r="75" ht="20" customHeight="1" spans="3:8">
-      <c r="C75" s="19" t="s">
-        <v>691</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>693</v>
-      </c>
-      <c r="F75" s="15" t="s">
-        <v>694</v>
-      </c>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
+      <c r="C75" s="11" t="s">
+        <v>731</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>732</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="F75" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="3"/>
     </row>
     <row r="76" spans="3:8">
-      <c r="C76" s="19"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="11" t="s">
-        <v>695</v>
-      </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
     </row>
     <row r="77" spans="3:8">
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="11" t="s">
-        <v>696</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
     </row>
     <row r="78" ht="27" spans="3:8">
-      <c r="C78" s="19"/>
-      <c r="D78" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="F78" s="11" t="s">
-        <v>699</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>700</v>
-      </c>
-      <c r="H78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>738</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="H78" s="3"/>
     </row>
     <row r="79" spans="3:8">
-      <c r="C79" s="19"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="11" t="s">
-        <v>701</v>
-      </c>
-      <c r="F79" s="11" t="s">
-        <v>702</v>
-      </c>
-      <c r="G79" s="30"/>
-      <c r="H79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="G79" s="22"/>
+      <c r="H79" s="3"/>
     </row>
     <row r="80" spans="3:8">
-      <c r="C80" s="19"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="11" t="s">
-        <v>703</v>
-      </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="3"/>
     </row>
     <row r="81" ht="44" customHeight="1" spans="3:8">
-      <c r="C81" s="19"/>
-      <c r="D81" s="31" t="s">
-        <v>704</v>
-      </c>
-      <c r="E81" s="11" t="s">
-        <v>704</v>
-      </c>
-      <c r="F81" s="11" t="s">
-        <v>705</v>
-      </c>
-      <c r="G81" s="30"/>
-      <c r="H81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="23" t="s">
+        <v>744</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="G81" s="22"/>
+      <c r="H81" s="3"/>
     </row>
     <row r="82" ht="44" customHeight="1" spans="3:8">
-      <c r="C82" s="19"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="11" t="s">
-        <v>706</v>
-      </c>
-      <c r="F82" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="G82" s="17" t="s">
-        <v>708</v>
-      </c>
-      <c r="H82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>748</v>
+      </c>
+      <c r="H82" s="3"/>
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:8">
-      <c r="C83" s="19"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="12" t="s">
-        <v>709</v>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12" t="s">
-        <v>710</v>
-      </c>
-      <c r="H83" s="30" t="s">
-        <v>711</v>
+      <c r="C83" s="11"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="4" t="s">
+        <v>749</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="H83" s="22" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="84" ht="59" customHeight="1" spans="3:8">
-      <c r="C84" s="19"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="12" t="s">
-        <v>712</v>
-      </c>
-      <c r="F84" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="G84" s="12" t="s">
-        <v>714</v>
-      </c>
-      <c r="H84" s="30" t="s">
-        <v>715</v>
+      <c r="C84" s="11"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="H84" s="22" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="85" ht="74" customHeight="1" spans="3:8">
-      <c r="C85" s="19"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="11" t="s">
-        <v>716</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>718</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>719</v>
+      <c r="C85" s="11"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="86" ht="74" customHeight="1" spans="3:8">
-      <c r="C86" s="19"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="11" t="s">
-        <v>720</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="H86" s="12"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="H86" s="4"/>
     </row>
     <row r="87" ht="49" customHeight="1" spans="3:8">
-      <c r="C87" s="19"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>725</v>
-      </c>
-      <c r="H87" s="12"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>765</v>
+      </c>
+      <c r="H87" s="4"/>
     </row>
     <row r="88" ht="49" customHeight="1" spans="3:8">
-      <c r="C88" s="19"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>728</v>
-      </c>
-      <c r="H88" s="12"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="H88" s="4"/>
     </row>
     <row r="89" ht="67" customHeight="1" spans="3:8">
-      <c r="C89" s="19"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="11" t="s">
-        <v>729</v>
-      </c>
-      <c r="F89" s="11" t="s">
-        <v>730</v>
-      </c>
-      <c r="G89" s="12"/>
-      <c r="H89" s="33" t="s">
-        <v>731</v>
+      <c r="C89" s="11"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="G89" s="4"/>
+      <c r="H89" s="25" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="90" ht="120" customHeight="1" spans="3:8">
-      <c r="C90" s="19"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="11" t="s">
-        <v>732</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="G90" s="34" t="s">
-        <v>734</v>
-      </c>
-      <c r="H90" s="34"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>773</v>
+      </c>
+      <c r="G90" s="26" t="s">
+        <v>774</v>
+      </c>
+      <c r="H90" s="26"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="3:8">
-      <c r="C91" s="19"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="11" t="s">
-        <v>735</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>737</v>
-      </c>
-      <c r="H91" s="34"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>776</v>
+      </c>
+      <c r="G91" s="26" t="s">
+        <v>777</v>
+      </c>
+      <c r="H91" s="26"/>
     </row>
     <row r="92" ht="126" customHeight="1" spans="3:8">
-      <c r="C92" s="19"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="11" t="s">
-        <v>738</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="H92" s="12"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="H92" s="4"/>
     </row>
     <row r="93" customFormat="1" ht="108" spans="3:8">
-      <c r="C93" s="19"/>
-      <c r="D93" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>743</v>
-      </c>
-      <c r="G93" s="11" t="s">
+      <c r="C93" s="11"/>
+      <c r="D93" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>782</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="H93" s="12"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94" ht="23" customHeight="1" spans="3:8">
-      <c r="C94" s="19"/>
-      <c r="D94" s="13" t="s">
-        <v>744</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="12"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F94" s="3"/>
+      <c r="G94" s="3"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95" ht="67.5" spans="3:8">
-      <c r="C95" s="19"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="35" t="s">
-        <v>746</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12" t="s">
-        <v>748</v>
+      <c r="C95" s="11"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="27" t="s">
+        <v>786</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="96" ht="67" customHeight="1" spans="3:8">
-      <c r="C96" s="19"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="18" t="s">
-        <v>749</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>751</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>752</v>
+      <c r="C96" s="11"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="97" ht="26" customHeight="1" spans="3:8">
-      <c r="C97" s="19"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="36" t="s">
-        <v>753</v>
-      </c>
-      <c r="F97" s="36" t="s">
-        <v>754</v>
-      </c>
-      <c r="G97" s="36"/>
-      <c r="H97" s="33"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="F97" s="28" t="s">
+        <v>794</v>
+      </c>
+      <c r="G97" s="28"/>
+      <c r="H97" s="25"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="3:9">
-      <c r="C98" s="19"/>
-      <c r="D98" s="25" t="s">
-        <v>755</v>
-      </c>
-      <c r="E98" s="25" t="s">
-        <v>756</v>
-      </c>
-      <c r="F98" s="24" t="s">
-        <v>757</v>
-      </c>
-      <c r="G98" s="22" t="s">
-        <v>758</v>
-      </c>
-      <c r="H98" s="24" t="s">
-        <v>759</v>
-      </c>
-      <c r="I98" s="3"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="E98" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>797</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>799</v>
+      </c>
+      <c r="I98" s="32"/>
     </row>
     <row r="99" spans="3:9">
-      <c r="C99" s="19"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25" t="s">
-        <v>760</v>
-      </c>
-      <c r="F99" s="25" t="s">
-        <v>761</v>
-      </c>
-      <c r="G99" s="22" t="s">
-        <v>762</v>
-      </c>
-      <c r="H99" s="24"/>
-      <c r="I99" s="3"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="G99" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="H99" s="16"/>
+      <c r="I99" s="32"/>
     </row>
     <row r="100" spans="3:9">
-      <c r="C100" s="19"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="22" t="s">
-        <v>763</v>
-      </c>
-      <c r="H100" s="24"/>
-      <c r="I100" s="3"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="H100" s="16"/>
+      <c r="I100" s="32"/>
     </row>
     <row r="101" spans="3:9">
-      <c r="C101" s="19"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="25"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="22" t="s">
-        <v>764</v>
-      </c>
-      <c r="H101" s="24"/>
-      <c r="I101" s="3"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="H101" s="16"/>
+      <c r="I101" s="32"/>
     </row>
     <row r="102" spans="3:9">
-      <c r="C102" s="19"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="22" t="s">
-        <v>765</v>
-      </c>
-      <c r="H102" s="24"/>
-      <c r="I102" s="3"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="H102" s="16"/>
+      <c r="I102" s="32"/>
     </row>
     <row r="103" ht="27" spans="3:9">
-      <c r="C103" s="19"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25" t="s">
-        <v>766</v>
-      </c>
-      <c r="F103" s="25" t="s">
-        <v>767</v>
-      </c>
-      <c r="G103" s="24" t="s">
-        <v>768</v>
-      </c>
-      <c r="H103" s="24"/>
-      <c r="I103" s="3"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="F103" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="G103" s="16" t="s">
+        <v>808</v>
+      </c>
+      <c r="H103" s="16"/>
+      <c r="I103" s="32"/>
     </row>
     <row r="104" ht="39" customHeight="1" spans="3:9">
-      <c r="C104" s="19"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="24" t="s">
-        <v>769</v>
-      </c>
-      <c r="H104" s="24"/>
-      <c r="I104" s="3"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="16" t="s">
+        <v>809</v>
+      </c>
+      <c r="H104" s="16"/>
+      <c r="I104" s="32"/>
     </row>
     <row r="105" ht="77" customHeight="1" spans="3:9">
-      <c r="C105" s="19"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="22" t="s">
-        <v>770</v>
-      </c>
-      <c r="F105" s="24"/>
-      <c r="G105" s="24" t="s">
-        <v>771</v>
-      </c>
-      <c r="H105" s="24" t="s">
-        <v>772</v>
-      </c>
-      <c r="I105" s="40" t="s">
-        <v>773</v>
+      <c r="C105" s="11"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16" t="s">
+        <v>811</v>
+      </c>
+      <c r="H105" s="16" t="s">
+        <v>812</v>
+      </c>
+      <c r="I105" s="33" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="106" ht="100" customHeight="1" spans="3:9">
-      <c r="C106" s="19"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="24" t="s">
-        <v>774</v>
-      </c>
-      <c r="F106" s="24" t="s">
-        <v>775</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="H106" s="24" t="s">
-        <v>777</v>
-      </c>
-      <c r="I106" s="41"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="16" t="s">
+        <v>814</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="G106" s="16" t="s">
+        <v>816</v>
+      </c>
+      <c r="H106" s="16" t="s">
+        <v>817</v>
+      </c>
+      <c r="I106" s="34"/>
     </row>
     <row r="107" ht="67.5" spans="4:8">
-      <c r="D107" s="37" t="s">
-        <v>778</v>
-      </c>
-      <c r="E107" s="34" t="s">
-        <v>779</v>
-      </c>
-      <c r="F107" s="34" t="s">
-        <v>780</v>
-      </c>
-      <c r="G107" s="34"/>
-      <c r="H107" s="34"/>
+      <c r="D107" s="29" t="s">
+        <v>818</v>
+      </c>
+      <c r="E107" s="26" t="s">
+        <v>819</v>
+      </c>
+      <c r="F107" s="26" t="s">
+        <v>820</v>
+      </c>
+      <c r="G107" s="26"/>
+      <c r="H107" s="26"/>
     </row>
     <row r="108" ht="54" spans="4:8">
-      <c r="D108" s="15"/>
-      <c r="E108" s="12" t="s">
-        <v>781</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>782</v>
-      </c>
-      <c r="G108" s="12" t="s">
-        <v>783</v>
-      </c>
-      <c r="H108" s="12"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>822</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>823</v>
+      </c>
+      <c r="H108" s="4"/>
     </row>
     <row r="109" ht="231" customHeight="1" spans="4:8">
-      <c r="D109" s="11" t="s">
-        <v>784</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>785</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>786</v>
-      </c>
-      <c r="G109" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="H109" s="11"/>
+      <c r="D109" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>826</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="H109" s="3"/>
     </row>
     <row r="114" ht="27" spans="4:8">
-      <c r="D114" s="15" t="s">
-        <v>788</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>789</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>790</v>
-      </c>
-      <c r="G114" s="12" t="s">
-        <v>791</v>
-      </c>
-      <c r="H114" s="11"/>
+      <c r="D114" s="7" t="s">
+        <v>828</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>831</v>
+      </c>
+      <c r="H114" s="3"/>
     </row>
     <row r="115" ht="33" customHeight="1" spans="4:8">
-      <c r="D115" s="15"/>
-      <c r="E115" s="12" t="s">
-        <v>792</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>793</v>
-      </c>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="4" t="s">
+        <v>832</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>833</v>
+      </c>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3"/>
     </row>
     <row r="116" ht="171" customHeight="1" spans="4:8">
-      <c r="D116" s="15"/>
-      <c r="E116" s="15" t="s">
-        <v>794</v>
-      </c>
-      <c r="F116" s="38" t="s">
-        <v>795</v>
-      </c>
-      <c r="G116" s="12" t="s">
-        <v>796</v>
-      </c>
-      <c r="H116" s="11"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7" t="s">
+        <v>834</v>
+      </c>
+      <c r="F116" s="30" t="s">
+        <v>835</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>836</v>
+      </c>
+      <c r="H116" s="3"/>
     </row>
     <row r="117" ht="129" customHeight="1" spans="4:8">
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="38" t="s">
-        <v>797</v>
-      </c>
-      <c r="G117" s="11" t="s">
-        <v>798</v>
-      </c>
-      <c r="H117" s="11"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="30" t="s">
+        <v>837</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="H117" s="3"/>
     </row>
     <row r="118" ht="27" spans="4:8">
-      <c r="D118" s="15"/>
-      <c r="E118" s="15" t="s">
-        <v>799</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>574</v>
-      </c>
-      <c r="G118" s="12" t="s">
-        <v>800</v>
-      </c>
-      <c r="H118" s="11"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>840</v>
+      </c>
+      <c r="H118" s="3"/>
     </row>
     <row r="119" ht="94.5" spans="4:8">
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="11" t="s">
-        <v>801</v>
-      </c>
-      <c r="G119" s="12" t="s">
-        <v>802</v>
-      </c>
-      <c r="H119" s="12" t="s">
-        <v>803</v>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>842</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1" spans="4:8">
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="11" t="s">
-        <v>804</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>805</v>
-      </c>
-      <c r="H120" s="11"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="H120" s="3"/>
     </row>
     <row r="121" ht="38" customHeight="1"/>
     <row r="122" spans="3:5">
       <c r="C122" t="s">
-        <v>788</v>
-      </c>
-      <c r="E122" s="39"/>
+        <v>828</v>
+      </c>
+      <c r="E122" s="31"/>
     </row>
     <row r="123" spans="4:5">
-      <c r="D123" s="39"/>
-      <c r="E123" s="39"/>
+      <c r="D123" s="31"/>
+      <c r="E123" s="31"/>
     </row>
     <row r="124" ht="40.5" spans="4:6">
-      <c r="D124" s="31" t="s">
-        <v>806</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>574</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>807</v>
+      <c r="D124" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="125" spans="4:6">
-      <c r="D125" s="37"/>
-      <c r="E125" s="11" t="s">
-        <v>808</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>809</v>
+      <c r="D125" s="29"/>
+      <c r="E125" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -8795,229 +9277,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="B8:G23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="23.2389380530973" customWidth="1"/>
-    <col min="2" max="2" width="12.0265486725664" customWidth="1"/>
-    <col min="4" max="4" width="22.1504424778761" customWidth="1"/>
-    <col min="5" max="5" width="37.7699115044248" customWidth="1"/>
-    <col min="6" max="6" width="31.7964601769912" customWidth="1"/>
-    <col min="7" max="7" width="32.2477876106195" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="8" ht="40.5" spans="2:7">
-      <c r="B8" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>812</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>813</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="40.5" spans="2:7">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="3" t="s">
-        <v>814</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" ht="27" spans="2:7">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3" t="s">
-        <v>816</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3" t="s">
-        <v>818</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>819</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>821</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>823</v>
-      </c>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" ht="74" customHeight="1" spans="2:7">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3" t="s">
-        <v>824</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>827</v>
-      </c>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
-        <v>828</v>
-      </c>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
-        <v>829</v>
-      </c>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="8" t="s">
-        <v>830</v>
-      </c>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
-        <v>834</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
-        <v>835</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3" t="s">
-        <v>836</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B8:B23"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="G14:G19"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D15:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -9027,29 +9293,29 @@
   <sheetData>
     <row r="15" spans="4:4">
       <c r="D15" s="1" t="s">
-        <v>837</v>
+        <v>850</v>
       </c>
     </row>
     <row r="17" spans="6:10">
       <c r="F17" t="s">
-        <v>838</v>
+        <v>851</v>
       </c>
       <c r="G17" t="s">
-        <v>839</v>
+        <v>852</v>
       </c>
       <c r="H17" t="s">
-        <v>840</v>
+        <v>853</v>
       </c>
       <c r="I17" t="s">
-        <v>841</v>
+        <v>854</v>
       </c>
       <c r="J17" t="s">
-        <v>842</v>
+        <v>855</v>
       </c>
     </row>
     <row r="18" spans="9:9">
       <c r="I18" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
     </row>
   </sheetData>
@@ -9091,78 +9357,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="165" t="s">
+      <c r="B5" s="177" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="139" t="s">
+      <c r="E5" s="151" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="165"/>
-      <c r="C6" s="22" t="s">
+      <c r="B6" s="177"/>
+      <c r="C6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="16" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="179" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="168" t="s">
+      <c r="D7" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="180" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="166"/>
-      <c r="C8" s="167" t="s">
+      <c r="B8" s="178"/>
+      <c r="C8" s="179" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="167" t="s">
+      <c r="D8" s="179" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="168" t="s">
+      <c r="E8" s="180" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="166"/>
-      <c r="C9" s="167" t="s">
+      <c r="B9" s="178"/>
+      <c r="C9" s="179" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="167" t="s">
+      <c r="D9" s="179" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="168" t="s">
+      <c r="E9" s="180" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="166"/>
-      <c r="C10" s="167" t="s">
+      <c r="B10" s="178"/>
+      <c r="C10" s="179" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="167" t="s">
+      <c r="D10" s="179" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="168" t="s">
+      <c r="E10" s="180" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9198,242 +9464,242 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="154" t="s">
+      <c r="B1" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="155" t="s">
+      <c r="D1" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="156" t="s">
+      <c r="E1" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="156" t="s">
+      <c r="F1" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="155" t="s">
+      <c r="G1" s="167" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="156" t="s">
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="168" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="167" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="157"/>
-      <c r="F3" s="155" t="s">
+      <c r="E3" s="169"/>
+      <c r="F3" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="155" t="s">
+      <c r="G3" s="167" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="154"/>
-      <c r="C4" s="154"/>
-      <c r="D4" s="157" t="s">
+      <c r="B4" s="166"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="157"/>
-      <c r="F4" s="158" t="s">
+      <c r="E4" s="169"/>
+      <c r="F4" s="170" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="168" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="154"/>
-      <c r="C5" s="154"/>
-      <c r="D5" s="155" t="s">
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="167" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="160" t="s">
+      <c r="F5" s="172" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="155" t="s">
+      <c r="G5" s="167" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="154"/>
-      <c r="C6" s="154"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="156" t="s">
+      <c r="B6" s="166"/>
+      <c r="C6" s="166"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="171"/>
+      <c r="F6" s="168" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="155"/>
+      <c r="G6" s="167"/>
     </row>
     <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="161" t="s">
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="158" t="s">
+      <c r="F7" s="170" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="156" t="s">
+      <c r="G7" s="168" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="154"/>
-      <c r="C8" s="154" t="s">
+      <c r="B8" s="166"/>
+      <c r="C8" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="154"/>
-      <c r="E8" s="162" t="s">
+      <c r="D8" s="166"/>
+      <c r="E8" s="174" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="162"/>
-      <c r="G8" s="162"/>
-      <c r="H8" s="163" t="s">
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="175" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="164"/>
+      <c r="I8" s="176"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="154"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="162" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
+      <c r="D9" s="166"/>
+      <c r="E9" s="174" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="154"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="154"/>
-      <c r="E10" s="162" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="166"/>
+      <c r="D10" s="166"/>
+      <c r="E10" s="174" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="162"/>
-      <c r="G10" s="162"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="154"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="162" t="s">
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="174" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="154"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="154"/>
-      <c r="E12" s="162" t="s">
+      <c r="B12" s="166"/>
+      <c r="C12" s="166"/>
+      <c r="D12" s="166"/>
+      <c r="E12" s="174" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="162"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="176"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="154"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="154"/>
-      <c r="E13" s="162" t="s">
+      <c r="B13" s="166"/>
+      <c r="C13" s="166"/>
+      <c r="D13" s="166"/>
+      <c r="E13" s="174" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="176"/>
+      <c r="I13" s="176"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="154"/>
-      <c r="C14" s="154" t="s">
+      <c r="B14" s="166"/>
+      <c r="C14" s="166" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="154" t="s">
+      <c r="D14" s="166" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="162" t="s">
+      <c r="E14" s="174" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="155" t="s">
+      <c r="F14" s="167" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="162"/>
+      <c r="G14" s="174"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="154"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="154"/>
-      <c r="E15" s="162" t="s">
+      <c r="B15" s="166"/>
+      <c r="C15" s="166"/>
+      <c r="D15" s="166"/>
+      <c r="E15" s="174" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="157"/>
-      <c r="G15" s="162"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="174"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="154"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="154" t="s">
+      <c r="B16" s="166"/>
+      <c r="C16" s="166"/>
+      <c r="D16" s="166" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="162" t="s">
+      <c r="E16" s="174" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="157"/>
-      <c r="G16" s="162"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="174"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="154"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="162" t="s">
+      <c r="B17" s="166"/>
+      <c r="C17" s="166"/>
+      <c r="D17" s="166"/>
+      <c r="E17" s="174" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="157"/>
-      <c r="G17" s="162"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="174"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="154"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="162" t="s">
+      <c r="B18" s="166"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="174" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="157"/>
-      <c r="G18" s="162"/>
+      <c r="F18" s="169"/>
+      <c r="G18" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9478,378 +9744,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
+      <c r="B1" s="148"/>
+      <c r="C1" s="148"/>
+      <c r="D1" s="148"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="137" t="s">
+      <c r="A2" s="149" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="150" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="137"/>
-      <c r="B3" s="138" t="s">
+      <c r="A3" s="149"/>
+      <c r="B3" s="150" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="139" t="s">
+      <c r="C3" s="151" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="138"/>
+      <c r="D3" s="150"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="137"/>
-      <c r="B4" s="138" t="s">
+      <c r="A4" s="149"/>
+      <c r="B4" s="150" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="150" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="138"/>
+      <c r="D4" s="150"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="137"/>
-      <c r="B5" s="138" t="s">
+      <c r="A5" s="149"/>
+      <c r="B5" s="150" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="139" t="s">
+      <c r="C5" s="151" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="138"/>
+      <c r="D5" s="150"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="137"/>
-      <c r="B6" s="138" t="s">
+      <c r="A6" s="149"/>
+      <c r="B6" s="150" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="151" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="138"/>
+      <c r="D6" s="150"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="137"/>
-      <c r="B7" s="137" t="s">
+      <c r="A7" s="149"/>
+      <c r="B7" s="149" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="139" t="s">
+      <c r="C7" s="151" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="138"/>
+      <c r="D7" s="150"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="137"/>
-      <c r="B8" s="137" t="s">
+      <c r="A8" s="149"/>
+      <c r="B8" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="139" t="s">
+      <c r="C8" s="151" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="138"/>
+      <c r="D8" s="150"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="137"/>
-      <c r="B9" s="137" t="s">
+      <c r="A9" s="149"/>
+      <c r="B9" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="C9" s="151" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="139" t="s">
+      <c r="D9" s="151" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="137"/>
-      <c r="B10" s="138" t="s">
+      <c r="A10" s="149"/>
+      <c r="B10" s="150" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="139" t="s">
+      <c r="C10" s="151" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="138"/>
+      <c r="D10" s="150"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="137"/>
-      <c r="B11" s="138" t="s">
+      <c r="A11" s="149"/>
+      <c r="B11" s="150" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="139" t="s">
+      <c r="C11" s="151" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="138"/>
+      <c r="D11" s="150"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="152" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="152" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="141" t="s">
+      <c r="D12" s="153" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="142"/>
-      <c r="B13" s="142"/>
-      <c r="C13" s="141" t="s">
+      <c r="A13" s="154"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="153" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="153" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="142"/>
-      <c r="B14" s="143"/>
-      <c r="C14" s="141" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="141" t="s">
+      <c r="D14" s="153" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="142"/>
-      <c r="B15" s="140" t="s">
+      <c r="A15" s="154"/>
+      <c r="B15" s="152" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="144"/>
+      <c r="D15" s="156"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="142"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="141" t="s">
+      <c r="A16" s="154"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="D16" s="156" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="142"/>
-      <c r="B17" s="142"/>
-      <c r="C17" s="141" t="s">
+      <c r="A17" s="154"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="153" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="141" t="s">
+      <c r="D17" s="153" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="142"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="141" t="s">
+      <c r="A18" s="154"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="153" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="141" t="s">
+      <c r="D18" s="153" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="142"/>
-      <c r="B19" s="143"/>
-      <c r="C19" s="141" t="s">
+      <c r="A19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="153" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="141" t="s">
+      <c r="D19" s="153" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="142"/>
-      <c r="B20" s="140" t="s">
+      <c r="A20" s="154"/>
+      <c r="B20" s="152" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="141" t="s">
+      <c r="C20" s="153" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="141" t="s">
+      <c r="D20" s="153" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="143"/>
-      <c r="B21" s="143"/>
-      <c r="C21" s="141" t="s">
+      <c r="A21" s="155"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="153" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="141" t="s">
+      <c r="D21" s="153" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="145" t="s">
+      <c r="A22" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="158" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="147" t="s">
+      <c r="C22" s="159" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="147" t="s">
+      <c r="D22" s="159" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="148"/>
-      <c r="B23" s="146" t="s">
+      <c r="A23" s="160"/>
+      <c r="B23" s="158" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="147" t="s">
+      <c r="C23" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="147" t="s">
+      <c r="D23" s="159" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="148"/>
-      <c r="B24" s="146" t="s">
+      <c r="A24" s="160"/>
+      <c r="B24" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="147" t="s">
+      <c r="C24" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="147" t="s">
+      <c r="D24" s="159" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="148"/>
-      <c r="B25" s="146" t="s">
+      <c r="A25" s="160"/>
+      <c r="B25" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="147" t="s">
+      <c r="C25" s="159" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="147"/>
+      <c r="D25" s="159"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="148"/>
-      <c r="B26" s="146" t="s">
+      <c r="A26" s="160"/>
+      <c r="B26" s="158" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="147" t="s">
+      <c r="C26" s="159" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="147" t="s">
+      <c r="D26" s="159" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="148"/>
-      <c r="B27" s="146" t="s">
+      <c r="A27" s="160"/>
+      <c r="B27" s="158" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="161" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="147" t="s">
+      <c r="D27" s="159" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="148"/>
-      <c r="B28" s="146" t="s">
+      <c r="A28" s="160"/>
+      <c r="B28" s="158" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="147" t="s">
+      <c r="C28" s="159" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="147" t="s">
+      <c r="D28" s="159" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="148"/>
-      <c r="B29" s="146" t="s">
+      <c r="A29" s="160"/>
+      <c r="B29" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="147" t="s">
+      <c r="C29" s="159" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="147" t="s">
+      <c r="D29" s="159" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="150"/>
-      <c r="B30" s="146" t="s">
+      <c r="A30" s="162"/>
+      <c r="B30" s="158" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="149" t="s">
+      <c r="C30" s="161" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="147" t="s">
+      <c r="D30" s="159" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="151" t="s">
+      <c r="A32" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="120" t="s">
+      <c r="B32" s="132" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="132" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="152" t="s">
+      <c r="A34" s="164" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="120" t="s">
+      <c r="B34" s="132" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="120" t="s">
+      <c r="C34" s="132" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="3"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="32"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="153"/>
-      <c r="B35" s="120" t="s">
+      <c r="A35" s="165"/>
+      <c r="B35" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="120" t="s">
+      <c r="C35" s="132" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="39"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="31"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="151" t="s">
+      <c r="A36" s="163" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="144" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="132"/>
-      <c r="D36" s="151" t="s">
+      <c r="C36" s="144"/>
+      <c r="D36" s="163" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="39"/>
+      <c r="E36" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -9886,60 +10152,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="123" t="s">
+      <c r="D9" s="135" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="144" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="132" t="s">
+      <c r="F9" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="133" t="s">
+      <c r="G9" s="145" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="123"/>
-      <c r="E10" s="132" t="s">
+      <c r="D10" s="135"/>
+      <c r="E10" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="132" t="s">
+      <c r="F10" s="144" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="132" t="s">
+      <c r="G10" s="144" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="123"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="134" t="s">
+      <c r="D11" s="135"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="146" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="123"/>
-      <c r="E12" s="134" t="s">
+      <c r="D12" s="135"/>
+      <c r="E12" s="146" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="123" t="s">
+      <c r="F12" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="120" t="s">
+      <c r="G12" s="132" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="123"/>
-      <c r="E13" s="132" t="s">
+      <c r="D13" s="135"/>
+      <c r="E13" s="144" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="123" t="s">
+      <c r="F13" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="120" t="s">
+      <c r="G13" s="132" t="s">
         <v>189</v>
       </c>
     </row>
@@ -9975,134 +10241,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="120"/>
-      <c r="F7" s="121" t="s">
+      <c r="E7" s="132"/>
+      <c r="F7" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="120" t="s">
+      <c r="G7" s="132" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="120" t="s">
+      <c r="H7" s="132" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="120"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="120" t="s">
+      <c r="E8" s="132"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="132" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="120" t="s">
+      <c r="H8" s="132" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="123" t="s">
+      <c r="E9" s="135" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="121" t="s">
+      <c r="F9" s="133" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="120" t="s">
+      <c r="G9" s="132" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="120" t="s">
+      <c r="H9" s="132" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="123"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="124" t="s">
+      <c r="E10" s="135"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="125" t="s">
+      <c r="H10" s="137" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="127" t="s">
+      <c r="I10" s="139" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="126"/>
-      <c r="F11" s="127" t="s">
+      <c r="E11" s="138"/>
+      <c r="F11" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="124" t="s">
+      <c r="G11" s="136" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="125" t="s">
+      <c r="H11" s="137" t="s">
         <v>203</v>
       </c>
-      <c r="I11" s="130"/>
+      <c r="I11" s="142"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="126"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="121" t="s">
+      <c r="E12" s="138"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="133" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="125" t="s">
+      <c r="H12" s="137" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="126"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="129" t="s">
+      <c r="E13" s="138"/>
+      <c r="F13" s="140"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="141" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="126"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="120" t="s">
+      <c r="E14" s="138"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="132" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="126"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="125" t="s">
+      <c r="E15" s="138"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="137" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="126"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="120" t="s">
+      <c r="E16" s="138"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="143"/>
+      <c r="H16" s="132" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="126"/>
-      <c r="F17" s="123" t="s">
+      <c r="E17" s="138"/>
+      <c r="F17" s="135" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="123" t="s">
+      <c r="G17" s="135" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="120" t="s">
+      <c r="H17" s="132" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="126"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="120" t="s">
+      <c r="E18" s="138"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="135"/>
+      <c r="H18" s="132" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="126"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="120" t="s">
+      <c r="E19" s="138"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="135"/>
+      <c r="H19" s="132" t="s">
         <v>214</v>
       </c>
     </row>
@@ -10141,581 +10407,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="101" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="C1" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="91"/>
+      <c r="E1" s="103"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="101" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="92"/>
+      <c r="E2" s="104"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="105" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="90" t="s">
+      <c r="D3" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="92"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89" t="s">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="106" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="102" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="92"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="88"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="94" t="s">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="90" t="s">
+      <c r="D5" s="102" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="92"/>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="94" t="s">
+      <c r="A6" s="100"/>
+      <c r="B6" s="101"/>
+      <c r="C6" s="106" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="102" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="92"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="88"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="94" t="s">
+      <c r="A7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="106" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="90" t="s">
+      <c r="E7" s="102" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="88"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="96" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="101"/>
+      <c r="C8" s="108" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="102" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="90" t="s">
+      <c r="E8" s="102" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="88"/>
-      <c r="B9" s="89" t="s">
+      <c r="A9" s="100"/>
+      <c r="B9" s="101" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="108" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="90"/>
+      <c r="E9" s="102"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="88"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="96" t="s">
+      <c r="A10" s="100"/>
+      <c r="B10" s="101"/>
+      <c r="C10" s="108" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="95" t="s">
+      <c r="D10" s="107" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="90"/>
+      <c r="E10" s="102"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="88"/>
-      <c r="B11" s="89" t="s">
+      <c r="A11" s="100"/>
+      <c r="B11" s="101" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="108" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="90"/>
+      <c r="E11" s="102"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="88"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="96" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="108" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="95" t="s">
+      <c r="D12" s="107" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="90"/>
+      <c r="E12" s="102"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="88"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="96" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="108" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="102" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="90"/>
+      <c r="E13" s="102"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="88"/>
-      <c r="B14" s="89" t="s">
+      <c r="A14" s="100"/>
+      <c r="B14" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="108" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="90"/>
+      <c r="E14" s="102"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="88"/>
-      <c r="B15" s="97" t="s">
+      <c r="A15" s="100"/>
+      <c r="B15" s="109" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="96" t="s">
+      <c r="C15" s="108" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="90" t="s">
+      <c r="D15" s="102" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="90" t="s">
+      <c r="E15" s="102" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="88"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="96" t="s">
+      <c r="A16" s="100"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="108" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="95" t="s">
+      <c r="D16" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="102" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="88"/>
-      <c r="B17" s="89" t="s">
+      <c r="A17" s="100"/>
+      <c r="B17" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="99" t="s">
+      <c r="C17" s="111" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="102" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="102" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="88"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="90" t="s">
+      <c r="A18" s="100"/>
+      <c r="B18" s="101"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="102" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="102" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="112" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="101" t="s">
+      <c r="B19" s="113" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="90" t="s">
+      <c r="C19" s="102" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="104" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="102"/>
+      <c r="E19" s="114"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="100"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="90" t="s">
+      <c r="A20" s="112"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="104" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="116" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="100"/>
-      <c r="B21" s="105" t="s">
+      <c r="A21" s="112"/>
+      <c r="B21" s="117" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="116" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="102" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="106"/>
+      <c r="E21" s="118"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="100"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="90" t="s">
+      <c r="A22" s="112"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="102" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="98"/>
+      <c r="E22" s="110"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="B23" s="109" t="s">
+      <c r="B23" s="121" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D23" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="88"/>
+      <c r="E23" s="100"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="90" t="s">
+      <c r="A24" s="122"/>
+      <c r="B24" s="123"/>
+      <c r="C24" s="102" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="88"/>
+      <c r="E24" s="100"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="110"/>
-      <c r="B25" s="112" t="s">
+      <c r="A25" s="122"/>
+      <c r="B25" s="124" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D25" s="111" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="88"/>
+      <c r="E25" s="100"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="110"/>
-      <c r="B26" s="112" t="s">
+      <c r="A26" s="122"/>
+      <c r="B26" s="124" t="s">
         <v>285</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="102" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="99" t="s">
+      <c r="D26" s="111" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="89" t="s">
+      <c r="E26" s="101" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="110"/>
-      <c r="B27" s="109" t="s">
+      <c r="A27" s="122"/>
+      <c r="B27" s="121" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="90" t="s">
+      <c r="C27" s="102" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="99" t="s">
+      <c r="D27" s="111" t="s">
         <v>291</v>
       </c>
-      <c r="E27" s="88"/>
+      <c r="E27" s="100"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="110"/>
-      <c r="B28" s="111"/>
-      <c r="C28" s="90" t="s">
+      <c r="A28" s="122"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="102" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="99" t="s">
+      <c r="D28" s="111" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="88"/>
+      <c r="E28" s="100"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="110"/>
-      <c r="B29" s="99" t="s">
+      <c r="A29" s="122"/>
+      <c r="B29" s="111" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="99" t="s">
+      <c r="C29" s="111" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="99"/>
-      <c r="E29" s="88"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="100"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="110"/>
-      <c r="B30" s="99" t="s">
+      <c r="A30" s="122"/>
+      <c r="B30" s="111" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="111" t="s">
         <v>297</v>
       </c>
-      <c r="D30" s="99" t="s">
+      <c r="D30" s="111" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="100"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="110"/>
-      <c r="B31" s="89" t="s">
+      <c r="A31" s="122"/>
+      <c r="B31" s="101" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="92" t="s">
+      <c r="C31" s="104" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="111" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="88"/>
+      <c r="E31" s="100"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="110"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="89" t="s">
+      <c r="A32" s="122"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="88"/>
+      <c r="E32" s="100"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="110"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="99" t="s">
+      <c r="A33" s="122"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="111" t="s">
         <v>304</v>
       </c>
-      <c r="E33" s="88"/>
+      <c r="E33" s="100"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="110"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="99" t="s">
+      <c r="A34" s="122"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="111" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="88"/>
+      <c r="E34" s="100"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="110"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="89"/>
-      <c r="D35" s="99" t="s">
+      <c r="A35" s="122"/>
+      <c r="B35" s="101"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="111" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="88"/>
+      <c r="E35" s="100"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="110"/>
-      <c r="B36" s="113" t="s">
+      <c r="A36" s="122"/>
+      <c r="B36" s="125" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="111" t="s">
         <v>308</v>
       </c>
-      <c r="D36" s="114" t="s">
+      <c r="D36" s="126" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="89"/>
+      <c r="E36" s="101"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="110"/>
-      <c r="B37" s="89" t="s">
+      <c r="A37" s="122"/>
+      <c r="B37" s="101" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="104" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="111" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="88"/>
+      <c r="E37" s="100"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="110"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="122"/>
+      <c r="B38" s="61" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="59" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="111" t="s">
         <v>315</v>
       </c>
-      <c r="E38" s="88"/>
+      <c r="E38" s="100"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="110"/>
-      <c r="B39" s="89" t="s">
+      <c r="A39" s="122"/>
+      <c r="B39" s="101" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="92" t="s">
+      <c r="C39" s="104" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="99"/>
-      <c r="E39" s="88"/>
+      <c r="D39" s="111"/>
+      <c r="E39" s="100"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="110"/>
-      <c r="B40" s="99" t="s">
+      <c r="A40" s="122"/>
+      <c r="B40" s="111" t="s">
         <v>318</v>
       </c>
-      <c r="C40" s="90" t="s">
+      <c r="C40" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="111" t="s">
         <v>320</v>
       </c>
-      <c r="E40" s="88"/>
+      <c r="E40" s="100"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="110"/>
-      <c r="B41" s="99" t="s">
+      <c r="A41" s="122"/>
+      <c r="B41" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="90" t="s">
+      <c r="C41" s="102" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="99"/>
-      <c r="E41" s="88"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="100"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="110"/>
-      <c r="B42" s="99" t="s">
+      <c r="A42" s="122"/>
+      <c r="B42" s="111" t="s">
         <v>323</v>
       </c>
-      <c r="C42" s="115" t="s">
+      <c r="C42" s="127" t="s">
         <v>324</v>
       </c>
-      <c r="D42" s="99"/>
-      <c r="E42" s="88"/>
+      <c r="D42" s="111"/>
+      <c r="E42" s="100"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="108" t="s">
+      <c r="A43" s="120" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="116" t="s">
+      <c r="B43" s="128" t="s">
         <v>325</v>
       </c>
-      <c r="C43" s="117"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="88"/>
+      <c r="C43" s="129"/>
+      <c r="D43" s="111"/>
+      <c r="E43" s="100"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="110"/>
-      <c r="B44" s="99" t="s">
+      <c r="A44" s="122"/>
+      <c r="B44" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="118" t="s">
+      <c r="C44" s="130" t="s">
         <v>327</v>
       </c>
-      <c r="D44" s="99" t="s">
+      <c r="D44" s="111" t="s">
         <v>328</v>
       </c>
-      <c r="E44" s="115" t="s">
+      <c r="E44" s="127" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="110"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="99"/>
-      <c r="D45" s="99" t="s">
+      <c r="A45" s="122"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111" t="s">
         <v>330</v>
       </c>
-      <c r="E45" s="94" t="s">
+      <c r="E45" s="106" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="110"/>
-      <c r="B46" s="89" t="s">
+      <c r="A46" s="122"/>
+      <c r="B46" s="101" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="118" t="s">
+      <c r="C46" s="130" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="99" t="s">
+      <c r="D46" s="111" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="115" t="s">
+      <c r="E46" s="127" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="119"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="114" t="s">
+      <c r="A47" s="131"/>
+      <c r="B47" s="101"/>
+      <c r="C47" s="101"/>
+      <c r="D47" s="126" t="s">
         <v>336</v>
       </c>
-      <c r="E47" s="115" t="s">
+      <c r="E47" s="127" t="s">
         <v>337</v>
       </c>
     </row>
@@ -10768,404 +11034,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="90" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="91" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="78"/>
+      <c r="D1" s="90"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="80" t="s">
+      <c r="A2" s="89"/>
+      <c r="B2" s="92" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="93" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="81"/>
+      <c r="D2" s="93"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="77"/>
-      <c r="B3" s="80" t="s">
+      <c r="A3" s="89"/>
+      <c r="B3" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="C3" s="79" t="s">
+      <c r="C3" s="91" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="81"/>
+      <c r="D3" s="93"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="77"/>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="92" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="94" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="81"/>
+      <c r="D4" s="93"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="77"/>
-      <c r="B5" s="80" t="s">
+      <c r="A5" s="89"/>
+      <c r="B5" s="92" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="79" t="s">
+      <c r="C5" s="91" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="81"/>
+      <c r="D5" s="93"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="77"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="89"/>
+      <c r="B6" s="92" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="91" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="83"/>
+      <c r="D6" s="95"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="90" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="92" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="91" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="D7" s="96" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="78"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="79" t="s">
+      <c r="A8" s="90"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="91" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="90" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="78"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="79" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="91" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="92" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="78"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="79" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="91" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="92" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78" t="s">
+      <c r="A11" s="90"/>
+      <c r="B11" s="90" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="79" t="s">
+      <c r="C11" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="78" t="s">
+      <c r="D11" s="90" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="78"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="78" t="s">
+      <c r="A12" s="90"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="90" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="97" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="78"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="86" t="s">
+      <c r="A13" s="90"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="98" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="78"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="86" t="s">
+      <c r="A14" s="90"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="98" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="78"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="85" t="s">
+      <c r="A15" s="90"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="97" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="78"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81" t="s">
+      <c r="A16" s="90"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="93" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="90" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="78"/>
-      <c r="B17" s="80" t="s">
+      <c r="A17" s="90"/>
+      <c r="B17" s="92" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="80" t="s">
+      <c r="C17" s="92" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="83" t="s">
+      <c r="D17" s="95" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="78"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80" t="s">
+      <c r="A18" s="90"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92" t="s">
         <v>330</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="95"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="78"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80" t="s">
+      <c r="A19" s="90"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="95"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="78"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80" t="s">
+      <c r="A20" s="90"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="95"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="78"/>
-      <c r="B21" s="78" t="s">
+      <c r="A21" s="90"/>
+      <c r="B21" s="90" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="81" t="s">
+      <c r="C21" s="93" t="s">
         <v>375</v>
       </c>
-      <c r="D21" s="78" t="s">
+      <c r="D21" s="90" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="90" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="91" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="91" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="78"/>
+      <c r="D22" s="90"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="78"/>
-      <c r="B23" s="78" t="s">
+      <c r="A23" s="90"/>
+      <c r="B23" s="90" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="79" t="s">
+      <c r="C23" s="91" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="79"/>
+      <c r="D23" s="91"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="78"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="79" t="s">
+      <c r="A24" s="90"/>
+      <c r="B24" s="90"/>
+      <c r="C24" s="91" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="91"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="78"/>
-      <c r="B25" s="78" t="s">
+      <c r="A25" s="90"/>
+      <c r="B25" s="90" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="99" t="s">
         <v>384</v>
       </c>
-      <c r="D25" s="87"/>
+      <c r="D25" s="99"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="78"/>
-      <c r="B26" s="78" t="s">
+      <c r="A26" s="90"/>
+      <c r="B26" s="90" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79" t="s">
+      <c r="C26" s="91"/>
+      <c r="D26" s="91" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="78"/>
-      <c r="B27" s="80" t="s">
+      <c r="A27" s="90"/>
+      <c r="B27" s="92" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="82" t="s">
+      <c r="C27" s="94" t="s">
         <v>388</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="91" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="78"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="82" t="s">
+      <c r="A28" s="90"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="94" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="91" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="78"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="82" t="s">
+      <c r="A29" s="90"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="91" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="78"/>
-      <c r="B30" s="78" t="s">
+      <c r="A30" s="90"/>
+      <c r="B30" s="90" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="79" t="s">
+      <c r="C30" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="D30" s="79"/>
+      <c r="D30" s="91"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="78" t="s">
+      <c r="A31" s="90" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="90" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="79" t="s">
+      <c r="C31" s="91" t="s">
         <v>398</v>
       </c>
-      <c r="D31" s="79"/>
+      <c r="D31" s="91"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="78"/>
-      <c r="B32" s="78" t="s">
+      <c r="A32" s="90"/>
+      <c r="B32" s="90" t="s">
         <v>399</v>
       </c>
-      <c r="C32" s="79" t="s">
+      <c r="C32" s="91" t="s">
         <v>400</v>
       </c>
-      <c r="D32" s="79" t="s">
+      <c r="D32" s="91" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="78"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79" t="s">
+      <c r="A33" s="90"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="91" t="s">
         <v>402</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="D33" s="91" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="78"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79" t="s">
+      <c r="A34" s="90"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="91" t="s">
         <v>404</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D34" s="91" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="78"/>
-      <c r="B35" s="78" t="s">
+      <c r="A35" s="90"/>
+      <c r="B35" s="90" t="s">
         <v>406</v>
       </c>
-      <c r="C35" s="79" t="s">
+      <c r="C35" s="91" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="79" t="s">
+      <c r="D35" s="91" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="78"/>
-      <c r="B36" s="78" t="s">
+      <c r="A36" s="90"/>
+      <c r="B36" s="90" t="s">
         <v>409</v>
       </c>
-      <c r="C36" s="79" t="s">
+      <c r="C36" s="91" t="s">
         <v>410</v>
       </c>
-      <c r="D36" s="79" t="s">
+      <c r="D36" s="91" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78" t="s">
+      <c r="A37" s="90"/>
+      <c r="B37" s="90" t="s">
         <v>412</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="90" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="78"/>
+      <c r="D37" s="90"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="78"/>
-      <c r="B38" s="78" t="s">
+      <c r="A38" s="90"/>
+      <c r="B38" s="90" t="s">
         <v>414</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="90" t="s">
         <v>415</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="90" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="78"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="82" t="s">
+      <c r="A39" s="90"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="94" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="94" t="s">
         <v>418</v>
       </c>
     </row>
@@ -11212,107 +11478,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="85" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="86" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="59" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="59" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="73"/>
-      <c r="B2" s="74"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="47" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="59" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="73"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="59" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="73"/>
-      <c r="B5" s="74" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="86" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="87" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="75" t="s">
+      <c r="D5" s="87" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="85" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="88" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="73"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="75" t="s">
+      <c r="D6" s="87" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="74"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="86"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="73"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="87" t="s">
         <v>433</v>
       </c>
-      <c r="D7" s="75" t="s">
+      <c r="D7" s="87" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="85" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="75" t="s">
+      <c r="F7" s="87" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="73"/>
-      <c r="B8" s="49" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="61" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="47"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="861">
   <si>
     <t>artificial    intelligence
 读：阿尔提（费学） 赢特ne（jin ce）</t>
@@ -4578,25 +4578,37 @@
     <t>适用于各种序列任务，如机器翻译、语言建模等。</t>
   </si>
   <si>
-    <t>搭建模型</t>
-  </si>
-  <si>
-    <t>机制</t>
-  </si>
-  <si>
-    <t>定义和运行相分离的机制</t>
-  </si>
-  <si>
-    <t>定义</t>
-  </si>
-  <si>
-    <t>OP</t>
-  </si>
-  <si>
-    <t>图</t>
-  </si>
-  <si>
-    <t>Session</t>
+    <t>Tensorflow-张量流</t>
+  </si>
+  <si>
+    <t>通过“张量流” 进行数据传递和计算</t>
+  </si>
+  <si>
+    <t>Tensorflow</t>
+  </si>
+  <si>
+    <t>张量本质就是数组</t>
+  </si>
+  <si>
+    <t>部署</t>
+  </si>
+  <si>
+    <t>可以在CPU/GPU上面进行部署，安装cpu版本，安装gpu安装</t>
+  </si>
+  <si>
+    <t>运行机制</t>
+  </si>
+  <si>
+    <t>“定义”和“运行”相分离的机制</t>
+  </si>
+  <si>
+    <t>张量</t>
+  </si>
+  <si>
+    <t>创建张量</t>
+  </si>
+  <si>
+    <t>hello = tf.constant('hello world')</t>
   </si>
 </sst>
 </file>
@@ -4611,14 +4623,6 @@
   </numFmts>
   <fonts count="30">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4644,6 +4648,14 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4836,18 +4848,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -4858,18 +4864,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4888,6 +4882,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4918,6 +4918,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5409,7 +5415,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5433,16 +5439,16 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -5451,651 +5457,606 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="181">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6487,252 +6448,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="181" t="s">
+      <c r="A13" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="181" t="s">
+      <c r="B13" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="181" t="s">
+      <c r="C13" s="166" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="182" t="s">
+      <c r="D13" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="75" t="s">
+      <c r="E13" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="183" t="s">
+      <c r="F13" s="168" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="184" t="s">
+      <c r="G13" s="169" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="185"/>
-      <c r="B14" s="185"/>
-      <c r="C14" s="185"/>
-      <c r="D14" s="182"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="186" t="s">
+      <c r="A14" s="170"/>
+      <c r="B14" s="170"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="187" t="s">
+      <c r="G14" s="172" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="185"/>
-      <c r="B15" s="185"/>
-      <c r="C15" s="185"/>
-      <c r="D15" s="188"/>
-      <c r="E15" s="32" t="s">
+      <c r="A15" s="170"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="173"/>
+      <c r="E15" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="189" t="s">
+      <c r="F15" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="190"/>
+      <c r="G15" s="175"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="185"/>
-      <c r="B16" s="185"/>
-      <c r="C16" s="32" t="s">
+      <c r="A16" s="170"/>
+      <c r="B16" s="170"/>
+      <c r="C16" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="53" t="s">
+      <c r="D16" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="185"/>
-      <c r="B17" s="191" t="s">
+      <c r="A17" s="170"/>
+      <c r="B17" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="185"/>
-      <c r="B18" s="181"/>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="170"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="185"/>
-      <c r="B19" s="192" t="s">
+      <c r="A19" s="170"/>
+      <c r="B19" s="177" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="193"/>
-      <c r="D19" s="194"/>
-      <c r="E19" s="32" t="s">
+      <c r="C19" s="178"/>
+      <c r="D19" s="179"/>
+      <c r="E19" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="185"/>
-      <c r="B20" s="185"/>
-      <c r="C20" s="185"/>
-      <c r="D20" s="185"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="A20" s="170"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="185"/>
-      <c r="B21" s="191" t="s">
+      <c r="A21" s="170"/>
+      <c r="B21" s="176" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="191" t="s">
+      <c r="C21" s="176" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="191" t="s">
+      <c r="D21" s="31"/>
+      <c r="E21" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="32"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="185"/>
-      <c r="B22" s="195"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="195"/>
-      <c r="F22" s="32" t="s">
+      <c r="A22" s="170"/>
+      <c r="B22" s="180"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="32"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="185"/>
-      <c r="B23" s="195"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="195"/>
-      <c r="F23" s="32" t="s">
+      <c r="A23" s="170"/>
+      <c r="B23" s="180"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="32"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="185"/>
-      <c r="B24" s="195"/>
-      <c r="C24" s="195"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="195"/>
-      <c r="F24" s="32" t="s">
+      <c r="A24" s="170"/>
+      <c r="B24" s="180"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="32"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="185"/>
-      <c r="B25" s="195"/>
-      <c r="C25" s="181"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="181"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="A25" s="170"/>
+      <c r="B25" s="180"/>
+      <c r="C25" s="166"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="185"/>
-      <c r="B26" s="195"/>
-      <c r="C26" s="32" t="s">
+      <c r="A26" s="170"/>
+      <c r="B26" s="180"/>
+      <c r="C26" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32" t="s">
+      <c r="D26" s="31"/>
+      <c r="E26" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="185"/>
-      <c r="B27" s="195"/>
-      <c r="C27" s="32" t="s">
+      <c r="A27" s="170"/>
+      <c r="B27" s="180"/>
+      <c r="C27" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32" t="s">
+      <c r="D27" s="31"/>
+      <c r="E27" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="185"/>
-      <c r="B28" s="195"/>
-      <c r="C28" s="32" t="s">
+      <c r="A28" s="170"/>
+      <c r="B28" s="180"/>
+      <c r="C28" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="185"/>
-      <c r="B29" s="195"/>
-      <c r="C29" s="32" t="s">
+      <c r="A29" s="170"/>
+      <c r="B29" s="180"/>
+      <c r="C29" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="185"/>
-      <c r="B30" s="181"/>
-      <c r="C30" s="32" t="s">
+      <c r="A30" s="170"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6760,7 +6721,7 @@
   <sheetPr/>
   <dimension ref="A2:G72"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A40" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -6777,745 +6738,745 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="34"/>
+      <c r="A3" s="33"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="34"/>
+      <c r="A4" s="33"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="34"/>
+      <c r="A5" s="33"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34" t="s">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="33" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="33" t="s">
         <v>441</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="31" t="s">
         <v>441</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="32" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="31" t="s">
         <v>443</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
     </row>
     <row r="9" ht="71" customHeight="1" spans="2:7">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="53" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="36" t="s">
         <v>445</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E9" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="2:7">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
+      <c r="B10" s="33"/>
+      <c r="C10" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" s="31" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="32" t="s">
+      <c r="E10" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="34"/>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="36" t="s">
         <v>451</v>
       </c>
-      <c r="G11" s="32"/>
+      <c r="G11" s="31"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="53" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="36" t="s">
         <v>452</v>
       </c>
-      <c r="G12" s="32"/>
+      <c r="G12" s="31"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="34"/>
-      <c r="C13" s="34" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="36" t="s">
         <v>454</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="39" t="s">
         <v>456</v>
       </c>
-      <c r="G13" s="32" t="s">
+      <c r="G13" s="31" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="32" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="F14" s="56" t="s">
+      <c r="F14" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="G14" s="32" t="s">
+      <c r="G14" s="31" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="33" t="s">
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="F15" s="33" t="s">
+      <c r="F15" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="53" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="53" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="F17" s="33"/>
-      <c r="G17" s="34"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="53" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="34"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="53" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="F19" s="33"/>
-      <c r="G19" s="34"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="33" t="s">
         <v>470</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="34"/>
-      <c r="C21" s="32" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="34"/>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="32" t="s">
         <v>475</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="32" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="31"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="34"/>
-      <c r="C24" s="53" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="53" t="s">
+      <c r="D24" s="31"/>
+      <c r="E24" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="34"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="40" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="34"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="40" t="s">
         <v>481</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="C27" s="53" t="s">
+      <c r="C27" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="42" t="s">
         <v>484</v>
       </c>
-      <c r="E27" s="60" t="s">
+      <c r="E27" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="F27" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="G27" s="32"/>
+      <c r="G27" s="31"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="33"/>
-      <c r="C28" s="33" t="s">
+      <c r="B28" s="32"/>
+      <c r="C28" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="42" t="s">
         <v>487</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="G28" s="32"/>
+      <c r="G28" s="31"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="59" t="s">
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="E29" s="60" t="s">
+      <c r="E29" s="43" t="s">
         <v>489</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F29" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="G29" s="32"/>
+      <c r="G29" s="31"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33" t="s">
+      <c r="B30" s="32"/>
+      <c r="C30" s="32" t="s">
         <v>491</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="61" t="s">
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="E31" s="56" t="s">
+      <c r="E31" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62" t="s">
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45" t="s">
         <v>496</v>
       </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="33"/>
-      <c r="C33" s="33" t="s">
+      <c r="B33" s="32"/>
+      <c r="C33" s="32" t="s">
         <v>497</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="42" t="s">
         <v>498</v>
       </c>
-      <c r="E33" s="62" t="s">
+      <c r="E33" s="45" t="s">
         <v>499</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="32" t="s">
         <v>500</v>
       </c>
-      <c r="G33" s="32"/>
+      <c r="G33" s="31"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="59" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="42" t="s">
         <v>501</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="45" t="s">
         <v>502</v>
       </c>
-      <c r="F34" s="34"/>
-      <c r="G34" s="32"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="31"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="33"/>
-      <c r="C35" s="33" t="s">
+      <c r="B35" s="32"/>
+      <c r="C35" s="32" t="s">
         <v>503</v>
       </c>
-      <c r="D35" s="59" t="s">
+      <c r="D35" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="E35" s="63" t="s">
+      <c r="E35" s="46" t="s">
         <v>505</v>
       </c>
-      <c r="F35" s="33" t="s">
+      <c r="F35" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="G35" s="32"/>
+      <c r="G35" s="31"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="59" t="s">
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="42" t="s">
         <v>507</v>
       </c>
-      <c r="E36" s="63" t="s">
+      <c r="E36" s="46" t="s">
         <v>508</v>
       </c>
-      <c r="F36" s="34"/>
-      <c r="G36" s="32"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="31"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="59" t="s">
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="47" t="s">
         <v>510</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="32"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="31"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="33"/>
-      <c r="C38" s="33" t="s">
+      <c r="B38" s="32"/>
+      <c r="C38" s="32" t="s">
         <v>511</v>
       </c>
-      <c r="D38" s="14" t="s">
+      <c r="D38" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="32"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="31"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="33"/>
-      <c r="C39" s="33" t="s">
+      <c r="B39" s="32"/>
+      <c r="C39" s="32" t="s">
         <v>514</v>
       </c>
-      <c r="D39" s="14" t="s">
+      <c r="D39" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="14" t="s">
         <v>516</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="F39" s="31" t="s">
         <v>517</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="36" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="14" t="s">
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="E40" s="65" t="s">
+      <c r="E40" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="F40" s="32"/>
-      <c r="G40" s="53" t="s">
+      <c r="F40" s="31"/>
+      <c r="G40" s="36" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="33"/>
-      <c r="C41" s="33" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D41" s="43" t="s">
         <v>523</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="31" t="s">
         <v>524</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="F41" s="31" t="s">
         <v>525</v>
       </c>
-      <c r="G41" s="32"/>
+      <c r="G41" s="31"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="60" t="s">
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="43" t="s">
         <v>526</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="31" t="s">
         <v>527</v>
       </c>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="33"/>
-      <c r="C43" s="53" t="s">
+      <c r="B43" s="32"/>
+      <c r="C43" s="36" t="s">
         <v>528</v>
       </c>
-      <c r="D43" s="60" t="s">
+      <c r="D43" s="43" t="s">
         <v>529</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E43" s="31" t="s">
         <v>530</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="31" t="s">
         <v>531</v>
       </c>
-      <c r="G43" s="32"/>
+      <c r="G43" s="31"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="49" t="s">
         <v>532</v>
       </c>
-      <c r="C44" s="66" t="s">
+      <c r="C44" s="49" t="s">
         <v>533</v>
       </c>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="43" t="s">
         <v>534</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="43" t="s">
         <v>535</v>
       </c>
-      <c r="F44" s="67" t="s">
+      <c r="F44" s="50" t="s">
         <v>536</v>
       </c>
-      <c r="G44" s="32"/>
+      <c r="G44" s="31"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="66"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="60" t="s">
+      <c r="B45" s="49"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="43" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="47" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="60" t="s">
+      <c r="F45" s="43" t="s">
         <v>539</v>
       </c>
-      <c r="G45" s="32"/>
+      <c r="G45" s="31"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="66"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="60" t="s">
+      <c r="B46" s="49"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="43" t="s">
         <v>540</v>
       </c>
-      <c r="E46" s="64"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="32"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="31"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="69"/>
-      <c r="C47" s="66" t="s">
+      <c r="B47" s="52"/>
+      <c r="C47" s="49" t="s">
         <v>541</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="64"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="32"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="47"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="31"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="70" t="s">
+      <c r="B48" s="53" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="49" t="s">
         <v>542</v>
       </c>
-      <c r="D48" s="67" t="s">
+      <c r="D48" s="50" t="s">
         <v>543</v>
       </c>
-      <c r="E48" s="64"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="32"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="50"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="70"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="67" t="s">
+      <c r="B49" s="53"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="50" t="s">
         <v>544</v>
       </c>
-      <c r="E49" s="64"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="32"/>
+      <c r="E49" s="47"/>
+      <c r="F49" s="50"/>
+      <c r="G49" s="31"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="70"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="67" t="s">
+      <c r="B50" s="53"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="50" t="s">
         <v>545</v>
       </c>
-      <c r="E50" s="32" t="s">
+      <c r="E50" s="31" t="s">
         <v>546</v>
       </c>
-      <c r="F50" s="67"/>
-      <c r="G50" s="32"/>
+      <c r="F50" s="50"/>
+      <c r="G50" s="31"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="70"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="49"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="47"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="54" t="s">
         <v>547</v>
       </c>
-      <c r="C52" s="72" t="s">
+      <c r="C52" s="55" t="s">
         <v>548</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" s="31" t="s">
         <v>549</v>
       </c>
-      <c r="E52" s="53" t="s">
+      <c r="E52" s="36" t="s">
         <v>550</v>
       </c>
-      <c r="F52" s="73" t="s">
+      <c r="F52" s="56" t="s">
         <v>551</v>
       </c>
-      <c r="G52" s="74" t="s">
+      <c r="G52" s="57" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="75"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="32" t="s">
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="31" t="s">
         <v>553</v>
       </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="78"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="60"/>
+      <c r="G53" s="61"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="71" t="s">
+      <c r="B54" s="58"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E54" s="31" t="s">
         <v>555</v>
       </c>
-      <c r="F54" s="79"/>
-      <c r="G54" s="80"/>
+      <c r="F54" s="62"/>
+      <c r="G54" s="63"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="75"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="32" t="s">
+      <c r="B55" s="58"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="75"/>
-      <c r="C56" s="76"/>
-      <c r="D56" s="75"/>
-      <c r="E56" s="32" t="s">
+      <c r="B56" s="58"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="58"/>
+      <c r="E56" s="31" t="s">
         <v>557</v>
       </c>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="81"/>
-      <c r="C57" s="82"/>
-      <c r="D57" s="81"/>
-      <c r="E57" s="53" t="s">
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="36" t="s">
         <v>558</v>
       </c>
-      <c r="F57" s="53" t="s">
+      <c r="F57" s="36" t="s">
         <v>559</v>
       </c>
-      <c r="G57" s="32"/>
+      <c r="G57" s="31"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="83" t="s">
+      <c r="C62" s="66" t="s">
         <v>560</v>
       </c>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
+      <c r="D62" s="67"/>
+      <c r="E62" s="67"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="67"/>
+      <c r="E66" s="67"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="67"/>
+      <c r="E68" s="67"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="67"/>
+      <c r="E70" s="67"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="67"/>
+      <c r="E72" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7582,310 +7543,310 @@
   </cols>
   <sheetData>
     <row r="8" ht="40.5" spans="2:11">
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
     </row>
     <row r="9" ht="40.5" spans="2:11">
-      <c r="B9" s="35"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="37" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
         <v>565</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="40"/>
-      <c r="K9" s="40"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
     </row>
     <row r="10" ht="27" spans="2:11">
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
         <v>567</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="37" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6" t="s">
         <v>569</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="40"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" ht="62" customHeight="1" spans="2:12">
-      <c r="B12" s="35"/>
-      <c r="C12" s="41" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="I12" s="49" t="s">
+      <c r="I12" s="4" t="s">
         <v>577</v>
       </c>
-      <c r="J12" s="44" t="s">
+      <c r="J12" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="L12" s="50" t="s">
+      <c r="L12" s="34" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:12">
-      <c r="B13" s="35"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="39" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="35"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="35"/>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="36" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="52"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="35"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="35"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="39" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="G15" s="45"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="52"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="35"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="35"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="39" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="G16" s="45"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="52"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="35"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="35"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="39" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="G17" s="45"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="52"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="35"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="35"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="39" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="52"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="35"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="35"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="39" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G19" s="45"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
-      <c r="L19" s="52"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="35"/>
     </row>
     <row r="20" ht="23" customHeight="1" spans="2:12">
-      <c r="B20" s="35"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>590</v>
       </c>
-      <c r="F20" s="39" t="s">
+      <c r="F20" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
-      <c r="L20" s="52"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="35"/>
     </row>
     <row r="21" ht="40.5" spans="2:12">
-      <c r="B21" s="35"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="39" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="G21" s="43" t="s">
+      <c r="G21" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="52"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="35"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="35"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="37" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6" t="s">
         <v>595</v>
       </c>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="35"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="37" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6" t="s">
         <v>596</v>
       </c>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="35"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="37" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" ht="111" customHeight="1" spans="2:11">
-      <c r="B25" s="35"/>
-      <c r="C25" s="46" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="6" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="4" t="s">
         <v>599</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7914,8 +7875,8 @@
   <sheetPr/>
   <dimension ref="C18:I125"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="D109" workbookViewId="0">
-      <selection activeCell="G117" sqref="G117"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="D107" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -7931,1302 +7892,1302 @@
   </cols>
   <sheetData>
     <row r="18" ht="27" spans="3:8">
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
     </row>
     <row r="19" ht="54" spans="3:8">
-      <c r="C19" s="6"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="5"/>
+      <c r="D19" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="6"/>
-      <c r="D20" s="3" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" ht="72" customHeight="1" spans="3:8">
-      <c r="C21" s="6"/>
-      <c r="D21" s="4" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" ht="72" customHeight="1" spans="3:8">
-      <c r="C22" s="8"/>
-      <c r="D22" s="4" t="s">
+      <c r="C22" s="7"/>
+      <c r="D22" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" ht="72" customHeight="1"/>
     <row r="24" ht="72" customHeight="1"/>
     <row r="25" ht="32" customHeight="1" spans="3:8">
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="H25" s="3"/>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" ht="51" customHeight="1" spans="3:8">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="4" t="s">
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="H26" s="3"/>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" ht="265" customHeight="1" spans="3:8">
-      <c r="C27" s="7"/>
-      <c r="D27" s="5" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="4" t="s">
         <v>618</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>619</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="H27" s="3"/>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" ht="72" customHeight="1" spans="3:8">
-      <c r="C28" s="7"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" ht="38" customHeight="1" spans="3:8">
-      <c r="C29" s="7"/>
-      <c r="D29" s="3" t="s">
+      <c r="C29" s="6"/>
+      <c r="D29" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" ht="409" customHeight="1" spans="3:8">
-      <c r="C30" s="7"/>
-      <c r="D30" s="4" t="s">
+      <c r="C30" s="6"/>
+      <c r="D30" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="H30" s="3"/>
+      <c r="H30" s="2"/>
     </row>
     <row r="31" ht="58" customHeight="1" spans="3:8">
-      <c r="C31" s="7"/>
-      <c r="D31" s="3" t="s">
+      <c r="C31" s="6"/>
+      <c r="D31" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="11"/>
-      <c r="D33" s="3" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" ht="85" customHeight="1" spans="3:8">
-      <c r="C34" s="11"/>
-      <c r="D34" s="3" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>639</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="G34" s="5" t="s">
+      <c r="G34" s="4" t="s">
         <v>641</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" ht="37" customHeight="1" spans="3:8">
-      <c r="C35" s="11"/>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" ht="52" customHeight="1" spans="3:8">
-      <c r="C36" s="11"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="4" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="3" t="s">
         <v>644</v>
       </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" ht="83" customHeight="1" spans="3:8">
-      <c r="C37" s="11"/>
-      <c r="D37" s="3" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>646</v>
       </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
     </row>
     <row r="38" ht="44" customHeight="1" spans="3:8">
-      <c r="C38" s="11"/>
-      <c r="D38" s="3" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="3" t="s">
         <v>648</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="H38" s="2"/>
     </row>
     <row r="39" ht="40.5" spans="3:8">
-      <c r="C39" s="11"/>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="10"/>
+      <c r="D39" s="12" t="s">
         <v>651</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="F39" s="15" t="s">
+      <c r="F39" s="14" t="s">
         <v>653</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="H39" s="14"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" ht="53" customHeight="1" spans="3:8">
-      <c r="C40" s="11"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="17" t="s">
+      <c r="C40" s="10"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="16" t="s">
         <v>655</v>
       </c>
-      <c r="F40" s="14" t="s">
+      <c r="F40" s="13" t="s">
         <v>656</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" ht="40.5" spans="3:8">
-      <c r="C41" s="11"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="15" t="s">
+      <c r="C41" s="10"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>658</v>
       </c>
-      <c r="H41" s="14"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" ht="40.5" spans="3:8">
-      <c r="C42" s="11"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="15" t="s">
+      <c r="C42" s="10"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="H42" s="14"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" ht="40.5" spans="3:8">
-      <c r="C43" s="11"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="16" t="s">
+      <c r="C43" s="10"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>662</v>
       </c>
-      <c r="H43" s="14"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" ht="54" spans="3:8">
-      <c r="C44" s="11"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="16" t="s">
+      <c r="C44" s="10"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="G44" s="16" t="s">
+      <c r="G44" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="H44" s="14"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" ht="34" customHeight="1" spans="3:8">
-      <c r="C45" s="11"/>
-      <c r="D45" s="3" t="s">
+      <c r="C45" s="10"/>
+      <c r="D45" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="3" t="s">
         <v>666</v>
       </c>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
     </row>
     <row r="46" spans="3:8">
-      <c r="C46" s="11" t="s">
+      <c r="C46" s="10" t="s">
         <v>667</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="E46" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
     </row>
     <row r="47" ht="53" customHeight="1" spans="3:8">
-      <c r="C47" s="11"/>
-      <c r="D47" s="3" t="s">
+      <c r="C47" s="10"/>
+      <c r="D47" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="3" t="s">
         <v>671</v>
       </c>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
     </row>
     <row r="48" ht="27" spans="3:8">
-      <c r="C48" s="11"/>
-      <c r="D48" s="3" t="s">
+      <c r="C48" s="10"/>
+      <c r="D48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="3" t="s">
         <v>672</v>
       </c>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
     </row>
     <row r="49" ht="54" spans="3:8">
-      <c r="C49" s="11"/>
-      <c r="D49" s="3" t="s">
+      <c r="C49" s="10"/>
+      <c r="D49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="3" t="s">
         <v>673</v>
       </c>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
     </row>
     <row r="50" ht="99" customHeight="1" spans="3:8">
-      <c r="C50" s="11" t="s">
+      <c r="C50" s="10" t="s">
         <v>674</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="3" t="s">
         <v>675</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="3" t="s">
         <v>676</v>
       </c>
-      <c r="G50" s="18" t="s">
+      <c r="G50" s="17" t="s">
         <v>677</v>
       </c>
-      <c r="H50" s="3"/>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" ht="48" customHeight="1" spans="3:8">
-      <c r="C51" s="11"/>
-      <c r="D51" s="3" t="s">
+      <c r="C51" s="10"/>
+      <c r="D51" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="3" t="s">
         <v>679</v>
       </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
     <row r="52" ht="34" customHeight="1" spans="3:8">
-      <c r="C52" s="11"/>
-      <c r="D52" s="3" t="s">
+      <c r="C52" s="10"/>
+      <c r="D52" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="E52" s="3" t="s">
         <v>681</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
     </row>
     <row r="53" ht="34" customHeight="1" spans="3:8">
-      <c r="C53" s="11"/>
-      <c r="D53" s="4" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="3" t="s">
         <v>683</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="3" t="s">
         <v>684</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
     <row r="54" ht="107" customHeight="1" spans="3:8">
-      <c r="C54" s="11"/>
-      <c r="D54" s="7" t="s">
+      <c r="C54" s="10"/>
+      <c r="D54" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="E54" s="3" t="s">
+      <c r="E54" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
     </row>
     <row r="55" spans="3:8">
-      <c r="C55" s="11"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="3" t="s">
+      <c r="C55" s="10"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
     <row r="56" ht="40.5" spans="3:8">
-      <c r="C56" s="11"/>
-      <c r="D56" s="3" t="s">
+      <c r="C56" s="10"/>
+      <c r="D56" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="3" t="s">
         <v>692</v>
       </c>
-      <c r="F56" s="18" t="s">
+      <c r="F56" s="17" t="s">
         <v>693</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
     </row>
     <row r="57" spans="3:8">
-      <c r="C57" s="11"/>
-      <c r="D57" s="7" t="s">
+      <c r="C57" s="10"/>
+      <c r="D57" s="6" t="s">
         <v>694</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="E57" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="H57" s="3"/>
+      <c r="H57" s="2"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="3:8">
-      <c r="C58" s="11"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="3" t="s">
+      <c r="C58" s="10"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="2"/>
     </row>
     <row r="59" ht="27" spans="3:8">
-      <c r="C59" s="11"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="4" t="s">
+      <c r="C59" s="10"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="3"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="2"/>
     </row>
     <row r="60" ht="77" customHeight="1" spans="3:8">
-      <c r="C60" s="11"/>
-      <c r="D60" s="19" t="s">
+      <c r="C60" s="10"/>
+      <c r="D60" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
     </row>
     <row r="61" ht="77" customHeight="1" spans="3:8">
-      <c r="C61" s="11"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="4" t="s">
+      <c r="C61" s="10"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
     </row>
     <row r="62" ht="135" spans="3:8">
-      <c r="C62" s="11"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="4" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G62" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="H62" s="3"/>
+      <c r="H62" s="2"/>
     </row>
     <row r="63" ht="175.5" spans="3:8">
-      <c r="C63" s="11"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="4" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="3" t="s">
         <v>709</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="3" t="s">
         <v>710</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G63" s="3" t="s">
         <v>711</v>
       </c>
-      <c r="H63" s="3"/>
+      <c r="H63" s="2"/>
     </row>
     <row r="64" ht="71" customHeight="1" spans="3:8">
-      <c r="C64" s="11"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="3" t="s">
+      <c r="C64" s="10"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="3" t="s">
         <v>713</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="2"/>
     </row>
     <row r="65" ht="114" customHeight="1" spans="3:8">
-      <c r="C65" s="11"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="20" t="s">
+      <c r="C65" s="10"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="19" t="s">
         <v>714</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G65" s="3" t="s">
         <v>716</v>
       </c>
-      <c r="H65" s="3"/>
+      <c r="H65" s="2"/>
     </row>
     <row r="66" ht="106" customHeight="1" spans="3:8">
-      <c r="C66" s="11"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="21" t="s">
+      <c r="C66" s="10"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="20" t="s">
         <v>717</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G66" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="H66" s="3"/>
+      <c r="H66" s="2"/>
     </row>
     <row r="67" ht="77" customHeight="1" spans="3:8">
-      <c r="C67" s="11"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="21"/>
-      <c r="F67" s="7" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="6" t="s">
         <v>720</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="4" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="68" ht="100" customHeight="1" spans="3:8">
-      <c r="C68" s="11"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="21"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="4" t="s">
+      <c r="C68" s="10"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="H68" s="4" t="s">
+      <c r="H68" s="3" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="69" ht="54" customHeight="1" spans="3:8">
-      <c r="C69" s="11"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="3" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="G69" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="H69" s="3"/>
+      <c r="H69" s="2"/>
     </row>
     <row r="70" spans="3:8">
-      <c r="C70" s="11"/>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="10"/>
+      <c r="D70" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="3" t="s">
         <v>727</v>
       </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
     </row>
     <row r="71" spans="3:8">
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="4" t="s">
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" ht="23" customHeight="1" spans="3:8">
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="4" t="s">
+      <c r="C72" s="10"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="3" t="s">
         <v>729</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" ht="70" customHeight="1"/>
     <row r="74" ht="93" customHeight="1"/>
     <row r="75" ht="20" customHeight="1" spans="3:8">
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="D75" s="11" t="s">
+      <c r="D75" s="10" t="s">
         <v>732</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E75" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="3:8">
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="3" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="F76" s="7"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
     </row>
     <row r="77" spans="3:8">
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="3" t="s">
+      <c r="C77" s="10"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="F77" s="7"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
     </row>
     <row r="78" ht="27" spans="3:8">
-      <c r="C78" s="11"/>
-      <c r="D78" s="7" t="s">
+      <c r="C78" s="10"/>
+      <c r="D78" s="6" t="s">
         <v>737</v>
       </c>
-      <c r="E78" s="4" t="s">
+      <c r="E78" s="3" t="s">
         <v>738</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="G78" s="8" t="s">
         <v>740</v>
       </c>
-      <c r="H78" s="3"/>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="3:8">
-      <c r="C79" s="11"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="3" t="s">
+      <c r="C79" s="10"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="G79" s="22"/>
-      <c r="H79" s="3"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="3:8">
-      <c r="C80" s="11"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="3" t="s">
+      <c r="C80" s="10"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="F80" s="3"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="3"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" ht="44" customHeight="1" spans="3:8">
-      <c r="C81" s="11"/>
-      <c r="D81" s="23" t="s">
+      <c r="C81" s="10"/>
+      <c r="D81" s="22" t="s">
         <v>744</v>
       </c>
-      <c r="E81" s="3" t="s">
+      <c r="E81" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="G81" s="22"/>
-      <c r="H81" s="3"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" ht="44" customHeight="1" spans="3:8">
-      <c r="C82" s="11"/>
-      <c r="D82" s="24"/>
-      <c r="E82" s="3" t="s">
+      <c r="C82" s="10"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="G82" s="8" t="s">
         <v>748</v>
       </c>
-      <c r="H82" s="3"/>
+      <c r="H82" s="2"/>
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:8">
-      <c r="C83" s="11"/>
-      <c r="D83" s="24"/>
-      <c r="E83" s="4" t="s">
+      <c r="C83" s="10"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4" t="s">
+      <c r="F83" s="3"/>
+      <c r="G83" s="3" t="s">
         <v>750</v>
       </c>
-      <c r="H83" s="22" t="s">
+      <c r="H83" s="21" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="84" ht="59" customHeight="1" spans="3:8">
-      <c r="C84" s="11"/>
-      <c r="D84" s="24"/>
-      <c r="E84" s="4" t="s">
+      <c r="C84" s="10"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G84" s="4" t="s">
+      <c r="G84" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="H84" s="22" t="s">
+      <c r="H84" s="21" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="85" ht="74" customHeight="1" spans="3:8">
-      <c r="C85" s="11"/>
-      <c r="D85" s="24"/>
-      <c r="E85" s="3" t="s">
+      <c r="C85" s="10"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="3" t="s">
         <v>757</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="G85" s="3" t="s">
         <v>758</v>
       </c>
-      <c r="H85" s="4" t="s">
+      <c r="H85" s="3" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="86" ht="74" customHeight="1" spans="3:8">
-      <c r="C86" s="11"/>
-      <c r="D86" s="24"/>
-      <c r="E86" s="3" t="s">
+      <c r="C86" s="10"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="3" t="s">
         <v>761</v>
       </c>
-      <c r="G86" s="4" t="s">
+      <c r="G86" s="3" t="s">
         <v>762</v>
       </c>
-      <c r="H86" s="4"/>
+      <c r="H86" s="3"/>
     </row>
     <row r="87" ht="49" customHeight="1" spans="3:8">
-      <c r="C87" s="11"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="3" t="s">
+      <c r="C87" s="10"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="3" t="s">
         <v>764</v>
       </c>
-      <c r="G87" s="4" t="s">
+      <c r="G87" s="3" t="s">
         <v>765</v>
       </c>
-      <c r="H87" s="4"/>
+      <c r="H87" s="3"/>
     </row>
     <row r="88" ht="49" customHeight="1" spans="3:8">
-      <c r="C88" s="11"/>
-      <c r="D88" s="24"/>
-      <c r="E88" s="3" t="s">
+      <c r="C88" s="10"/>
+      <c r="D88" s="23"/>
+      <c r="E88" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="3" t="s">
         <v>767</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="3" t="s">
         <v>768</v>
       </c>
-      <c r="H88" s="4"/>
+      <c r="H88" s="3"/>
     </row>
     <row r="89" ht="67" customHeight="1" spans="3:8">
-      <c r="C89" s="11"/>
-      <c r="D89" s="24"/>
-      <c r="E89" s="3" t="s">
+      <c r="C89" s="10"/>
+      <c r="D89" s="23"/>
+      <c r="E89" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F89" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="G89" s="4"/>
-      <c r="H89" s="25" t="s">
+      <c r="G89" s="3"/>
+      <c r="H89" s="24" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="90" ht="120" customHeight="1" spans="3:8">
-      <c r="C90" s="11"/>
-      <c r="D90" s="24"/>
-      <c r="E90" s="3" t="s">
+      <c r="C90" s="10"/>
+      <c r="D90" s="23"/>
+      <c r="E90" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="3" t="s">
         <v>773</v>
       </c>
-      <c r="G90" s="26" t="s">
+      <c r="G90" s="25" t="s">
         <v>774</v>
       </c>
-      <c r="H90" s="26"/>
+      <c r="H90" s="25"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="3:8">
-      <c r="C91" s="11"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="3" t="s">
+      <c r="C91" s="10"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="3" t="s">
         <v>776</v>
       </c>
-      <c r="G91" s="26" t="s">
+      <c r="G91" s="25" t="s">
         <v>777</v>
       </c>
-      <c r="H91" s="26"/>
+      <c r="H91" s="25"/>
     </row>
     <row r="92" ht="126" customHeight="1" spans="3:8">
-      <c r="C92" s="11"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="3" t="s">
+      <c r="C92" s="10"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="3" t="s">
         <v>779</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="G92" s="3" t="s">
         <v>780</v>
       </c>
-      <c r="H92" s="4"/>
+      <c r="H92" s="3"/>
     </row>
     <row r="93" customFormat="1" ht="108" spans="3:8">
-      <c r="C93" s="11"/>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="10"/>
+      <c r="D93" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="E93" s="9" t="s">
         <v>782</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="3" t="s">
         <v>783</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="H93" s="4"/>
+      <c r="H93" s="3"/>
     </row>
     <row r="94" ht="23" customHeight="1" spans="3:8">
-      <c r="C94" s="11"/>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="10"/>
+      <c r="D94" s="4" t="s">
         <v>784</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="4"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="3"/>
     </row>
     <row r="95" ht="67.5" spans="3:8">
-      <c r="C95" s="11"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="27" t="s">
+      <c r="C95" s="10"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="26" t="s">
         <v>786</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="3" t="s">
         <v>787</v>
       </c>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4" t="s">
+      <c r="G95" s="3"/>
+      <c r="H95" s="3" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="96" ht="67" customHeight="1" spans="3:8">
-      <c r="C96" s="11"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="10" t="s">
+      <c r="C96" s="10"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="9" t="s">
         <v>789</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="3" t="s">
         <v>790</v>
       </c>
-      <c r="G96" s="4" t="s">
+      <c r="G96" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="H96" s="4" t="s">
+      <c r="H96" s="3" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="97" ht="26" customHeight="1" spans="3:8">
-      <c r="C97" s="11"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="28" t="s">
+      <c r="C97" s="10"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="27" t="s">
         <v>793</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="27" t="s">
         <v>794</v>
       </c>
-      <c r="G97" s="28"/>
-      <c r="H97" s="25"/>
+      <c r="G97" s="27"/>
+      <c r="H97" s="24"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="3:9">
-      <c r="C98" s="11"/>
-      <c r="D98" s="17" t="s">
+      <c r="C98" s="10"/>
+      <c r="D98" s="16" t="s">
         <v>795</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="16" t="s">
         <v>796</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="15" t="s">
         <v>797</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="13" t="s">
         <v>798</v>
       </c>
-      <c r="H98" s="16" t="s">
+      <c r="H98" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="I98" s="32"/>
+      <c r="I98" s="31"/>
     </row>
     <row r="99" spans="3:9">
-      <c r="C99" s="11"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17" t="s">
+      <c r="C99" s="10"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16" t="s">
         <v>800</v>
       </c>
-      <c r="F99" s="17" t="s">
+      <c r="F99" s="16" t="s">
         <v>801</v>
       </c>
-      <c r="G99" s="14" t="s">
+      <c r="G99" s="13" t="s">
         <v>802</v>
       </c>
-      <c r="H99" s="16"/>
-      <c r="I99" s="32"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="31"/>
     </row>
     <row r="100" spans="3:9">
-      <c r="C100" s="11"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="14" t="s">
+      <c r="C100" s="10"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="13" t="s">
         <v>803</v>
       </c>
-      <c r="H100" s="16"/>
-      <c r="I100" s="32"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="31"/>
     </row>
     <row r="101" spans="3:9">
-      <c r="C101" s="11"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="14" t="s">
+      <c r="C101" s="10"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="13" t="s">
         <v>804</v>
       </c>
-      <c r="H101" s="16"/>
-      <c r="I101" s="32"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="31"/>
     </row>
     <row r="102" spans="3:9">
-      <c r="C102" s="11"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="14" t="s">
+      <c r="C102" s="10"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="13" t="s">
         <v>805</v>
       </c>
-      <c r="H102" s="16"/>
-      <c r="I102" s="32"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="31"/>
     </row>
     <row r="103" ht="27" spans="3:9">
-      <c r="C103" s="11"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17" t="s">
+      <c r="C103" s="10"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16" t="s">
         <v>806</v>
       </c>
-      <c r="F103" s="17" t="s">
+      <c r="F103" s="16" t="s">
         <v>807</v>
       </c>
-      <c r="G103" s="16" t="s">
+      <c r="G103" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="H103" s="16"/>
-      <c r="I103" s="32"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="31"/>
     </row>
     <row r="104" ht="39" customHeight="1" spans="3:9">
-      <c r="C104" s="11"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="16" t="s">
+      <c r="C104" s="10"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="15" t="s">
         <v>809</v>
       </c>
-      <c r="H104" s="16"/>
-      <c r="I104" s="32"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="31"/>
     </row>
     <row r="105" ht="77" customHeight="1" spans="3:9">
-      <c r="C105" s="11"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="14" t="s">
+      <c r="C105" s="10"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="13" t="s">
         <v>810</v>
       </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16" t="s">
+      <c r="F105" s="15"/>
+      <c r="G105" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="H105" s="16" t="s">
+      <c r="H105" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="I105" s="33" t="s">
+      <c r="I105" s="32" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="106" ht="100" customHeight="1" spans="3:9">
-      <c r="C106" s="11"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="16" t="s">
+      <c r="C106" s="10"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="15" t="s">
         <v>814</v>
       </c>
-      <c r="F106" s="16" t="s">
+      <c r="F106" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="G106" s="16" t="s">
+      <c r="G106" s="15" t="s">
         <v>816</v>
       </c>
-      <c r="H106" s="16" t="s">
+      <c r="H106" s="15" t="s">
         <v>817</v>
       </c>
-      <c r="I106" s="34"/>
+      <c r="I106" s="33"/>
     </row>
     <row r="107" ht="67.5" spans="4:8">
-      <c r="D107" s="29" t="s">
+      <c r="D107" s="28" t="s">
         <v>818</v>
       </c>
-      <c r="E107" s="26" t="s">
+      <c r="E107" s="25" t="s">
         <v>819</v>
       </c>
-      <c r="F107" s="26" t="s">
+      <c r="F107" s="25" t="s">
         <v>820</v>
       </c>
-      <c r="G107" s="26"/>
-      <c r="H107" s="26"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
     </row>
     <row r="108" ht="54" spans="4:8">
-      <c r="D108" s="7"/>
-      <c r="E108" s="4" t="s">
+      <c r="D108" s="6"/>
+      <c r="E108" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="3" t="s">
         <v>822</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="G108" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="H108" s="4"/>
+      <c r="H108" s="3"/>
     </row>
     <row r="109" ht="231" customHeight="1" spans="4:8">
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="E109" s="3" t="s">
+      <c r="E109" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="3" t="s">
         <v>826</v>
       </c>
-      <c r="G109" s="4" t="s">
+      <c r="G109" s="3" t="s">
         <v>827</v>
       </c>
-      <c r="H109" s="3"/>
+      <c r="H109" s="2"/>
     </row>
     <row r="114" ht="27" spans="4:8">
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="E114" s="3" t="s">
+      <c r="E114" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="3" t="s">
         <v>830</v>
       </c>
-      <c r="G114" s="4" t="s">
+      <c r="G114" s="3" t="s">
         <v>831</v>
       </c>
-      <c r="H114" s="3"/>
+      <c r="H114" s="2"/>
     </row>
     <row r="115" ht="33" customHeight="1" spans="4:8">
-      <c r="D115" s="7"/>
-      <c r="E115" s="4" t="s">
+      <c r="D115" s="6"/>
+      <c r="E115" s="3" t="s">
         <v>832</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="3" t="s">
         <v>833</v>
       </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
     </row>
     <row r="116" ht="171" customHeight="1" spans="4:8">
-      <c r="D116" s="7"/>
-      <c r="E116" s="7" t="s">
+      <c r="D116" s="6"/>
+      <c r="E116" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="F116" s="30" t="s">
+      <c r="F116" s="29" t="s">
         <v>835</v>
       </c>
-      <c r="G116" s="4" t="s">
+      <c r="G116" s="3" t="s">
         <v>836</v>
       </c>
-      <c r="H116" s="3"/>
+      <c r="H116" s="2"/>
     </row>
     <row r="117" ht="129" customHeight="1" spans="4:8">
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="30" t="s">
+      <c r="D117" s="6"/>
+      <c r="E117" s="6"/>
+      <c r="F117" s="29" t="s">
         <v>837</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G117" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="H117" s="3"/>
+      <c r="H117" s="2"/>
     </row>
     <row r="118" ht="27" spans="4:8">
-      <c r="D118" s="7"/>
-      <c r="E118" s="7" t="s">
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
         <v>839</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="G118" s="4" t="s">
+      <c r="G118" s="3" t="s">
         <v>840</v>
       </c>
-      <c r="H118" s="3"/>
+      <c r="H118" s="2"/>
     </row>
     <row r="119" ht="94.5" spans="4:8">
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="3" t="s">
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="G119" s="4" t="s">
+      <c r="G119" s="3" t="s">
         <v>842</v>
       </c>
-      <c r="H119" s="4" t="s">
+      <c r="H119" s="3" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1" spans="4:8">
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="3" t="s">
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G120" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="H120" s="3"/>
+      <c r="H120" s="2"/>
     </row>
     <row r="121" ht="38" customHeight="1"/>
     <row r="122" spans="3:5">
       <c r="C122" t="s">
         <v>828</v>
       </c>
-      <c r="E122" s="31"/>
+      <c r="E122" s="30"/>
     </row>
     <row r="123" spans="4:5">
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
     </row>
     <row r="124" ht="40.5" spans="4:6">
-      <c r="D124" s="23" t="s">
+      <c r="D124" s="22" t="s">
         <v>846</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="3" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="125" spans="4:6">
-      <c r="D125" s="29"/>
-      <c r="E125" s="3" t="s">
+      <c r="D125" s="28"/>
+      <c r="E125" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="F125" s="3" t="s">
+      <c r="F125" s="2" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9280,42 +9241,66 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D15:J18"/>
+  <dimension ref="C13:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
+    <col min="3" max="3" width="17.2654867256637" customWidth="1"/>
+    <col min="4" max="4" width="23.5663716814159" customWidth="1"/>
+    <col min="5" max="5" width="56.4867256637168" customWidth="1"/>
+    <col min="6" max="6" width="37.5752212389381" customWidth="1"/>
     <col min="7" max="7" width="24.5663716814159" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="4:4">
-      <c r="D15" s="1" t="s">
+    <row r="13" spans="4:5">
+      <c r="D13" t="s">
         <v>850</v>
       </c>
-    </row>
-    <row r="17" spans="6:10">
-      <c r="F17" t="s">
+      <c r="E13" t="s">
         <v>851</v>
       </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="14" spans="3:5">
+      <c r="C14" t="s">
         <v>852</v>
       </c>
-      <c r="H17" t="s">
+      <c r="D14" t="s">
+        <v>624</v>
+      </c>
+      <c r="E14" t="s">
         <v>853</v>
       </c>
-      <c r="I17" t="s">
+    </row>
+    <row r="15" spans="4:5">
+      <c r="D15" t="s">
         <v>854</v>
       </c>
-      <c r="J17" t="s">
+      <c r="E15" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="18" spans="9:9">
-      <c r="I18" t="s">
+    <row r="17" ht="21" customHeight="1" spans="4:5">
+      <c r="D17" t="s">
         <v>856</v>
+      </c>
+      <c r="E17" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="18" ht="21" customHeight="1"/>
+    <row r="20" spans="4:6">
+      <c r="D20" t="s">
+        <v>858</v>
+      </c>
+      <c r="E20" t="s">
+        <v>859</v>
+      </c>
+      <c r="F20" t="s">
+        <v>860</v>
       </c>
     </row>
   </sheetData>
@@ -9357,78 +9342,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="177" t="s">
+      <c r="B5" s="162" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="151" t="s">
+      <c r="E5" s="136" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="177"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="162"/>
+      <c r="C6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="178" t="s">
+      <c r="B7" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="179" t="s">
+      <c r="C7" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="180" t="s">
+      <c r="E7" s="165" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="178"/>
-      <c r="C8" s="179" t="s">
+      <c r="B8" s="163"/>
+      <c r="C8" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="179" t="s">
+      <c r="D8" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="180" t="s">
+      <c r="E8" s="165" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="178"/>
-      <c r="C9" s="179" t="s">
+      <c r="B9" s="163"/>
+      <c r="C9" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="179" t="s">
+      <c r="D9" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="180" t="s">
+      <c r="E9" s="165" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="178"/>
-      <c r="C10" s="179" t="s">
+      <c r="B10" s="163"/>
+      <c r="C10" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="179" t="s">
+      <c r="D10" s="164" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="180" t="s">
+      <c r="E10" s="165" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9464,242 +9449,242 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="166" t="s">
+      <c r="B1" s="151" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="166" t="s">
+      <c r="C1" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="168" t="s">
+      <c r="E1" s="153" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="168" t="s">
+      <c r="F1" s="153" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="167" t="s">
+      <c r="G1" s="152" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="168" t="s">
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="154"/>
+      <c r="E2" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="167" t="s">
+      <c r="F2" s="152" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="168" t="s">
+      <c r="G2" s="153" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167" t="s">
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="152" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="167" t="s">
+      <c r="E3" s="154"/>
+      <c r="F3" s="152" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="167" t="s">
+      <c r="G3" s="152" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="166"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="169" t="s">
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="154" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="169"/>
-      <c r="F4" s="170" t="s">
+      <c r="E4" s="154"/>
+      <c r="F4" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="168" t="s">
+      <c r="G4" s="153" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="166"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="167" t="s">
+      <c r="B5" s="151"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="171" t="s">
+      <c r="E5" s="156" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="172" t="s">
+      <c r="F5" s="157" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="167" t="s">
+      <c r="G5" s="152" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="166"/>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="168" t="s">
+      <c r="B6" s="151"/>
+      <c r="C6" s="151"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="156"/>
+      <c r="F6" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="167"/>
+      <c r="G6" s="152"/>
     </row>
     <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="173" t="s">
+      <c r="B7" s="151"/>
+      <c r="C7" s="151"/>
+      <c r="D7" s="158" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="168" t="s">
+      <c r="E7" s="153" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="170" t="s">
+      <c r="F7" s="155" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="168" t="s">
+      <c r="G7" s="153" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="166"/>
-      <c r="C8" s="166" t="s">
+      <c r="B8" s="151"/>
+      <c r="C8" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="166"/>
-      <c r="E8" s="174" t="s">
+      <c r="D8" s="151"/>
+      <c r="E8" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="175" t="s">
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="176"/>
+      <c r="I8" s="161"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="166"/>
-      <c r="C9" s="166"/>
-      <c r="D9" s="166"/>
-      <c r="E9" s="174" t="s">
+      <c r="B9" s="151"/>
+      <c r="C9" s="151"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="159" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="174"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="161"/>
+      <c r="I9" s="161"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="166"/>
-      <c r="C10" s="166"/>
-      <c r="D10" s="166"/>
-      <c r="E10" s="174" t="s">
+      <c r="B10" s="151"/>
+      <c r="C10" s="151"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="159" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="174"/>
-      <c r="G10" s="174"/>
-      <c r="H10" s="176"/>
-      <c r="I10" s="176"/>
+      <c r="F10" s="159"/>
+      <c r="G10" s="159"/>
+      <c r="H10" s="161"/>
+      <c r="I10" s="161"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="166"/>
-      <c r="C11" s="166"/>
-      <c r="D11" s="166"/>
-      <c r="E11" s="174" t="s">
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="174"/>
-      <c r="G11" s="174"/>
-      <c r="H11" s="176"/>
-      <c r="I11" s="176"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="161"/>
+      <c r="I11" s="161"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="166"/>
-      <c r="C12" s="166"/>
-      <c r="D12" s="166"/>
-      <c r="E12" s="174" t="s">
+      <c r="B12" s="151"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="174"/>
-      <c r="G12" s="174"/>
-      <c r="H12" s="176"/>
-      <c r="I12" s="176"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="161"/>
+      <c r="I12" s="161"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="166"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="174" t="s">
+      <c r="B13" s="151"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="176"/>
-      <c r="I13" s="176"/>
+      <c r="F13" s="159"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="166"/>
-      <c r="C14" s="166" t="s">
+      <c r="B14" s="151"/>
+      <c r="C14" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="166" t="s">
+      <c r="D14" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="174" t="s">
+      <c r="E14" s="159" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="167" t="s">
+      <c r="F14" s="152" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="174"/>
+      <c r="G14" s="159"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="166"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="166"/>
-      <c r="E15" s="174" t="s">
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="169"/>
-      <c r="G15" s="174"/>
+      <c r="F15" s="154"/>
+      <c r="G15" s="159"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="166"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166" t="s">
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="174" t="s">
+      <c r="E16" s="159" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="169"/>
-      <c r="G16" s="174"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="159"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="166"/>
-      <c r="C17" s="166"/>
-      <c r="D17" s="166"/>
-      <c r="E17" s="174" t="s">
+      <c r="B17" s="151"/>
+      <c r="C17" s="151"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="159" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="169"/>
-      <c r="G17" s="174"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="159"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="166"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="174" t="s">
+      <c r="B18" s="151"/>
+      <c r="C18" s="151"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="159" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="169"/>
-      <c r="G18" s="174"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9744,378 +9729,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="134" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="135" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="149"/>
-      <c r="B3" s="150" t="s">
+      <c r="A3" s="134"/>
+      <c r="B3" s="135" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="151" t="s">
+      <c r="C3" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="150"/>
+      <c r="D3" s="135"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="149"/>
-      <c r="B4" s="150" t="s">
+      <c r="A4" s="134"/>
+      <c r="B4" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="150"/>
+      <c r="D4" s="135"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="149"/>
-      <c r="B5" s="150" t="s">
+      <c r="A5" s="134"/>
+      <c r="B5" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="151" t="s">
+      <c r="C5" s="136" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="150"/>
+      <c r="D5" s="135"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="149"/>
-      <c r="B6" s="150" t="s">
+      <c r="A6" s="134"/>
+      <c r="B6" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="136" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="150"/>
+      <c r="D6" s="135"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="149"/>
-      <c r="B7" s="149" t="s">
+      <c r="A7" s="134"/>
+      <c r="B7" s="134" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="151" t="s">
+      <c r="C7" s="136" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="150"/>
+      <c r="D7" s="135"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="149"/>
-      <c r="B8" s="149" t="s">
+      <c r="A8" s="134"/>
+      <c r="B8" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="151" t="s">
+      <c r="C8" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="150"/>
+      <c r="D8" s="135"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="149"/>
-      <c r="B9" s="149" t="s">
+      <c r="A9" s="134"/>
+      <c r="B9" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="151" t="s">
+      <c r="C9" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="151" t="s">
+      <c r="D9" s="136" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="149"/>
-      <c r="B10" s="150" t="s">
+      <c r="A10" s="134"/>
+      <c r="B10" s="135" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="151" t="s">
+      <c r="C10" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="150"/>
+      <c r="D10" s="135"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="149"/>
-      <c r="B11" s="150" t="s">
+      <c r="A11" s="134"/>
+      <c r="B11" s="135" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="151" t="s">
+      <c r="C11" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="150"/>
+      <c r="D11" s="135"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="152" t="s">
+      <c r="A12" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="152" t="s">
+      <c r="B12" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="153" t="s">
+      <c r="C12" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="153" t="s">
+      <c r="D12" s="138" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="154"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="153" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="153" t="s">
+      <c r="D13" s="138" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="154"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="153" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="153" t="s">
+      <c r="D14" s="138" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="154"/>
-      <c r="B15" s="152" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="153" t="s">
+      <c r="C15" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="156"/>
+      <c r="D15" s="141"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="154"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="153" t="s">
+      <c r="A16" s="139"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="156" t="s">
+      <c r="D16" s="141" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="154"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="153" t="s">
+      <c r="A17" s="139"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="153" t="s">
+      <c r="D17" s="138" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="154"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="153" t="s">
+      <c r="A18" s="139"/>
+      <c r="B18" s="139"/>
+      <c r="C18" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="153" t="s">
+      <c r="D18" s="138" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="154"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="153" t="s">
+      <c r="A19" s="139"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="153" t="s">
+      <c r="D19" s="138" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="154"/>
-      <c r="B20" s="152" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="153" t="s">
+      <c r="C20" s="138" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="153" t="s">
+      <c r="D20" s="138" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="155"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="153" t="s">
+      <c r="A21" s="140"/>
+      <c r="B21" s="140"/>
+      <c r="C21" s="138" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="153" t="s">
+      <c r="D21" s="138" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="157" t="s">
+      <c r="A22" s="142" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="158" t="s">
+      <c r="B22" s="143" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="159" t="s">
+      <c r="C22" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="159" t="s">
+      <c r="D22" s="144" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="160"/>
-      <c r="B23" s="158" t="s">
+      <c r="A23" s="145"/>
+      <c r="B23" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="159" t="s">
+      <c r="C23" s="144" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="159" t="s">
+      <c r="D23" s="144" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="160"/>
-      <c r="B24" s="158" t="s">
+      <c r="A24" s="145"/>
+      <c r="B24" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="159" t="s">
+      <c r="C24" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="159" t="s">
+      <c r="D24" s="144" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="160"/>
-      <c r="B25" s="158" t="s">
+      <c r="A25" s="145"/>
+      <c r="B25" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="159" t="s">
+      <c r="C25" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="159"/>
+      <c r="D25" s="144"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="160"/>
-      <c r="B26" s="158" t="s">
+      <c r="A26" s="145"/>
+      <c r="B26" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="159" t="s">
+      <c r="C26" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="159" t="s">
+      <c r="D26" s="144" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="160"/>
-      <c r="B27" s="158" t="s">
+      <c r="A27" s="145"/>
+      <c r="B27" s="143" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="161" t="s">
+      <c r="C27" s="146" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="159" t="s">
+      <c r="D27" s="144" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="160"/>
-      <c r="B28" s="158" t="s">
+      <c r="A28" s="145"/>
+      <c r="B28" s="143" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="159" t="s">
+      <c r="C28" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="159" t="s">
+      <c r="D28" s="144" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="160"/>
-      <c r="B29" s="158" t="s">
+      <c r="A29" s="145"/>
+      <c r="B29" s="143" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="159" t="s">
+      <c r="D29" s="144" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="162"/>
-      <c r="B30" s="158" t="s">
+      <c r="A30" s="147"/>
+      <c r="B30" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="146" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="159" t="s">
+      <c r="D30" s="144" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="148" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="117" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="132" t="s">
+      <c r="C32" s="117" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="149" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="117" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="132" t="s">
+      <c r="C34" s="117" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="32"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="32"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="165"/>
-      <c r="B35" s="132" t="s">
+      <c r="A35" s="150"/>
+      <c r="B35" s="117" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="132" t="s">
+      <c r="C35" s="117" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="30"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="163" t="s">
+      <c r="A36" s="148" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="144" t="s">
+      <c r="B36" s="129" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="144"/>
-      <c r="D36" s="163" t="s">
+      <c r="C36" s="129"/>
+      <c r="D36" s="148" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="31"/>
+      <c r="E36" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10152,60 +10137,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="120" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="144" t="s">
+      <c r="E9" s="129" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="144" t="s">
+      <c r="F9" s="129" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="145" t="s">
+      <c r="G9" s="130" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="135"/>
-      <c r="E10" s="144" t="s">
+      <c r="D10" s="120"/>
+      <c r="E10" s="129" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="144" t="s">
+      <c r="F10" s="129" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="144" t="s">
+      <c r="G10" s="129" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="135"/>
-      <c r="E11" s="144"/>
-      <c r="F11" s="144"/>
-      <c r="G11" s="146" t="s">
+      <c r="D11" s="120"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="129"/>
+      <c r="G11" s="131" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="135"/>
-      <c r="E12" s="146" t="s">
+      <c r="D12" s="120"/>
+      <c r="E12" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="135" t="s">
+      <c r="F12" s="120" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="132" t="s">
+      <c r="G12" s="117" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="135"/>
-      <c r="E13" s="144" t="s">
+      <c r="D13" s="120"/>
+      <c r="E13" s="129" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="135" t="s">
+      <c r="F13" s="120" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="132" t="s">
+      <c r="G13" s="117" t="s">
         <v>189</v>
       </c>
     </row>
@@ -10241,134 +10226,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="132"/>
-      <c r="F7" s="133" t="s">
+      <c r="E7" s="117"/>
+      <c r="F7" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="132" t="s">
+      <c r="G7" s="117" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="132" t="s">
+      <c r="H7" s="117" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="132"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="132" t="s">
+      <c r="E8" s="117"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="117" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="132" t="s">
+      <c r="H8" s="117" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="120" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="133" t="s">
+      <c r="F9" s="118" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="132" t="s">
+      <c r="G9" s="117" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="132" t="s">
+      <c r="H9" s="117" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="135"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="136" t="s">
+      <c r="E10" s="120"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="137" t="s">
+      <c r="H10" s="122" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="139" t="s">
+      <c r="I10" s="124" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="138"/>
-      <c r="F11" s="139" t="s">
+      <c r="E11" s="123"/>
+      <c r="F11" s="124" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="136" t="s">
+      <c r="G11" s="121" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="137" t="s">
+      <c r="H11" s="122" t="s">
         <v>203</v>
       </c>
-      <c r="I11" s="142"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="138"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="133" t="s">
+      <c r="E12" s="123"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="137" t="s">
+      <c r="H12" s="122" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="138"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="141" t="s">
+      <c r="E13" s="123"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="126" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="138"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="132" t="s">
+      <c r="E14" s="123"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="117" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="138"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="137" t="s">
+      <c r="E15" s="123"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="122" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="138"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="132" t="s">
+      <c r="E16" s="123"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="117" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="138"/>
-      <c r="F17" s="135" t="s">
+      <c r="E17" s="123"/>
+      <c r="F17" s="120" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="135" t="s">
+      <c r="G17" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="132" t="s">
+      <c r="H17" s="117" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="138"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="135"/>
-      <c r="H18" s="132" t="s">
+      <c r="E18" s="123"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="117" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="138"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="135"/>
-      <c r="H19" s="132" t="s">
+      <c r="E19" s="123"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="117" t="s">
         <v>214</v>
       </c>
     </row>
@@ -10407,581 +10392,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="85" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="102" t="s">
+      <c r="D1" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="103"/>
+      <c r="E1" s="88"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="100"/>
-      <c r="B2" s="101" t="s">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="102" t="s">
+      <c r="D2" s="87" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="104"/>
+      <c r="E2" s="89"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="100"/>
-      <c r="B3" s="101" t="s">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="102" t="s">
+      <c r="D3" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="104"/>
+      <c r="E3" s="89"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101" t="s">
+      <c r="A4" s="85"/>
+      <c r="B4" s="86" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="91" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="104"/>
+      <c r="E4" s="89"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="106" t="s">
+      <c r="A5" s="85"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="91" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="102" t="s">
+      <c r="D5" s="87" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="104"/>
+      <c r="E5" s="89"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="100"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="106" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="91" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="102" t="s">
+      <c r="D6" s="87" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="104"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="100"/>
-      <c r="B7" s="101"/>
-      <c r="C7" s="106" t="s">
+      <c r="A7" s="85"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="92" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="102" t="s">
+      <c r="E7" s="87" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="100"/>
-      <c r="B8" s="101"/>
-      <c r="C8" s="108" t="s">
+      <c r="A8" s="85"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="93" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="87" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="87" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="100"/>
-      <c r="B9" s="101" t="s">
+      <c r="A9" s="85"/>
+      <c r="B9" s="86" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="93" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="102" t="s">
+      <c r="D9" s="87" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="102"/>
+      <c r="E9" s="87"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="100"/>
-      <c r="B10" s="101"/>
-      <c r="C10" s="108" t="s">
+      <c r="A10" s="85"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="93" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="102"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="100"/>
-      <c r="B11" s="101" t="s">
+      <c r="A11" s="85"/>
+      <c r="B11" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="108" t="s">
+      <c r="C11" s="93" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="102" t="s">
+      <c r="D11" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="102"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="100"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="108" t="s">
+      <c r="A12" s="85"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="93" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="107" t="s">
+      <c r="D12" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="102"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="100"/>
-      <c r="B13" s="101"/>
-      <c r="C13" s="108" t="s">
+      <c r="A13" s="85"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="93" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="87" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="102"/>
+      <c r="E13" s="87"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="100"/>
-      <c r="B14" s="101" t="s">
+      <c r="A14" s="85"/>
+      <c r="B14" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="102" t="s">
+      <c r="D14" s="87" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="102"/>
+      <c r="E14" s="87"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="100"/>
-      <c r="B15" s="109" t="s">
+      <c r="A15" s="85"/>
+      <c r="B15" s="94" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="108" t="s">
+      <c r="C15" s="93" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="87" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="102" t="s">
+      <c r="E15" s="87" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="100"/>
-      <c r="B16" s="110"/>
-      <c r="C16" s="108" t="s">
+      <c r="A16" s="85"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="107" t="s">
+      <c r="D16" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="87" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="100"/>
-      <c r="B17" s="101" t="s">
+      <c r="A17" s="85"/>
+      <c r="B17" s="86" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="111" t="s">
+      <c r="C17" s="96" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="87" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="100"/>
-      <c r="B18" s="101"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="102" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="87" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="87" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="113" t="s">
+      <c r="B19" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="87" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="104" t="s">
+      <c r="D19" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="114"/>
+      <c r="E19" s="99"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="112"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="102" t="s">
+      <c r="A20" s="97"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="87" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="E20" s="101" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="112"/>
-      <c r="B21" s="117" t="s">
+      <c r="A21" s="97"/>
+      <c r="B21" s="102" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="116" t="s">
+      <c r="C21" s="101" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="102" t="s">
+      <c r="D21" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="118"/>
+      <c r="E21" s="103"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="112"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="115"/>
-      <c r="D22" s="102" t="s">
+      <c r="A22" s="97"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="110"/>
+      <c r="E22" s="95"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="120" t="s">
+      <c r="A23" s="105" t="s">
         <v>276</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="106" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="111" t="s">
+      <c r="D23" s="96" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="100"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="122"/>
-      <c r="B24" s="123"/>
-      <c r="C24" s="102" t="s">
+      <c r="A24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="87" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="111" t="s">
+      <c r="D24" s="96" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="100"/>
+      <c r="E24" s="85"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="122"/>
-      <c r="B25" s="124" t="s">
+      <c r="A25" s="107"/>
+      <c r="B25" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="87" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="96" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="122"/>
-      <c r="B26" s="124" t="s">
+      <c r="A26" s="107"/>
+      <c r="B26" s="109" t="s">
         <v>285</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="87" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="96" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="101" t="s">
+      <c r="E26" s="86" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="122"/>
-      <c r="B27" s="121" t="s">
+      <c r="A27" s="107"/>
+      <c r="B27" s="106" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="102" t="s">
+      <c r="C27" s="87" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="96" t="s">
         <v>291</v>
       </c>
-      <c r="E27" s="100"/>
+      <c r="E27" s="85"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="122"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="102" t="s">
+      <c r="A28" s="107"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="87" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="100"/>
+      <c r="E28" s="85"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="122"/>
-      <c r="B29" s="111" t="s">
+      <c r="A29" s="107"/>
+      <c r="B29" s="96" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="96" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="111"/>
-      <c r="E29" s="100"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="85"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="122"/>
-      <c r="B30" s="111" t="s">
+      <c r="A30" s="107"/>
+      <c r="B30" s="96" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="111" t="s">
+      <c r="C30" s="96" t="s">
         <v>297</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="100"/>
+      <c r="E30" s="85"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="122"/>
-      <c r="B31" s="101" t="s">
+      <c r="A31" s="107"/>
+      <c r="B31" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="104" t="s">
+      <c r="C31" s="89" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="96" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="100"/>
+      <c r="E31" s="85"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="122"/>
-      <c r="B32" s="101"/>
-      <c r="C32" s="101" t="s">
+      <c r="A32" s="107"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="100"/>
+      <c r="E32" s="85"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="122"/>
-      <c r="B33" s="101"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="111" t="s">
+      <c r="A33" s="107"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="96" t="s">
         <v>304</v>
       </c>
-      <c r="E33" s="100"/>
+      <c r="E33" s="85"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="122"/>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="111" t="s">
+      <c r="A34" s="107"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="96" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="100"/>
+      <c r="E34" s="85"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="122"/>
-      <c r="B35" s="101"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="111" t="s">
+      <c r="A35" s="107"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="96" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="100"/>
+      <c r="E35" s="85"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="122"/>
-      <c r="B36" s="125" t="s">
+      <c r="A36" s="107"/>
+      <c r="B36" s="110" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="111" t="s">
+      <c r="C36" s="96" t="s">
         <v>308</v>
       </c>
-      <c r="D36" s="126" t="s">
+      <c r="D36" s="111" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="101"/>
+      <c r="E36" s="86"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="122"/>
-      <c r="B37" s="101" t="s">
+      <c r="A37" s="107"/>
+      <c r="B37" s="86" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="104" t="s">
+      <c r="C37" s="89" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="96" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="100"/>
+      <c r="E37" s="85"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="122"/>
-      <c r="B38" s="61" t="s">
+      <c r="A38" s="107"/>
+      <c r="B38" s="44" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="59" t="s">
+      <c r="C38" s="42" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="111" t="s">
+      <c r="D38" s="96" t="s">
         <v>315</v>
       </c>
-      <c r="E38" s="100"/>
+      <c r="E38" s="85"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="122"/>
-      <c r="B39" s="101" t="s">
+      <c r="A39" s="107"/>
+      <c r="B39" s="86" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="104" t="s">
+      <c r="C39" s="89" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="111"/>
-      <c r="E39" s="100"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="85"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="122"/>
-      <c r="B40" s="111" t="s">
+      <c r="A40" s="107"/>
+      <c r="B40" s="96" t="s">
         <v>318</v>
       </c>
-      <c r="C40" s="102" t="s">
+      <c r="C40" s="87" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="111" t="s">
+      <c r="D40" s="96" t="s">
         <v>320</v>
       </c>
-      <c r="E40" s="100"/>
+      <c r="E40" s="85"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="122"/>
-      <c r="B41" s="111" t="s">
+      <c r="A41" s="107"/>
+      <c r="B41" s="96" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="87" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="111"/>
-      <c r="E41" s="100"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="85"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="122"/>
-      <c r="B42" s="111" t="s">
+      <c r="A42" s="107"/>
+      <c r="B42" s="96" t="s">
         <v>323</v>
       </c>
-      <c r="C42" s="127" t="s">
+      <c r="C42" s="112" t="s">
         <v>324</v>
       </c>
-      <c r="D42" s="111"/>
-      <c r="E42" s="100"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="85"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="120" t="s">
+      <c r="A43" s="105" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="128" t="s">
+      <c r="B43" s="113" t="s">
         <v>325</v>
       </c>
-      <c r="C43" s="129"/>
-      <c r="D43" s="111"/>
-      <c r="E43" s="100"/>
+      <c r="C43" s="114"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="85"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="122"/>
-      <c r="B44" s="111" t="s">
+      <c r="A44" s="107"/>
+      <c r="B44" s="96" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="130" t="s">
+      <c r="C44" s="115" t="s">
         <v>327</v>
       </c>
-      <c r="D44" s="111" t="s">
+      <c r="D44" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="E44" s="127" t="s">
+      <c r="E44" s="112" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="122"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111" t="s">
+      <c r="A45" s="107"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96" t="s">
         <v>330</v>
       </c>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="91" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="122"/>
-      <c r="B46" s="101" t="s">
+      <c r="A46" s="107"/>
+      <c r="B46" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="130" t="s">
+      <c r="C46" s="115" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="111" t="s">
+      <c r="D46" s="96" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="127" t="s">
+      <c r="E46" s="112" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="131"/>
-      <c r="B47" s="101"/>
-      <c r="C47" s="101"/>
-      <c r="D47" s="126" t="s">
+      <c r="A47" s="116"/>
+      <c r="B47" s="86"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="E47" s="127" t="s">
+      <c r="E47" s="112" t="s">
         <v>337</v>
       </c>
     </row>
@@ -11021,7 +11006,7 @@
   <sheetPr/>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A11" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A32" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -11034,404 +11019,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="74" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="75" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="91" t="s">
+      <c r="C1" s="76" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="90"/>
+      <c r="D1" s="75"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="89"/>
-      <c r="B2" s="92" t="s">
+      <c r="A2" s="74"/>
+      <c r="B2" s="77" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="78" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="93"/>
+      <c r="D2" s="78"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="89"/>
-      <c r="B3" s="92" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="77" t="s">
         <v>343</v>
       </c>
-      <c r="C3" s="91" t="s">
+      <c r="C3" s="76" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="93"/>
+      <c r="D3" s="78"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="89"/>
-      <c r="B4" s="92" t="s">
+      <c r="A4" s="74"/>
+      <c r="B4" s="77" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="79" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="93"/>
+      <c r="D4" s="78"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="89"/>
-      <c r="B5" s="92" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="77" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="91" t="s">
+      <c r="C5" s="76" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="93"/>
+      <c r="D5" s="78"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="89"/>
-      <c r="B6" s="92" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="77" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="91" t="s">
+      <c r="C6" s="76" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="95"/>
+      <c r="D6" s="80"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="90" t="s">
+      <c r="A7" s="75" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="77" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="91" t="s">
+      <c r="C7" s="76" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="96" t="s">
+      <c r="D7" s="81" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="90"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="91" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="75" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="90"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="91" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="76" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="77" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="90"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="91" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="76" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="77" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="90"/>
-      <c r="B11" s="90" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="76" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="75" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="90"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="90" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="82" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="90"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="98" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="83" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="90"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="98" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="83" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="90"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="97" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="82" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="90"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="93" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="90" t="s">
+      <c r="D16" s="75" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="90"/>
-      <c r="B17" s="92" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="77" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="77" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="95" t="s">
+      <c r="D17" s="80" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="90"/>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77" t="s">
         <v>330</v>
       </c>
-      <c r="D18" s="95"/>
+      <c r="D18" s="80"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="90"/>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92" t="s">
+      <c r="A19" s="75"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="95"/>
+      <c r="D19" s="80"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="90"/>
-      <c r="B20" s="92"/>
-      <c r="C20" s="92" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="95"/>
+      <c r="D20" s="80"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="90"/>
-      <c r="B21" s="90" t="s">
+      <c r="A21" s="75"/>
+      <c r="B21" s="75" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="93" t="s">
+      <c r="C21" s="78" t="s">
         <v>375</v>
       </c>
-      <c r="D21" s="90" t="s">
+      <c r="D21" s="75" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="90" t="s">
+      <c r="A22" s="75" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="76" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="91" t="s">
+      <c r="C22" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="75"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="90"/>
-      <c r="B23" s="90" t="s">
+      <c r="A23" s="75"/>
+      <c r="B23" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="91"/>
+      <c r="D23" s="76"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="90"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91" t="s">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="76" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="91"/>
+      <c r="D24" s="76"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="90"/>
-      <c r="B25" s="90" t="s">
+      <c r="A25" s="75"/>
+      <c r="B25" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="99" t="s">
+      <c r="C25" s="84" t="s">
         <v>384</v>
       </c>
-      <c r="D25" s="99"/>
+      <c r="D25" s="84"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="90"/>
-      <c r="B26" s="90" t="s">
+      <c r="A26" s="75"/>
+      <c r="B26" s="75" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91" t="s">
+      <c r="C26" s="76"/>
+      <c r="D26" s="76" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="90"/>
-      <c r="B27" s="92" t="s">
+      <c r="A27" s="75"/>
+      <c r="B27" s="77" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="94" t="s">
+      <c r="C27" s="79" t="s">
         <v>388</v>
       </c>
-      <c r="D27" s="91" t="s">
+      <c r="D27" s="76" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="90"/>
-      <c r="B28" s="92"/>
-      <c r="C28" s="94" t="s">
+      <c r="A28" s="75"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="79" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="91" t="s">
+      <c r="D28" s="76" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="90"/>
-      <c r="B29" s="92"/>
-      <c r="C29" s="94" t="s">
+      <c r="A29" s="75"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="79" t="s">
         <v>392</v>
       </c>
-      <c r="D29" s="91" t="s">
+      <c r="D29" s="76" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90" t="s">
+      <c r="A30" s="75"/>
+      <c r="B30" s="75" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="91" t="s">
+      <c r="C30" s="76" t="s">
         <v>395</v>
       </c>
-      <c r="D30" s="91"/>
+      <c r="D30" s="76"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="90" t="s">
+      <c r="A31" s="75" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="75" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="91" t="s">
+      <c r="C31" s="76" t="s">
         <v>398</v>
       </c>
-      <c r="D31" s="91"/>
+      <c r="D31" s="76"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="90"/>
-      <c r="B32" s="90" t="s">
+      <c r="A32" s="75"/>
+      <c r="B32" s="75" t="s">
         <v>399</v>
       </c>
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="76" t="s">
         <v>400</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="D32" s="76" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="90"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91" t="s">
+      <c r="A33" s="75"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="76" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="90"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91" t="s">
+      <c r="A34" s="75"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="76" t="s">
         <v>404</v>
       </c>
-      <c r="D34" s="91" t="s">
+      <c r="D34" s="76" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90" t="s">
+      <c r="A35" s="75"/>
+      <c r="B35" s="75" t="s">
         <v>406</v>
       </c>
-      <c r="C35" s="91" t="s">
+      <c r="C35" s="76" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="91" t="s">
+      <c r="D35" s="76" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="90"/>
-      <c r="B36" s="90" t="s">
+      <c r="A36" s="75"/>
+      <c r="B36" s="75" t="s">
         <v>409</v>
       </c>
-      <c r="C36" s="91" t="s">
+      <c r="C36" s="76" t="s">
         <v>410</v>
       </c>
-      <c r="D36" s="91" t="s">
+      <c r="D36" s="76" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="90"/>
-      <c r="B37" s="90" t="s">
+      <c r="A37" s="75"/>
+      <c r="B37" s="75" t="s">
         <v>412</v>
       </c>
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="75" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="90"/>
+      <c r="D37" s="75"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="90"/>
-      <c r="B38" s="90" t="s">
+      <c r="A38" s="75"/>
+      <c r="B38" s="75" t="s">
         <v>414</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="75" t="s">
         <v>415</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="75" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="90"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="94" t="s">
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="79" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="94" t="s">
+      <c r="D39" s="79" t="s">
         <v>418</v>
       </c>
     </row>
@@ -11464,7 +11449,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -11478,107 +11463,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="69" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="70" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="59" t="s">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="59" t="s">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="59" t="s">
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86" t="s">
+      <c r="A5" s="68"/>
+      <c r="B5" s="69" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="87" t="s">
+      <c r="C5" s="71" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="71" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="68" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="88" t="s">
+      <c r="F5" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="32"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="87" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="71" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="71" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="86"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="69"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="87" t="s">
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="71" t="s">
         <v>433</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="71" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="68" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="87" t="s">
+      <c r="F7" s="71" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="85"/>
-      <c r="B8" s="61" t="s">
+      <c r="A8" s="68"/>
+      <c r="B8" s="73" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="59"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="874">
   <si>
     <t>artificial    intelligence
 读：阿尔提（费学） 赢特ne（jin ce）</t>
@@ -4578,16 +4578,10 @@
     <t>适用于各种序列任务，如机器翻译、语言建模等。</t>
   </si>
   <si>
-    <t>Tensorflow-张量流</t>
-  </si>
-  <si>
-    <t>通过“张量流” 进行数据传递和计算</t>
-  </si>
-  <si>
     <t>Tensorflow</t>
   </si>
   <si>
-    <t>张量本质就是数组</t>
+    <t>Tensor表示张量，flow表示流</t>
   </si>
   <si>
     <t>部署</t>
@@ -4605,10 +4599,57 @@
     <t>张量</t>
   </si>
   <si>
-    <t>创建张量</t>
-  </si>
-  <si>
-    <t>hello = tf.constant('hello world')</t>
+    <t>多维数组或向量，张量是数据的载体， 包括名字、形状、数据类型等等属性。
+tf.constant</t>
+  </si>
+  <si>
+    <t>张量,张量本质就是数组</t>
+  </si>
+  <si>
+    <t>变量</t>
+  </si>
+  <si>
+    <t>变量一种特殊的 "张量"，能够进行存储持久化，它的值是张量</t>
+  </si>
+  <si>
+    <t>占位符</t>
+  </si>
+  <si>
+    <t>可以先声明一个占位符号，真正执行时再传入变量。</t>
+  </si>
+  <si>
+    <t>操作</t>
+  </si>
+  <si>
+    <t>tf.所有的</t>
+  </si>
+  <si>
+    <t>图（容器）</t>
+  </si>
+  <si>
+    <t>"定义部分" 可以看成一个图，
+存放了所有的操作//OP的容器</t>
+  </si>
+  <si>
+    <t>会话</t>
+  </si>
+  <si>
+    <t>用来  "执行图" 的运算</t>
+  </si>
+  <si>
+    <t>数据流</t>
+  </si>
+  <si>
+    <t>有点像ROS的计算图</t>
+  </si>
+  <si>
+    <t>tensorboard</t>
+  </si>
+  <si>
+    <t>“数据流转方向”的视化</t>
+  </si>
+  <si>
+    <t>加载与保存</t>
   </si>
 </sst>
 </file>
@@ -4863,6 +4904,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4882,12 +4929,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5539,95 +5580,110 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -5660,11 +5716,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -5672,96 +5725,93 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5936,19 +5986,19 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6026,7 +6076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6448,252 +6498,252 @@
   </cols>
   <sheetData>
     <row r="11" ht="51" customHeight="1" spans="1:7">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" ht="85" customHeight="1" spans="1:7">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" ht="27" spans="1:7">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="169" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="166" t="s">
+      <c r="B13" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="166" t="s">
+      <c r="C13" s="169" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="167" t="s">
+      <c r="D13" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="58" t="s">
+      <c r="E13" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="168" t="s">
+      <c r="F13" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="169" t="s">
+      <c r="G13" s="172" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="1" spans="1:7">
-      <c r="A14" s="170"/>
-      <c r="B14" s="170"/>
-      <c r="C14" s="170"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="171" t="s">
+      <c r="A14" s="173"/>
+      <c r="B14" s="173"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="170"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="172" t="s">
+      <c r="G14" s="175" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" ht="85" customHeight="1" spans="1:7">
-      <c r="A15" s="170"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="173"/>
-      <c r="E15" s="31" t="s">
+      <c r="A15" s="173"/>
+      <c r="B15" s="173"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="174" t="s">
+      <c r="F15" s="177" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="175"/>
+      <c r="G15" s="178"/>
     </row>
     <row r="16" ht="40.5" spans="1:7">
-      <c r="A16" s="170"/>
-      <c r="B16" s="170"/>
-      <c r="C16" s="31" t="s">
+      <c r="A16" s="173"/>
+      <c r="B16" s="173"/>
+      <c r="C16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="36" t="s">
+      <c r="D16" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="170"/>
-      <c r="B17" s="176" t="s">
+      <c r="A17" s="173"/>
+      <c r="B17" s="179" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="170"/>
-      <c r="B18" s="166"/>
-      <c r="C18" s="31" t="s">
+      <c r="A18" s="173"/>
+      <c r="B18" s="169"/>
+      <c r="C18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="170"/>
-      <c r="B19" s="177" t="s">
+      <c r="A19" s="173"/>
+      <c r="B19" s="180" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="178"/>
-      <c r="D19" s="179"/>
-      <c r="E19" s="31" t="s">
+      <c r="C19" s="181"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="170"/>
-      <c r="B20" s="170"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="170"/>
-      <c r="B21" s="176" t="s">
+      <c r="A21" s="173"/>
+      <c r="B21" s="179" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="179" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="176" t="s">
+      <c r="D21" s="36"/>
+      <c r="E21" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="31" t="s">
+      <c r="F21" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="G21" s="31"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="170"/>
-      <c r="B22" s="180"/>
-      <c r="C22" s="180"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="180"/>
-      <c r="F22" s="31" t="s">
+      <c r="A22" s="173"/>
+      <c r="B22" s="183"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="183"/>
+      <c r="F22" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="31"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="170"/>
-      <c r="B23" s="180"/>
-      <c r="C23" s="180"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="180"/>
-      <c r="F23" s="31" t="s">
+      <c r="A23" s="173"/>
+      <c r="B23" s="183"/>
+      <c r="C23" s="183"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="183"/>
+      <c r="F23" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G23" s="31"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="170"/>
-      <c r="B24" s="180"/>
-      <c r="C24" s="180"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="180"/>
-      <c r="F24" s="31" t="s">
+      <c r="A24" s="173"/>
+      <c r="B24" s="183"/>
+      <c r="C24" s="183"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="183"/>
+      <c r="F24" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="31"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="170"/>
-      <c r="B25" s="180"/>
-      <c r="C25" s="166"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="166"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="A25" s="173"/>
+      <c r="B25" s="183"/>
+      <c r="C25" s="169"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="170"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="31" t="s">
+      <c r="A26" s="173"/>
+      <c r="B26" s="183"/>
+      <c r="C26" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31" t="s">
+      <c r="D26" s="36"/>
+      <c r="E26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="170"/>
-      <c r="B27" s="180"/>
-      <c r="C27" s="31" t="s">
+      <c r="A27" s="173"/>
+      <c r="B27" s="183"/>
+      <c r="C27" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="170"/>
-      <c r="B28" s="180"/>
-      <c r="C28" s="31" t="s">
+      <c r="A28" s="173"/>
+      <c r="B28" s="183"/>
+      <c r="C28" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="170"/>
-      <c r="B29" s="180"/>
-      <c r="C29" s="31" t="s">
+      <c r="A29" s="173"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="170"/>
-      <c r="B30" s="166"/>
-      <c r="C30" s="31" t="s">
+      <c r="A30" s="173"/>
+      <c r="B30" s="169"/>
+      <c r="C30" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -6738,745 +6788,745 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="37" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="33"/>
+      <c r="A3" s="38"/>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="33"/>
+      <c r="A4" s="38"/>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="33"/>
+      <c r="A5" s="38"/>
     </row>
     <row r="6" ht="70" customHeight="1" spans="1:6">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
     </row>
     <row r="7" ht="40.5" spans="2:7">
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="38" t="s">
         <v>440</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="38" t="s">
         <v>441</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="36" t="s">
         <v>441</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="41" t="s">
         <v>442</v>
       </c>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
     </row>
     <row r="8" ht="27" spans="2:7">
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="31" t="s">
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36" t="s">
         <v>443</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E8" s="41" t="s">
         <v>444</v>
       </c>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
     </row>
     <row r="9" ht="71" customHeight="1" spans="2:7">
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36" t="s">
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="41" t="s">
         <v>445</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="41" t="s">
         <v>446</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
     </row>
     <row r="10" ht="47" customHeight="1" spans="2:7">
-      <c r="B10" s="33"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="36" t="s">
         <v>447</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
     </row>
     <row r="11" ht="54" spans="2:7">
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33" t="s">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>449</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="42" t="s">
         <v>450</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F11" s="41" t="s">
         <v>451</v>
       </c>
-      <c r="G11" s="31"/>
+      <c r="G11" s="36"/>
     </row>
     <row r="12" ht="27" spans="2:7">
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="36" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="41" t="s">
         <v>452</v>
       </c>
-      <c r="G12" s="31"/>
+      <c r="G12" s="36"/>
     </row>
     <row r="13" ht="67.5" spans="2:7">
-      <c r="B13" s="33"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="38"/>
+      <c r="C13" s="38" t="s">
         <v>453</v>
       </c>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="41" t="s">
         <v>454</v>
       </c>
-      <c r="E13" s="38" t="s">
+      <c r="E13" s="43" t="s">
         <v>455</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="44" t="s">
         <v>456</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="36" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="14" ht="78" customHeight="1" spans="2:7">
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="31" t="s">
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="44" t="s">
         <v>459</v>
       </c>
-      <c r="F14" s="39" t="s">
+      <c r="F14" s="44" t="s">
         <v>460</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="G14" s="36" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="15" ht="61" customHeight="1" spans="2:7">
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="32" t="s">
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="E15" s="36" t="s">
+      <c r="E15" s="41" t="s">
         <v>463</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="F15" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="37" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="16" ht="94.5" spans="2:7">
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="36" t="s">
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
     </row>
     <row r="17" ht="54" customHeight="1" spans="2:7">
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="36" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="41" t="s">
         <v>467</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="33"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="36" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="41" t="s">
         <v>468</v>
       </c>
-      <c r="F18" s="32"/>
-      <c r="G18" s="33"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
     </row>
     <row r="19" ht="27" spans="2:7">
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="36" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="41" t="s">
         <v>469</v>
       </c>
-      <c r="F19" s="32"/>
-      <c r="G19" s="33"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="38"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="38" t="s">
         <v>470</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="D20" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="33"/>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="D21" s="31" t="s">
+      <c r="D21" s="36" t="s">
         <v>474</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="33"/>
-      <c r="C22" s="32" t="s">
+      <c r="B22" s="38"/>
+      <c r="C22" s="37" t="s">
         <v>475</v>
       </c>
-      <c r="D22" s="31" t="s">
+      <c r="D22" s="36" t="s">
         <v>476</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="33"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="31" t="s">
+      <c r="B23" s="38"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
     </row>
     <row r="24" ht="27" spans="2:7">
-      <c r="B24" s="33"/>
-      <c r="C24" s="36" t="s">
+      <c r="B24" s="38"/>
+      <c r="C24" s="41" t="s">
         <v>478</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="36" t="s">
+      <c r="D24" s="36"/>
+      <c r="E24" s="41" t="s">
         <v>479</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="33"/>
-      <c r="C25" s="40" t="s">
+      <c r="B25" s="38"/>
+      <c r="C25" s="45" t="s">
         <v>480</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="33"/>
-      <c r="C26" s="40" t="s">
+      <c r="B26" s="38"/>
+      <c r="C26" s="45" t="s">
         <v>481</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
     </row>
     <row r="27" ht="25" customHeight="1" spans="2:7">
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="37" t="s">
         <v>482</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="41" t="s">
         <v>483</v>
       </c>
-      <c r="D27" s="42" t="s">
+      <c r="D27" s="47" t="s">
         <v>484</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="48" t="s">
         <v>484</v>
       </c>
-      <c r="F27" s="31" t="s">
+      <c r="F27" s="36" t="s">
         <v>485</v>
       </c>
-      <c r="G27" s="31"/>
+      <c r="G27" s="36"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="D28" s="42" t="s">
+      <c r="D28" s="47" t="s">
         <v>487</v>
       </c>
-      <c r="E28" s="43" t="s">
+      <c r="E28" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="F28" s="31" t="s">
+      <c r="F28" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="G28" s="31"/>
+      <c r="G28" s="36"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="42" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="47" t="s">
         <v>489</v>
       </c>
-      <c r="E29" s="43" t="s">
+      <c r="E29" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="F29" s="31" t="s">
+      <c r="F29" s="36" t="s">
         <v>490</v>
       </c>
-      <c r="G29" s="31"/>
+      <c r="G29" s="36"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="32"/>
-      <c r="C30" s="32" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="D30" s="42" t="s">
+      <c r="D30" s="47" t="s">
         <v>492</v>
       </c>
-      <c r="E30" s="31" t="s">
+      <c r="E30" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="44" t="s">
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="49" t="s">
         <v>494</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50" t="s">
         <v>496</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
     </row>
     <row r="33" ht="23" customHeight="1" spans="2:7">
-      <c r="B33" s="32"/>
-      <c r="C33" s="32" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="D33" s="42" t="s">
+      <c r="D33" s="47" t="s">
         <v>498</v>
       </c>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="50" t="s">
         <v>499</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="F33" s="37" t="s">
         <v>500</v>
       </c>
-      <c r="G33" s="31"/>
+      <c r="G33" s="36"/>
     </row>
     <row r="34" ht="33" customHeight="1" spans="2:7">
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="42" t="s">
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="47" t="s">
         <v>501</v>
       </c>
-      <c r="E34" s="45" t="s">
+      <c r="E34" s="50" t="s">
         <v>502</v>
       </c>
-      <c r="F34" s="33"/>
-      <c r="G34" s="31"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="36"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="32"/>
-      <c r="C35" s="32" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37" t="s">
         <v>503</v>
       </c>
-      <c r="D35" s="42" t="s">
+      <c r="D35" s="47" t="s">
         <v>504</v>
       </c>
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="51" t="s">
         <v>505</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="F35" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="G35" s="31"/>
+      <c r="G35" s="36"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="42" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="47" t="s">
         <v>507</v>
       </c>
-      <c r="E36" s="46" t="s">
+      <c r="E36" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="31"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" ht="54" spans="2:7">
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="42" t="s">
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="47" t="s">
         <v>509</v>
       </c>
-      <c r="E37" s="47" t="s">
+      <c r="E37" s="52" t="s">
         <v>510</v>
       </c>
-      <c r="F37" s="33"/>
-      <c r="G37" s="31"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="36"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="32"/>
-      <c r="C38" s="32" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37" t="s">
         <v>511</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="E38" s="13" t="s">
+      <c r="E38" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="F38" s="33"/>
-      <c r="G38" s="31"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="36"/>
     </row>
     <row r="39" ht="108" spans="2:7">
-      <c r="B39" s="32"/>
-      <c r="C39" s="32" t="s">
+      <c r="B39" s="37"/>
+      <c r="C39" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="19" t="s">
         <v>516</v>
       </c>
-      <c r="F39" s="31" t="s">
+      <c r="F39" s="36" t="s">
         <v>517</v>
       </c>
-      <c r="G39" s="36" t="s">
+      <c r="G39" s="41" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="40" ht="68" customHeight="1" spans="2:7">
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="13" t="s">
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="E40" s="48" t="s">
+      <c r="E40" s="53" t="s">
         <v>520</v>
       </c>
-      <c r="F40" s="31"/>
-      <c r="G40" s="36" t="s">
+      <c r="F40" s="36"/>
+      <c r="G40" s="41" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="41" ht="32" customHeight="1" spans="2:7">
-      <c r="B41" s="32"/>
-      <c r="C41" s="32" t="s">
+      <c r="B41" s="37"/>
+      <c r="C41" s="37" t="s">
         <v>522</v>
       </c>
-      <c r="D41" s="43" t="s">
+      <c r="D41" s="48" t="s">
         <v>523</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E41" s="36" t="s">
         <v>524</v>
       </c>
-      <c r="F41" s="31" t="s">
+      <c r="F41" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="G41" s="31"/>
+      <c r="G41" s="36"/>
     </row>
     <row r="42" ht="33" customHeight="1" spans="2:7">
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="43" t="s">
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="48" t="s">
         <v>526</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E42" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
     </row>
     <row r="43" ht="33" customHeight="1" spans="2:7">
-      <c r="B43" s="32"/>
-      <c r="C43" s="36" t="s">
+      <c r="B43" s="37"/>
+      <c r="C43" s="41" t="s">
         <v>528</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="48" t="s">
         <v>529</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="36" t="s">
         <v>530</v>
       </c>
-      <c r="F43" s="31" t="s">
+      <c r="F43" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="G43" s="31"/>
+      <c r="G43" s="36"/>
     </row>
     <row r="44" ht="33" customHeight="1" spans="2:7">
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="54" t="s">
         <v>532</v>
       </c>
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="54" t="s">
         <v>533</v>
       </c>
-      <c r="D44" s="43" t="s">
+      <c r="D44" s="48" t="s">
         <v>534</v>
       </c>
-      <c r="E44" s="43" t="s">
+      <c r="E44" s="48" t="s">
         <v>535</v>
       </c>
-      <c r="F44" s="50" t="s">
+      <c r="F44" s="55" t="s">
         <v>536</v>
       </c>
-      <c r="G44" s="31"/>
+      <c r="G44" s="36"/>
     </row>
     <row r="45" ht="33" customHeight="1" spans="2:7">
-      <c r="B45" s="49"/>
-      <c r="C45" s="51"/>
-      <c r="D45" s="43" t="s">
+      <c r="B45" s="54"/>
+      <c r="C45" s="56"/>
+      <c r="D45" s="48" t="s">
         <v>537</v>
       </c>
-      <c r="E45" s="47" t="s">
+      <c r="E45" s="52" t="s">
         <v>538</v>
       </c>
-      <c r="F45" s="43" t="s">
+      <c r="F45" s="48" t="s">
         <v>539</v>
       </c>
-      <c r="G45" s="31"/>
+      <c r="G45" s="36"/>
     </row>
     <row r="46" ht="33" customHeight="1" spans="2:7">
-      <c r="B46" s="49"/>
-      <c r="C46" s="51"/>
-      <c r="D46" s="43" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="48" t="s">
         <v>540</v>
       </c>
-      <c r="E46" s="47"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="31"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="36"/>
     </row>
     <row r="47" ht="54" spans="2:7">
-      <c r="B47" s="52"/>
-      <c r="C47" s="49" t="s">
+      <c r="B47" s="57"/>
+      <c r="C47" s="54" t="s">
         <v>541</v>
       </c>
-      <c r="D47" s="43"/>
-      <c r="E47" s="47"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="31"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="36"/>
     </row>
     <row r="48" ht="33" customHeight="1" spans="2:7">
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="58" t="s">
         <v>542</v>
       </c>
-      <c r="C48" s="49" t="s">
+      <c r="C48" s="54" t="s">
         <v>542</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="55" t="s">
         <v>543</v>
       </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="31"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="36"/>
     </row>
     <row r="49" ht="33" customHeight="1" spans="2:7">
-      <c r="B49" s="53"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="50" t="s">
+      <c r="B49" s="58"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="55" t="s">
         <v>544</v>
       </c>
-      <c r="E49" s="47"/>
-      <c r="F49" s="50"/>
-      <c r="G49" s="31"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="36"/>
     </row>
     <row r="50" ht="33" customHeight="1" spans="2:7">
-      <c r="B50" s="53"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="50" t="s">
+      <c r="B50" s="58"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="55" t="s">
         <v>545</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="36" t="s">
         <v>546</v>
       </c>
-      <c r="F50" s="50"/>
-      <c r="G50" s="31"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="36"/>
     </row>
     <row r="51" ht="19" customHeight="1" spans="2:7">
-      <c r="B51" s="53"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
     </row>
     <row r="52" ht="112" customHeight="1" spans="2:7">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="59" t="s">
         <v>547</v>
       </c>
-      <c r="C52" s="55" t="s">
+      <c r="C52" s="60" t="s">
         <v>548</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="36" t="s">
         <v>549</v>
       </c>
-      <c r="E52" s="36" t="s">
+      <c r="E52" s="41" t="s">
         <v>550</v>
       </c>
-      <c r="F52" s="56" t="s">
+      <c r="F52" s="61" t="s">
         <v>551</v>
       </c>
-      <c r="G52" s="57" t="s">
+      <c r="G52" s="62" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="53" ht="31" customHeight="1" spans="2:7">
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="31" t="s">
+      <c r="B53" s="63"/>
+      <c r="C53" s="64"/>
+      <c r="D53" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="66"/>
     </row>
     <row r="54" ht="36" customHeight="1" spans="2:7">
-      <c r="B54" s="58"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="54" t="s">
+      <c r="B54" s="63"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="59" t="s">
         <v>554</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="36" t="s">
         <v>555</v>
       </c>
-      <c r="F54" s="62"/>
-      <c r="G54" s="63"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" ht="36" customHeight="1" spans="2:7">
-      <c r="B55" s="58"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="31" t="s">
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="36" t="s">
         <v>556</v>
       </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="58"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="31" t="s">
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="36" t="s">
         <v>557</v>
       </c>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
+      <c r="F56" s="36"/>
+      <c r="G56" s="36"/>
     </row>
     <row r="57" ht="27" spans="2:7">
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="36" t="s">
+      <c r="B57" s="69"/>
+      <c r="C57" s="70"/>
+      <c r="D57" s="69"/>
+      <c r="E57" s="41" t="s">
         <v>558</v>
       </c>
-      <c r="F57" s="36" t="s">
+      <c r="F57" s="41" t="s">
         <v>559</v>
       </c>
-      <c r="G57" s="31"/>
+      <c r="G57" s="36"/>
     </row>
     <row r="62" spans="3:5">
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="71" t="s">
         <v>560</v>
       </c>
-      <c r="D62" s="67"/>
-      <c r="E62" s="67"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
     </row>
     <row r="63" spans="3:5">
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
     </row>
     <row r="64" spans="3:5">
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
     </row>
     <row r="65" spans="3:5">
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
     </row>
     <row r="66" spans="3:5">
-      <c r="C66" s="67"/>
-      <c r="D66" s="67"/>
-      <c r="E66" s="67"/>
+      <c r="C66" s="72"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
     </row>
     <row r="67" spans="3:5">
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
     </row>
     <row r="68" spans="3:5">
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
-      <c r="E68" s="67"/>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
     </row>
     <row r="69" spans="3:5">
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
     </row>
     <row r="70" spans="3:5">
-      <c r="C70" s="67"/>
-      <c r="D70" s="67"/>
-      <c r="E70" s="67"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
     </row>
     <row r="71" spans="3:5">
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
     </row>
     <row r="72" ht="27" customHeight="1" spans="3:5">
-      <c r="C72" s="67"/>
-      <c r="D72" s="67"/>
-      <c r="E72" s="67"/>
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="33">
@@ -7543,310 +7593,310 @@
   </cols>
   <sheetData>
     <row r="8" ht="40.5" spans="2:11">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="15" t="s">
         <v>561</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" ht="40.5" spans="2:11">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
+      <c r="B9" s="15"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
     </row>
     <row r="10" ht="27" spans="2:11">
-      <c r="B10" s="10"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
+      <c r="B10" s="15"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="10"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
     </row>
     <row r="12" ht="62" customHeight="1" spans="2:12">
-      <c r="B12" s="10"/>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="15"/>
+      <c r="C12" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="H12" s="10" t="s">
+      <c r="H12" s="15" t="s">
         <v>576</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="J12" s="10" t="s">
+      <c r="J12" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="39" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="13" ht="58" customHeight="1" spans="2:12">
-      <c r="B13" s="10"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="2" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="35"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="40"/>
     </row>
     <row r="14" spans="2:12">
-      <c r="B14" s="10"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
         <v>583</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="G14" s="10"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="35"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="40"/>
     </row>
     <row r="15" spans="2:12">
-      <c r="B15" s="10"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="2" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="35"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="40"/>
     </row>
     <row r="16" spans="2:12">
-      <c r="B16" s="10"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="2" t="s">
+      <c r="B16" s="15"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="35"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="40"/>
     </row>
     <row r="17" spans="2:12">
-      <c r="B17" s="10"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="2" t="s">
+      <c r="B17" s="15"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="G17" s="10"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="35"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="40"/>
     </row>
     <row r="18" spans="2:12">
-      <c r="B18" s="10"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="2" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="7" t="s">
         <v>588</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="35"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="40"/>
     </row>
     <row r="19" spans="2:12">
-      <c r="B19" s="10"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="2" t="s">
+      <c r="B19" s="15"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="G19" s="10"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="35"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="40"/>
     </row>
     <row r="20" ht="23" customHeight="1" spans="2:12">
-      <c r="B20" s="10"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>590</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="7" t="s">
         <v>591</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="35"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="40"/>
     </row>
     <row r="21" ht="40.5" spans="2:12">
-      <c r="B21" s="10"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="2" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="G21" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="35"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="40"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="10"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
+      <c r="B22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>595</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
     </row>
     <row r="23" spans="2:11">
-      <c r="B23" s="10"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="15"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11" t="s">
         <v>596</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
     </row>
     <row r="24" spans="2:11">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
+      <c r="B24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
         <v>597</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" ht="111" customHeight="1" spans="2:11">
-      <c r="B25" s="10"/>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="15"/>
+      <c r="C25" s="11" t="s">
         <v>598</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -7875,7 +7925,7 @@
   <sheetPr/>
   <dimension ref="C18:I125"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="D107" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="D108" workbookViewId="0">
       <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
@@ -7892,1302 +7942,1302 @@
   </cols>
   <sheetData>
     <row r="18" ht="27" spans="3:8">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="6" t="s">
         <v>601</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="7" t="s">
         <v>602</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" ht="54" spans="3:8">
-      <c r="C19" s="5"/>
-      <c r="D19" s="3" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="8" t="s">
         <v>605</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="8" t="s">
         <v>606</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="3:8">
-      <c r="C20" s="5"/>
-      <c r="D20" s="2" t="s">
+      <c r="C20" s="10"/>
+      <c r="D20" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="7" t="s">
         <v>608</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
     </row>
     <row r="21" ht="72" customHeight="1" spans="3:8">
-      <c r="C21" s="5"/>
-      <c r="D21" s="3" t="s">
+      <c r="C21" s="10"/>
+      <c r="D21" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
     </row>
     <row r="22" ht="72" customHeight="1" spans="3:8">
-      <c r="C22" s="7"/>
-      <c r="D22" s="3" t="s">
+      <c r="C22" s="12"/>
+      <c r="D22" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
     </row>
     <row r="23" ht="72" customHeight="1"/>
     <row r="24" ht="72" customHeight="1"/>
     <row r="25" ht="32" customHeight="1" spans="3:8">
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="3" t="s">
+      <c r="F25" s="9"/>
+      <c r="G25" s="8" t="s">
         <v>616</v>
       </c>
-      <c r="H25" s="2"/>
+      <c r="H25" s="7"/>
     </row>
     <row r="26" ht="51" customHeight="1" spans="3:8">
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" ht="265" customHeight="1" spans="3:8">
-      <c r="C27" s="6"/>
-      <c r="D27" s="4" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="13" t="s">
         <v>619</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="G27" s="14" t="s">
         <v>621</v>
       </c>
-      <c r="H27" s="2"/>
+      <c r="H27" s="7"/>
     </row>
     <row r="28" ht="72" customHeight="1" spans="3:8">
-      <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="G28" s="14" t="s">
         <v>623</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="7"/>
     </row>
     <row r="29" ht="38" customHeight="1" spans="3:8">
-      <c r="C29" s="6"/>
-      <c r="D29" s="2" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="8" t="s">
         <v>625</v>
       </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
     </row>
     <row r="30" ht="409" customHeight="1" spans="3:8">
-      <c r="C30" s="6"/>
-      <c r="D30" s="3" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="8" t="s">
         <v>626</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="7" t="s">
         <v>627</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="8" t="s">
         <v>628</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="8" t="s">
         <v>629</v>
       </c>
-      <c r="H30" s="2"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" ht="58" customHeight="1" spans="3:8">
-      <c r="C31" s="6"/>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="7" t="s">
         <v>631</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="7" t="s">
         <v>632</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
     </row>
     <row r="32" spans="3:8">
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="15" t="s">
         <v>633</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="7" t="s">
         <v>634</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="3:8">
-      <c r="C33" s="10"/>
-      <c r="D33" s="2" t="s">
+      <c r="C33" s="15"/>
+      <c r="D33" s="7" t="s">
         <v>636</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="7" t="s">
         <v>637</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
     </row>
     <row r="34" ht="85" customHeight="1" spans="3:8">
-      <c r="C34" s="10"/>
-      <c r="D34" s="2" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="H34" s="2"/>
+      <c r="H34" s="7"/>
     </row>
     <row r="35" ht="37" customHeight="1" spans="3:8">
-      <c r="C35" s="10"/>
-      <c r="D35" s="6" t="s">
+      <c r="C35" s="15"/>
+      <c r="D35" s="11" t="s">
         <v>642</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="7" t="s">
         <v>643</v>
       </c>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
     </row>
     <row r="36" ht="52" customHeight="1" spans="3:8">
-      <c r="C36" s="10"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="3" t="s">
+      <c r="C36" s="15"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
     </row>
     <row r="37" ht="83" customHeight="1" spans="3:8">
-      <c r="C37" s="10"/>
-      <c r="D37" s="2" t="s">
+      <c r="C37" s="15"/>
+      <c r="D37" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" ht="44" customHeight="1" spans="3:8">
-      <c r="C38" s="10"/>
-      <c r="D38" s="2" t="s">
+      <c r="C38" s="15"/>
+      <c r="D38" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="7" t="s">
         <v>649</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="G38" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="7"/>
     </row>
     <row r="39" ht="40.5" spans="3:8">
-      <c r="C39" s="10"/>
-      <c r="D39" s="12" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="17" t="s">
         <v>651</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="20" t="s">
         <v>654</v>
       </c>
-      <c r="H39" s="13"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" ht="53" customHeight="1" spans="3:8">
-      <c r="C40" s="10"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="16" t="s">
+      <c r="C40" s="15"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="21" t="s">
         <v>655</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
     </row>
     <row r="41" ht="40.5" spans="3:8">
-      <c r="C41" s="10"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="14" t="s">
+      <c r="C41" s="15"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="G41" s="13" t="s">
+      <c r="G41" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="H41" s="13"/>
+      <c r="H41" s="18"/>
     </row>
     <row r="42" ht="40.5" spans="3:8">
-      <c r="C42" s="10"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="14" t="s">
+      <c r="C42" s="15"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="19" t="s">
         <v>659</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="H42" s="13"/>
+      <c r="H42" s="18"/>
     </row>
     <row r="43" ht="40.5" spans="3:8">
-      <c r="C43" s="10"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="15" t="s">
+      <c r="C43" s="15"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="G43" s="13" t="s">
+      <c r="G43" s="18" t="s">
         <v>662</v>
       </c>
-      <c r="H43" s="13"/>
+      <c r="H43" s="18"/>
     </row>
     <row r="44" ht="54" spans="3:8">
-      <c r="C44" s="10"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="15" t="s">
+      <c r="C44" s="15"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="20" t="s">
         <v>663</v>
       </c>
-      <c r="G44" s="15" t="s">
+      <c r="G44" s="20" t="s">
         <v>664</v>
       </c>
-      <c r="H44" s="13"/>
+      <c r="H44" s="18"/>
     </row>
     <row r="45" ht="34" customHeight="1" spans="3:8">
-      <c r="C45" s="10"/>
-      <c r="D45" s="2" t="s">
+      <c r="C45" s="15"/>
+      <c r="D45" s="7" t="s">
         <v>665</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="8" t="s">
         <v>666</v>
       </c>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
     </row>
     <row r="46" spans="3:8">
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="7" t="s">
         <v>668</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="7" t="s">
         <v>669</v>
       </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
     </row>
     <row r="47" ht="53" customHeight="1" spans="3:8">
-      <c r="C47" s="10"/>
-      <c r="D47" s="2" t="s">
+      <c r="C47" s="15"/>
+      <c r="D47" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="8" t="s">
         <v>671</v>
       </c>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" ht="27" spans="3:8">
-      <c r="C48" s="10"/>
-      <c r="D48" s="2" t="s">
+      <c r="C48" s="15"/>
+      <c r="D48" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E48" s="8" t="s">
         <v>672</v>
       </c>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" ht="54" spans="3:8">
-      <c r="C49" s="10"/>
-      <c r="D49" s="2" t="s">
+      <c r="C49" s="15"/>
+      <c r="D49" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" ht="99" customHeight="1" spans="3:8">
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E50" s="8" t="s">
         <v>675</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="8" t="s">
         <v>676</v>
       </c>
-      <c r="G50" s="17" t="s">
+      <c r="G50" s="22" t="s">
         <v>677</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" ht="48" customHeight="1" spans="3:8">
-      <c r="C51" s="10"/>
-      <c r="D51" s="2" t="s">
+      <c r="C51" s="15"/>
+      <c r="D51" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="8" t="s">
         <v>679</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" ht="34" customHeight="1" spans="3:8">
-      <c r="C52" s="10"/>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="15"/>
+      <c r="D52" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="E52" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="7" t="s">
         <v>682</v>
       </c>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
     </row>
     <row r="53" ht="34" customHeight="1" spans="3:8">
-      <c r="C53" s="10"/>
-      <c r="D53" s="3" t="s">
+      <c r="C53" s="15"/>
+      <c r="D53" s="8" t="s">
         <v>683</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="8" t="s">
         <v>684</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" ht="107" customHeight="1" spans="3:8">
-      <c r="C54" s="10"/>
-      <c r="D54" s="6" t="s">
+      <c r="C54" s="15"/>
+      <c r="D54" s="11" t="s">
         <v>686</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="8" t="s">
         <v>688</v>
       </c>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="3:8">
-      <c r="C55" s="10"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="2" t="s">
+      <c r="C55" s="15"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" ht="40.5" spans="3:8">
-      <c r="C56" s="10"/>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="15"/>
+      <c r="D56" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="E56" s="3" t="s">
+      <c r="E56" s="8" t="s">
         <v>692</v>
       </c>
-      <c r="F56" s="17" t="s">
+      <c r="F56" s="22" t="s">
         <v>693</v>
       </c>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="3:8">
-      <c r="C57" s="10"/>
-      <c r="D57" s="6" t="s">
+      <c r="C57" s="15"/>
+      <c r="D57" s="11" t="s">
         <v>694</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="8" t="s">
         <v>696</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G57" s="9" t="s">
         <v>697</v>
       </c>
-      <c r="H57" s="2"/>
+      <c r="H57" s="7"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="3:8">
-      <c r="C58" s="10"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="2" t="s">
+      <c r="C58" s="15"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="F58" s="3"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="2"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="7"/>
     </row>
     <row r="59" ht="27" spans="3:8">
-      <c r="C59" s="10"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="3" t="s">
+      <c r="C59" s="15"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="8" t="s">
         <v>699</v>
       </c>
-      <c r="F59" s="3" t="s">
+      <c r="F59" s="8" t="s">
         <v>700</v>
       </c>
-      <c r="G59" s="6"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" ht="77" customHeight="1" spans="3:8">
-      <c r="C60" s="10"/>
-      <c r="D60" s="18" t="s">
+      <c r="C60" s="15"/>
+      <c r="D60" s="23" t="s">
         <v>701</v>
       </c>
-      <c r="E60" s="3" t="s">
+      <c r="E60" s="8" t="s">
         <v>702</v>
       </c>
-      <c r="F60" s="3" t="s">
+      <c r="F60" s="8" t="s">
         <v>703</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
     </row>
     <row r="61" ht="77" customHeight="1" spans="3:8">
-      <c r="C61" s="10"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="3" t="s">
+      <c r="C61" s="15"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="8" t="s">
         <v>704</v>
       </c>
-      <c r="F61" s="3" t="s">
+      <c r="F61" s="8" t="s">
         <v>705</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
     </row>
     <row r="62" ht="135" spans="3:8">
-      <c r="C62" s="10"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="3" t="s">
+      <c r="C62" s="15"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="8" t="s">
         <v>706</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="8" t="s">
         <v>707</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="8" t="s">
         <v>708</v>
       </c>
-      <c r="H62" s="2"/>
+      <c r="H62" s="7"/>
     </row>
     <row r="63" ht="175.5" spans="3:8">
-      <c r="C63" s="10"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="3" t="s">
+      <c r="C63" s="15"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="H63" s="2"/>
+      <c r="H63" s="7"/>
     </row>
     <row r="64" ht="71" customHeight="1" spans="3:8">
-      <c r="C64" s="10"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="2" t="s">
+      <c r="C64" s="15"/>
+      <c r="D64" s="23"/>
+      <c r="E64" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="2"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="7"/>
     </row>
     <row r="65" ht="114" customHeight="1" spans="3:8">
-      <c r="C65" s="10"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="19" t="s">
+      <c r="C65" s="15"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="24" t="s">
         <v>714</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="7" t="s">
         <v>715</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="H65" s="2"/>
+      <c r="H65" s="7"/>
     </row>
     <row r="66" ht="106" customHeight="1" spans="3:8">
-      <c r="C66" s="10"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="20" t="s">
+      <c r="C66" s="15"/>
+      <c r="D66" s="23"/>
+      <c r="E66" s="25" t="s">
         <v>717</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="8" t="s">
         <v>719</v>
       </c>
-      <c r="H66" s="2"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" ht="77" customHeight="1" spans="3:8">
-      <c r="C67" s="10"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="6" t="s">
+      <c r="C67" s="15"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="H67" s="4" t="s">
+      <c r="H67" s="9" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="68" ht="100" customHeight="1" spans="3:8">
-      <c r="C68" s="10"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="3" t="s">
+      <c r="C68" s="15"/>
+      <c r="D68" s="23"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="8" t="s">
         <v>723</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="8" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="69" ht="54" customHeight="1" spans="3:8">
-      <c r="C69" s="10"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="2" t="s">
+      <c r="C69" s="15"/>
+      <c r="D69" s="23"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="8" t="s">
         <v>725</v>
       </c>
-      <c r="H69" s="2"/>
+      <c r="H69" s="7"/>
     </row>
     <row r="70" spans="3:8">
-      <c r="C70" s="10"/>
-      <c r="D70" s="10" t="s">
+      <c r="C70" s="15"/>
+      <c r="D70" s="15" t="s">
         <v>726</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="3:8">
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="3" t="s">
+      <c r="C71" s="15"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
     </row>
     <row r="72" ht="23" customHeight="1" spans="3:8">
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="3" t="s">
+      <c r="C72" s="15"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" ht="70" customHeight="1"/>
     <row r="74" ht="93" customHeight="1"/>
     <row r="75" ht="20" customHeight="1" spans="3:8">
-      <c r="C75" s="10" t="s">
+      <c r="C75" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E75" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="11" t="s">
         <v>734</v>
       </c>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
     </row>
     <row r="76" spans="3:8">
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="2" t="s">
+      <c r="C76" s="15"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="F76" s="6"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="3:8">
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="2" t="s">
+      <c r="C77" s="15"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="F77" s="6"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
     </row>
     <row r="78" ht="27" spans="3:8">
-      <c r="C78" s="10"/>
-      <c r="D78" s="6" t="s">
+      <c r="C78" s="15"/>
+      <c r="D78" s="11" t="s">
         <v>737</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="8" t="s">
         <v>738</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="G78" s="8" t="s">
+      <c r="G78" s="13" t="s">
         <v>740</v>
       </c>
-      <c r="H78" s="2"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="3:8">
-      <c r="C79" s="10"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="2" t="s">
+      <c r="C79" s="15"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="7" t="s">
         <v>742</v>
       </c>
-      <c r="G79" s="21"/>
-      <c r="H79" s="2"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="7"/>
     </row>
     <row r="80" spans="3:8">
-      <c r="C80" s="10"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="2" t="s">
+      <c r="C80" s="15"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="7" t="s">
         <v>743</v>
       </c>
-      <c r="F80" s="2"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="2"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="7"/>
     </row>
     <row r="81" ht="44" customHeight="1" spans="3:8">
-      <c r="C81" s="10"/>
-      <c r="D81" s="22" t="s">
+      <c r="C81" s="15"/>
+      <c r="D81" s="27" t="s">
         <v>744</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E81" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="G81" s="21"/>
-      <c r="H81" s="2"/>
+      <c r="G81" s="26"/>
+      <c r="H81" s="7"/>
     </row>
     <row r="82" ht="44" customHeight="1" spans="3:8">
-      <c r="C82" s="10"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="2" t="s">
+      <c r="C82" s="15"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="G82" s="8" t="s">
+      <c r="G82" s="13" t="s">
         <v>748</v>
       </c>
-      <c r="H82" s="2"/>
+      <c r="H82" s="7"/>
     </row>
     <row r="83" ht="58" customHeight="1" spans="3:8">
-      <c r="C83" s="10"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="3" t="s">
+      <c r="C83" s="15"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="8" t="s">
         <v>749</v>
       </c>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3" t="s">
+      <c r="F83" s="8"/>
+      <c r="G83" s="8" t="s">
         <v>750</v>
       </c>
-      <c r="H83" s="21" t="s">
+      <c r="H83" s="26" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="84" ht="59" customHeight="1" spans="3:8">
-      <c r="C84" s="10"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="3" t="s">
+      <c r="C84" s="15"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="8" t="s">
         <v>752</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="8" t="s">
         <v>753</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="8" t="s">
         <v>754</v>
       </c>
-      <c r="H84" s="21" t="s">
+      <c r="H84" s="26" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="85" ht="74" customHeight="1" spans="3:8">
-      <c r="C85" s="10"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="2" t="s">
+      <c r="C85" s="15"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="7" t="s">
         <v>756</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="8" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="86" ht="74" customHeight="1" spans="3:8">
-      <c r="C86" s="10"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="2" t="s">
+      <c r="C86" s="15"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="H86" s="3"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" ht="49" customHeight="1" spans="3:8">
-      <c r="C87" s="10"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="2" t="s">
+      <c r="C87" s="15"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="H87" s="3"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88" ht="49" customHeight="1" spans="3:8">
-      <c r="C88" s="10"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="2" t="s">
+      <c r="C88" s="15"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="F88" s="3" t="s">
+      <c r="F88" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G88" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="H88" s="3"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" ht="67" customHeight="1" spans="3:8">
-      <c r="C89" s="10"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="2" t="s">
+      <c r="C89" s="15"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="7" t="s">
         <v>769</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="24" t="s">
+      <c r="G89" s="8"/>
+      <c r="H89" s="29" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="90" ht="120" customHeight="1" spans="3:8">
-      <c r="C90" s="10"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="2" t="s">
+      <c r="C90" s="15"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="7" t="s">
         <v>772</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="G90" s="25" t="s">
+      <c r="G90" s="30" t="s">
         <v>774</v>
       </c>
-      <c r="H90" s="25"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" ht="42" customHeight="1" spans="3:8">
-      <c r="C91" s="10"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="2" t="s">
+      <c r="C91" s="15"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="7" t="s">
         <v>775</v>
       </c>
-      <c r="F91" s="3" t="s">
+      <c r="F91" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="G91" s="25" t="s">
+      <c r="G91" s="30" t="s">
         <v>777</v>
       </c>
-      <c r="H91" s="25"/>
+      <c r="H91" s="30"/>
     </row>
     <row r="92" ht="126" customHeight="1" spans="3:8">
-      <c r="C92" s="10"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="2" t="s">
+      <c r="C92" s="15"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="7" t="s">
         <v>778</v>
       </c>
-      <c r="F92" s="3" t="s">
+      <c r="F92" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G92" s="8" t="s">
         <v>780</v>
       </c>
-      <c r="H92" s="3"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" customFormat="1" ht="108" spans="3:8">
-      <c r="C93" s="10"/>
-      <c r="D93" s="2" t="s">
+      <c r="C93" s="15"/>
+      <c r="D93" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="14" t="s">
         <v>782</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="G93" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="H93" s="3"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94" ht="23" customHeight="1" spans="3:8">
-      <c r="C94" s="10"/>
-      <c r="D94" s="4" t="s">
+      <c r="C94" s="15"/>
+      <c r="D94" s="9" t="s">
         <v>784</v>
       </c>
-      <c r="E94" s="2" t="s">
+      <c r="E94" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="3"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" ht="67.5" spans="3:8">
-      <c r="C95" s="10"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="26" t="s">
+      <c r="C95" s="15"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="31" t="s">
         <v>786</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F95" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3" t="s">
+      <c r="G95" s="8"/>
+      <c r="H95" s="8" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="96" ht="67" customHeight="1" spans="3:8">
-      <c r="C96" s="10"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="9" t="s">
+      <c r="C96" s="15"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="F96" s="3" t="s">
+      <c r="F96" s="8" t="s">
         <v>790</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G96" s="8" t="s">
         <v>791</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" s="8" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="97" ht="26" customHeight="1" spans="3:8">
-      <c r="C97" s="10"/>
-      <c r="D97" s="22"/>
-      <c r="E97" s="27" t="s">
+      <c r="C97" s="15"/>
+      <c r="D97" s="27"/>
+      <c r="E97" s="32" t="s">
         <v>793</v>
       </c>
-      <c r="F97" s="27" t="s">
+      <c r="F97" s="32" t="s">
         <v>794</v>
       </c>
-      <c r="G97" s="27"/>
-      <c r="H97" s="24"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="29"/>
     </row>
     <row r="98" ht="18" customHeight="1" spans="3:9">
-      <c r="C98" s="10"/>
-      <c r="D98" s="16" t="s">
+      <c r="C98" s="15"/>
+      <c r="D98" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="E98" s="16" t="s">
+      <c r="E98" s="21" t="s">
         <v>796</v>
       </c>
-      <c r="F98" s="15" t="s">
+      <c r="F98" s="20" t="s">
         <v>797</v>
       </c>
-      <c r="G98" s="13" t="s">
+      <c r="G98" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="H98" s="15" t="s">
+      <c r="H98" s="20" t="s">
         <v>799</v>
       </c>
-      <c r="I98" s="31"/>
+      <c r="I98" s="36"/>
     </row>
     <row r="99" spans="3:9">
-      <c r="C99" s="10"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16" t="s">
+      <c r="C99" s="15"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="F99" s="16" t="s">
+      <c r="F99" s="21" t="s">
         <v>801</v>
       </c>
-      <c r="G99" s="13" t="s">
+      <c r="G99" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="H99" s="15"/>
-      <c r="I99" s="31"/>
+      <c r="H99" s="20"/>
+      <c r="I99" s="36"/>
     </row>
     <row r="100" spans="3:9">
-      <c r="C100" s="10"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="13" t="s">
+      <c r="C100" s="15"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="21"/>
+      <c r="G100" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="H100" s="15"/>
-      <c r="I100" s="31"/>
+      <c r="H100" s="20"/>
+      <c r="I100" s="36"/>
     </row>
     <row r="101" spans="3:9">
-      <c r="C101" s="10"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="13" t="s">
+      <c r="C101" s="15"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="21"/>
+      <c r="G101" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="31"/>
+      <c r="H101" s="20"/>
+      <c r="I101" s="36"/>
     </row>
     <row r="102" spans="3:9">
-      <c r="C102" s="10"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="13" t="s">
+      <c r="C102" s="15"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="H102" s="15"/>
-      <c r="I102" s="31"/>
+      <c r="H102" s="20"/>
+      <c r="I102" s="36"/>
     </row>
     <row r="103" ht="27" spans="3:9">
-      <c r="C103" s="10"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16" t="s">
+      <c r="C103" s="15"/>
+      <c r="D103" s="21"/>
+      <c r="E103" s="21" t="s">
         <v>806</v>
       </c>
-      <c r="F103" s="16" t="s">
+      <c r="F103" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="G103" s="15" t="s">
+      <c r="G103" s="20" t="s">
         <v>808</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="31"/>
+      <c r="H103" s="20"/>
+      <c r="I103" s="36"/>
     </row>
     <row r="104" ht="39" customHeight="1" spans="3:9">
-      <c r="C104" s="10"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="15" t="s">
+      <c r="C104" s="15"/>
+      <c r="D104" s="21"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="21"/>
+      <c r="G104" s="20" t="s">
         <v>809</v>
       </c>
-      <c r="H104" s="15"/>
-      <c r="I104" s="31"/>
+      <c r="H104" s="20"/>
+      <c r="I104" s="36"/>
     </row>
     <row r="105" ht="77" customHeight="1" spans="3:9">
-      <c r="C105" s="10"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="13" t="s">
+      <c r="C105" s="15"/>
+      <c r="D105" s="21"/>
+      <c r="E105" s="18" t="s">
         <v>810</v>
       </c>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15" t="s">
+      <c r="F105" s="20"/>
+      <c r="G105" s="20" t="s">
         <v>811</v>
       </c>
-      <c r="H105" s="15" t="s">
+      <c r="H105" s="20" t="s">
         <v>812</v>
       </c>
-      <c r="I105" s="32" t="s">
+      <c r="I105" s="37" t="s">
         <v>813</v>
       </c>
     </row>
     <row r="106" ht="100" customHeight="1" spans="3:9">
-      <c r="C106" s="10"/>
-      <c r="D106" s="16"/>
-      <c r="E106" s="15" t="s">
+      <c r="C106" s="15"/>
+      <c r="D106" s="21"/>
+      <c r="E106" s="20" t="s">
         <v>814</v>
       </c>
-      <c r="F106" s="15" t="s">
+      <c r="F106" s="20" t="s">
         <v>815</v>
       </c>
-      <c r="G106" s="15" t="s">
+      <c r="G106" s="20" t="s">
         <v>816</v>
       </c>
-      <c r="H106" s="15" t="s">
+      <c r="H106" s="20" t="s">
         <v>817</v>
       </c>
-      <c r="I106" s="33"/>
+      <c r="I106" s="38"/>
     </row>
     <row r="107" ht="67.5" spans="4:8">
-      <c r="D107" s="28" t="s">
+      <c r="D107" s="33" t="s">
         <v>818</v>
       </c>
-      <c r="E107" s="25" t="s">
+      <c r="E107" s="30" t="s">
         <v>819</v>
       </c>
-      <c r="F107" s="25" t="s">
+      <c r="F107" s="30" t="s">
         <v>820</v>
       </c>
-      <c r="G107" s="25"/>
-      <c r="H107" s="25"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
     </row>
     <row r="108" ht="54" spans="4:8">
-      <c r="D108" s="6"/>
-      <c r="E108" s="3" t="s">
+      <c r="D108" s="11"/>
+      <c r="E108" s="8" t="s">
         <v>821</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F108" s="8" t="s">
         <v>822</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G108" s="8" t="s">
         <v>823</v>
       </c>
-      <c r="H108" s="3"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" ht="231" customHeight="1" spans="4:8">
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="7" t="s">
         <v>825</v>
       </c>
-      <c r="F109" s="3" t="s">
+      <c r="F109" s="8" t="s">
         <v>826</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G109" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="H109" s="2"/>
+      <c r="H109" s="7"/>
     </row>
     <row r="114" ht="27" spans="4:8">
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="11" t="s">
         <v>828</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="7" t="s">
         <v>829</v>
       </c>
-      <c r="F114" s="3" t="s">
+      <c r="F114" s="8" t="s">
         <v>830</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G114" s="8" t="s">
         <v>831</v>
       </c>
-      <c r="H114" s="2"/>
+      <c r="H114" s="7"/>
     </row>
     <row r="115" ht="33" customHeight="1" spans="4:8">
-      <c r="D115" s="6"/>
-      <c r="E115" s="3" t="s">
+      <c r="D115" s="11"/>
+      <c r="E115" s="8" t="s">
         <v>832</v>
       </c>
-      <c r="F115" s="3" t="s">
+      <c r="F115" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="7"/>
     </row>
     <row r="116" ht="171" customHeight="1" spans="4:8">
-      <c r="D116" s="6"/>
-      <c r="E116" s="6" t="s">
+      <c r="D116" s="11"/>
+      <c r="E116" s="11" t="s">
         <v>834</v>
       </c>
-      <c r="F116" s="29" t="s">
+      <c r="F116" s="34" t="s">
         <v>835</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G116" s="8" t="s">
         <v>836</v>
       </c>
-      <c r="H116" s="2"/>
+      <c r="H116" s="7"/>
     </row>
     <row r="117" ht="129" customHeight="1" spans="4:8">
-      <c r="D117" s="6"/>
-      <c r="E117" s="6"/>
-      <c r="F117" s="29" t="s">
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="34" t="s">
         <v>837</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="G117" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="H117" s="2"/>
+      <c r="H117" s="7"/>
     </row>
     <row r="118" ht="27" spans="4:8">
-      <c r="D118" s="6"/>
-      <c r="E118" s="6" t="s">
+      <c r="D118" s="11"/>
+      <c r="E118" s="11" t="s">
         <v>839</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F118" s="8" t="s">
         <v>614</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G118" s="8" t="s">
         <v>840</v>
       </c>
-      <c r="H118" s="2"/>
+      <c r="H118" s="7"/>
     </row>
     <row r="119" ht="94.5" spans="4:8">
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="2" t="s">
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="7" t="s">
         <v>841</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G119" s="8" t="s">
         <v>842</v>
       </c>
-      <c r="H119" s="3" t="s">
+      <c r="H119" s="8" t="s">
         <v>843</v>
       </c>
     </row>
     <row r="120" ht="25" customHeight="1" spans="4:8">
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="2" t="s">
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="G120" s="7" t="s">
         <v>845</v>
       </c>
-      <c r="H120" s="2"/>
+      <c r="H120" s="7"/>
     </row>
     <row r="121" ht="38" customHeight="1"/>
     <row r="122" spans="3:5">
       <c r="C122" t="s">
         <v>828</v>
       </c>
-      <c r="E122" s="30"/>
+      <c r="E122" s="35"/>
     </row>
     <row r="123" spans="4:5">
-      <c r="D123" s="30"/>
-      <c r="E123" s="30"/>
+      <c r="D123" s="35"/>
+      <c r="E123" s="35"/>
     </row>
     <row r="124" ht="40.5" spans="4:6">
-      <c r="D124" s="22" t="s">
+      <c r="D124" s="27" t="s">
         <v>846</v>
       </c>
-      <c r="E124" s="2" t="s">
+      <c r="E124" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F124" s="8" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="125" spans="4:6">
-      <c r="D125" s="28"/>
-      <c r="E125" s="2" t="s">
+      <c r="D125" s="33"/>
+      <c r="E125" s="7" t="s">
         <v>848</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="F125" s="7" t="s">
         <v>849</v>
       </c>
     </row>
@@ -9241,69 +9291,161 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C13:F20"/>
+  <dimension ref="C12:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="3" max="3" width="17.2654867256637" customWidth="1"/>
     <col min="4" max="4" width="23.5663716814159" customWidth="1"/>
-    <col min="5" max="5" width="56.4867256637168" customWidth="1"/>
+    <col min="5" max="5" width="67.2389380530973" customWidth="1"/>
     <col min="6" max="6" width="37.5752212389381" customWidth="1"/>
     <col min="7" max="7" width="24.5663716814159" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="4:5">
-      <c r="D13" t="s">
+    <row r="12" spans="3:6">
+      <c r="C12" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="E13" t="s">
+      <c r="D12" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>851</v>
       </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="C14" t="s">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="3:6">
+      <c r="C13" s="3"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="3:6">
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="D14" t="s">
-        <v>624</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E14" s="2" t="s">
         <v>853</v>
       </c>
-    </row>
-    <row r="15" spans="4:5">
-      <c r="D15" t="s">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" s="3"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" ht="21" customHeight="1" spans="3:6">
+      <c r="C16" s="3"/>
+      <c r="D16" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" s="2" t="s">
         <v>855</v>
       </c>
-    </row>
-    <row r="17" ht="21" customHeight="1" spans="4:5">
-      <c r="D17" t="s">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" ht="27" spans="3:6">
+      <c r="C17" s="3"/>
+      <c r="D17" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="4" t="s">
         <v>857</v>
       </c>
-    </row>
-    <row r="18" ht="21" customHeight="1"/>
-    <row r="20" spans="4:6">
-      <c r="D20" t="s">
+      <c r="F17" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="E20" t="s">
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="3"/>
+      <c r="D18" s="2" t="s">
         <v>859</v>
       </c>
-      <c r="F20" t="s">
+      <c r="E18" s="2" t="s">
         <v>860</v>
       </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="3"/>
+      <c r="D19" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="3"/>
+      <c r="D20" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" ht="27" spans="3:6">
+      <c r="C21" s="3"/>
+      <c r="D21" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="3"/>
+      <c r="D22" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="3"/>
+      <c r="D23" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="3"/>
+      <c r="D24" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="5"/>
+      <c r="D25" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C12:C25"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -9342,78 +9484,78 @@
   </cols>
   <sheetData>
     <row r="5" ht="67.5" spans="2:5">
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="139" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" ht="94.5" spans="2:5">
-      <c r="B6" s="162"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="165"/>
+      <c r="C6" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="20" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" ht="135" spans="2:5">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="164" t="s">
+      <c r="C7" s="167" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="168" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="168" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" ht="94.5" spans="2:5">
-      <c r="B8" s="163"/>
-      <c r="C8" s="164" t="s">
+      <c r="B8" s="166"/>
+      <c r="C8" s="167" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="164" t="s">
+      <c r="D8" s="167" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="165" t="s">
+      <c r="E8" s="168" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" ht="108" spans="2:5">
-      <c r="B9" s="163"/>
-      <c r="C9" s="164" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="164" t="s">
+      <c r="D9" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="165" t="s">
+      <c r="E9" s="168" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" ht="189" spans="2:5">
-      <c r="B10" s="163"/>
-      <c r="C10" s="164" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="167" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="164" t="s">
+      <c r="D10" s="167" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="165" t="s">
+      <c r="E10" s="168" t="s">
         <v>53</v>
       </c>
     </row>
@@ -9449,242 +9591,242 @@
   </cols>
   <sheetData>
     <row r="1" ht="67.5" spans="2:7">
-      <c r="B1" s="151" t="s">
+      <c r="B1" s="154" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="151" t="s">
+      <c r="C1" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="152" t="s">
+      <c r="D1" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="153" t="s">
+      <c r="E1" s="156" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="153" t="s">
+      <c r="F1" s="156" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="G1" s="155" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" ht="54" spans="2:7">
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="153" t="s">
+      <c r="B2" s="154"/>
+      <c r="C2" s="154"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="152" t="s">
+      <c r="F2" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="G2" s="153" t="s">
+      <c r="G2" s="156" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="3" ht="175.5" spans="2:7">
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="152" t="s">
+      <c r="B3" s="154"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="154"/>
-      <c r="F3" s="152" t="s">
+      <c r="E3" s="157"/>
+      <c r="F3" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="G3" s="152" t="s">
+      <c r="G3" s="155" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="2:7">
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="154" t="s">
+      <c r="B4" s="154"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="157" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="154"/>
-      <c r="F4" s="155" t="s">
+      <c r="E4" s="157"/>
+      <c r="F4" s="158" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="153" t="s">
+      <c r="G4" s="156" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="151"/>
-      <c r="C5" s="151"/>
-      <c r="D5" s="152" t="s">
+      <c r="B5" s="154"/>
+      <c r="C5" s="154"/>
+      <c r="D5" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="156" t="s">
+      <c r="E5" s="159" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="157" t="s">
+      <c r="F5" s="160" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="152" t="s">
+      <c r="G5" s="155" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="156"/>
-      <c r="F6" s="153" t="s">
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="152"/>
+      <c r="G6" s="155"/>
     </row>
     <row r="7" ht="121.5" spans="2:7">
-      <c r="B7" s="151"/>
-      <c r="C7" s="151"/>
-      <c r="D7" s="158" t="s">
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="161" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="156" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="158" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="153" t="s">
+      <c r="G7" s="156" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="151"/>
-      <c r="C8" s="151" t="s">
+      <c r="B8" s="154"/>
+      <c r="C8" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="151"/>
-      <c r="E8" s="159" t="s">
+      <c r="D8" s="154"/>
+      <c r="E8" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="159"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="160" t="s">
+      <c r="F8" s="162"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="161"/>
+      <c r="I8" s="164"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="151"/>
-      <c r="C9" s="151"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="159" t="s">
+      <c r="B9" s="154"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="154"/>
+      <c r="E9" s="162" t="s">
         <v>81</v>
       </c>
-      <c r="F9" s="159"/>
-      <c r="G9" s="159"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="162"/>
+      <c r="H9" s="164"/>
+      <c r="I9" s="164"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="151"/>
-      <c r="C10" s="151"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="159" t="s">
+      <c r="B10" s="154"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="154"/>
+      <c r="E10" s="162" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="159"/>
-      <c r="G10" s="159"/>
-      <c r="H10" s="161"/>
-      <c r="I10" s="161"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="162"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="159" t="s">
+      <c r="B11" s="154"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="F11" s="159"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="151"/>
-      <c r="C12" s="151"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="159" t="s">
+      <c r="B12" s="154"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="154"/>
+      <c r="E12" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="161"/>
-      <c r="I12" s="161"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="151"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="159" t="s">
+      <c r="B13" s="154"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="154"/>
+      <c r="E13" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="164"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="151"/>
-      <c r="C14" s="151" t="s">
+      <c r="B14" s="154"/>
+      <c r="C14" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="151" t="s">
+      <c r="D14" s="154" t="s">
         <v>87</v>
       </c>
-      <c r="E14" s="159" t="s">
+      <c r="E14" s="162" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="152" t="s">
+      <c r="F14" s="155" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="159"/>
+      <c r="G14" s="162"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="159" t="s">
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+      <c r="E15" s="162" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="154"/>
-      <c r="G15" s="159"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="162"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="151"/>
-      <c r="C16" s="151"/>
-      <c r="D16" s="151" t="s">
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="154"/>
-      <c r="G16" s="159"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="162"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="159" t="s">
+      <c r="B17" s="154"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="154"/>
+      <c r="E17" s="162" t="s">
         <v>92</v>
       </c>
-      <c r="F17" s="154"/>
-      <c r="G17" s="159"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="162"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="159" t="s">
+      <c r="B18" s="154"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="154"/>
+      <c r="E18" s="162" t="s">
         <v>93</v>
       </c>
-      <c r="F18" s="154"/>
-      <c r="G18" s="159"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -9729,378 +9871,378 @@
   </cols>
   <sheetData>
     <row r="1" ht="87" customHeight="1" spans="1:4">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
     </row>
     <row r="2" ht="76" customHeight="1" spans="1:4">
-      <c r="A2" s="134" t="s">
+      <c r="A2" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="135" t="s">
+      <c r="B2" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
     </row>
     <row r="3" ht="86" customHeight="1" spans="1:4">
-      <c r="A3" s="134"/>
-      <c r="B3" s="135" t="s">
+      <c r="A3" s="137"/>
+      <c r="B3" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="139" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="135"/>
+      <c r="D3" s="138"/>
     </row>
     <row r="4" ht="27" spans="1:4">
-      <c r="A4" s="134"/>
-      <c r="B4" s="135" t="s">
+      <c r="A4" s="137"/>
+      <c r="B4" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="D4" s="135"/>
+      <c r="D4" s="138"/>
     </row>
     <row r="5" ht="86" customHeight="1" spans="1:4">
-      <c r="A5" s="134"/>
-      <c r="B5" s="135" t="s">
+      <c r="A5" s="137"/>
+      <c r="B5" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="136" t="s">
+      <c r="C5" s="139" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="135"/>
+      <c r="D5" s="138"/>
     </row>
     <row r="6" ht="160" customHeight="1" spans="1:4">
-      <c r="A6" s="134"/>
-      <c r="B6" s="135" t="s">
+      <c r="A6" s="137"/>
+      <c r="B6" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="135"/>
+      <c r="D6" s="138"/>
     </row>
     <row r="7" ht="86" customHeight="1" spans="1:4">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134" t="s">
+      <c r="A7" s="137"/>
+      <c r="B7" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="C7" s="136" t="s">
+      <c r="C7" s="139" t="s">
         <v>106</v>
       </c>
-      <c r="D7" s="135"/>
+      <c r="D7" s="138"/>
     </row>
     <row r="8" ht="148.5" spans="1:4">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134" t="s">
+      <c r="A8" s="137"/>
+      <c r="B8" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="136" t="s">
+      <c r="C8" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="D8" s="135"/>
+      <c r="D8" s="138"/>
     </row>
     <row r="9" ht="182" customHeight="1" spans="1:4">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134" t="s">
+      <c r="A9" s="137"/>
+      <c r="B9" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="139" t="s">
         <v>110</v>
       </c>
-      <c r="D9" s="136" t="s">
+      <c r="D9" s="139" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="10" ht="94.5" spans="1:4">
-      <c r="A10" s="134"/>
-      <c r="B10" s="135" t="s">
+      <c r="A10" s="137"/>
+      <c r="B10" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="139" t="s">
         <v>113</v>
       </c>
-      <c r="D10" s="135"/>
+      <c r="D10" s="138"/>
     </row>
     <row r="11" ht="40.5" spans="1:4">
-      <c r="A11" s="134"/>
-      <c r="B11" s="135" t="s">
+      <c r="A11" s="137"/>
+      <c r="B11" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="136" t="s">
+      <c r="C11" s="139" t="s">
         <v>115</v>
       </c>
-      <c r="D11" s="135"/>
+      <c r="D11" s="138"/>
     </row>
     <row r="12" ht="94" customHeight="1" spans="1:4">
-      <c r="A12" s="137" t="s">
+      <c r="A12" s="140" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="138" t="s">
+      <c r="C12" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="138" t="s">
+      <c r="D12" s="141" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="13" ht="96" customHeight="1" spans="1:4">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="138" t="s">
+      <c r="A13" s="142"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="138" t="s">
+      <c r="D13" s="141" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="14" ht="91" customHeight="1" spans="1:4">
-      <c r="A14" s="139"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="138" t="s">
+      <c r="A14" s="142"/>
+      <c r="B14" s="143"/>
+      <c r="C14" s="141" t="s">
         <v>122</v>
       </c>
-      <c r="D14" s="138" t="s">
+      <c r="D14" s="141" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="15" ht="111" customHeight="1" spans="1:4">
-      <c r="A15" s="139"/>
-      <c r="B15" s="137" t="s">
+      <c r="A15" s="142"/>
+      <c r="B15" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="D15" s="141"/>
+      <c r="D15" s="144"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="139"/>
-      <c r="B16" s="139"/>
-      <c r="C16" s="138" t="s">
+      <c r="A16" s="142"/>
+      <c r="B16" s="142"/>
+      <c r="C16" s="141" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="141" t="s">
+      <c r="D16" s="144" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="17" ht="162" spans="1:4">
-      <c r="A17" s="139"/>
-      <c r="B17" s="139"/>
-      <c r="C17" s="138" t="s">
+      <c r="A17" s="142"/>
+      <c r="B17" s="142"/>
+      <c r="C17" s="141" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="138" t="s">
+      <c r="D17" s="141" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" ht="47" customHeight="1" spans="1:4">
-      <c r="A18" s="139"/>
-      <c r="B18" s="139"/>
-      <c r="C18" s="138" t="s">
+      <c r="A18" s="142"/>
+      <c r="B18" s="142"/>
+      <c r="C18" s="141" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="138" t="s">
+      <c r="D18" s="141" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="19" ht="31" customHeight="1" spans="1:4">
-      <c r="A19" s="139"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="138" t="s">
+      <c r="A19" s="142"/>
+      <c r="B19" s="143"/>
+      <c r="C19" s="141" t="s">
         <v>131</v>
       </c>
-      <c r="D19" s="138" t="s">
+      <c r="D19" s="141" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="20" ht="56" customHeight="1" spans="1:4">
-      <c r="A20" s="139"/>
-      <c r="B20" s="137" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="C20" s="138" t="s">
+      <c r="C20" s="141" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="138" t="s">
+      <c r="D20" s="141" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="21" ht="33" customHeight="1" spans="1:4">
-      <c r="A21" s="140"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="138" t="s">
+      <c r="A21" s="143"/>
+      <c r="B21" s="143"/>
+      <c r="C21" s="141" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="138" t="s">
+      <c r="D21" s="141" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="22" ht="148.5" spans="1:4">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="C22" s="144" t="s">
+      <c r="C22" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="144" t="s">
+      <c r="D22" s="147" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="23" ht="132" customHeight="1" spans="1:4">
-      <c r="A23" s="145"/>
-      <c r="B23" s="143" t="s">
+      <c r="A23" s="148"/>
+      <c r="B23" s="146" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="144" t="s">
+      <c r="C23" s="147" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="144" t="s">
+      <c r="D23" s="147" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="24" ht="66" customHeight="1" spans="1:4">
-      <c r="A24" s="145"/>
-      <c r="B24" s="143" t="s">
+      <c r="A24" s="148"/>
+      <c r="B24" s="146" t="s">
         <v>145</v>
       </c>
-      <c r="C24" s="144" t="s">
+      <c r="C24" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="D24" s="144" t="s">
+      <c r="D24" s="147" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="145"/>
-      <c r="B25" s="143" t="s">
+      <c r="A25" s="148"/>
+      <c r="B25" s="146" t="s">
         <v>148</v>
       </c>
-      <c r="C25" s="144" t="s">
+      <c r="C25" s="147" t="s">
         <v>149</v>
       </c>
-      <c r="D25" s="144"/>
+      <c r="D25" s="147"/>
     </row>
     <row r="26" ht="27" spans="1:4">
-      <c r="A26" s="145"/>
-      <c r="B26" s="143" t="s">
+      <c r="A26" s="148"/>
+      <c r="B26" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="C26" s="144" t="s">
+      <c r="C26" s="147" t="s">
         <v>151</v>
       </c>
-      <c r="D26" s="144" t="s">
+      <c r="D26" s="147" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:4">
-      <c r="A27" s="145"/>
-      <c r="B27" s="143" t="s">
+      <c r="A27" s="148"/>
+      <c r="B27" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="C27" s="146" t="s">
+      <c r="C27" s="149" t="s">
         <v>154</v>
       </c>
-      <c r="D27" s="144" t="s">
+      <c r="D27" s="147" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="145"/>
-      <c r="B28" s="143" t="s">
+      <c r="A28" s="148"/>
+      <c r="B28" s="146" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="144" t="s">
+      <c r="C28" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="144" t="s">
+      <c r="D28" s="147" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="145"/>
-      <c r="B29" s="143" t="s">
+      <c r="A29" s="148"/>
+      <c r="B29" s="146" t="s">
         <v>159</v>
       </c>
-      <c r="C29" s="144" t="s">
+      <c r="C29" s="147" t="s">
         <v>160</v>
       </c>
-      <c r="D29" s="144" t="s">
+      <c r="D29" s="147" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="30" ht="40.5" spans="1:4">
-      <c r="A30" s="147"/>
-      <c r="B30" s="143" t="s">
+      <c r="A30" s="150"/>
+      <c r="B30" s="146" t="s">
         <v>162</v>
       </c>
-      <c r="C30" s="146" t="s">
+      <c r="C30" s="149" t="s">
         <v>163</v>
       </c>
-      <c r="D30" s="144" t="s">
+      <c r="D30" s="147" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="31" ht="60" customHeight="1"/>
     <row r="32" ht="90" customHeight="1" spans="1:3">
-      <c r="A32" s="148" t="s">
+      <c r="A32" s="151" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="117" t="s">
+      <c r="B32" s="120" t="s">
         <v>166</v>
       </c>
-      <c r="C32" s="117" t="s">
+      <c r="C32" s="120" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="34" ht="73" customHeight="1" spans="1:6">
-      <c r="A34" s="149" t="s">
+      <c r="A34" s="152" t="s">
         <v>168</v>
       </c>
-      <c r="B34" s="117" t="s">
+      <c r="B34" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="C34" s="117" t="s">
+      <c r="C34" s="120" t="s">
         <v>170</v>
       </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="31"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="36"/>
     </row>
     <row r="35" ht="73" customHeight="1" spans="1:5">
-      <c r="A35" s="150"/>
-      <c r="B35" s="117" t="s">
+      <c r="A35" s="153"/>
+      <c r="B35" s="120" t="s">
         <v>171</v>
       </c>
-      <c r="C35" s="117" t="s">
+      <c r="C35" s="120" t="s">
         <v>172</v>
       </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="30"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="35"/>
     </row>
     <row r="36" ht="57" customHeight="1" spans="1:5">
-      <c r="A36" s="148" t="s">
+      <c r="A36" s="151" t="s">
         <v>173</v>
       </c>
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="132" t="s">
         <v>174</v>
       </c>
-      <c r="C36" s="129"/>
-      <c r="D36" s="148" t="s">
+      <c r="C36" s="132"/>
+      <c r="D36" s="151" t="s">
         <v>175</v>
       </c>
-      <c r="E36" s="30"/>
+      <c r="E36" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -10137,60 +10279,60 @@
   </cols>
   <sheetData>
     <row r="9" ht="40.5" spans="4:7">
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="E9" s="129" t="s">
+      <c r="E9" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="132" t="s">
         <v>178</v>
       </c>
-      <c r="G9" s="130" t="s">
+      <c r="G9" s="133" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="10" spans="4:7">
-      <c r="D10" s="120"/>
-      <c r="E10" s="129" t="s">
+      <c r="D10" s="123"/>
+      <c r="E10" s="132" t="s">
         <v>180</v>
       </c>
-      <c r="F10" s="129" t="s">
+      <c r="F10" s="132" t="s">
         <v>181</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="132" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="11" ht="99" customHeight="1" spans="4:7">
-      <c r="D11" s="120"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="131" t="s">
+      <c r="D11" s="123"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="134" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" ht="67.5" spans="4:7">
-      <c r="D12" s="120"/>
-      <c r="E12" s="131" t="s">
+      <c r="D12" s="123"/>
+      <c r="E12" s="134" t="s">
         <v>184</v>
       </c>
-      <c r="F12" s="120" t="s">
+      <c r="F12" s="123" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="117" t="s">
+      <c r="G12" s="120" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="13" spans="4:7">
-      <c r="D13" s="120"/>
-      <c r="E13" s="129" t="s">
+      <c r="D13" s="123"/>
+      <c r="E13" s="132" t="s">
         <v>187</v>
       </c>
-      <c r="F13" s="120" t="s">
+      <c r="F13" s="123" t="s">
         <v>188</v>
       </c>
-      <c r="G13" s="117" t="s">
+      <c r="G13" s="120" t="s">
         <v>189</v>
       </c>
     </row>
@@ -10226,134 +10368,134 @@
   </cols>
   <sheetData>
     <row r="7" ht="40.5" spans="5:8">
-      <c r="E7" s="117"/>
-      <c r="F7" s="118" t="s">
+      <c r="E7" s="120"/>
+      <c r="F7" s="121" t="s">
         <v>190</v>
       </c>
-      <c r="G7" s="117" t="s">
+      <c r="G7" s="120" t="s">
         <v>191</v>
       </c>
-      <c r="H7" s="117" t="s">
+      <c r="H7" s="120" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="8" ht="48" customHeight="1" spans="5:8">
-      <c r="E8" s="117"/>
-      <c r="F8" s="119"/>
-      <c r="G8" s="117" t="s">
+      <c r="E8" s="120"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="120" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="117" t="s">
+      <c r="H8" s="120" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="9" ht="114" customHeight="1" spans="5:8">
-      <c r="E9" s="120" t="s">
+      <c r="E9" s="123" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="121" t="s">
         <v>196</v>
       </c>
-      <c r="G9" s="117" t="s">
+      <c r="G9" s="120" t="s">
         <v>197</v>
       </c>
-      <c r="H9" s="117" t="s">
+      <c r="H9" s="120" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="10" ht="54" spans="5:9">
-      <c r="E10" s="120"/>
-      <c r="F10" s="119"/>
-      <c r="G10" s="121" t="s">
+      <c r="E10" s="123"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="H10" s="122" t="s">
+      <c r="H10" s="125" t="s">
         <v>200</v>
       </c>
-      <c r="I10" s="124" t="s">
+      <c r="I10" s="127" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="11" ht="54" spans="5:9">
-      <c r="E11" s="123"/>
-      <c r="F11" s="124" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="121" t="s">
+      <c r="G11" s="124" t="s">
         <v>199</v>
       </c>
-      <c r="H11" s="122" t="s">
+      <c r="H11" s="125" t="s">
         <v>203</v>
       </c>
-      <c r="I11" s="127"/>
+      <c r="I11" s="130"/>
     </row>
     <row r="12" ht="54" spans="5:8">
-      <c r="E12" s="123"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="118" t="s">
+      <c r="E12" s="126"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="121" t="s">
         <v>204</v>
       </c>
-      <c r="H12" s="122" t="s">
+      <c r="H12" s="125" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" ht="121.5" spans="5:8">
-      <c r="E13" s="123"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="126" t="s">
+      <c r="E13" s="126"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="129" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="14" ht="79" customHeight="1" spans="5:8">
-      <c r="E14" s="123"/>
-      <c r="F14" s="125"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="117" t="s">
+      <c r="E14" s="126"/>
+      <c r="F14" s="128"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="120" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="15" ht="54" customHeight="1" spans="5:8">
-      <c r="E15" s="123"/>
-      <c r="F15" s="125"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="122" t="s">
+      <c r="E15" s="126"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="125" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="16" ht="55" customHeight="1" spans="5:8">
-      <c r="E16" s="123"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="117" t="s">
+      <c r="E16" s="126"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="120" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="17" ht="40.5" spans="5:8">
-      <c r="E17" s="123"/>
-      <c r="F17" s="120" t="s">
+      <c r="E17" s="126"/>
+      <c r="F17" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G17" s="120" t="s">
+      <c r="G17" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="H17" s="117" t="s">
+      <c r="H17" s="120" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="18" ht="81" spans="5:8">
-      <c r="E18" s="123"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="117" t="s">
+      <c r="E18" s="126"/>
+      <c r="F18" s="123"/>
+      <c r="G18" s="123"/>
+      <c r="H18" s="120" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="19" ht="27" spans="5:8">
-      <c r="E19" s="123"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="117" t="s">
+      <c r="E19" s="126"/>
+      <c r="F19" s="123"/>
+      <c r="G19" s="123"/>
+      <c r="H19" s="120" t="s">
         <v>214</v>
       </c>
     </row>
@@ -10392,581 +10534,581 @@
   </cols>
   <sheetData>
     <row r="1" ht="67" customHeight="1" spans="1:5">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="88" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="89" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="90" t="s">
         <v>217</v>
       </c>
-      <c r="D1" s="87" t="s">
+      <c r="D1" s="90" t="s">
         <v>218</v>
       </c>
-      <c r="E1" s="88"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89" t="s">
         <v>215</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="90" t="s">
         <v>220</v>
       </c>
-      <c r="E2" s="89"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" ht="57" customHeight="1" spans="1:5">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89" t="s">
         <v>221</v>
       </c>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="87" t="s">
+      <c r="D3" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="E3" s="89"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89" t="s">
         <v>224</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="94" t="s">
         <v>225</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="90" t="s">
         <v>226</v>
       </c>
-      <c r="E4" s="89"/>
+      <c r="E4" s="92"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="85"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="91" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="D5" s="87" t="s">
+      <c r="D5" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="E5" s="89"/>
+      <c r="E5" s="92"/>
     </row>
     <row r="6" ht="27" spans="1:5">
-      <c r="A6" s="85"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="91" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="94" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="90" t="s">
         <v>230</v>
       </c>
-      <c r="E6" s="89"/>
+      <c r="E6" s="92"/>
     </row>
     <row r="7" ht="54" spans="1:5">
-      <c r="A7" s="85"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="91" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="94" t="s">
         <v>231</v>
       </c>
-      <c r="D7" s="92" t="s">
+      <c r="D7" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="E7" s="87" t="s">
+      <c r="E7" s="90" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" ht="40.5" spans="1:5">
-      <c r="A8" s="85"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="93" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="96" t="s">
         <v>234</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="90" t="s">
         <v>235</v>
       </c>
-      <c r="E8" s="87" t="s">
+      <c r="E8" s="90" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" ht="94.5" spans="1:5">
-      <c r="A9" s="85"/>
-      <c r="B9" s="86" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="89" t="s">
         <v>237</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="90" t="s">
         <v>239</v>
       </c>
-      <c r="E9" s="87"/>
+      <c r="E9" s="90"/>
     </row>
     <row r="10" ht="81" spans="1:5">
-      <c r="A10" s="85"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="93" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="95" t="s">
         <v>241</v>
       </c>
-      <c r="E10" s="87"/>
+      <c r="E10" s="90"/>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:5">
-      <c r="A11" s="85"/>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="89" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="96" t="s">
         <v>243</v>
       </c>
-      <c r="D11" s="87" t="s">
+      <c r="D11" s="90" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="87"/>
+      <c r="E11" s="90"/>
     </row>
     <row r="12" ht="54" spans="1:5">
-      <c r="A12" s="85"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="93" t="s">
+      <c r="A12" s="88"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="87"/>
+      <c r="E12" s="90"/>
     </row>
     <row r="13" ht="54" spans="1:5">
-      <c r="A13" s="85"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="93" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="90" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="90"/>
     </row>
     <row r="14" ht="27" spans="1:5">
-      <c r="A14" s="85"/>
-      <c r="B14" s="86" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="89" t="s">
         <v>249</v>
       </c>
-      <c r="C14" s="93" t="s">
+      <c r="C14" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="90" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="87"/>
+      <c r="E14" s="90"/>
     </row>
     <row r="15" ht="63" customHeight="1" spans="1:5">
-      <c r="A15" s="85"/>
-      <c r="B15" s="94" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="93" t="s">
+      <c r="C15" s="96" t="s">
         <v>253</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="90" t="s">
         <v>254</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="90" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="16" ht="81" spans="1:5">
-      <c r="A16" s="85"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="93" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="D16" s="92" t="s">
+      <c r="D16" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="E16" s="87" t="s">
+      <c r="E16" s="90" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="17" customFormat="1" ht="190" customHeight="1" spans="1:5">
-      <c r="A17" s="85"/>
-      <c r="B17" s="86" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="96" t="s">
+      <c r="C17" s="99" t="s">
         <v>260</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="E17" s="87" t="s">
+      <c r="E17" s="90" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="18" customFormat="1" ht="60" customHeight="1" spans="1:5">
-      <c r="A18" s="85"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="87" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="90" t="s">
         <v>263</v>
       </c>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="90" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="19" ht="72" customHeight="1" spans="1:5">
-      <c r="A19" s="97" t="s">
+      <c r="A19" s="100" t="s">
         <v>265</v>
       </c>
-      <c r="B19" s="98" t="s">
+      <c r="B19" s="101" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="87" t="s">
+      <c r="C19" s="90" t="s">
         <v>267</v>
       </c>
-      <c r="D19" s="89" t="s">
+      <c r="D19" s="92" t="s">
         <v>268</v>
       </c>
-      <c r="E19" s="99"/>
+      <c r="E19" s="102"/>
     </row>
     <row r="20" ht="109" customHeight="1" spans="1:5">
-      <c r="A20" s="97"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="87" t="s">
+      <c r="A20" s="100"/>
+      <c r="B20" s="103"/>
+      <c r="C20" s="90" t="s">
         <v>269</v>
       </c>
-      <c r="D20" s="89" t="s">
+      <c r="D20" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="E20" s="101" t="s">
+      <c r="E20" s="104" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="21" ht="40.5" spans="1:5">
-      <c r="A21" s="97"/>
-      <c r="B21" s="102" t="s">
+      <c r="A21" s="100"/>
+      <c r="B21" s="105" t="s">
         <v>272</v>
       </c>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="104" t="s">
         <v>273</v>
       </c>
-      <c r="D21" s="87" t="s">
+      <c r="D21" s="90" t="s">
         <v>274</v>
       </c>
-      <c r="E21" s="103"/>
+      <c r="E21" s="106"/>
     </row>
     <row r="22" ht="121.5" spans="1:5">
-      <c r="A22" s="97"/>
-      <c r="B22" s="104"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="87" t="s">
+      <c r="A22" s="100"/>
+      <c r="B22" s="107"/>
+      <c r="C22" s="103"/>
+      <c r="D22" s="90" t="s">
         <v>275</v>
       </c>
-      <c r="E22" s="95"/>
+      <c r="E22" s="98"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="105" t="s">
+      <c r="A23" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="B23" s="106" t="s">
+      <c r="B23" s="109" t="s">
         <v>277</v>
       </c>
-      <c r="C23" s="87" t="s">
+      <c r="C23" s="90" t="s">
         <v>278</v>
       </c>
-      <c r="D23" s="96" t="s">
+      <c r="D23" s="99" t="s">
         <v>279</v>
       </c>
-      <c r="E23" s="85"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" ht="23" customHeight="1" spans="1:5">
-      <c r="A24" s="107"/>
-      <c r="B24" s="108"/>
-      <c r="C24" s="87" t="s">
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="90" t="s">
         <v>280</v>
       </c>
-      <c r="D24" s="96" t="s">
+      <c r="D24" s="99" t="s">
         <v>281</v>
       </c>
-      <c r="E24" s="85"/>
+      <c r="E24" s="88"/>
     </row>
     <row r="25" ht="27" spans="1:5">
-      <c r="A25" s="107"/>
-      <c r="B25" s="109" t="s">
+      <c r="A25" s="110"/>
+      <c r="B25" s="112" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="87" t="s">
+      <c r="C25" s="90" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="96" t="s">
+      <c r="D25" s="99" t="s">
         <v>284</v>
       </c>
-      <c r="E25" s="85"/>
+      <c r="E25" s="88"/>
     </row>
     <row r="26" ht="44" customHeight="1" spans="1:5">
-      <c r="A26" s="107"/>
-      <c r="B26" s="109" t="s">
+      <c r="A26" s="110"/>
+      <c r="B26" s="112" t="s">
         <v>285</v>
       </c>
-      <c r="C26" s="87" t="s">
+      <c r="C26" s="90" t="s">
         <v>286</v>
       </c>
-      <c r="D26" s="96" t="s">
+      <c r="D26" s="99" t="s">
         <v>287</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="89" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="107"/>
-      <c r="B27" s="106" t="s">
+      <c r="A27" s="110"/>
+      <c r="B27" s="109" t="s">
         <v>289</v>
       </c>
-      <c r="C27" s="87" t="s">
+      <c r="C27" s="90" t="s">
         <v>290</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D27" s="99" t="s">
         <v>291</v>
       </c>
-      <c r="E27" s="85"/>
+      <c r="E27" s="88"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="107"/>
-      <c r="B28" s="108"/>
-      <c r="C28" s="87" t="s">
+      <c r="A28" s="110"/>
+      <c r="B28" s="111"/>
+      <c r="C28" s="90" t="s">
         <v>292</v>
       </c>
-      <c r="D28" s="96" t="s">
+      <c r="D28" s="99" t="s">
         <v>293</v>
       </c>
-      <c r="E28" s="85"/>
+      <c r="E28" s="88"/>
     </row>
     <row r="29" ht="51" customHeight="1" spans="1:5">
-      <c r="A29" s="107"/>
-      <c r="B29" s="96" t="s">
+      <c r="A29" s="110"/>
+      <c r="B29" s="99" t="s">
         <v>294</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="99" t="s">
         <v>295</v>
       </c>
-      <c r="D29" s="96"/>
-      <c r="E29" s="85"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="88"/>
     </row>
     <row r="30" ht="94.5" spans="1:5">
-      <c r="A30" s="107"/>
-      <c r="B30" s="96" t="s">
+      <c r="A30" s="110"/>
+      <c r="B30" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="C30" s="96" t="s">
+      <c r="C30" s="99" t="s">
         <v>297</v>
       </c>
-      <c r="D30" s="96" t="s">
+      <c r="D30" s="99" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="85"/>
+      <c r="E30" s="88"/>
     </row>
     <row r="31" ht="36" customHeight="1" spans="1:5">
-      <c r="A31" s="107"/>
-      <c r="B31" s="86" t="s">
+      <c r="A31" s="110"/>
+      <c r="B31" s="89" t="s">
         <v>299</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="92" t="s">
         <v>300</v>
       </c>
-      <c r="D31" s="96" t="s">
+      <c r="D31" s="99" t="s">
         <v>301</v>
       </c>
-      <c r="E31" s="85"/>
+      <c r="E31" s="88"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="107"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86" t="s">
+      <c r="A32" s="110"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89" t="s">
         <v>302</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="99" t="s">
         <v>303</v>
       </c>
-      <c r="E32" s="85"/>
+      <c r="E32" s="88"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="107"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="96" t="s">
+      <c r="A33" s="110"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="99" t="s">
         <v>304</v>
       </c>
-      <c r="E33" s="85"/>
+      <c r="E33" s="88"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="107"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="96" t="s">
+      <c r="A34" s="110"/>
+      <c r="B34" s="89"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="99" t="s">
         <v>305</v>
       </c>
-      <c r="E34" s="85"/>
+      <c r="E34" s="88"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="107"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="96" t="s">
+      <c r="A35" s="110"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="89"/>
+      <c r="D35" s="99" t="s">
         <v>306</v>
       </c>
-      <c r="E35" s="85"/>
+      <c r="E35" s="88"/>
     </row>
     <row r="36" ht="44" customHeight="1" spans="1:5">
-      <c r="A36" s="107"/>
-      <c r="B36" s="110" t="s">
+      <c r="A36" s="110"/>
+      <c r="B36" s="113" t="s">
         <v>307</v>
       </c>
-      <c r="C36" s="96" t="s">
+      <c r="C36" s="99" t="s">
         <v>308</v>
       </c>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="114" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="86"/>
+      <c r="E36" s="89"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="107"/>
-      <c r="B37" s="86" t="s">
+      <c r="A37" s="110"/>
+      <c r="B37" s="89" t="s">
         <v>310</v>
       </c>
-      <c r="C37" s="89" t="s">
+      <c r="C37" s="92" t="s">
         <v>311</v>
       </c>
-      <c r="D37" s="96" t="s">
+      <c r="D37" s="99" t="s">
         <v>312</v>
       </c>
-      <c r="E37" s="85"/>
+      <c r="E37" s="88"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="107"/>
-      <c r="B38" s="44" t="s">
+      <c r="A38" s="110"/>
+      <c r="B38" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="C38" s="42" t="s">
+      <c r="C38" s="47" t="s">
         <v>314</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="99" t="s">
         <v>315</v>
       </c>
-      <c r="E38" s="85"/>
+      <c r="E38" s="88"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="107"/>
-      <c r="B39" s="86" t="s">
+      <c r="A39" s="110"/>
+      <c r="B39" s="89" t="s">
         <v>316</v>
       </c>
-      <c r="C39" s="89" t="s">
+      <c r="C39" s="92" t="s">
         <v>317</v>
       </c>
-      <c r="D39" s="96"/>
-      <c r="E39" s="85"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="88"/>
     </row>
     <row r="40" ht="40.5" spans="1:5">
-      <c r="A40" s="107"/>
-      <c r="B40" s="96" t="s">
+      <c r="A40" s="110"/>
+      <c r="B40" s="99" t="s">
         <v>318</v>
       </c>
-      <c r="C40" s="87" t="s">
+      <c r="C40" s="90" t="s">
         <v>319</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="99" t="s">
         <v>320</v>
       </c>
-      <c r="E40" s="85"/>
+      <c r="E40" s="88"/>
     </row>
     <row r="41" ht="46" customHeight="1" spans="1:5">
-      <c r="A41" s="107"/>
-      <c r="B41" s="96" t="s">
+      <c r="A41" s="110"/>
+      <c r="B41" s="99" t="s">
         <v>321</v>
       </c>
-      <c r="C41" s="87" t="s">
+      <c r="C41" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="D41" s="96"/>
-      <c r="E41" s="85"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="88"/>
     </row>
     <row r="42" ht="176" customHeight="1" spans="1:5">
-      <c r="A42" s="107"/>
-      <c r="B42" s="96" t="s">
+      <c r="A42" s="110"/>
+      <c r="B42" s="99" t="s">
         <v>323</v>
       </c>
-      <c r="C42" s="112" t="s">
+      <c r="C42" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="D42" s="96"/>
-      <c r="E42" s="85"/>
+      <c r="D42" s="99"/>
+      <c r="E42" s="88"/>
     </row>
     <row r="43" ht="47" customHeight="1" spans="1:5">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="108" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="113" t="s">
+      <c r="B43" s="116" t="s">
         <v>325</v>
       </c>
-      <c r="C43" s="114"/>
-      <c r="D43" s="96"/>
-      <c r="E43" s="85"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="99"/>
+      <c r="E43" s="88"/>
     </row>
     <row r="44" ht="94" customHeight="1" spans="1:5">
-      <c r="A44" s="107"/>
-      <c r="B44" s="96" t="s">
+      <c r="A44" s="110"/>
+      <c r="B44" s="99" t="s">
         <v>326</v>
       </c>
-      <c r="C44" s="115" t="s">
+      <c r="C44" s="118" t="s">
         <v>327</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="99" t="s">
         <v>328</v>
       </c>
-      <c r="E44" s="112" t="s">
+      <c r="E44" s="115" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="45" ht="98" customHeight="1" spans="1:5">
-      <c r="A45" s="107"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96" t="s">
+      <c r="A45" s="110"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="99"/>
+      <c r="D45" s="99" t="s">
         <v>330</v>
       </c>
-      <c r="E45" s="91" t="s">
+      <c r="E45" s="94" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="46" ht="40.5" spans="1:5">
-      <c r="A46" s="107"/>
-      <c r="B46" s="86" t="s">
+      <c r="A46" s="110"/>
+      <c r="B46" s="89" t="s">
         <v>332</v>
       </c>
-      <c r="C46" s="115" t="s">
+      <c r="C46" s="118" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="96" t="s">
+      <c r="D46" s="99" t="s">
         <v>334</v>
       </c>
-      <c r="E46" s="112" t="s">
+      <c r="E46" s="115" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="47" ht="67.5" spans="1:5">
-      <c r="A47" s="116"/>
-      <c r="B47" s="86"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="111" t="s">
+      <c r="A47" s="119"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="89"/>
+      <c r="D47" s="114" t="s">
         <v>336</v>
       </c>
-      <c r="E47" s="112" t="s">
+      <c r="E47" s="115" t="s">
         <v>337</v>
       </c>
     </row>
@@ -11019,404 +11161,404 @@
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:4">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>338</v>
       </c>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="78" t="s">
         <v>339</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="79" t="s">
         <v>340</v>
       </c>
-      <c r="D1" s="75"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" ht="44" customHeight="1" spans="1:4">
-      <c r="A2" s="74"/>
-      <c r="B2" s="77" t="s">
+      <c r="A2" s="77"/>
+      <c r="B2" s="80" t="s">
         <v>341</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="81" t="s">
         <v>342</v>
       </c>
-      <c r="D2" s="78"/>
+      <c r="D2" s="81"/>
     </row>
     <row r="3" ht="67.5" spans="1:4">
-      <c r="A3" s="74"/>
-      <c r="B3" s="77" t="s">
+      <c r="A3" s="77"/>
+      <c r="B3" s="80" t="s">
         <v>343</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="79" t="s">
         <v>344</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="81"/>
     </row>
     <row r="4" ht="71" customHeight="1" spans="1:4">
-      <c r="A4" s="74"/>
-      <c r="B4" s="77" t="s">
+      <c r="A4" s="77"/>
+      <c r="B4" s="80" t="s">
         <v>345</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="82" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="78"/>
+      <c r="D4" s="81"/>
     </row>
     <row r="5" ht="71" customHeight="1" spans="1:4">
-      <c r="A5" s="74"/>
-      <c r="B5" s="77" t="s">
+      <c r="A5" s="77"/>
+      <c r="B5" s="80" t="s">
         <v>347</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="79" t="s">
         <v>348</v>
       </c>
-      <c r="D5" s="78"/>
+      <c r="D5" s="81"/>
     </row>
     <row r="6" ht="90" customHeight="1" spans="1:4">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="80" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="83"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="80" t="s">
         <v>352</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="79" t="s">
         <v>353</v>
       </c>
-      <c r="D7" s="81" t="s">
+      <c r="D7" s="84" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="75"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="78"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="79" t="s">
         <v>355</v>
       </c>
-      <c r="D8" s="75" t="s">
+      <c r="D8" s="78" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="75"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="76" t="s">
+      <c r="A9" s="78"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="D9" s="77" t="s">
+      <c r="D9" s="80" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="75"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="76" t="s">
+      <c r="A10" s="78"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="79" t="s">
         <v>359</v>
       </c>
-      <c r="D10" s="77" t="s">
+      <c r="D10" s="80" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="11" ht="37" customHeight="1" spans="1:4">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="78"/>
+      <c r="B11" s="78" t="s">
         <v>361</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="79" t="s">
         <v>362</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="78" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="75"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="75" t="s">
+      <c r="A12" s="78"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="78" t="s">
         <v>364</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="85" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="13" ht="40.5" spans="1:4">
-      <c r="A13" s="75"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="83" t="s">
+      <c r="A13" s="78"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="86" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="14" ht="27" spans="1:4">
-      <c r="A14" s="75"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="83" t="s">
+      <c r="A14" s="78"/>
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="86" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="15" ht="67.5" spans="1:4">
-      <c r="A15" s="75"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="82" t="s">
+      <c r="A15" s="78"/>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="85" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="75"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="78" t="s">
+      <c r="A16" s="78"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="81" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="78" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="75"/>
-      <c r="B17" s="77" t="s">
+      <c r="A17" s="78"/>
+      <c r="B17" s="80" t="s">
         <v>369</v>
       </c>
-      <c r="C17" s="77" t="s">
+      <c r="C17" s="80" t="s">
         <v>370</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="83" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="75"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77" t="s">
+      <c r="A18" s="78"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80" t="s">
         <v>330</v>
       </c>
-      <c r="D18" s="80"/>
+      <c r="D18" s="83"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="75"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="77" t="s">
+      <c r="A19" s="78"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80" t="s">
         <v>372</v>
       </c>
-      <c r="D19" s="80"/>
+      <c r="D19" s="83"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="75"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77" t="s">
+      <c r="A20" s="78"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80" t="s">
         <v>373</v>
       </c>
-      <c r="D20" s="80"/>
+      <c r="D20" s="83"/>
     </row>
     <row r="21" ht="81" spans="1:4">
-      <c r="A21" s="75"/>
-      <c r="B21" s="75" t="s">
+      <c r="A21" s="78"/>
+      <c r="B21" s="78" t="s">
         <v>374</v>
       </c>
-      <c r="C21" s="78" t="s">
+      <c r="C21" s="81" t="s">
         <v>375</v>
       </c>
-      <c r="D21" s="75" t="s">
+      <c r="D21" s="78" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="22" ht="85" customHeight="1" spans="1:4">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="79" t="s">
         <v>378</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="79" t="s">
         <v>379</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="78"/>
     </row>
     <row r="23" ht="65" customHeight="1" spans="1:4">
-      <c r="A23" s="75"/>
-      <c r="B23" s="75" t="s">
+      <c r="A23" s="78"/>
+      <c r="B23" s="78" t="s">
         <v>380</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="79" t="s">
         <v>381</v>
       </c>
-      <c r="D23" s="76"/>
+      <c r="D23" s="79"/>
     </row>
     <row r="24" ht="67.5" spans="1:4">
-      <c r="A24" s="75"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="76" t="s">
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="79" t="s">
         <v>382</v>
       </c>
-      <c r="D24" s="76"/>
+      <c r="D24" s="79"/>
     </row>
     <row r="25" ht="57" customHeight="1" spans="1:4">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75" t="s">
+      <c r="A25" s="78"/>
+      <c r="B25" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="C25" s="84" t="s">
+      <c r="C25" s="87" t="s">
         <v>384</v>
       </c>
-      <c r="D25" s="84"/>
+      <c r="D25" s="87"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75" t="s">
+      <c r="A26" s="78"/>
+      <c r="B26" s="78" t="s">
         <v>385</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76" t="s">
+      <c r="C26" s="79"/>
+      <c r="D26" s="79" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="75"/>
-      <c r="B27" s="77" t="s">
+      <c r="A27" s="78"/>
+      <c r="B27" s="80" t="s">
         <v>387</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="82" t="s">
         <v>388</v>
       </c>
-      <c r="D27" s="76" t="s">
+      <c r="D27" s="79" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="28" ht="35" customHeight="1" spans="1:4">
-      <c r="A28" s="75"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="79" t="s">
+      <c r="A28" s="78"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="82" t="s">
         <v>390</v>
       </c>
-      <c r="D28" s="76" t="s">
+      <c r="D28" s="79" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="29" ht="28" customHeight="1" spans="1:4">
-      <c r="A29" s="75"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="79" t="s">
+      <c r="A29" s="78"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="82" t="s">
         <v>392</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="79" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="30" ht="27" spans="1:4">
-      <c r="A30" s="75"/>
-      <c r="B30" s="75" t="s">
+      <c r="A30" s="78"/>
+      <c r="B30" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="C30" s="76" t="s">
+      <c r="C30" s="79" t="s">
         <v>395</v>
       </c>
-      <c r="D30" s="76"/>
+      <c r="D30" s="79"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="75" t="s">
+      <c r="A31" s="78" t="s">
         <v>396</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="78" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="79" t="s">
         <v>398</v>
       </c>
-      <c r="D31" s="76"/>
+      <c r="D31" s="79"/>
     </row>
     <row r="32" ht="54" spans="1:4">
-      <c r="A32" s="75"/>
-      <c r="B32" s="75" t="s">
+      <c r="A32" s="78"/>
+      <c r="B32" s="78" t="s">
         <v>399</v>
       </c>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="79" t="s">
         <v>400</v>
       </c>
-      <c r="D32" s="76" t="s">
+      <c r="D32" s="79" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="33" ht="108" spans="1:4">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="76" t="s">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="79" t="s">
         <v>402</v>
       </c>
-      <c r="D33" s="76" t="s">
+      <c r="D33" s="79" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="34" ht="40.5" spans="1:4">
-      <c r="A34" s="75"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="76" t="s">
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="79" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="35" ht="27" spans="1:4">
-      <c r="A35" s="75"/>
-      <c r="B35" s="75" t="s">
+      <c r="A35" s="78"/>
+      <c r="B35" s="78" t="s">
         <v>406</v>
       </c>
-      <c r="C35" s="76" t="s">
+      <c r="C35" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="D35" s="76" t="s">
+      <c r="D35" s="79" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="36" ht="81" spans="1:4">
-      <c r="A36" s="75"/>
-      <c r="B36" s="75" t="s">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="C36" s="76" t="s">
+      <c r="C36" s="79" t="s">
         <v>410</v>
       </c>
-      <c r="D36" s="76" t="s">
+      <c r="D36" s="79" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="37" ht="50" customHeight="1" spans="1:4">
-      <c r="A37" s="75"/>
-      <c r="B37" s="75" t="s">
+      <c r="A37" s="78"/>
+      <c r="B37" s="78" t="s">
         <v>412</v>
       </c>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="78" t="s">
         <v>413</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="78"/>
     </row>
     <row r="38" ht="50" customHeight="1" spans="1:4">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75" t="s">
+      <c r="A38" s="78"/>
+      <c r="B38" s="78" t="s">
         <v>414</v>
       </c>
-      <c r="C38" s="75" t="s">
+      <c r="C38" s="78" t="s">
         <v>415</v>
       </c>
-      <c r="D38" s="75" t="s">
+      <c r="D38" s="78" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="39" ht="81" spans="1:4">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="79" t="s">
+      <c r="A39" s="78"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="82" t="s">
         <v>417</v>
       </c>
-      <c r="D39" s="79" t="s">
+      <c r="D39" s="82" t="s">
         <v>418</v>
       </c>
     </row>
@@ -11463,107 +11605,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="73" t="s">
         <v>419</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="74" t="s">
         <v>420</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="46" t="s">
         <v>421</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="46" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="70" t="s">
+      <c r="A2" s="73"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="46" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="46" t="s">
         <v>424</v>
       </c>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="46" t="s">
         <v>425</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
     </row>
     <row r="5" ht="226" customHeight="1" spans="1:9">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74" t="s">
         <v>426</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="45" t="s">
         <v>427</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D5" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="73" t="s">
         <v>429</v>
       </c>
-      <c r="F5" s="72" t="s">
+      <c r="F5" s="75" t="s">
         <v>430</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" ht="40.5" spans="1:6">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="71" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="69"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="74"/>
     </row>
     <row r="7" ht="128" customHeight="1" spans="1:6">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="71" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="45" t="s">
         <v>434</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="F7" s="71" t="s">
+      <c r="F7" s="45" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:6">
-      <c r="A8" s="68"/>
-      <c r="B8" s="73" t="s">
+      <c r="A8" s="73"/>
+      <c r="B8" s="76" t="s">
         <v>437</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="70"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/002.Artificial_Intelligence/汇总.xlsx
+++ b/002.Artificial_Intelligence/汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="12"/>
+    <workbookView windowWidth="20752" windowHeight="9555" tabRatio="1000" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="0.AI体系" sheetId="10" r:id="rId1"/>
@@ -19,8 +19,7 @@
     <sheet name="4.cv2" sheetId="12" r:id="rId10"/>
     <sheet name="5.推荐" sheetId="16" r:id="rId11"/>
     <sheet name="6.深度基础" sheetId="13" r:id="rId12"/>
-    <sheet name="7.tensor_flow" sheetId="17" r:id="rId13"/>
-    <sheet name="Sheet1" sheetId="18" r:id="rId14"/>
+    <sheet name="7.tf_paddle" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="906">
   <si>
     <t>artificial    intelligence
 读：阿尔提（费学） 赢特ne（jin ce）</t>
@@ -4650,6 +4649,147 @@
   </si>
   <si>
     <t>加载与保存</t>
+  </si>
+  <si>
+    <t>数据读取</t>
+  </si>
+  <si>
+    <t>读取csv文件和img文件</t>
+  </si>
+  <si>
+    <t>PaddlePaddle</t>
+  </si>
+  <si>
+    <t>Paddle</t>
+  </si>
+  <si>
+    <t>Paddle对标的是Tensorflow1.x，使用方式类似</t>
+  </si>
+  <si>
+    <t>Fluid</t>
+  </si>
+  <si>
+    <t>类似于tf的flow，数据数据流转的方向，数据执行的流程</t>
+  </si>
+  <si>
+    <t>基本概念</t>
+  </si>
+  <si>
+    <t>Layer</t>
+  </si>
+  <si>
+    <t>它其实就op，独立的计算逻辑都 在 layer 模块上面。
+算子</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Program 的作用是存储网络结构，
+相当于tf里面的图</t>
+  </si>
+  <si>
+    <t>它也有默认程序
+默认程序fluid.default_main_program()</t>
+  </si>
+  <si>
+    <t>Executor</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">和tensorflow的 Session一样。
+exe.run
+# 和tensorflow有点像，但是不一样。
+# tensorflow 是选择要运行的op,其它op不会执行。
+# 而这里是：“选择要哪个op的执行结果”
+# </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当exe.run运行program时，当前program中的所有op全都会执行</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+#而这里选择要 要哪个res的执行结果，所以返回的是它的结果
+#返回列表套数组</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">参数初始化：执行fluid.default_startup_program
+</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Program 保存模型结构
+Scope是保存模型参数的，就点像python的字典。</t>
+  </si>
+  <si>
+    <t>模型 = 网络 结构 + 参数</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>指定 在哪个设备上面运行：
+place =fluid.CPUPlace()  #指定CPU执行
+place =fluid.CUDAPlace(0) #指定GPU执行 0表示设备编号</t>
+  </si>
+  <si>
+    <t>Optimizer</t>
+  </si>
+  <si>
+    <t>用来对损失函数做梯度下降优化</t>
+  </si>
+  <si>
+    <t>AIStudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一个免费的开发平台，可以在上面执行自己写的代码
+有很多公开 的项目和推荐的项目，可以拿来使用
+</t>
+  </si>
+  <si>
+    <t>地址：
+https://aistudio.baidu.com/projectoverview/private/1
+  liheng_13688007165
+  liheng520
+  //=============
+  13688007165/liheng_liheng
+  liheng520</t>
+  </si>
+  <si>
+    <t>原始读取器</t>
+  </si>
+  <si>
+    <t>随机读取器</t>
+  </si>
+  <si>
+    <t>批量读取器</t>
+  </si>
+  <si>
+    <t>模型保存</t>
+  </si>
+  <si>
+    <t>模型加载</t>
   </si>
 </sst>
 </file>
@@ -4889,12 +5029,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.05"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -5173,7 +5319,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -5191,7 +5337,31 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5204,9 +5374,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -5290,19 +5458,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -5456,7 +5611,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5468,234 +5623,255 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="184">
+  <cellXfs count="191">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf 